--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>bibliografia_titulo</t>
   </si>
   <si>
+    <t>paginas</t>
+  </si>
+  <si>
     <t>pergunta</t>
   </si>
   <si>
@@ -43,22 +46,22 @@
     <t>Sobre a influência da geografia na política russa</t>
   </si>
   <si>
+    <t>A planura do território russo contribuiu para sua vulnerabilidade histórica a invasões.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>A falta de barreiras naturais sempre foi um fator de insegurança estratégica para a Rússia.</t>
+  </si>
+  <si>
     <t>Sobre a expansão territorial</t>
   </si>
   <si>
-    <t>A planura do território russo contribuiu para sua vulnerabilidade histórica a invasões.</t>
-  </si>
-  <si>
     <t>A conquista da Sibéria foi uma das principais causas do declínio do império russo.</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>A falta de barreiras naturais sempre foi um fator de insegurança estratégica para a Rússia.</t>
   </si>
   <si>
     <t>Na verdade, a conquista da Sibéria foi essencial para o fortalecimento e expansão do império russo.</t>
@@ -67,8 +70,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,10 +83,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,34 +112,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -180,69 +219,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -266,54 +307,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -323,7 +363,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -332,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -349,10 +389,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -381,7 +421,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -394,13 +434,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -418,18 +457,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -447,50 +499,59 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="H3" s="5">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -40,7 +40,7 @@
     <t>ano_prova</t>
   </si>
   <si>
-    <t>Geopolítica da Rússia</t>
+    <t>Vingança da Geografia</t>
   </si>
   <si>
     <t>Sobre a influência da geografia na política russa</t>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -136,21 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -467,14 +476,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -503,55 +512,55 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>bibliografia_titulo</t>
   </si>
@@ -142,12 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -155,9 +155,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -470,20 +467,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -512,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -534,11 +531,11 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,7 +557,137 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$366</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3944,7 +3944,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3957,16 +3957,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3982,15 +3978,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4002,15 +3998,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A306" activeCellId="0" sqref="306:366"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C159" activeCellId="0" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4024,7 +4126,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4090,7 +4192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4110,7 +4212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4130,7 +4232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4150,7 +4252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4170,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4190,7 +4292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4210,7 +4312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4310,7 +4412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4350,7 +4452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4430,7 +4532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -4450,7 +4552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4470,7 +4572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4490,7 +4592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4510,7 +4612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4530,7 +4632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4652,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -4570,7 +4672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -4610,7 +4712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4732,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4650,7 +4752,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4670,7 +4772,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -4690,7 +4792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +4812,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4730,7 +4832,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4852,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4790,7 +4892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4810,7 +4912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -4830,7 +4932,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4850,7 +4952,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -4870,7 +4972,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -4930,7 +5032,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -4950,7 +5052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +5072,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -4990,7 +5092,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +5112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5132,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -5050,7 +5152,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -5090,7 +5192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -5110,7 +5212,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -5130,7 +5232,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5252,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -5170,7 +5272,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -5190,7 +5292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5210,7 +5312,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -5230,7 +5332,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -5250,7 +5352,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -5270,7 +5372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -5292,7 +5394,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -5314,7 +5416,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5336,7 +5438,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5460,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5380,7 +5482,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -5402,7 +5504,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -5424,7 +5526,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +5548,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -5468,7 +5570,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -5490,7 +5592,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -5512,7 +5614,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5636,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -5556,7 +5658,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -5578,7 +5680,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -5600,7 +5702,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -5622,7 +5724,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -5644,7 +5746,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -5666,7 +5768,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5688,7 +5790,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -5710,7 +5812,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -5732,7 +5834,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -5754,7 +5856,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -5776,7 +5878,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +5900,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -5820,7 +5922,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -5842,7 +5944,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -5864,7 +5966,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -5886,7 +5988,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -5908,7 +6010,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +6032,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -5952,7 +6054,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -5974,7 +6076,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -5996,7 +6098,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -6018,7 +6120,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -6040,7 +6142,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -6062,7 +6164,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -6084,7 +6186,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -6106,7 +6208,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -6128,7 +6230,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -6150,7 +6252,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -6172,7 +6274,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -6192,7 +6294,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -6212,7 +6314,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -6232,7 +6334,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -6252,7 +6354,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -6272,7 +6374,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -6292,7 +6394,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
@@ -6312,7 +6414,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -6332,7 +6434,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -6352,7 +6454,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -6372,7 +6474,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
@@ -6392,7 +6494,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -6412,7 +6514,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -6432,7 +6534,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -6452,7 +6554,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
@@ -6472,7 +6574,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -6492,7 +6594,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -6512,7 +6614,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -6532,7 +6634,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -6592,7 +6694,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -6612,7 +6714,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6734,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -6652,7 +6754,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -6672,7 +6774,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -6712,7 +6814,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -6732,7 +6834,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6874,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -6792,7 +6894,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -6812,7 +6914,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -6892,7 +6994,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -6912,7 +7014,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -6932,7 +7034,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -6952,7 +7054,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -6972,7 +7074,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -6992,7 +7094,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -7032,7 +7134,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -7052,7 +7154,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -7072,7 +7174,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -7092,7 +7194,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
@@ -7112,7 +7214,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -7132,7 +7234,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +7254,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>8</v>
       </c>
@@ -7173,7 +7275,7 @@
       </c>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>8</v>
       </c>
@@ -7194,7 +7296,7 @@
       </c>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
@@ -7215,7 +7317,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7338,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -7258,1774 +7360,1774 @@
       <c r="G157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B158" s="0" t="s">
+      <c r="A158" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G158" s="0" t="s">
+      <c r="G158" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H158" s="0" t="s">
+      <c r="H158" s="3" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B159" s="0" t="s">
+      <c r="A159" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="F159" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="G159" s="0" t="s">
+      <c r="G159" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H159" s="0" t="s">
+      <c r="H159" s="3" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B160" s="0" t="s">
+      <c r="A160" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="G160" s="0" t="s">
+      <c r="G160" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H160" s="0" t="s">
+      <c r="H160" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B161" s="0" t="s">
+      <c r="A161" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="G161" s="0" t="s">
+      <c r="G161" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H161" s="0" t="s">
+      <c r="H161" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B162" s="0" t="s">
+      <c r="A162" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G162" s="0" t="s">
+      <c r="G162" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H162" s="0" t="s">
+      <c r="H162" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B163" s="0" t="s">
+      <c r="A163" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="G163" s="0" t="s">
+      <c r="G163" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="H163" s="3" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B164" s="0" t="s">
+      <c r="A164" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G164" s="0" t="s">
+      <c r="G164" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H164" s="0" t="s">
+      <c r="H164" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B165" s="0" t="s">
+      <c r="A165" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="E165" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G165" s="0" t="s">
+      <c r="G165" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H165" s="0" t="s">
+      <c r="H165" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B166" s="0" t="s">
+      <c r="A166" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="E166" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="F166" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="G166" s="0" t="s">
+      <c r="G166" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H166" s="0" t="s">
+      <c r="H166" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B167" s="0" t="s">
+      <c r="A167" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="E167" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="F167" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="G167" s="0" t="s">
+      <c r="G167" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H167" s="0" t="s">
+      <c r="H167" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B168" s="0" t="s">
+      <c r="A168" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="F168" s="0" t="s">
+      <c r="F168" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="G168" s="0" t="s">
+      <c r="G168" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H168" s="0" t="s">
+      <c r="H168" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B169" s="0" t="s">
+      <c r="A169" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="G169" s="0" t="s">
+      <c r="G169" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H169" s="0" t="s">
+      <c r="H169" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B170" s="0" t="s">
+      <c r="A170" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="E170" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B171" s="0" t="s">
+      <c r="A171" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E171" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B172" s="0" t="s">
+      <c r="A172" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="E172" s="0" t="s">
+      <c r="E172" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="G172" s="0"/>
-      <c r="H172" s="0"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B173" s="0" t="s">
+      <c r="A173" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E173" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F173" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B174" s="0" t="s">
+      <c r="A174" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="E174" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="G174" s="0"/>
-      <c r="H174" s="0"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B175" s="0" t="s">
+      <c r="A175" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="E175" s="0" t="s">
+      <c r="E175" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="F175" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B176" s="0" t="s">
+      <c r="A176" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E176" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="F176" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G176" s="0"/>
-      <c r="H176" s="0"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B177" s="0" t="s">
+      <c r="A177" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="E177" s="0" t="s">
+      <c r="E177" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F177" s="0" t="s">
+      <c r="F177" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="G177" s="0"/>
-      <c r="H177" s="0"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B178" s="0" t="s">
+      <c r="A178" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="E178" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F178" s="0" t="s">
+      <c r="F178" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B179" s="0" t="s">
+      <c r="A179" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="E179" s="0" t="s">
+      <c r="E179" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="F179" s="0" t="s">
+      <c r="F179" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="G179" s="0"/>
-      <c r="H179" s="0"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B180" s="0" t="s">
+      <c r="A180" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="E180" s="0" t="s">
+      <c r="E180" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F180" s="0" t="s">
+      <c r="F180" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="A181" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="G181" s="0"/>
-      <c r="H181" s="0"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B182" s="0" t="s">
+      <c r="A182" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E182" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F182" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G182" s="0"/>
-      <c r="H182" s="0"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B183" s="0" t="s">
+      <c r="A183" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F183" s="0" t="s">
+      <c r="F183" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="G183" s="0"/>
-      <c r="H183" s="0"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B184" s="0" t="s">
+      <c r="A184" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E184" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F184" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="G184" s="0"/>
-      <c r="H184" s="0"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="A185" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="E185" s="0" t="s">
+      <c r="E185" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F185" s="0" t="s">
+      <c r="F185" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="G185" s="0"/>
-      <c r="H185" s="0"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B186" s="0" t="s">
+      <c r="A186" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E186" s="0" t="s">
+      <c r="E186" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F186" s="0" t="s">
+      <c r="F186" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G186" s="0"/>
-      <c r="H186" s="0"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B187" s="0" t="s">
+      <c r="A187" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F187" s="0" t="s">
+      <c r="F187" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="G187" s="0"/>
-      <c r="H187" s="0"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B188" s="0" t="s">
+      <c r="A188" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="E189" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F189" s="0" t="s">
+      <c r="F189" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="A190" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="E190" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F190" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G190" s="0"/>
-      <c r="H190" s="0"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B191" s="0" t="s">
+      <c r="A191" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E191" s="0" t="s">
+      <c r="E191" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F191" s="0" t="s">
+      <c r="F191" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B192" s="0" t="s">
+      <c r="A192" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="F192" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="G192" s="0"/>
-      <c r="H192" s="0"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B193" s="0" t="s">
+      <c r="A193" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="G193" s="0"/>
-      <c r="H193" s="0"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B194" s="0" t="s">
+      <c r="A194" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="G194" s="0"/>
-      <c r="H194" s="0"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B195" s="0" t="s">
+      <c r="A195" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="G195" s="0"/>
-      <c r="H195" s="0"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B196" s="0" t="s">
+      <c r="A196" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G196" s="0"/>
-      <c r="H196" s="0"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B197" s="0" t="s">
+      <c r="A197" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B198" s="0" t="s">
+      <c r="A198" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="G198" s="0"/>
-      <c r="H198" s="0"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B199" s="0" t="s">
+      <c r="A199" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B200" s="0" t="s">
+      <c r="A200" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="F200" s="0" t="s">
+      <c r="F200" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="G200" s="0"/>
-      <c r="H200" s="0"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B201" s="0" t="s">
+      <c r="A201" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F201" s="0" t="s">
+      <c r="F201" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="G201" s="0"/>
-      <c r="H201" s="0"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B202" s="0" t="s">
+      <c r="A202" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G202" s="0"/>
-      <c r="H202" s="0"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B203" s="0" t="s">
+      <c r="A203" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F203" s="0" t="s">
+      <c r="F203" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B204" s="0" t="s">
+      <c r="A204" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D204" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F204" s="0" t="s">
+      <c r="F204" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="G204" s="0"/>
-      <c r="H204" s="0"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B205" s="0" t="s">
+      <c r="A205" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B206" s="0" t="s">
+      <c r="A206" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="F206" s="0" t="s">
+      <c r="F206" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="G206" s="0"/>
-      <c r="H206" s="0"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B207" s="0" t="s">
+      <c r="A207" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="F207" s="0" t="s">
+      <c r="F207" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="G207" s="0"/>
-      <c r="H207" s="0"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B208" s="0" t="s">
+      <c r="A208" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F208" s="0" t="s">
+      <c r="F208" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="G208" s="0"/>
-      <c r="H208" s="0"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B209" s="0" t="s">
+      <c r="A209" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="F209" s="0" t="s">
+      <c r="F209" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B210" s="0" t="s">
+      <c r="A210" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="F210" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B211" s="0" t="s">
+      <c r="A211" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F211" s="0" t="s">
+      <c r="F211" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G211" s="0"/>
-      <c r="H211" s="0"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B212" s="0" t="s">
+      <c r="A212" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="F212" s="0" t="s">
+      <c r="F212" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="G212" s="0"/>
-      <c r="H212" s="0"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B213" s="0" t="s">
+      <c r="A213" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="F213" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="G213" s="0"/>
-      <c r="H213" s="0"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B214" s="0" t="s">
+      <c r="A214" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D214" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="F214" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B215" s="0" t="s">
+      <c r="A215" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="F215" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B216" s="0" t="s">
+      <c r="A216" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B217" s="0" t="s">
+      <c r="A217" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D217" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="F217" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B218" s="0" t="s">
+      <c r="A218" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D218" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F218" s="0" t="s">
+      <c r="F218" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="G218" s="0"/>
-      <c r="H218" s="0"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B219" s="0" t="s">
+      <c r="A219" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="F219" s="0" t="s">
+      <c r="F219" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B220" s="0" t="s">
+      <c r="A220" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F220" s="0" t="s">
+      <c r="F220" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="G220" s="0" t="s">
+      <c r="G220" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H220" s="0" t="s">
+      <c r="H220" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B221" s="0" t="s">
+      <c r="A221" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="F221" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B222" s="0" t="s">
+      <c r="A222" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="F222" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B223" s="0" t="s">
+      <c r="A223" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F223" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="G223" s="0"/>
-      <c r="H223" s="0"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B224" s="0" t="s">
+      <c r="A224" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="F224" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B225" s="0" t="s">
+      <c r="A225" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="F225" s="0" t="s">
+      <c r="F225" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B226" s="0" t="s">
+      <c r="A226" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="F226" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="G226" s="0"/>
-      <c r="H226" s="0"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B227" s="0" t="s">
+      <c r="A227" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="D227" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="F227" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="G227" s="0"/>
-      <c r="H227" s="0"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B228" s="0" t="s">
+      <c r="A228" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F228" s="0" t="s">
+      <c r="F228" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="G228" s="0"/>
-      <c r="H228" s="0"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B229" s="0" t="s">
+      <c r="A229" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="F229" s="0" t="s">
+      <c r="F229" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="G229" s="0"/>
-      <c r="H229" s="0"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B230" s="0" t="s">
+      <c r="A230" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="D230" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="F230" s="0" t="s">
+      <c r="F230" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="G230" s="0"/>
-      <c r="H230" s="0"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B231" s="0" t="s">
+      <c r="A231" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="D231" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="F231" s="0" t="s">
+      <c r="F231" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="G231" s="0"/>
-      <c r="H231" s="0"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B232" s="0" t="s">
+      <c r="A232" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="F232" s="0" t="s">
+      <c r="F232" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="G232" s="0"/>
-      <c r="H232" s="0"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B233" s="0" t="s">
+      <c r="A233" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="D233" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="F233" s="0" t="s">
+      <c r="F233" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="G233" s="0"/>
-      <c r="H233" s="0"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B234" s="0" t="s">
+      <c r="A234" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="D234" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="E234" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="F234" s="0" t="s">
+      <c r="F234" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="G234" s="0"/>
-      <c r="H234" s="0"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B235" s="0" t="s">
+      <c r="A235" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="D235" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="E235" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="F235" s="0" t="s">
+      <c r="F235" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="G235" s="0"/>
-      <c r="H235" s="0"/>
-    </row>
-    <row r="236" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>637</v>
       </c>
@@ -9046,7 +9148,7 @@
       </c>
       <c r="AMJ236" s="3"/>
     </row>
-    <row r="237" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>637</v>
       </c>
@@ -9067,7 +9169,7 @@
       </c>
       <c r="AMJ237" s="3"/>
     </row>
-    <row r="238" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>637</v>
       </c>
@@ -9088,7 +9190,7 @@
       </c>
       <c r="AMJ238" s="3"/>
     </row>
-    <row r="239" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>637</v>
       </c>
@@ -9109,7 +9211,7 @@
       </c>
       <c r="AMJ239" s="3"/>
     </row>
-    <row r="240" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>637</v>
       </c>
@@ -9130,7 +9232,7 @@
       </c>
       <c r="AMJ240" s="3"/>
     </row>
-    <row r="241" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>637</v>
       </c>
@@ -9151,7 +9253,7 @@
       </c>
       <c r="AMJ241" s="3"/>
     </row>
-    <row r="242" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
         <v>637</v>
       </c>
@@ -9172,7 +9274,7 @@
       </c>
       <c r="AMJ242" s="3"/>
     </row>
-    <row r="243" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>637</v>
       </c>
@@ -9193,7 +9295,7 @@
       </c>
       <c r="AMJ243" s="3"/>
     </row>
-    <row r="244" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
         <v>637</v>
       </c>
@@ -9214,7 +9316,7 @@
       </c>
       <c r="AMJ244" s="3"/>
     </row>
-    <row r="245" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
         <v>637</v>
       </c>
@@ -9235,7 +9337,7 @@
       </c>
       <c r="AMJ245" s="3"/>
     </row>
-    <row r="246" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
         <v>637</v>
       </c>
@@ -9256,7 +9358,7 @@
       </c>
       <c r="AMJ246" s="3"/>
     </row>
-    <row r="247" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>637</v>
       </c>
@@ -9277,7 +9379,7 @@
       </c>
       <c r="AMJ247" s="3"/>
     </row>
-    <row r="248" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>637</v>
       </c>
@@ -9298,7 +9400,7 @@
       </c>
       <c r="AMJ248" s="3"/>
     </row>
-    <row r="249" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
         <v>637</v>
       </c>
@@ -9319,7 +9421,7 @@
       </c>
       <c r="AMJ249" s="3"/>
     </row>
-    <row r="250" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
         <v>637</v>
       </c>
@@ -9340,7 +9442,7 @@
       </c>
       <c r="AMJ250" s="3"/>
     </row>
-    <row r="251" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
         <v>637</v>
       </c>
@@ -9361,7 +9463,7 @@
       </c>
       <c r="AMJ251" s="3"/>
     </row>
-    <row r="252" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
         <v>637</v>
       </c>
@@ -9382,7 +9484,7 @@
       </c>
       <c r="AMJ252" s="3"/>
     </row>
-    <row r="253" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
         <v>637</v>
       </c>
@@ -9403,7 +9505,7 @@
       </c>
       <c r="AMJ253" s="3"/>
     </row>
-    <row r="254" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>637</v>
       </c>
@@ -9424,7 +9526,7 @@
       </c>
       <c r="AMJ254" s="3"/>
     </row>
-    <row r="255" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
         <v>637</v>
       </c>
@@ -9445,7 +9547,7 @@
       </c>
       <c r="AMJ255" s="3"/>
     </row>
-    <row r="256" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
         <v>637</v>
       </c>
@@ -9466,7 +9568,7 @@
       </c>
       <c r="AMJ256" s="3"/>
     </row>
-    <row r="257" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>637</v>
       </c>
@@ -9487,7 +9589,7 @@
       </c>
       <c r="AMJ257" s="3"/>
     </row>
-    <row r="258" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
         <v>637</v>
       </c>
@@ -9508,7 +9610,7 @@
       </c>
       <c r="AMJ258" s="3"/>
     </row>
-    <row r="259" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
         <v>637</v>
       </c>
@@ -9529,7 +9631,7 @@
       </c>
       <c r="AMJ259" s="3"/>
     </row>
-    <row r="260" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>637</v>
       </c>
@@ -9550,7 +9652,7 @@
       </c>
       <c r="AMJ260" s="3"/>
     </row>
-    <row r="261" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>637</v>
       </c>
@@ -9571,7 +9673,7 @@
       </c>
       <c r="AMJ261" s="3"/>
     </row>
-    <row r="262" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
         <v>637</v>
       </c>
@@ -9592,7 +9694,7 @@
       </c>
       <c r="AMJ262" s="3"/>
     </row>
-    <row r="263" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
         <v>637</v>
       </c>
@@ -9613,7 +9715,7 @@
       </c>
       <c r="AMJ263" s="3"/>
     </row>
-    <row r="264" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
         <v>637</v>
       </c>
@@ -9634,7 +9736,7 @@
       </c>
       <c r="AMJ264" s="3"/>
     </row>
-    <row r="265" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
         <v>637</v>
       </c>
@@ -9655,7 +9757,7 @@
       </c>
       <c r="AMJ265" s="3"/>
     </row>
-    <row r="266" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
         <v>637</v>
       </c>
@@ -9676,7 +9778,7 @@
       </c>
       <c r="AMJ266" s="3"/>
     </row>
-    <row r="267" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
         <v>637</v>
       </c>
@@ -9697,7 +9799,7 @@
       </c>
       <c r="AMJ267" s="3"/>
     </row>
-    <row r="268" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
         <v>637</v>
       </c>
@@ -9724,7 +9826,7 @@
       </c>
       <c r="AMJ268" s="3"/>
     </row>
-    <row r="269" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
         <v>637</v>
       </c>
@@ -9751,7 +9853,7 @@
       </c>
       <c r="AMJ269" s="3"/>
     </row>
-    <row r="270" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
         <v>637</v>
       </c>
@@ -9772,7 +9874,7 @@
       </c>
       <c r="AMJ270" s="3"/>
     </row>
-    <row r="271" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
         <v>637</v>
       </c>
@@ -9793,7 +9895,7 @@
       </c>
       <c r="AMJ271" s="3"/>
     </row>
-    <row r="272" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
         <v>637</v>
       </c>
@@ -9814,7 +9916,7 @@
       </c>
       <c r="AMJ272" s="3"/>
     </row>
-    <row r="273" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
         <v>637</v>
       </c>
@@ -9835,7 +9937,7 @@
       </c>
       <c r="AMJ273" s="3"/>
     </row>
-    <row r="274" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
         <v>637</v>
       </c>
@@ -9856,7 +9958,7 @@
       </c>
       <c r="AMJ274" s="3"/>
     </row>
-    <row r="275" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
         <v>637</v>
       </c>
@@ -9877,7 +9979,7 @@
       </c>
       <c r="AMJ275" s="3"/>
     </row>
-    <row r="276" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
         <v>637</v>
       </c>
@@ -9898,7 +10000,7 @@
       </c>
       <c r="AMJ276" s="3"/>
     </row>
-    <row r="277" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
         <v>637</v>
       </c>
@@ -9925,7 +10027,7 @@
       </c>
       <c r="AMJ277" s="3"/>
     </row>
-    <row r="278" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
         <v>637</v>
       </c>
@@ -9946,7 +10048,7 @@
       </c>
       <c r="AMJ278" s="3"/>
     </row>
-    <row r="279" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
         <v>637</v>
       </c>
@@ -9967,7 +10069,7 @@
       </c>
       <c r="AMJ279" s="3"/>
     </row>
-    <row r="280" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
         <v>637</v>
       </c>
@@ -9988,7 +10090,7 @@
       </c>
       <c r="AMJ280" s="3"/>
     </row>
-    <row r="281" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
         <v>637</v>
       </c>
@@ -10009,7 +10111,7 @@
       </c>
       <c r="AMJ281" s="3"/>
     </row>
-    <row r="282" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
         <v>637</v>
       </c>
@@ -10030,7 +10132,7 @@
       </c>
       <c r="AMJ282" s="3"/>
     </row>
-    <row r="283" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
         <v>637</v>
       </c>
@@ -10051,7 +10153,7 @@
       </c>
       <c r="AMJ283" s="3"/>
     </row>
-    <row r="284" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
         <v>637</v>
       </c>
@@ -10072,7 +10174,7 @@
       </c>
       <c r="AMJ284" s="3"/>
     </row>
-    <row r="285" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
         <v>637</v>
       </c>
@@ -10093,7 +10195,7 @@
       </c>
       <c r="AMJ285" s="3"/>
     </row>
-    <row r="286" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
         <v>637</v>
       </c>
@@ -10114,7 +10216,7 @@
       </c>
       <c r="AMJ286" s="3"/>
     </row>
-    <row r="287" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
         <v>637</v>
       </c>
@@ -10135,7 +10237,7 @@
       </c>
       <c r="AMJ287" s="3"/>
     </row>
-    <row r="288" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
         <v>637</v>
       </c>
@@ -10156,7 +10258,7 @@
       </c>
       <c r="AMJ288" s="3"/>
     </row>
-    <row r="289" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
         <v>637</v>
       </c>
@@ -10183,7 +10285,7 @@
       </c>
       <c r="AMJ289" s="3"/>
     </row>
-    <row r="290" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
         <v>637</v>
       </c>
@@ -10210,7 +10312,7 @@
       </c>
       <c r="AMJ290" s="3"/>
     </row>
-    <row r="291" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
         <v>637</v>
       </c>
@@ -10231,7 +10333,7 @@
       </c>
       <c r="AMJ291" s="3"/>
     </row>
-    <row r="292" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
         <v>637</v>
       </c>
@@ -10252,7 +10354,7 @@
       </c>
       <c r="AMJ292" s="3"/>
     </row>
-    <row r="293" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
         <v>637</v>
       </c>
@@ -10273,7 +10375,7 @@
       </c>
       <c r="AMJ293" s="3"/>
     </row>
-    <row r="294" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
         <v>637</v>
       </c>
@@ -10294,7 +10396,7 @@
       </c>
       <c r="AMJ294" s="3"/>
     </row>
-    <row r="295" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
         <v>637</v>
       </c>
@@ -10315,7 +10417,7 @@
       </c>
       <c r="AMJ295" s="3"/>
     </row>
-    <row r="296" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
         <v>637</v>
       </c>
@@ -10336,7 +10438,7 @@
       </c>
       <c r="AMJ296" s="3"/>
     </row>
-    <row r="297" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
         <v>637</v>
       </c>
@@ -10357,7 +10459,7 @@
       </c>
       <c r="AMJ297" s="3"/>
     </row>
-    <row r="298" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
         <v>637</v>
       </c>
@@ -10378,7 +10480,7 @@
       </c>
       <c r="AMJ298" s="3"/>
     </row>
-    <row r="299" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
         <v>637</v>
       </c>
@@ -10399,7 +10501,7 @@
       </c>
       <c r="AMJ299" s="3"/>
     </row>
-    <row r="300" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>637</v>
       </c>
@@ -10420,7 +10522,7 @@
       </c>
       <c r="AMJ300" s="3"/>
     </row>
-    <row r="301" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
         <v>637</v>
       </c>
@@ -10441,7 +10543,7 @@
       </c>
       <c r="AMJ301" s="3"/>
     </row>
-    <row r="302" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
         <v>637</v>
       </c>
@@ -10462,7 +10564,7 @@
       </c>
       <c r="AMJ302" s="3"/>
     </row>
-    <row r="303" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" s="4" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>637</v>
       </c>
@@ -10489,7 +10591,7 @@
       </c>
       <c r="AMJ303" s="3"/>
     </row>
-    <row r="304" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
         <v>637</v>
       </c>
@@ -10516,7 +10618,7 @@
       </c>
       <c r="AMJ304" s="3"/>
     </row>
-    <row r="305" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" s="4" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
         <v>637</v>
       </c>
@@ -10544,1406 +10646,1406 @@
       <c r="AMJ305" s="3"/>
     </row>
     <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B306" s="5" t="s">
+      <c r="A306" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="C306" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="D306" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E306" s="5" t="s">
+      <c r="E306" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="F306" s="5" t="s">
+      <c r="F306" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="G306" s="5"/>
-      <c r="H306" s="5"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
       <c r="AMJ306" s="3"/>
     </row>
     <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B307" s="5" t="s">
+      <c r="A307" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="C307" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D307" s="5" t="s">
+      <c r="D307" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E307" s="5" t="s">
+      <c r="E307" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="F307" s="5" t="s">
+      <c r="F307" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="G307" s="5"/>
-      <c r="H307" s="5"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
       <c r="AMJ307" s="3"/>
     </row>
     <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B308" s="5" t="s">
+      <c r="A308" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="C308" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D308" s="5" t="s">
+      <c r="D308" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E308" s="5" t="s">
+      <c r="E308" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="F308" s="5" t="s">
+      <c r="F308" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="G308" s="5"/>
-      <c r="H308" s="5"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
       <c r="AMJ308" s="3"/>
     </row>
     <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B309" s="5" t="s">
+      <c r="A309" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="C309" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D309" s="5" t="s">
+      <c r="D309" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E309" s="5" t="s">
+      <c r="E309" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="G309" s="5"/>
-      <c r="H309" s="5"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
       <c r="AMJ309" s="3"/>
     </row>
     <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B310" s="5" t="s">
+      <c r="A310" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C310" s="5" t="s">
+      <c r="C310" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D310" s="5" t="s">
+      <c r="D310" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E310" s="5" t="s">
+      <c r="E310" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="F310" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="G310" s="5"/>
-      <c r="H310" s="5"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
       <c r="AMJ310" s="3"/>
     </row>
     <row r="311" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B311" s="5" t="s">
+      <c r="A311" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C311" s="5" t="s">
+      <c r="C311" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D311" s="5" t="s">
+      <c r="D311" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E311" s="5" t="s">
+      <c r="E311" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="F311" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="G311" s="5"/>
-      <c r="H311" s="5"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
       <c r="AMJ311" s="3"/>
     </row>
     <row r="312" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B312" s="5" t="s">
+      <c r="A312" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="C312" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="D312" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="E312" s="5" t="s">
+      <c r="E312" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="F312" s="5" t="s">
+      <c r="F312" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="G312" s="5"/>
-      <c r="H312" s="5"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
       <c r="AMJ312" s="3"/>
     </row>
     <row r="313" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B313" s="5" t="s">
+      <c r="A313" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="C313" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D313" s="5" t="s">
+      <c r="D313" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="E313" s="5" t="s">
+      <c r="E313" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="F313" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="G313" s="5"/>
-      <c r="H313" s="5"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
       <c r="AMJ313" s="3"/>
     </row>
     <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B314" s="5" t="s">
+      <c r="A314" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="C314" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="D314" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E314" s="5" t="s">
+      <c r="E314" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="F314" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G314" s="5"/>
-      <c r="H314" s="5"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
       <c r="AMJ314" s="3"/>
     </row>
     <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B315" s="5" t="s">
+      <c r="A315" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C315" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D315" s="5" t="s">
+      <c r="D315" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E315" s="5" t="s">
+      <c r="E315" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="F315" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="G315" s="5"/>
-      <c r="H315" s="5"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
       <c r="AMJ315" s="3"/>
     </row>
     <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B316" s="5" t="s">
+      <c r="A316" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="C316" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D316" s="5" t="s">
+      <c r="D316" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="E316" s="5" t="s">
+      <c r="E316" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="F316" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="G316" s="5"/>
-      <c r="H316" s="5"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
       <c r="AMJ316" s="3"/>
     </row>
     <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B317" s="5" t="s">
+      <c r="A317" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="C317" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="D317" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E317" s="5" t="s">
+      <c r="E317" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="F317" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="G317" s="5"/>
-      <c r="H317" s="5"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
       <c r="AMJ317" s="3"/>
     </row>
     <row r="318" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B318" s="5" t="s">
+      <c r="A318" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="C318" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D318" s="5" t="s">
+      <c r="D318" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="E318" s="5" t="s">
+      <c r="E318" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="F318" s="5" t="s">
+      <c r="F318" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="G318" s="5"/>
-      <c r="H318" s="5"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
       <c r="AMJ318" s="3"/>
     </row>
     <row r="319" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B319" s="5" t="s">
+      <c r="A319" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B319" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="C319" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D319" s="5" t="s">
+      <c r="D319" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="E319" s="5" t="s">
+      <c r="E319" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="F319" s="5" t="s">
+      <c r="F319" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="G319" s="5"/>
-      <c r="H319" s="5"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
       <c r="AMJ319" s="3"/>
     </row>
     <row r="320" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B320" s="5" t="s">
+      <c r="A320" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C320" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D320" s="5" t="s">
+      <c r="D320" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E320" s="5" t="s">
+      <c r="E320" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F320" s="5" t="s">
+      <c r="F320" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="G320" s="5"/>
-      <c r="H320" s="5"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
       <c r="AMJ320" s="3"/>
     </row>
     <row r="321" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B321" s="5" t="s">
+      <c r="A321" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="C321" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D321" s="5" t="s">
+      <c r="D321" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="E321" s="5" t="s">
+      <c r="E321" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="F321" s="5" t="s">
+      <c r="F321" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="G321" s="5"/>
-      <c r="H321" s="5"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
       <c r="AMJ321" s="3"/>
     </row>
     <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B322" s="5" t="s">
+      <c r="A322" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="C322" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D322" s="5" t="s">
+      <c r="D322" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E322" s="5" t="s">
+      <c r="E322" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="F322" s="5" t="s">
+      <c r="F322" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="G322" s="5"/>
-      <c r="H322" s="5"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
       <c r="AMJ322" s="3"/>
     </row>
     <row r="323" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B323" s="5" t="s">
+      <c r="A323" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="C323" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D323" s="5" t="s">
+      <c r="D323" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="E323" s="5" t="s">
+      <c r="E323" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="F323" s="5" t="s">
+      <c r="F323" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="G323" s="5"/>
-      <c r="H323" s="5"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
       <c r="AMJ323" s="3"/>
     </row>
     <row r="324" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B324" s="5" t="s">
+      <c r="A324" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C324" s="5" t="s">
+      <c r="C324" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D324" s="5" t="s">
+      <c r="D324" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="E324" s="5" t="s">
+      <c r="E324" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="F324" s="5" t="s">
+      <c r="F324" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="G324" s="5"/>
-      <c r="H324" s="5"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
       <c r="AMJ324" s="3"/>
     </row>
     <row r="325" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B325" s="5" t="s">
+      <c r="A325" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C325" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D325" s="5" t="s">
+      <c r="D325" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="E325" s="5" t="s">
+      <c r="E325" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="F325" s="5" t="s">
+      <c r="F325" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="G325" s="5"/>
-      <c r="H325" s="5"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
       <c r="AMJ325" s="3"/>
     </row>
     <row r="326" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B326" s="5" t="s">
+      <c r="A326" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="C326" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D326" s="5" t="s">
+      <c r="D326" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="E326" s="5" t="s">
+      <c r="E326" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="F326" s="5" t="s">
+      <c r="F326" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="G326" s="5"/>
-      <c r="H326" s="5"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
       <c r="AMJ326" s="3"/>
     </row>
     <row r="327" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B327" s="5" t="s">
+      <c r="A327" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="C327" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D327" s="5" t="s">
+      <c r="D327" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="E327" s="5" t="s">
+      <c r="E327" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="F327" s="5" t="s">
+      <c r="F327" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="G327" s="5"/>
-      <c r="H327" s="5"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
       <c r="AMJ327" s="3"/>
     </row>
     <row r="328" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B328" s="5" t="s">
+      <c r="A328" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D328" s="5" t="s">
+      <c r="D328" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="E328" s="5" t="s">
+      <c r="E328" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="G328" s="5"/>
-      <c r="H328" s="5"/>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
       <c r="AMJ328" s="3"/>
     </row>
     <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B329" s="5" t="s">
+      <c r="A329" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="C329" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D329" s="5" t="s">
+      <c r="D329" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="E329" s="5" t="s">
+      <c r="E329" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="F329" s="5" t="s">
+      <c r="F329" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="G329" s="5"/>
-      <c r="H329" s="5"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
       <c r="AMJ329" s="3"/>
     </row>
     <row r="330" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B330" s="5" t="s">
+      <c r="A330" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C330" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D330" s="5" t="s">
+      <c r="D330" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="E330" s="5" t="s">
+      <c r="E330" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F330" s="5" t="s">
+      <c r="F330" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="G330" s="5"/>
-      <c r="H330" s="5"/>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
       <c r="AMJ330" s="3"/>
     </row>
     <row r="331" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B331" s="5" t="s">
+      <c r="A331" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C331" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D331" s="5" t="s">
+      <c r="D331" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E331" s="5" t="s">
+      <c r="E331" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="F331" s="5" t="s">
+      <c r="F331" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="G331" s="5"/>
-      <c r="H331" s="5"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
       <c r="AMJ331" s="3"/>
     </row>
     <row r="332" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B332" s="5" t="s">
+      <c r="A332" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C332" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D332" s="5" t="s">
+      <c r="D332" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E332" s="5" t="s">
+      <c r="E332" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="F332" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="G332" s="5"/>
-      <c r="H332" s="5"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
       <c r="AMJ332" s="3"/>
     </row>
     <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B333" s="5" t="s">
+      <c r="A333" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="C333" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D333" s="5" t="s">
+      <c r="D333" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="E333" s="5" t="s">
+      <c r="E333" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="G333" s="5"/>
-      <c r="H333" s="5"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
       <c r="AMJ333" s="3"/>
     </row>
     <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B334" s="5" t="s">
+      <c r="A334" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B334" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C334" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D334" s="5" t="s">
+      <c r="D334" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="E334" s="5" t="s">
+      <c r="E334" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="F334" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
       <c r="AMJ334" s="3"/>
     </row>
     <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B335" s="5" t="s">
+      <c r="A335" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C335" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D335" s="5" t="s">
+      <c r="D335" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="E335" s="5" t="s">
+      <c r="E335" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="F335" s="5" t="s">
+      <c r="F335" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="G335" s="5"/>
-      <c r="H335" s="5"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
       <c r="AMJ335" s="3"/>
     </row>
     <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B336" s="5" t="s">
+      <c r="A336" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D336" s="5" t="s">
+      <c r="D336" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="E336" s="5" t="s">
+      <c r="E336" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F336" s="5" t="s">
+      <c r="F336" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G336" s="5"/>
-      <c r="H336" s="5"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
       <c r="AMJ336" s="3"/>
     </row>
     <row r="337" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B337" s="5" t="s">
+      <c r="A337" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D337" s="5" t="s">
+      <c r="D337" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="E337" s="5" t="s">
+      <c r="E337" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="F337" s="5" t="s">
+      <c r="F337" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="G337" s="5"/>
-      <c r="H337" s="5"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
       <c r="AMJ337" s="3"/>
     </row>
     <row r="338" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B338" s="5" t="s">
+      <c r="A338" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B338" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C338" s="5" t="s">
+      <c r="C338" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D338" s="5" t="s">
+      <c r="D338" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E338" s="5" t="s">
+      <c r="E338" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F338" s="5" t="s">
+      <c r="F338" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="G338" s="5"/>
-      <c r="H338" s="5"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
       <c r="AMJ338" s="3"/>
     </row>
     <row r="339" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B339" s="5" t="s">
+      <c r="A339" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="C339" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D339" s="5" t="s">
+      <c r="D339" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="E339" s="5" t="s">
+      <c r="E339" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F339" s="5" t="s">
+      <c r="F339" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="G339" s="5"/>
-      <c r="H339" s="5"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
       <c r="AMJ339" s="3"/>
     </row>
     <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B340" s="5" t="s">
+      <c r="A340" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C340" s="5" t="s">
+      <c r="C340" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D340" s="5" t="s">
+      <c r="D340" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="E340" s="5" t="s">
+      <c r="E340" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="F340" s="5" t="s">
+      <c r="F340" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="G340" s="5"/>
-      <c r="H340" s="5"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
       <c r="AMJ340" s="3"/>
     </row>
     <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B341" s="5" t="s">
+      <c r="A341" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D341" s="5" t="s">
+      <c r="D341" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="E341" s="5" t="s">
+      <c r="E341" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="F341" s="5" t="s">
+      <c r="F341" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="G341" s="5"/>
-      <c r="H341" s="5"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
       <c r="AMJ341" s="3"/>
     </row>
     <row r="342" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B342" s="5" t="s">
+      <c r="A342" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C342" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D342" s="5" t="s">
+      <c r="D342" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E342" s="5" t="s">
+      <c r="E342" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F342" s="5" t="s">
+      <c r="F342" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G342" s="5"/>
-      <c r="H342" s="5"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
       <c r="AMJ342" s="3"/>
     </row>
     <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B343" s="5" t="s">
+      <c r="A343" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="C343" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D343" s="5" t="s">
+      <c r="D343" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="E343" s="5" t="s">
+      <c r="E343" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="F343" s="5" t="s">
+      <c r="F343" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="G343" s="5"/>
-      <c r="H343" s="5"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
       <c r="AMJ343" s="3"/>
     </row>
     <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B344" s="5" t="s">
+      <c r="A344" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B344" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C344" s="5" t="s">
+      <c r="C344" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D344" s="5" t="s">
+      <c r="D344" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="E344" s="5" t="s">
+      <c r="E344" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="F344" s="5" t="s">
+      <c r="F344" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="G344" s="5"/>
-      <c r="H344" s="5"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
       <c r="AMJ344" s="3"/>
     </row>
     <row r="345" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B345" s="5" t="s">
+      <c r="A345" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C345" s="5" t="s">
+      <c r="C345" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D345" s="5" t="s">
+      <c r="D345" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="E345" s="5" t="s">
+      <c r="E345" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="F345" s="5" t="s">
+      <c r="F345" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="G345" s="5"/>
-      <c r="H345" s="5"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
       <c r="AMJ345" s="3"/>
     </row>
     <row r="346" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B346" s="5" t="s">
+      <c r="A346" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C346" s="5" t="s">
+      <c r="C346" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D346" s="5" t="s">
+      <c r="D346" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="E346" s="5" t="s">
+      <c r="E346" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F346" s="5" t="s">
+      <c r="F346" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="G346" s="5"/>
-      <c r="H346" s="5"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
       <c r="AMJ346" s="3"/>
     </row>
     <row r="347" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B347" s="5" t="s">
+      <c r="A347" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C347" s="5" t="s">
+      <c r="C347" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D347" s="5" t="s">
+      <c r="D347" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="E347" s="5" t="s">
+      <c r="E347" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="F347" s="5" t="s">
+      <c r="F347" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="G347" s="5"/>
-      <c r="H347" s="5"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
       <c r="AMJ347" s="3"/>
     </row>
     <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B348" s="5" t="s">
+      <c r="A348" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C348" s="5" t="s">
+      <c r="C348" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D348" s="5" t="s">
+      <c r="D348" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="E348" s="5" t="s">
+      <c r="E348" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="F348" s="5" t="s">
+      <c r="F348" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="G348" s="5"/>
-      <c r="H348" s="5"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
       <c r="AMJ348" s="3"/>
     </row>
     <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B349" s="5" t="s">
+      <c r="A349" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C349" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D349" s="5" t="s">
+      <c r="D349" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="E349" s="5" t="s">
+      <c r="E349" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="F349" s="5" t="s">
+      <c r="F349" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="G349" s="5"/>
-      <c r="H349" s="5"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
       <c r="AMJ349" s="3"/>
     </row>
     <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B350" s="5" t="s">
+      <c r="A350" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="C350" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D350" s="5" t="s">
+      <c r="D350" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="E350" s="5" t="s">
+      <c r="E350" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="F350" s="5" t="s">
+      <c r="F350" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="G350" s="5"/>
-      <c r="H350" s="5"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
       <c r="AMJ350" s="3"/>
     </row>
     <row r="351" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B351" s="5" t="s">
+      <c r="A351" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C351" s="5" t="s">
+      <c r="C351" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D351" s="5" t="s">
+      <c r="D351" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="E351" s="5" t="s">
+      <c r="E351" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="F351" s="5" t="s">
+      <c r="F351" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="G351" s="5"/>
-      <c r="H351" s="5"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
       <c r="AMJ351" s="3"/>
     </row>
     <row r="352" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B352" s="5" t="s">
+      <c r="A352" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C352" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D352" s="5" t="s">
+      <c r="D352" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="E352" s="5" t="s">
+      <c r="E352" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="F352" s="5" t="s">
+      <c r="F352" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="G352" s="5"/>
-      <c r="H352" s="5"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
       <c r="AMJ352" s="3"/>
     </row>
     <row r="353" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B353" s="5" t="s">
+      <c r="A353" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="C353" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D353" s="5" t="s">
+      <c r="D353" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E353" s="5" t="s">
+      <c r="E353" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="F353" s="5" t="s">
+      <c r="F353" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="G353" s="5"/>
-      <c r="H353" s="5"/>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
       <c r="AMJ353" s="3"/>
     </row>
     <row r="354" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B354" s="5" t="s">
+      <c r="A354" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C354" s="5" t="s">
+      <c r="C354" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D354" s="5" t="s">
+      <c r="D354" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="E354" s="5" t="s">
+      <c r="E354" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="F354" s="5" t="s">
+      <c r="F354" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="G354" s="5"/>
-      <c r="H354" s="5"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
       <c r="AMJ354" s="3"/>
     </row>
     <row r="355" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B355" s="5" t="s">
+      <c r="A355" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B355" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C355" s="5" t="s">
+      <c r="C355" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D355" s="5" t="s">
+      <c r="D355" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="E355" s="5" t="s">
+      <c r="E355" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F355" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="G355" s="5"/>
-      <c r="H355" s="5"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
       <c r="AMJ355" s="3"/>
     </row>
     <row r="356" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B356" s="5" t="s">
+      <c r="A356" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="C356" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D356" s="5" t="s">
+      <c r="D356" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="E356" s="5" t="s">
+      <c r="E356" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="F356" s="5" t="s">
+      <c r="F356" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="G356" s="5"/>
-      <c r="H356" s="5"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
       <c r="AMJ356" s="3"/>
     </row>
     <row r="357" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B357" s="5" t="s">
+      <c r="A357" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D357" s="5" t="s">
+      <c r="D357" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E357" s="5" t="s">
+      <c r="E357" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="F357" s="5" t="s">
+      <c r="F357" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="G357" s="5"/>
-      <c r="H357" s="5"/>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
       <c r="AMJ357" s="3"/>
     </row>
     <row r="358" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B358" s="5" t="s">
+      <c r="A358" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C358" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D358" s="5" t="s">
+      <c r="D358" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E358" s="5" t="s">
+      <c r="E358" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="F358" s="5" t="s">
+      <c r="F358" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="G358" s="5"/>
-      <c r="H358" s="5"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
       <c r="AMJ358" s="3"/>
     </row>
     <row r="359" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B359" s="5" t="s">
+      <c r="A359" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B359" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="C359" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D359" s="5" t="s">
+      <c r="D359" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="E359" s="5" t="s">
+      <c r="E359" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="F359" s="5" t="s">
+      <c r="F359" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="G359" s="5"/>
-      <c r="H359" s="5"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
       <c r="AMJ359" s="3"/>
     </row>
     <row r="360" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B360" s="5" t="s">
+      <c r="A360" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="C360" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D360" s="5" t="s">
+      <c r="D360" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="E360" s="5" t="s">
+      <c r="E360" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="F360" s="5" t="s">
+      <c r="F360" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="G360" s="5"/>
-      <c r="H360" s="5"/>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
       <c r="AMJ360" s="3"/>
     </row>
     <row r="361" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B361" s="5" t="s">
+      <c r="A361" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="C361" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D361" s="5" t="s">
+      <c r="D361" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E361" s="5" t="s">
+      <c r="E361" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="F361" s="5" t="s">
+      <c r="F361" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="G361" s="5"/>
-      <c r="H361" s="5"/>
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
       <c r="AMJ361" s="3"/>
     </row>
     <row r="362" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B362" s="5" t="s">
+      <c r="A362" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="C362" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D362" s="5" t="s">
+      <c r="D362" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="E362" s="5" t="s">
+      <c r="E362" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="F362" s="5" t="s">
+      <c r="F362" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="G362" s="5"/>
-      <c r="H362" s="5"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
       <c r="AMJ362" s="3"/>
     </row>
     <row r="363" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B363" s="5" t="s">
+      <c r="A363" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="C363" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D363" s="5" t="s">
+      <c r="D363" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="E363" s="5" t="s">
+      <c r="E363" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="F363" s="5" t="s">
+      <c r="F363" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="G363" s="5"/>
-      <c r="H363" s="5"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
       <c r="AMJ363" s="3"/>
     </row>
     <row r="364" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B364" s="5" t="s">
+      <c r="A364" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="C364" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="D364" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="E364" s="5" t="s">
+      <c r="E364" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="F364" s="5" t="s">
+      <c r="F364" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="G364" s="5"/>
-      <c r="H364" s="5"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
       <c r="AMJ364" s="3"/>
     </row>
     <row r="365" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B365" s="5" t="s">
+      <c r="A365" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B365" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="C365" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D365" s="5" t="s">
+      <c r="D365" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="E365" s="5" t="s">
+      <c r="E365" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="G365" s="5"/>
-      <c r="H365" s="5"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
       <c r="AMJ365" s="3"/>
     </row>
     <row r="366" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B366" s="5" t="s">
+      <c r="A366" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="C366" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D366" s="5" t="s">
+      <c r="D366" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="E366" s="5" t="s">
+      <c r="E366" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="G366" s="5"/>
-      <c r="H366" s="5"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
       <c r="AMJ366" s="3"/>
     </row>
     <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12209,7 +12311,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:H157"/>
+  <autoFilter ref="A1:H366"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="2373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6500" uniqueCount="3401">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -214,25 +214,7 @@
     <t xml:space="preserve">Friedrich Ratzel lançou as famosas "Sete Leis do Expansionismo" em seu livro "Leis do Crescimento Territorial dos Estados".</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Friedrich Ratzel lançou as famosas "Sete Leis da Evolução Geográfica" em seu livro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"Leis do Crescimento Territorial dos Estados".</t>
-    </r>
+    <t xml:space="preserve">Friedrich Ratzel lançou as famosas "Sete Leis da Evolução Geográfica" em seu livro "Leis do Crescimento Territorial dos Estados".</t>
   </si>
   <si>
     <t xml:space="preserve">Ratzel lançou as "Sete Leis do Expansionismo" no seu livro "Leis do Crescimento Territorial dos Estados".</t>
@@ -7160,6 +7142,3090 @@
   </si>
   <si>
     <t xml:space="preserve">Brzezinski crê que a China enfrentará desafios imensos e acabará se contentando com o status de potência regional, podendo colaborar com os EUA na manutenção da estabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 - Introdução à Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência política é uma ciência social que estuda o exercício, a distribuição e a organização do poder na sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência política é primariamente uma ciência exata que se concentra na análise da moralidade e da ética social, excluindo o estudo da organização do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência política é uma ciência social focada no estudo do exercício, distribuição e organização do poder na sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de política é derivado do adjetivo grego *politikós*, originado de *polis*, significando tudo que se refere à cidade, sendo urbano, civil e público.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de política deriva do termo grego *ídion*, que era empregado para indicar a esfera dos assuntos privados e pessoais do indivíduo, não ligados à *polis*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O termo política deriva de *politikós* (relativo à *polis* ou cidade), enquanto *ídion* era o termo para o homem carente, não político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles considerava o homem um *zoon politikón* (animal político), pois o via como um ser que só se realiza plenamente vivendo na *polis*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles considerava que o homem alcançava sua realização plena na esfera privada e que a vida na *polis* era uma dimensão secundária de sua existência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Aristóteles, a *polis* era a dimensão suprema da existência onde o homem se realizava como tal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber afirma que todo homem que se dedica à política aspira ao poder, podendo utilizá-lo como instrumento para fins ideais ou egoístas, ou desejá-lo "pelo poder" em si.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber afirma que a política é uma atividade que ocorre independentemente da aspiração por poder, sendo unicamente um instrumento a serviço do bem comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Weber, a aspiração ao poder é central para o homem que se entrega à política, seja qual for seu objetivo final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Schmitt concebeu a política sob uma ideia maniqueísta, reduzindo a categoria especificamente política à distinção fundamental entre amigo e inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Schmitt defendeu que a categoria especificamente política é a distinção moral entre o bem e o mal, separada da esfera das relações internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distinção política específica para Schmitt é a de amigo e inimigo, diferente das categorias morais (bem/mal) e estéticas (belo/feio).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Schmitt, o inimigo político não precisa ser moralmente mau ou feio, bastando ser existencialmente distinto e estranho em um sentido particularmente intensivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Schmitt exigia que o inimigo político fosse necessariamente um concorrente econômico, moralmente malicioso e que não houvesse possibilidade de fazer negócios com ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmitt afirmava que o inimigo político é simplesmente o outro, o estranho, e pode-se até fazer negócios com ele, desde que seja existencialmente distinto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A visão maniqueísta de Carl Schmitt induz à unidade do Estado, visando ao enfrentamento do inimigo externo, vendo a pluralidade de opiniões como prejudicial à união de todos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A visão de Carl Schmitt sobre a política promovia o pluralismo interno e aceitava questionamentos como alternativa à concepção binária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política, para Schmitt, é entendida como oposição ao estranho, e a pluralidade interna é vista como prejudicial à união contra o inimigo comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons considera o aspecto político de um sistema social como centralizado na geração e na distribuição do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons considera que o aspecto político de um sistema social se concentra exclusivamente na manutenção das tradições culturais, desvinculado da geração e distribuição de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Parsons, o aspecto político está centralizado na geração e distribuição do poder dentro de um sistema social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Deutsch define a política como a tomada de decisões através de meios públicos, diferenciando-a da tomada de decisões pessoais e econômicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Deutsch define a política como o processo de tomada de decisões de caráter estritamente pessoal e privado, sem impacto nas vastas comunidades de povos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch enfatiza que a política é a tomada de decisões por meios públicos, focada na direção e autoadministração de vastas comunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política, em um sentido conciliatório, é uma forma de governar nas sociedades divididas que busca a conciliação de diferentes interesses sem o uso indevido da violência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política é primariamente o uso inevitável e coercitivo da violência para impor o domínio violento de um grupo sobre o outro, sendo um mal necessário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A conciliação é preferível à coerção, e a política não é um mal necessário, mas sim um bem realístico que busca o governo pacífico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger defende que a política é ambivalente, sendo, ao mesmo tempo, instrumento de dominação de certas classes e um meio de assegurar uma certa ordem social para o bem comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger argumenta que a política não é ambivalente; ela existe apenas como um instrumento exclusivo de dominação de classes, sem qualquer função de ordem social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger afirma que as duas faces (dominação e ordem social) coexistem sempre na política, variando apenas a proporção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber privilegia o entendimento da política como "a direção do agrupamento político hoje denominado 'Estado' ou a influência que se exerce em tal sentido".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber defendia que o conceito de política se restringe exclusivamente à política de descontos de um banco ou à política escolar de uma comunidade, excluindo o agrupamento "Estado".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embora Weber reconheça o sentido amplo, ele privilegia o entendimento da política como a direção do Estado ou a influência nesse sentido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Hermann Heller, o conceito de político é mais amplo do que o de estatal, existindo grupos políticos dentro e entre os Estados, como partidos e a ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heller argumenta que o conceito de político e estatal são idênticos e limitados estritamente à organização e atuação autônoma da cooperação social em um território definido pelo Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de político é mais amplo para Heller, englobando grupos intraestatais e interestatais que não são o próprio Estado, como a ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolau Maquiavel, com *O Príncipe*, iniciou o realismo político ao postular a autonomia da política, afastando-a da teologia, da ética e da metafísica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel defendia que a política deveria ser pensada a partir de um horizonte metafísico e moral, retomando a tradição grega de vincular o político à ética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel liberou o pensamento político das amarras da teologia e da metafísica, focando nas relações de poder e sua conservação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Marx contribuiu para a teoria política com sua visão materialista da história, que confere primazia ao econômico na explicação das mudanças que ocorrem na política e na cultura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A principal contribuição de Karl Marx reside na primazia que ele atribuiu à superestrutura política e ideológica como o motor fundamental das mudanças históricas e sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marx defendia que as mudanças sociais ocorrem principalmente pelo desenvolvimento da infraestrutura econômica, não tanto pela superestrutura política e ideológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin Duverger conclui que a definição mais ampla da Ciência Política é a "ciência do poder sob todas as suas formas", embora reconheça que outras ciências sociais também estudam o poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin Duverger conclui que a única definição aceitável para a Ciência Política é a de "ciência do Estado", pois o estudo do poder é domínio exclusivo da sociologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger defende que a Ciência Política é a ciência do poder sob todas as suas formas, sendo esta a questão central, mas não um monopólio dela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Georges Burdeau, o objeto da ciência política é o estudo das relações de autoridade e obediência e seus efeitos, a fim de fornecer uma explicação coerente da estrutura das sociedades políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Georges Burdeau, o objeto da ciência política deve ser unicamente a pesquisa do sistema de normas jurídicas puras, sem relação com as dinâmicas sociais de autoridade e obediência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau afirma que a ciência política estuda as relações de autoridade e obediência e seus efeitos no comportamento humano para explicar as sociedades políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 1948, a UNESCO, buscando definir o campo da ciência política, listou quatro grandes áreas: Teoria Política; Instituições Políticas; Partidos, Grupos e Opinião Pública; e Relações Internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 1948, a UNESCO obteve um consenso pleno de que a Ciência Política deveria focar exclusivamente nas Relações Internacionais e na História das Ideias Políticas, ignorando as instituições internas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A UNESCO listou quatro grandes áreas, incluindo Teoria Política, Instituições Políticas e a dinâmica de Partidos/Grupos, além de Relações Internacionais, devido à falta de consenso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema político é geralmente associado ao uso da força física legítima nas sociedades e inclui todas as interações que afetam ou ameaçam o uso dessa força legítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de sistema político restringe o estudo dos fenômenos políticos unicamente às organizações governamentais formais (legislativos, cortes), excluindo grupos familiares ou sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema político inclui não só organizações governamentais, mas todas as estruturas (inclusive grupos familiares e sociais) em seus aspectos políticos que afetam o uso da força física legítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No idioma inglês, o termo *Polity* refere-se à política como sistema político e estrutura (instituições e normas), enquanto *Policy* refere-se à ação ou linha de conduta do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No idioma inglês, *Policy* refere-se ao conjunto de interações e estratégias entre atores para alcançar objetivos, e *Politics* refere-se à ação do governo e realocação de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Policy* é a ação do governo (linha de conduta); *Politics* são as interações/estratégias; *Polity* é o sistema/estrutura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 – A questão do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político é o poder supremo em relação a todos os outros poderes (econômico, militar, ideológico) em uma sociedade, e a sua legitimidade deriva da necessidade de convivência social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder econômico é o poder supremo em toda sociedade, estando o poder político subordinado a ele, e sua legitimidade depende apenas da coação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político é o poder supremo ao qual todos os outros poderes sociais estão submetidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A despersonalização do poder, que exige a aceitação da dominação de um ente abstrato (como o Estado), facilita a submissão e a aceitação de suas determinações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A despersonalização do poder dificulta a submissão e a aceitação da dominação, pois a primazia do poder pertence sempre a indivíduos reais e não a entes abstratos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir do momento em que se é obrigado a aceitar a dominação de um ente abstrato, fica facilitada a submissão e aceitação de suas determinações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exercício do poder está diretamente vinculado à cultura dos grupos sociais, pois o que tem ou não valor naquela sociedade (seja a força física ou o saber) define quem exercerá mais poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exercício do poder é um processo social que independe da cultura do grupo, sendo sempre a força física o componente principal do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exercício do poder está diretamente vinculado à cultura dos grupos sociais que estabelecem aquilo que tem ou não valor naquela sociedade particular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder pressupõe sempre uma relação entre duas ou mais pessoas, repousando sobre a força e superioridade de uma parte e, simultaneamente, sobre a dependência ou fraqueza da outra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder só é configurado quando há uma relação de estrita igualdade ou independência total entre as partes, sem qualquer vestígio de superioridade ou fraqueza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder repousa sobre a força e superioridade de uma parte e, simultaneamente, sobre a relativa dependência ou fraqueza da outra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Friedrich, a origem do poder que é uma posse é primordialmente a coação, mas o poder relacional tem origem consensual e cooperativa, dependendo da capacidade de organização do líder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Friedrich, tanto o poder como posse quanto o poder relacional têm sua origem exclusivamente na coação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A origem do poder como posse é a coação, mas a origem do poder relacional é consensual e cooperativa, dependendo da capacidade do líder de organizar seus seguidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base essencial do poder está na submissão e no conformismo dos membros do grupo sobre o qual ele atua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base essencial do poder reside na resistência ativa e na recusa do conformismo por parte dos membros do grupo dominado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base essencial do poder está na submissão e no conformismo dos membros do grupo sobre o qual atua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talcott Parsons concebe o poder “como um meio simbólico generalizado que circula de forma muito semelhante ao dinheiro”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons define o poder como a força física pura, exercida diretamente pelo governo, sem qualquer analogia com meios simbólicos como o dinheiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons concebe o poder como um meio simbólico generalizado que circula de forma muito semelhante ao dinheiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons entende o poder como "a capacidade de um sistema social para mobilizar recursos para atingir metas coletivas".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons entende o poder como a capacidade de um sistema social para resistir à mobilização de recursos em prol de objetivos individuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsons define o poder como a capacidade de um sistema social para mobilizar recursos para atingir metas coletivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles identificou o poder paterno (exercido no interesse dos filhos), o despótico (exercido no interesse do senhor de escravos) e o político (exercido no interesse de governante e governado).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles definiu o poder político como exercido exclusivamente no interesse do governante, caracterizando-o como um poder despótico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles diferenciou os tipos de poder com base nos sujeitos beneficiários: pai/filhos; senhor/escravos; governante/governado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Norberto Bobbio, o poder ideológico é baseado na influência de ideias e saber, sendo importante para a coesão e integração do grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Bobbio, o poder ideológico é unicamente baseado na posse de bens escassos, sendo a principal força de desintegração social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder ideológico baseia-se na influência das ideias e dos valores, cumprindo o processo de socialização necessário à coesão do grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político, para Bobbio, é baseado na posse dos instrumentos através dos quais se exerce a força física, sendo o poder coativo no sentido mais estrito da palavra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político, para Bobbio, é unicamente baseado na posse de bens necessários e escassos, sendo, portanto, um sinônimo de poder econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político é baseado na posse dos instrumentos para exercer a força física, como as armas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Bobbio, os três tipos de poder social (econômico, ideológico e político) têm em comum a característica de instituir e manter uma sociedade de desiguais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os três tipos de poder social, conforme Bobbio, visam exclusivamente a criação de uma sociedade de estrita igualdade entre todos os indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os três tipos de poder (econômico, ideológico e político) têm a particularidade de dividirem a sociedade entre superiores e inferiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori distingue *potestas* (poder como força e dominação) de *auctoritas* (poder como autoridade), sendo esta última um poder baseado na persuasão e prestígio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori afirma que *potestas* e *auctoritas* são sinônimos, referindo-se ambos ao poder de coagir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori distingue *potestas* (força) de *auctoritas* (autoridade/persuasão), que é a fórmula de poder da democracia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia, para Sartori, tende a transformar o poder em autoridade (*auctoritas*), que é um poder que desperta e recebe apoio espontâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Sartori, o ideal democrático é a conquista do poder (*potestas*) a fim de garantir a primazia da força sobre a persuasão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia é um sistema político que tende a transformar o poder em autoridade, baseada no apoio espontâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber define poder como a probabilidade de impor a própria vontade numa relação social, mesmo contra resistências, e pode ter fundamentos tanto na legitimidade quanto na não legitimidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber restringe o conceito de poder à probabilidade de impor a vontade apenas quando essa imposição é totalmente aceita e legítima, excluindo qualquer resistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder, para Weber, inclui a probabilidade de impor a própria vontade, mesmo contra resistências, seja qual for o fundamento dessa probabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder é ilegítimo quando exercido por indivíduo ou grupo que não é aceito pelos demais e impõe sua vontade mesmo havendo resistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder é ilegítimo apenas quando é exercido em conformidade com as leis, mas não possui instrumentos de coerção física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder é ilegítimo quando é imposto contra a resistência, pois é exercido por um grupo social que não é aceito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma das principais fontes de poder é a força, definida como o uso ou ameaça de coerção física, e o Estado moderno reserva para si o monopólio desse uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso da força é irrelevante para o poder no Estado moderno, pois seu monopólio pertence unicamente a grupos não estatais, como associações criminosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A força, o uso ou ameaça de coerção física, é uma das principais fontes de poder, e os Estados reservam a si o monopólio de seu uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade é a legitimação do poder através da incorporação de conteúdo jurídico e/ou moral, assentada sobre o consentimento durável dos membros da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade é o direito de tomar decisões baseado unicamente na imposição arbitrária, sem a necessidade de consentimento moral ou jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade é a legitimação do poder por meio de conteúdo jurídico e/ou moral, que se assenta sobre o consentimento dos membros da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber identificou três tipos de autoridade (ou dominação legítima): a burocrática (racional-legal), a tradicional e a carismática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber identificou apenas dois tipos de autoridade: a moral e a econômica, sendo a carismática e a tradicional formas de poder ilegítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber identificou as três bases clássicas da legitimidade: burocrática/racional, tradicional e carismática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autoridade burocrática ou racional-legal é baseada no cargo formalmente instituído, sendo o princípio legitimador a lei (racionalidade), e é encontrada nos modernos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autoridade burocrática ou racional-legal é legítima em função da crença no passado e na tradição sagrada, e não em função da lei ou do cargo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autoridade burocrática é legítima por estar de acordo com as leis ou regras escritas, sendo a lei o princípio legitimador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na dominação legal, obedece-se a ordens impessoais, objetivas e legalmente instituídas, sendo o tipo mais puro exercido por meio de um quadro administrativo burocrático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação legal impõe-se unicamente pela vontade pessoal do ocupante do cargo, não importando a legalidade da ordem ou o estatuto instituído.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação legal se impõe por ordens impessoais, objetivas e legalmente instituídas, e o tipo mais puro se exerce por meio da burocracia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação tradicional baseia-se na devoção a hábitos costumeiros e na crença na autoridade do “passado eterno”, obedecendo-se à pessoa nomeada pela tradição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação tradicional baseia-se na crença em dons pessoais e extraordinários do indivíduo, sendo, portanto, idêntica à dominação carismática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação tradicional se fundamenta no passado eterno, nos costumes santificados e na pessoa indicada pela tradição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração patrimonial é constituída pela autoridade tradicional, tratando os negócios de governo como uma extensão da casa do governante, comum em Estados despóticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração patrimonial é a forma mais pura da dominação legal, pois separa rigorosamente os negócios de governo dos interesses pessoais do governante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração patrimonial, sob a autoridade tradicional, trata os negócios de governo como extensão de sua própria casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação carismática funda-se em dons pessoais e extraordinários (carisma) do indivíduo e, por derrubar o passado, é especificamente revolucionária, sendo também especificamente irracional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação carismática, por ser uma forma de dominação cotidiana, é especificamente racional e vinculada estritamente aos precedentes do passado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dominação carismática é extraordinária, especificamente irracional e revolucionária, pois derruba o passado e não se vincula a regras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político possui como elemento distintivo a exclusividade do uso da força em relação a todos os grupos dentro de um determinado contexto social, caracterizando um processo de monopolização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O elemento distintivo do poder político é a sua capacidade de delegar totalmente o uso da força, renunciando à sua exclusividade e ao monopólio da coação física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza o poder político é a exclusividade do uso da força, um processo de monopolização da posse e do uso dos meios de coação física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema político inclui todas as interações que afetam ou ameaçam o uso da força física legítima, e o poder do Estado é supremo em relação aos demais poderes da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema político se restringe apenas às interações econômicas e culturais, excluindo qualquer envolvimento com o uso da força física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político é o poder supremo, e o sistema político envolve interações que afetam o uso da força física legítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolau Maquiavel, em *O Príncipe*, iniciou a moderna teoria política ao se aproximar de forma realista do poder, visando sua conquista e manutenção e afastando-o da moral e da ética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel defendia que o governante deveria sempre basear suas ações na ética e na teologia, pois estes são os únicos fundamentos duradouros para a manutenção do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel iniciou o realismo político, rompendo com a tradição medieval ao liberar a política das amarras da religião e da moral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel argumenta que o governante não necessita possuir qualidades como ser piedoso ou íntegro, sendo suficiente que **aparente** possuí-las para consolidar seu poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel afirma que as qualidades morais intrínsecas do governante são essenciais, e a mera aparência dessas qualidades é um erro que leva à queda do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Maquiavel, o governante não necessita ter as qualidades, mas é suficiente que aparente possuí-las.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade relaciona o poder com um sistema de valores e crenças, pressupondo um acordo básico sobre a forma de governo justa, enquanto a legalidade o relaciona com o ordenamento legal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade é sinônimo de legalidade, pois um poder que age em conformidade com as leis é automaticamente justificado por qualquer sistema de valores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimidade relaciona o poder a valores/crenças; legalidade o relaciona ao ordenamento legal, e não devem ser confundidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sistema político, somente a elite governante (os titulares do poder político) detém o poder político, enquanto as demais elites têm força política (capacidade de influenciar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas as elites sociais (econômica, militar, sindical) possuem o poder político efetivo, e a elite governante é apenas uma minoria com pouca capacidade de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente a elite governante possui o poder político, sendo as demais elites detentoras de força política e capacidade de influenciar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 – O conceito de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado nacional atual é uma corporação territorial de um povo, constituída como nação, que se realiza por um ordenamento jurídico complexo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado nacional atual se baseia primariamente no parentesco e se realiza sem um ordenamento jurídico complexo, focando apenas na pessoa do governante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado nacional é uma corporação territorial de um povo constituído como nação, que se estabelece através de um ordenamento jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado constitui um complexo de instituições por meio das quais o poder da sociedade se organiza em uma base superior ao parentesco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é uma organização social cuja base principal e superior de organização de poder é o parentesco e a linhagem familiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado se organiza sobre uma base superior ao parentesco, sendo um complexo de instituições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno reivindica para si o monopólio legítimo da coação física dentro de um determinado território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno deve ceder o uso exclusivo da força a grupos privados e militares, pois a coação física não é uma prerrogativa legítima do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado reivindica com êxito o monopólio legítimo da coação física dentro de um determinado território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Jellinek, o Estado está inserido no mundo real em sentido objetivo, tendo existência fora de nós e desenvolvendo-se no tempo e no espaço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek defendia que a existência do Estado é puramente subjetiva e conceitual, pertencendo à ordem do espírito, sem existência fora da mente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek entende o Estado como parte do mundo real dos fatos em sentido objetivo, com existência fora da mente dos indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Georges Burdeau, o Estado não pertence à fenomenologia tangível, sendo da ordem do espírito e existindo unicamente por ser pensado (ideia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau afirma que o Estado é um complexo institucional totalmente tangível, que se manifesta exclusivamente em suas ações e órgãos materiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau conceitua o Estado como uma ideia, uma abstração, que não tem outra realidade além da conceitual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado deve ser compreendido tanto como pertencente ao mundo real dos fatos (tangível) quanto como uma ideia (intangível, abstração).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presença do Estado nas sociedades modernas é totalmente tangível, podendo ser percebida como um todo integrado, sem a necessidade de elementos conceituais ou esparsos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é tangível (ações, órgãos) e intangível (ideia, abstração), e só pode ser percebido através de elementos esparsos, não como um todo integrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferentemente de outras organizações sociais, o Estado se institui como um fim em si mesmo, garantindo o cumprimento de outros fins sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é apenas um meio instrumental para unificar as ações dos indivíduos, não possuindo um fim em si mesmo, tal como as empresas da sociedade civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado se institui como um fim em si mesmo e não apenas como um meio, garantindo o cumprimento dos outros fins sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Jellinek, o Estado possui um poder de mando ilimitado e incondicionado de vencer todas as demais vontades na sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek considerava que o poder de mando do Estado é limitado e condicionado, pois deriva juridicamente seu poder de todas as associações inferiores que o compõem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek afirma que o Estado tem poder de mando ilimitado, incondicionado, e recebe sua força originariamente de si mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de Estado, como é utilizado hoje e por organizações internacionais, tem sua origem no século XVI, com a formação do Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de Estado moderno surgiu no século XVIII, com a Revolução Francesa, sendo a *polis* grega a base para sua forma e nomenclatura atuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de Estado tal como usado hoje teve sua origem no século XVI, com a formação do Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é o traço mais peculiar do Estado, sendo o elemento que o diferencia de outras formas de organização política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é uma característica secundária do Estado, sendo a organização política complexa o traço mais peculiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é o traço mais peculiar do Estado, diferenciando-o das outras formas de organização política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Duverger, o Estado possui a organização política mais aperfeiçoada entre todas as comunidades humanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger argumenta que o Estado moderno possui uma organização política mais simples e menos hierarquizada do que as comunidades tribais primitivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duverger afirma que o Estado possui a organização política mais aperfeiçoada, com maior divisão de trabalho e hierarquia dos órgãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groppali define o Estado como a "pessoa jurídica soberana, constituída de um povo organizado sobre um território sob o comando de um poder supremo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Groppali, o Estado se define unicamente como uma ordenação jurídica (sistema de normas), excluindo o território e o povo de seus elementos constitutivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groppali sintetiza o Estado a partir de seus elementos constitutivos, incluindo povo, território, e poder supremo, sendo uma pessoa jurídica soberana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O surgimento do Estado moderno está ligado à despersonalização do poder político e à separação entre a vida pública e a vida privada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas sociedades grega e romana, a distinção entre vida pública e privada já era bem estabelecida, o que facilitou o surgimento do Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno surge com a despersonalização do poder e a separação entre público e privado, que era inconcebível na Antiguidade grega e romana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema feudal se caracterizava pela dispersão de poderes e a ausência de uma relação direta entre o poder público e o cidadão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema feudal caracterizava-se pela alta centralização de poder nas mãos do Rei, que tinha acesso direto aos tributos e ao serviço militar dos camponeses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O feudalismo se baseava na dispersão de poderes, na mediação dos estamentos e na ausência de relação direta entre o poder público e o cidadão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A centralização e unidade do poder político, superando o pluralismo de poderes medieval, é um traço essencial do Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno se distingue pela manutenção do pluralismo de poderes característico do feudalismo e pela descentralização dos instrumentos militares e tributários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que distinguiu o novo modelo político do Estado moderno foi a centralização do poder, oposta ao pluralismo feudal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de um exército permanente, uma burocracia profissional e um sistema de tributos foram fatores que permitiram a monopolização do poder pelo Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monopolização do poder foi facilitada pela dissolução dos exércitos permanentes e pela redução da burocracia, aumentando a dependência do Rei em relação aos senhores feudais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de exército permanente, burocracia e tributos permitiu a centralização e monopolização do poder, tornando o rei independente dos senhores feudais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado absolutista, no plano político, eliminou os centros de autoridade autônoma (cidades, cortes) para impor uniformidade legislativa e administrativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado absolutista, no plano político, fomentou o pluralismo orgânico, incentivando a autonomia funcional das corporações e das cidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado absolutista destruiu o pluralismo orgânico, eliminando centros de autoridade autônoma e unificando a administração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No plano jurídico, o Estado absolutista detém o monopólio da produção de normas, pois não reconhece um direito acima de si que possa limitar sua vontade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado absolutista era limitado juridicamente pelo poder papal e pela lei natural, que o impediam de ter o monopólio da produção normativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado absolutista afirma o monopólio da produção de normas jurídicas, não reconhecendo direito vigente acima do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Paz de Westfália de 1648 estabeleceu as bases do moderno sistema de relações internacionais, reconhecendo a igualdade soberana e a não intervenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Westfália reforçou a hegemonia do Sacro Império Romano Germânico, garantindo o direito de intervir nos assuntos internos dos reinos menores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Westfália consagrou a igualdade jurídica dos Estados, a soberania dos monarcas sobre seus territórios e a não intervenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adoção do Direito Romano foi um fator crucial para o Estado moderno, fornecendo a racionalização formal do direito e o conceito de propriedade adequado ao capitalismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Direito Romano, com seu caráter subjetivo e consuetudinário, foi totalmente descartado pelo Estado moderno, que se baseou apenas na legislação real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Direito Romano permitiu a racionalização formal do direito, criando uma ordem jurídica objetiva e o conceito de propriedade, útil para a burguesia e o monarca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Hobbes, a razão leva os homens a pactuar, renunciando a todos os direitos que possuíam no estado de natureza para entregá-los ao soberano em troca de ordem e segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Hobbes, a paixão é o motor exclusivo da criação do contrato social, e a razão é o que leva os homens a permanecerem na guerra de todos contra todos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A paixão leva ao conflito, mas é a razão que leva os homens a pactuarem e renunciarem aos seus direitos em favor do soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Hobbes, o soberano é a única fonte do direito, e detém a máxima autoridade mesmo nos assuntos espirituais ou religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes defendia a estrita separação entre o poder temporal do soberano e o poder espiritual, sendo a Igreja a única autoridade máxima em assuntos religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O soberano é o único poder legislativo, o Estado é a única fonte do direito, e o soberano tem máxima autoridade até nos assuntos religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Locke defendia que a principal finalidade da sociedade política é a manutenção dos direitos individuais, especialmente a vida, a liberdade e a propriedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Locke defendia que a função principal do Estado é a anulação dos direitos de propriedade individual em prol da igualdade coletiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Locke, o objetivo principal do estabelecimento da sociedade política é a manutenção e proteção dos direitos individuais, sobretudo a propriedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Locke, o poder legislativo é supremo, mas limitado pela lei natural, que permanece como norma eterna, e não pode tirar as propriedades dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke acreditava que o poder legislativo, por ser supremo, estava totalmente desvinculado da lei natural, podendo legislar arbitrariamente sobre a propriedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder legislativo em Locke é supremo, mas está sob restrições, não podendo transgredir os direitos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Jacques Rousseau afirma que renunciar à condição de homem livre é prejudicial à sua moralidade e aos seus deveres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defendia que a renúncia à liberdade é um ato necessário para alcançar a moralidade social, pois a liberdade no estado de natureza é destrutiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau afirma que renunciar à liberdade é prejudicial à condição de homem e moralidade, pois o homem nasce livre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defende que a força por si mesma não pode legitimar o direito, sendo que a obediência é devida apenas aos poderes legítimos baseados em convenções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau argumenta que a força é o único fator que legitima o direito, pois, se a força desaparecesse, o direito também desapareceria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau afirma que a força não faz o direito, e a autoridade legítima entre os homens se baseia em convenções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho concebe a Cidade de Deus como uma Igreja-Estado cristianizada, colocando o poder supremo nas mãos das autoridades eclesiásticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho estabeleceu uma separação estrita entre a Cidade de Deus (Igreja) e a cidade terrena (Estado), defendendo a autonomia total do poder civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho concebe a Cidade de Deus como uma Igreja-Estado, com o poder supremo nas mãos da hierarquia eclesiástica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para o marxismo, o Estado é um elemento da superestrutura da sociedade e serve como instrumento de dominação da classe que domina economicamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O marxismo considera o Estado como um produto da infraestrutura econômica, cuja principal finalidade é garantir a proteção igualitária de todas as classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado, para o marxismo, é um elemento da superestrutura e um instrumento de dominação da classe dominante economicamente (burguesia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A institucionalização do poder estabelece distinção entre o poder e os indivíduos que exercem suas funções, e afirma o Estado como a entidade titular do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A institucionalização significa que o poder está incorporado na pessoa do chefe (governante), mantendo o vínculo de fidelidade do homem ao homem, como no feudalismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A institucionalização despersonaliza o poder, distinguindo-o do governante e atribuindo a titularidade à entidade estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuidade do Estado é garantida por ser indiferente à sucessão dos governantes, assegurando a permanência das leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado morre com a sucessão de cada governante, exigindo que os atos administrativos sejam revalidados a cada mudança de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado não morre e é indiferente à sucessão dos governantes, assegurando a permanência dos seus atos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau afirma que a soberania, sendo o exercício da vontade geral, é indivisível e inalienável, pois o soberano só pode ser representado por si mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau considerava que a soberania pode ser delegada e representada, desde que por uma assembleia de homens, o que é um ato da magistratura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é indivisível e inalienável, e o soberano (o corpo do povo) só pode ser representado por si mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans Kelsen defende que o Estado não é anterior ao Direito, pois o Estado só pode ser concebido como pessoa jurídica através de normas que regulam os atos individuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen argumenta que o Estado existe anteriormente e de forma independente do Direito, criando o Direito e, depois, subordinando-se voluntariamente a ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Kelsen, o Estado não é anterior ao Direito, e sua existência como pessoa jurídica é baseada nas normas jurídicas que regulam a conduta dos indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Tomás de Aquino definiu a lei como uma "ordenação da razão para o bem-estar comum" e a lei positiva degenera quando se opõe aos princípios da justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Tomás de Aquino defendia que a lei é puramente uma expressão da vontade divina, não devendo ser uma ordenação da razão humana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Tomás definiu a lei como uma ordenação da razão, distinguindo a lei humana (positiva) que deve se basear na lei natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autonomia do poder estatal implica que ele formula suas próprias leis, sendo independente no plano externo e supremo no plano interno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autonomia do Estado é a característica que define sua subordinação incondicional a um poder superior (externo), como um império ou a Igreja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autonomia consiste em formular suas próprias leis, não reconhecer poder acima de si, sendo independente no plano externo e supremo no interno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na época medieval, o poder dos reis estava limitado internamente pelos poderes feudais e externamente pela Igreja e pelo Imperador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na época medieval, os reinos europeus eram unidades de poder político completo, com soberania absoluta sobre o Imperador e a Igreja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder do rei medieval estava limitado internamente (poderes feudais) e externamente (Igreja e Imperador).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado se constitui em um instrumento que, a partir de um centro de poder, hierarquiza a estrutura política da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura política do Estado se caracteriza por manter a dispersão de poder e a ausência de hierarquia, permitindo que cada ator político defina sua posição de forma autônoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado se constitui a partir de um centro de poder que hierarquiza a estrutura política e configura a rede de relações de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A domesticação do poder, alcançada pela despersonalização de seu exercício através de leis gerais, é o ideal moral que legitima o Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno se legitima pela personalização do poder no governante, de modo que os indivíduos obedecem aos ocupantes de cargos, e não às leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade do Estado moderno reside na domesticação do poder por meio da despersonalização de seu exercício e da obediência à lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pacto social, para Rousseau, tem a função de substituir a desigualdade física natural por uma igualdade moral e legítima entre os homens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defende que o pacto social deve preservar e institucionalizar a desigualdade física e as diferenças de força existentes no estado de natureza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pacto fundamental substitui a desigualdade física pela igualdade moral e legítima entre os homens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a teoria marxista, a revolução proletária deve visar a destruição do Estado, da religião e do nacionalismo, vistos como instrumentos de dominação de classe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O marxismo defendia que o proletariado deveria preservar o Estado burguês, utilizando-o como instrumento de dominação cultural e religiosa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marx defendia que o Estado, a religião e o nacionalismo são instrumentos de dominação que devem ser destruídos pela revolução proletária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado não deve ser confundido com a sociedade, sendo o Estado o instrumento que exerce o poder, e a sociedade o conjunto de pessoas convivendo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado e a sociedade são conceitos idênticos e intercambiáveis, sendo que a sociedade é o instrumento que exerce o poder sobre si mesma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é o instrumento que exerce o poder, enquanto a sociedade é a pluralidade de pessoas convivendo, sendo conceitos distintos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 – Finalidades e Elementos do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os elementos essenciais consagrados do Estado moderno são o povo, o território e o poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os elementos essenciais do Estado moderno se limitam ao governo e ao ordenamento jurídico, sendo o povo e o território elementos secundários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os três elementos essenciais consagrados na literatura da Ciência Política são povo, território e poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado não dispõe de consciência e vontade própria, pois ele somente existe na consciência e na vontade de seus integrantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado possui uma consciência e vontade autônomas, independentes dos indivíduos, que lhe permitem estabelecer fins objetivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado só existe na consciência e na vontade de seus integrantes e nas suas interações recíprocas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fim próprio, objetivo e necessário do Estado é a construção, consolidação e conservação da comunidade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fins próprios do Estado são sempre subjetivos, contingentes e relativos, variando conforme a ideologia dos governantes em exercício.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fins próprios, objetivos e necessários do Estado coincidem com os fins políticos de caráter mediato, como a conservação da comunidade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O “bem comum” constitui o fim objetivo do Estado, entendido como o conjunto de condições para que todos os membros da comunidade alcancem seus bens particulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de “bem comum” refere-se ao bem de todos como uma unidade real, sendo um fim que está em contradição com os bens particulares dos indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O “bem comum” não é o bem de todos como unidade real, mas o conjunto de condições para que grupos e indivíduos alcancem seu “bem particular”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen afirma que o Estado torna possível a "verdadeira liberdade", pois ele é a lei jurídica, expressão da legalidade normativa do valor ou do espírito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen defendia que a verdadeira liberdade só é alcançada fora da legalidade do Estado, pois este é visto como mera legalidade causal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen associa o Estado à lei jurídica, sendo a liberdade a expressão da legalidade normativa realizada pelo Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a obtenção do bem comum, o Estado deve atuar sobre o fundamento do direito e na forma do direito, exigindo a participação dos cidadãos na elaboração das leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para atingir seus objetivos de segurança e ordem, o Estado pode atuar de forma arbitrária e prescindir do fundamento do direito e da participação cidadã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado deve atuar sobre o fundamento do direito e na forma do direito, e é necessário que os cidadãos participem na elaboração das leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O território e a população constituem a base material do Estado, sendo imprescindível a existência de uma comunidade humana estabelecida de forma perene em um local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é essencialmente intangível e imaterial, e, portanto, o território e a população são elementos secundários de sua existência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O território e a população são a base material que condiciona a existência do Estado, pois é necessária uma comunidade humana e um território perene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo Estado exige um território como condição imprescindível de sua organização, das funções que deve exercer e de sua competência para regularizar sua ação político-jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno é caracterizado pela ausência de territorialidade, sendo sua organização baseada unicamente em vínculos de subordinação pessoal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existe Estado moderno sem território, pois este é uma condição imprescindível de sua organização e de sua competência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O território de um Estado abrange casos de extraterritorialidade, como navios e aviões de guerra que se consideram porção do território do Estado cuja bandeira ostentam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O território é definido estritamente pelos limites geográficos das fronteiras, e a extraterritorialidade não é considerada parte constitutiva do território estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de território inclui os casos de extraterritorialidade, como navios e aviões de guerra que ostentam a bandeira do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Kelsen, o território é o âmbito espacial de validade da ordem jurídica do Estado, e não o âmbito de sua eficácia, sendo um conceito puramente jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen afirma que toda doutrina em torno do território tem caráter puramente geográfico ou naturalista, desvinculado do elemento normativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelsen define o território como o âmbito espacial de validade da ordem jurídica do Estado, sendo um conceito puramente jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma propriedade do território é sua impenetrabilidade subjetiva, no sentido de que em um mesmo território só um Estado exerce o poder com exclusividade (soberania territorial).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania territorial permite que múltiplos Estados exerçam o poder simultaneamente e com exclusividade sobre o mesmo espaço terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O território é um elemento essencial que implica sua impenetrabilidade subjetiva, na qual só um Estado exerce o poder com exclusividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza o Estado como forma de sociedade política historicamente existente é precisamente seu caráter territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A territorialidade não é uma condição essencial; o Estado pode existir como sociedade política estabelecida apenas sobre um vínculo de subordinação pessoal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza o Estado como forma de sociedade política é o seu caráter territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de população faz referência a um aspecto quantitativo (número de indivíduos), sendo um termo fundamentalmente demográfico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de população faz referência ao conjunto de pessoas que formam um aglomerado único, diferenciado por um vínculo jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População é um termo demográfico, referente ao número de indivíduos que habitam o território, sem levar em conta sua condição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de povo é uma categoria jurídica que inclui apenas aqueles indivíduos cuja conduta está regulada por uma ordem jurídica nacional, ligados pelo vínculo da cidadania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de povo é uma categoria sociológica que abrange todos os indivíduos que habitam o território do Estado, incluindo estrangeiros e apátridas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O povo compreende as pessoas submetidas ao poder do Estado ligadas a ele pelo vínculo da cidadania, sendo uma categoria jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek afirma que os indivíduos, enquanto objetos do poder do Estado, são sujeitos de deveres, mas enquanto membros do Estado, são sujeitos de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Jellinek, os indivíduos são apenas sujeitos de deveres em sua qualidade de membros da corporação estatal, sem possuir direitos em relação ao *imperium*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os indivíduos são sujeitos de deveres enquanto objetos do poder, e sujeitos de direito enquanto membros da corporação estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nação satisfaz a necessidade de pertencer a uma comunidade ampla para afirmar a identidade, enquanto o Estado atende às necessidades de segurança e ordem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado é a entidade que satisfaz a necessidade de pertencer a uma comunidade cultural e afirmar a identidade, enquanto a nação trata da segurança e ordem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nação se relaciona à identidade e pertencimento, e o Estado se relaciona à segurança e ordem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um equívoco a identificação da noção de povo, como elemento constitutivo do Estado, com determinada etnia, pois tal abordagem favorece doutrinas racistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A identificação do povo do Estado com uma única etnia é fundamental para a coesão social e a manutenção da paz interna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A identificação do povo com determinada etnia é um equívoco que favorece o surgimento de doutrinas racistas e a dominação de uma etnia sobre a outra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-nação moderno buscou estabelecer uma ordem homogênea, dissipando as diferenças entre as comunidades através de uma mesma língua, sistema educacional e símbolos identitários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-nação moderno nasceu com a finalidade de proteger e celebrar a diversidade cultural e a heterogeneidade das comunidades coexistentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-nação procurou dissipar as diferenças culturais para estabelecer uma ordem homogênea, através da imposição dos interesses de um grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nacionalismo se caracteriza por realizar um duplo movimento: integração da diversidade interior e exclusão dela no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nacionalismo moderno visa a eliminar todas as fronteiras, promovendo a total integração com o que é estranho em detrimento da diversidade interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nacionalismo implica a integração interna e a exclusão externa, estabelecendo uma fronteira clara com o que se encontra fora da nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do ponto de vista sociológico, Nação é um povo que se fixa em uma área geográfica, adquire organização político-administrativa e se mantém unido por uma história e cultura comuns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nação, do ponto de vista sociológico, é sinônimo de população, referindo-se apenas ao conjunto de indivíduos que habitam um espaço geográfico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Nação é definida sociologicamente como um povo fixado em área geográfica, unido por história e cultura, e com organização político-administrativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nação se constitui historicamente em função da necessidade de integração e coesão interna e da necessidade de diferenciação e singularidade em relação a outros povos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formação da nação depende unicamente de um fator exclusivo, como a língua ou a religião, sem depender de processos de integração e diferenciação simultâneos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A constituição da nação é complexa, resultando da unificação/integração interna e da afirmação de singularidade/diferenciação externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na nação de origem política (como no Brasil), o Estado é o agente ativo e criador, e a nação é edificada posteriormente dentro dos seus marcos políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na nação de origem política, o Estado é a consequência do desenvolvimento de laços culturais autônomos preexistentes à estrutura política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste tipo de nação, o Estado é o criador da nação, que é construída dentro dos marcos políticos estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na nação de origem étnico-cultural, os direitos não são derivados dos cidadãos, mas sim desse grupo social perene (etnia/cultura).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na nação de base cultural, os direitos são derivados estritamente dos indivíduos, e não do organismo social perene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na nação étnico-cultural, o protagonista é o fator étnico, e os direitos derivam desse organismo, e não dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de autodeterminação está ligado ao nascimento da ideia de governo representativo, defendendo que os cidadãos devem escolher seu governo com base no consentimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de autodeterminação, na sua origem, visava à fragmentação e pulverização imediata dos Estados por critérios puramente linguísticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de autodeterminação está historicamente ligado ao governo representativo e à escolha do governo com base no consentimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nacionalidade é o vínculo jurídico-político que une cada indivíduo a um Estado determinado, estabelecendo a condição de nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nacionalidade é um vínculo de natureza estritamente privada e social, desvinculado de qualquer relação jurídico-política com o Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nacionalidade é o vínculo de natureza jurídico-política que une o indivíduo ao Estado, estabelecendo a condição de nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidadania é a condição de membro ativo do Estado, caracterizada pela titularidade dos direitos políticos (como o sufrágio), sendo um conceito mais específico do que nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidade e cidadania são sinônimos, referindo-se ambos à titularidade dos direitos políticos e à condição de membro ativo do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidadania é a condição de membro ativo com direitos políticos; a nacionalidade é a condição de membro do Estado, podendo o nacional não ser cidadão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema de aquisição de nacionalidade *jus sanguinis* confere a nacionalidade pela descendência familiar, e não pelo fato de o nascimento ter ocorrido no território nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema *jus sanguinis* determina que a nacionalidade é adquirida unicamente pelo local de nascimento (solo), independentemente da nacionalidade dos pais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *jus sanguinis* confere a nacionalidade pela família (sangue), enquanto o *jus solis* confere pelo território de nascimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo T. H. Marshall, o elemento civil da cidadania é composto pelos direitos necessários à liberdade individual, como a liberdade de ir e vir, propriedade e direito à justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O elemento civil da cidadania, para Marshall, refere-se unicamente ao direito de votar e ser votado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O elemento civil da cidadania compreende os direitos necessários à liberdade individual, como liberdade de imprensa, propriedade e direito à justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Partidos Políticos são considerados integrantes do Estado (Sociedade Política) com a função de articular as demandas provenientes da Sociedade Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Partidos Políticos são classificados como organizações que pertencem exclusivamente à Sociedade Civil, por não exercerem o poder coercitivo estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Partidos Políticos são considerados integrantes do Estado (Sociedade Política), com a função de articular e canalizar as demandas da Sociedade Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fator mais importante na consolidação democrática não é a sociedade civil, mas sim a institucionalização política, que diminui a incerteza e normaliza as políticas democráticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consolidação democrática depende primariamente da atividade da sociedade civil, pois a institucionalização política tende a aumentar a incerteza e a instabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fator mais importante na consolidação democrática é a institucionalização política, embora a sociedade civil desempenhe um papel importante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 – Soberania Estatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é entendida como o caráter supremo de um poder, no sentido de que dito poder não admite nenhum outro, nem acima nem concorrendo com ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é entendida como um poder delegado e condicional, que admite a concorrência de poderes internos e externos em igualdade de condições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania é o caráter supremo do poder que não admite a existência de outro poder superior ou concorrente a ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Bodin definiu a soberania como o poder absoluto e perpétuo de uma república, cuja qualidade primordial é o poder de dar leis, anulá-las e interpretá-las sem limitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Bodin defendia que a soberania é um poder limitado no tempo e revogável, cuja principal atribuição é a submissão às leis criadas pelos súditos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin definiu a soberania como o poder absoluto e perpétuo, sendo o principal atributo o poder de dar, anular e interpretar leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Rousseau, a soberania, sendo o exercício da vontade geral, jamais deve alienar-se, e o soberano (o ser coletivo) não pode ser representado senão por ele mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defendia que a soberania, uma vez transferida ao soberano, deve ser delegada e exercida por representantes eleitos, já que a vontade pode ser transmitida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defende que a soberania reside no povo, é inalienável e não pode ser representada, pois o poder se transmite, mas a vontade jamais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania interna é o *imperium* que o Estado exerce sobre o território e a população, representando a superioridade do poder político frente aos demais poderes sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania interna é a manifestação da independência do poder do Estado perante outros Estados e organizações internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania interna é o *imperium* exercido dentro do território e a superioridade do poder político sobre os demais poderes sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo histórico da afirmação da soberania significou a luta pela independência do poder real diante do Sacro Império Romano Germânico, da Igreja e dos poderes feudais internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A afirmação da soberania ocorreu de forma pacífica e colaborativa entre o poder real, a Igreja e o Império, pois havia um consenso sobre a unidade estatal desde o início da Idade Média.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de soberania surge historicamente como a afirmação da independência do poder do rei diante da Igreja, do Império e dos poderes feudais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder do rei, no contexto da afirmação da soberania, era considerado originário (não delegado), perpétuo e absoluto, com a função especial de ditar leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder do rei era considerado delegado, temporário e limitado, derivando sua autoridade dos poderes feudais e da submissão ao Império.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder real, afirmado pela soberania, era originário, perpétuo e absoluto, e não delegado ou recebido de outro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek afirma que a soberania, em sua origem histórica, é uma concepção de índole política que somente mais tarde se condensou em uma de índole jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek considerava que a soberania é um conceito estritamente jurídico desde sua origem, nunca tendo tido conotação política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Jellinek, a soberania nasceu como uma concepção política e, posteriormente, se tornou jurídica, sendo considerada por ele uma independência jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três ideias básicas implícitas no conceito de soberania são a supremacia jurídica, a autonomia do poder e a fonte originária desse poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três ideias básicas da soberania são a delegação do poder, a submissão à ordem feudal e a dependência econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de soberania implica as ideias de supremacia jurídica, autonomia do poder e fonte originária do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania política se manifesta na autonomia do poder, destacando o monopólio por parte do Estado de toda força que gera uma coação incondicional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania política implica a total delegação do monopólio da força e da coação a grupos sociais internos e externos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania política afirma a autonomia do poder, sendo o monopólio da coação incondicional uma de suas manifestações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania popular significa que, dentro de determinado ordenamento político, nenhuma instância tem legitimidade se não for constituída ou derivada da vontade soberana do povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania popular implica que a fonte primária do poder reside na vontade inquestionável do monarca, independentemente da vontade do povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania popular se relaciona à fonte originária do poder, que é a vontade soberana do povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria da soberania era adequada ao Estado absolutista e ao pressuposto de autoridade real, onde o rei mandava e o povo obedecia sem que o rei devesse obediência a ninguém.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria da soberania surgiu como um protesto contra os poderes dos Estados absolutistas, defendendo a limitação do poder real pelas leis feudais e pela Igreja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A doutrina da soberania caracterizou os Estados absolutistas ao expressar que o rei mandava e não devia obediência a ninguém.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Jellinek, a Antiguidade não conheceu o conceito de soberania porque lhe faltava a oposição do poder do Estado a outros poderes, fator determinante para seu surgimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek acreditava que o conceito de soberania foi plenamente desenvolvido na Antiguidade clássica, pois lá já havia uma distinção clara entre os poderes estatal e religioso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek afirma que a Antiguidade careceu do conceito de soberania devido à ausência de oposição do poder do Estado a outros poderes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consolidação da dominação real ocorreu quando o poder supremo de justiça foi adquirido, assumindo o poder legislativo e de polícia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania real foi consolidada quando o monarca transferiu o poder legislativo e de polícia para os senhores feudais, enfraquecendo o poder central de justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder real se consolidou ao monopolizar o poder supremo de justiça e assumir o poder legislativo e de polícia, passando de superior a supremo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O primeiro grande fenômeno no processo de afirmação do poder estatal contra entidades supranacionais foi a constituição das igrejas nacionais, anterior e acentuada pela Reforma Protestante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A constituição de igrejas nacionais foi um fenômeno posterior à Reforma Protestante e não teve relevância na afirmação do poder estatal contra o Papado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A constituição das igrejas nacionais, anterior à Reforma Protestante, foi o primeiro grande fenômeno de afirmação do poder diante de entidades supranacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos séculos XVII e XVIII, o Estado se envolveu no campo da economia, estabelecendo alfândegas e indústrias, promovendo o mercantilismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos séculos XVII e XVIII, o Estado moderno adotou políticas de *laissez-faire*, abstendo-se totalmente de intervir na economia, que se tornou organizada por atores privados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intervenção do Estado na economia nos séculos XVII e XVIII, com criação de alfândegas e indústrias, levou ao mercantilismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo de afirmação do Estado moderno pode ser caracterizado como uma expropriação política e nacionalização do poder, resultando na monopolização e concentração da força na entidade estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado moderno foi formado por um processo de distribuição e descentralização do poder, que levou à fragmentação da força em diversos corpos intermediários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo de afirmação do Estado foi uma expropriação política que levou à monopolização e concentração de toda força e poder na entidade estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A evolução histórica da soberania partiu de uma concepção subjetiva e personalizada no príncipe, instalando-se depois na nação, e por fim adquirindo caráter impessoal e objetivo, expresso pela soberania da Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de soberania sempre manteve seu caráter impessoal e objetivo, desde o absolutismo até os dias atuais, sendo a figura do príncipe irrelevante para sua definição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania evoluiu de uma concepção subjetiva (príncipe) para uma impessoal e objetiva (Constituição/direito).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin, ao definir o poder soberano como subjetivo, afirma que este pode assentar-se sobre um indivíduo (príncipe), uma classe da nação ou a nação inteira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin limitou o poder soberano unicamente ao príncipe, sendo incompatível com a soberania de uma aristocracia ou do povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder subjetivo, para Bodin, pode assentar-se no príncipe, numa aristocracia ou no povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin buscava a restauração da paz e da ordem na França do século XVI, defendendo o estabelecimento de uma monarquia forte e a supremacia do rei na organização política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin, em *Os seis livros da república*, defendia a guerra civil e a fragmentação do poder entre as facções religiosas como meios para alcançar a ordem política ideal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin buscou a paz e a ordem na França do século XVI e considerava o poder soberano a condição necessária para a existência do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Bodin, o soberano é a fonte do direito e não pode estar submetido a nenhum vínculo legal, o que configura seu poder como absoluto e inalienável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin sustentou que o soberano está totalmente submetido às leis criadas pelos súditos, e, por isso, seu poder é revogável e temporário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin define a soberania como um poder absoluto e perpétuo, e como o soberano cria o direito, não pode estar submetido a vínculo legal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin diferencia Estado e governo, defendendo que a característica do Estado reside na posse da soberania, e a forma de governo depende de como o soberano exerce sua função.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin considera Estado e governo sinônimos, sendo que a soberania é uma característica da forma de governo, e não uma qualidade essencial do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin diferencia Estado (posse da soberania) e governo (sistema adotado pelo soberano para exercer a função).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin admite limitações ao poder do soberano, originadas da lei divina, do direito natural e dos deveres morais decorrentes de tratados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin não admitia nenhuma limitação ao poder do soberano, que era totalmente irrestrito e autocrático em relação às leis divinas, naturais ou aos tratados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin admite limitações ao poder do soberano pela lei divina, o direito natural e os deveres morais que nascem da obediência aos tratados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A grande contribuição de Hugo Grocio à doutrina da soberania foi no plano das relações entre os Estados, influenciando os princípios da Paz de Westfália em 1648.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio se concentrou exclusivamente na soberania interna (relação entre súditos e monarca), e suas teorias não tiveram relevância no direito internacional estabelecido pela Paz de Westfália.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio contribuiu significativamente para a soberania externa e influenciou os princípios básicos das relações internacionais na Paz de Westfália.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As teorias políticas de Grocio estão baseadas principalmente no direito natural, no *jus gentium* (direito das gentes) e na soberania dos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio rejeitou a influência do direito natural e do *jus gentium*, baseando suas doutrinas unicamente no direito positivo dos Estados absolutistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As teorias de Grocio baseiam-se no direito natural, no *jus gentium* e na soberania dos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Grocio, o Estado é uma sociedade perfeita de homens livres que tem por objeto a regulação do direito e o bem-estar comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio definiu o Estado como uma sociedade imperfeita de homens escravos, cujo único objetivo é a manutenção da guerra e da anarquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio define o Estado como uma sociedade perfeita de homens livres que busca a regulação do direito e o bem-estar comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio combateu as doutrinas da soberania popular e repudiou o direito de resistência, defendendo que o povo tem o dever de obediência após eleger seu governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio foi um forte defensor da soberania popular e do direito inalienável de resistência do povo contra o soberano, mesmo após a escolha do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocio combateu a soberania popular, defendendo que o povo deve obediência ao governo eleito e repudiando o direito de resistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Carta das Nações Unidas consagra o princípio da igualdade soberana de todos os seus membros e declara a não intervenção em assuntos que dependam essencialmente da jurisdição de qualquer Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Carta da ONU estabelece a hierarquia dos Estados, permitindo a intervenção em assuntos essenciais à jurisdição de qualquer membro sempre que houver divergência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Carta da ONU consagra a igualdade soberana dos membros e a não intervenção em assuntos que dependam essencialmente da jurisdição estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ONU só aceita a integração de Estados soberanos, sendo que comunidades com governo, mas sem soberania sobre seu território (como o povo palestino), não são aceitas como membros plenos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ONU aceita como membros plenos qualquer comunidade que possua um governo e um povo, independentemente de possuírem soberania sobre seu território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ONU é integrada por Estados soberanos, e comunidades sem soberania sobre seu território não são aceitas na organização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 135-136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de independência dos Estados implica exclusividade, autonomia e competência plena, sendo a intervenção ilícita individual ou coletiva uma ingerência ilícita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de independência dos Estados permite a intervenção ilícita individual ou coletiva no território de outro Estado sem configurar violação de soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de independência implica exclusividade e autonomia; a intervenção individual ou coletiva no território de outro Estado é ingerência ilícita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania somente existe na medida em que se atribui, com caráter exclusivo, à esfera territorial onde o poder é exercido, mostrando o caráter essencial de territorialidade da soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter essencial da soberania é a desterritorialização, sendo o âmbito de atuação do poder estatal completamente desvinculado do espaço físico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania exige o caráter exclusivo da esfera territorial onde o poder é exercido, mostrando a essencialidade da territorialidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A organização do poder através da distribuição territorial das competências dá origem às formas de Estado (unitário ou federal), enquanto a distribuição de funções em órgãos cria as formas de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As formas de Estado dependem da fixação de um sistema de órgãos para exercer funções (Monarquia, República), e as formas de governo dependem da distribuição territorial da jurisdição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A organização do poder do ponto de vista territorial define as formas de Estado (unitário ou federal), e a organização de órgãos define as formas de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado unitário em sua forma pura, o território se apresenta como uma esfera unificada e jurisdição única de um único organismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado unitário se caracteriza pela total distribuição de competências políticas entre diferentes partes do território, com ampla autonomia regional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado unitário puro tem o território como esfera unificada e jurisdição única de um único organismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito clássico de soberania é questionado atualmente devido a um duplo processo: de âmbito supranacional (ordem internacional) e infranacional (crescente importância de cidades e ONGs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito clássico de soberania é inquestionável na atualidade, pois apenas o Estado Nacional continua sendo o único ator político relevante no cenário global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O questionamento da soberania hoje tem dupla origem: supranacional (limitações internacionais) e infranacional (importância crescente de novos atores políticos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O questionamento da soberania estatal na ordem internacional deve-se à afirmação de que a supremacia corresponde à ordem jurídica internacional, e não à ordem jurídica criada pelo Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A supremacia jurídica da ordem internacional é plenamente aceita hoje em dia, e não existe mais discussão sobre a supremacia da ordem jurídica criada pelos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O questionamento atual da soberania se deve ao deslocamento da ideia de supremacia jurídica para a ordem internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção moderna de soberania proposta por Bodin é de natureza pessoal e subjetiva, assentada sobre o príncipe, na aristocracia ou no povo, sendo este poder ilimitado por estar "acima das leis".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção de soberania de Bodin é impessoal e objetiva, assentada unicamente na Constituição, sendo este poder sempre limitado pelas leis ordinárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção de Bodin é pessoal e subjetiva, assentando-se sobre um indivíduo ou corpo, e é ilimitado por estar "acima das leis", submetido apenas à lei divina e natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin, através de sua metodologia, diferencia direito e moral, mas admite que a justiça e o direito são postulados essenciais da ciência política, e o soberano está sujeito à lei natural e a fins morais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin defendia a total separação entre direito e moral, argumentando que o soberano, por ser a fonte do direito, não precisava se guiar por fins morais ou pela lei natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodin, embora diferencie direito e moral, admite a lei natural e os fins éticos como condicionantes da atividade dos governos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 6 – As funções do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão horizontal de poderes (Executivo, Legislativo e Judiciário) busca garantir a colaboração e o controle recíproco, evitando a concentração de poder em um único órgão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão horizontal de poderes visa a concentrar o poder no Legislativo, eliminando o controle recíproco para garantir a eficiência estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão horizontal dos poderes atua para evitar a concentração de poder através da colaboração e do controle recíproco entre os órgãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dada a complexidade da sociedade atual, há uma tendência de incluir, junto à divisão horizontal, uma divisão vertical consistindo na descentralização territorial do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão vertical é considerada obsoleta no Estado moderno, sendo a concentração de poder na esfera central a única forma de lidar com a complexidade social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma das tendências é incluir uma divisão vertical, ou seja, uma descentralização territorial do poder, devido à complexidade da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pleno desenvolvimento das funções estatais requer a segurança jurídica do Estado de direito, o incentivo à participação dos cidadãos e a clareza das regras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pleno desenvolvimento das funções estatais só depende de regras claras, sendo a participação cidadã e o Estado de direito fatores que dificultam sua atuação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento pleno das funções estatais exige segurança jurídica (Estado de direito), incentivo à participação dos cidadãos e regras claras e acessíveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal desafio da reforma do Estado é passar de um sistema estruturado com base no princípio autoritário e hierárquico para um sistema pluralista e flexível de tomada de decisões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reforma do Estado deve preservar o princípio autoritário e hierárquico para evitar o risco de desordem democrática no processo de tomada de decisões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo da reforma é transformar o Estado de um sistema autoritário para um sistema pluralista e flexível de tomada de decisões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo (em sentido restrito) é comumente denominado Poder Executivo e constitui o sujeito principal da ação política, atualizando e orientando a ação política do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo (em sentido restrito) refere-se ao Poder Judiciário, sendo o órgão encarregado unicamente de resolver conflitos e não de orientar a ação política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo, num sentido mais restrito, denomina-se Poder Executivo, e constitui o sujeito principal da ação política, orientando-a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os governantes são aqueles que, tendo recebido competência para gerir os negócios públicos, tomam as decisões iniciais e detêm o exercício da força coercitiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os governantes se limitam a executar decisões tomadas por agentes externos ao Estado, não possuindo o poder de decidir ou o exercício da força coercitiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governantes tomam as decisões iniciais, gerem negócios públicos e detêm o poder de decidir e o exercício da força coercitiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Burdeau, os governantes são órgãos do Estado (seus atos são imputados ao Estado) e, ao mesmo tempo, representantes do soberano (da vontade dos que detêm a maior força).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau defendia que os governantes são apenas agentes de sua própria vontade, e seus atos não podem ser imputados ao Estado como entidade abstrata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os governantes são órgãos do Estado (atos imputados ao Estado) e representantes do soberano (da força política preponderante).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau critica a concentração da totalidade do poder na pessoa dos governantes, pois o poder do Estado permanece estável, acima da vontade deles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A observação nos ensina que, no Estado, a totalidade do poder está sempre concentrada na pessoa dos governantes, que são o soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdeau critica a concentração total do poder nos governantes, pois há um soberano (poder do Estado) estável que goza de autonomia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se um órgão de governo transgride as normas de sua competência, incorre em desvio de poder; se ultrapassa as esferas de sua função, cai no vício de excesso de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transgressão das normas de competência é denominada excesso de poder, e o desvio de poder ocorre quando há omissão no cumprimento da função.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgredir as normas de competência é desvio de poder, e ultrapassar as esferas de função é vício de excesso de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek considera as três funções materiais do Estado como o Legislativo, o Jurídico e a Administração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellinek considera as três funções materiais do Estado como o Executivo, o Judiciário e o Federativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado de direito, o Parlamento garante a “legalidade” das normas através do debate, votação e expedição da lei, sendo o Executivo apenas um órgão de aplicação prática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado de direito, o Executivo é o órgão principal para garantir a legalidade das normas, podendo o Parlamento apenas vetar as leis por tempo determinado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Parlamento garante a legalidade das normas através do debate e expedição da lei com base em atribuições constitucionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A doutrina da divisão de poderes, idealizada por Montesquieu, tem como último objetivo a obtenção da máxima liberdade para os indivíduos, limitando o abuso de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu defendia que a divisão de poderes não visa a limitar o Estado, mas sim a otimizar a sua capacidade de intervenção na vida dos indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A doutrina de Montesquieu busca a autolimitação do Estado no exercício do poder, tendo como objetivo a obtenção da máxima liberdade individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke, precursor imediato de Montesquieu, identificou o poder legislativo (supremo), o executivo (aplicação prática) e um terceiro poder, o federativo (relações exteriores).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke considerava que o Judiciário era o poder supremo, sendo o Legislativo e o Executivo poderes estritamente subordinados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke identificou os poderes legislativo (supremo), executivo e federativo, sendo que os dois últimos geralmente estão nas mesmas mãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Montesquieu, quando o poder de julgar não está desvinculado dos poderes legislativo e executivo, não há liberdade, pois o juiz poderia ter a força de um opressor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu defendia a junção do poder de julgar ao Executivo para garantir a celeridade e a aplicação uniforme da lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A separação do poder de julgar do Legislativo e do Executivo é condição para a liberdade, pois evita que o juiz se torne um opressor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os três poderes resultantes da divisão de Montesquieu não se isolam, mas se vinculam reciprocamente através de meios de ação como a fiscalização e o veto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Kant, a organização perfeita da Constituição exige o isolamento total dos poderes, de modo que um não possa intervir ou fiscalizar a atuação do outro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os poderes estão reciprocamente unidos, podendo intervir na atuação dos demais através de meios de fiscalização e veto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder constituinte, que cria e revisa a estrutura constitucional, é interpretado como um quarto poder, sendo o Legislativo, Executivo e Judiciário os poderes constituídos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função de dotar a comunidade de estrutura constitucional é uma atribuição do Legislativo, e o poder constituinte não é considerado um poder distinto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder constituinte é interpretado como um quarto poder, criador, distinto dos poderes constituídos (L, E, J).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função legislativa tem um papel crucial nos Estados democráticos, constituindo um meio eficiente para realizar mudanças sociais de forma pacífica, de acordo com o direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos Estados democráticos modernos, a legislação é ineficaz para promover mudanças sociais, sendo os decretos do Executivo a única ferramenta relevante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função legislativa constitui um meio eficiente para realizar mudanças sociais de forma pacífica, contando com apoio da comunidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fase inicial do processo legislativo pode ter origem formal (órgãos do Estado, iniciativa popular) ou informal (grupos de interesse, partidos políticos e lideranças sociais).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A iniciativa popular e a influência de partidos políticos são consideradas canais informais, mas não podem iniciar formalmente o processo legislativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo pode ser iniciado formalmente por órgãos estatais ou por iniciativa popular, ou informalmente por grupos de interesse e partidos políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Executivo, com seu aparato burocrático e organização ministerial, possui uma ampla base institucional para reunir informações e preparar projetos de lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo não possui estrutura para recolher informações, sendo esta função exclusiva das comissões parlamentares e grupos de interesse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo conta com uma ampla base burocrática e ministerial para reunir informações e dados que contribuam para projetos de lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fase de formulação de alternativas é o momento de concentração de forças em apoio a diferentes projetos, buscando dotar a vontade particular de expressão normativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fase de formulação de alternativas é caracterizada pela completa neutralidade das forças políticas, pois o debate é estritamente técnico e legal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta fase é o momento de concentração de forças, que buscam dotar sua vontade particular de expressão normativa, polarizando posições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após a votação do Parlamento, o Executivo pode vetar o projeto de lei (parcial ou total), o que obriga a sua revisão pelo Parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo só pode se manifestar sobre a lei através da aprovação; o veto total ou parcial é uma atribuição exclusiva do Judiciário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo pode manifestar-se através da aprovação (promulgação) ou através de veto parcial ou total, que obriga o retorno ao Parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lei, como produto do sistema político, se reintegra nele após a publicação, e sua eficácia pode gerar apoio específico ao governo ou incrementar a demanda insatisfeita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo político se encerra totalmente com a publicação da lei, não havendo mais vínculo com o sistema político ou com a eficácia de conduta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lei, como produto do sistema político, se reintegra nele, e sua eficácia se manifesta como apoio ou incremento da demanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função executiva não é mera aplicação mecânica de regras gerais, pois é uma atividade permanente que contém em si uma atividade social e uma margem de livre iniciativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função executiva deve ser vista como a aplicação mecânica e literal das regras gerais, sem qualquer margem de livre iniciativa ou atividade social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função executiva não é mera execução mecânica de regras, pois é uma atividade permanente com campo de livre iniciativa e atividade social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração exerce uma função mediadora entre o político e o social, mas pode ser desvirtuada se interferir na função de governo, ascendendo ao nível de controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função principal da administração é interferir na função de governo, ascendendo ao nível de controle, sendo este o seu papel principal no Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração exerce função mediadora, mas corre o risco de desvirtuamento se interferir na função de governo e ascender ao controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber sustentava que, em um Estado moderno, a burocracia realmente governa, pois o poder é exercido através da rotina da administração pelos funcionários civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber defendia que a burocracia é politicamente neutra, sendo o poder de governo exercido estritamente pelo chefe do Executivo e não pelos funcionários civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Weber, a burocracia, através da rotina da administração, necessária e inevitavelmente governa o Estado moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A preponderância do Executivo (Hauriou) se deve ao fato de ser o único poder empreendedor, que possui a síntese da concepção, da decisão e da execução, necessária para matérias urgentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A preponderância do Executivo se deve unicamente à sua submissão ao Legislativo e à ausência de autonomia em relação à concepção e decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo é preponderante por ser o poder empreendedor que possui a síntese da concepção, da decisão e da execução para matérias novas e urgentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Executivo se tornou supremo (Lassale) devido a fatores técnicos (intervencionismo e tecnicidade das decisões) e sociológicos (personalização do poder na democracia de massas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A supremacia do Executivo deve-se apenas à sua maior subordinação ao Judiciário, sendo as razões sociológicas e técnicas irrelevantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A supremacia do Executivo é explicada por fatores técnicos (intervencionismo) e sociológicos (personalização do poder no chefe do Executivo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função jurídica consiste em pronunciar o direito em casos concretos, mas também preenche as lacunas da legislação através da criação de direito jurídico novo (jurisprudência).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Judiciário tem a missão de aplicar as normas existentes, mas lhe é vedado preencher as lacunas da legislação, pois a jurisprudência não é fonte de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função jurídica pronuncia o direito nos casos concretos e cria direito novo (jurisprudência) para cobrir as brechas da legislação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito criado pelo Judiciário para preencher lacunas da legislação está limitado a casos concretos e não possui o atributo de generalidade de uma lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito criado pelo Judiciário tem o atributo de generalidade, sendo aplicável a todos os cidadãos em todos os casos futuros, como se fosse uma lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A resolução jurídica não possui o atributo de generalidade, sendo direito apenas entre as partes, em casos concretos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu identificou a **paz** como a Primeira Lei natural, antes do estabelecimento das sociedades, motivada pela fraqueza e medo mútuo dos homens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu, seguindo Hobbes, identificou o desejo de **guerra e dominação** como a Primeira Lei natural do homem, antes da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Primeira Lei natural é a paz, pois os homens em estado natural sentiriam sua fraqueza e grande medo, evitando o ataque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu defendia a existência de **poderes intermediários** (nobres, clero) entre o rei e o povo como necessários para evitar o abuso do poder soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu defendia a eliminação de todos os poderes intermediários para garantir a plena soberania do rei, sem oposição ao seu poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu contribuiu com a teoria dos poderes intermediários, que são necessários para evitar o abuso do poder soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 7 – As formas de Estado e o Exercício do Poder Político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de Estado é a expressão estrutural dos três elementos constitutivos: o território, o povo e o poder, e se relaciona ao grau de centralização ou descentralização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de Estado é a expressão exclusiva da forma de governo, sendo a relação entre poder e território uma questão secundária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de Estado é a expressão estrutural de seus três elementos constitutivos (território, povo e poder), configurando-se pelo grau de centralização ou descentralização do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de Estado determina o conceito de soberania em função do território, enquanto a forma de governo se limita à estrutura do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de governo leva em consideração os três elementos (território, povo e poder), enquanto a forma de Estado se limita à distribuição e relação dos órgãos políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma de Estado considera os três elementos (território, povo e poder), definindo a soberania territorial, e a forma de governo foca na estrutura do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto ao nível de centralização e distribuição de competências no âmbito político-administrativo, identificam-se duas formas principais de Estado: o simples (unitário) e o composto (federal ou confederado).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado monárquico e o republicano são identificados como as duas formas principais de Estado em relação ao nível de centralização e distribuição de competências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As duas formas principais de Estado, quanto ao nível de centralização, são o simples ou unitário e o composto, que pode ser federal ou confederado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado simples ou unitário apresenta uma estrutura política centralizada e é incompatível com a divisão em Províncias ou Municípios investidos de autonomia política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado simples ou unitário se caracteriza pela ampla descentralização de poder e pela concessão de autonomia política total às Províncias e Municípios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado simples ou unitário é um tipo de organização incompatível com a divisão em Províncias, Estados ou Municípios investidos de autonomia política, devido à centralização do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As confederações consistem numa união permanente de Estados independentes que resulta de um pacto ou acordo internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As confederações resultam de um ato de direito público interno e exigem que os Estados membros renunciem à sua soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As confederações resultam de um pacto ou acordo internacional entre Estados independentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas confederações, o poder de decisão é exercido diretamente sobre os órgãos dos Estados confederados, e não sobre os indivíduos dos Estados membros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas confederações, o poder de decisão é exercido diretamente sobre os indivíduos dos Estados membros, tal como ocorre no Estado federal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder de decisão da confederação é exercido diretamente sobre os órgãos dos Estados confederados, e não sobre os indivíduos dos Estados membros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados que integram a confederação possuem o direito de secessão e o poder de considerar nula a decisão da confederação, caso não estejam de acordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados membros da confederação perdem o direito de secessão e são obrigados a aceitar todas as decisões do órgão permanente, mesmo que não estejam de acordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados membros da confederação conservam o direito de secessão e de considerar nula a decisão da confederação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema federal como instituição política prática nasce com a Constituição Federal norte-americana de 1787.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema federal, como instituição política, surgiu durante a Confederação do Equador no Brasil (1824).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O federalismo, segundo Loewenstein, é a contribuição americana à teoria e prática do Estado moderno, nascendo com a Constituição norte-americana de 1787.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado federal se origina de um ato regido pelo direito público interno, diferentemente da Confederação, que nasce de um ato de direito internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto a Confederação quanto o Estado federal se originam de um ato de direito internacional, possuindo relações de natureza constitucional apenas no plano externo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado federal não se origina de um ato de direito internacional, mas sim num ato regido pelo direito público interno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado federal, as relações exteriores são de exclusiva competência do governo federal, que se apresenta no plano externo como uma unidade político-territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado federal, cada estado-membro mantém plena autonomia para estabelecer suas próprias relações exteriores, sem a necessidade de coordenação pelo poder central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As relações exteriores são de exclusiva competência do Estado federal, que se apresenta no plano externo como uma unidade político-territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura federal de Estado contém um delicado arranjo de relações de poder que se baseia na negociação, buscando um equilíbrio dinâmico entre o poder central e os poderes locais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado federal é um sistema estático, no qual a atribuição de competências é rígida e não há superposição de poderes que exija negociação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado federal gera superposição de competências, manifestada por relações de poder baseadas na negociação, buscando um equilíbrio dinâmico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A subordinação econômica dos estados-membros ocorre quando a destinação de recursos e a distribuição da renda não asseguram o exercício autônomo das competências locais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A subordinação econômica na federação é irrelevante, pois a distribuição de recursos é estritamente igualitária, garantindo a autonomia de todos os estados-membros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A subordinação é econômica quando a destinação de recursos e distribuição da renda não assegura o exercício autônomo das competências locais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de intervenção do governo federal é fundamentado na necessidade de convergência das políticas, mas pode converter-se em instrumento de dependência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de intervenção do governo federal é sempre um instrumento legítimo de convergência política e não pode se converter em instrumento de dependência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fundamento do poder de intervenção é a necessidade de convergência das políticas, mas o direito de intervenção pode converter-se em instrumento de dependência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A representação política bicameral é uma expressão orgânica da federação, na qual os estados-membros se encontram representados em condições de igualdade no Senado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema federal brasileiro exige uma representação unicameral, sendo a representação em condições de igualdade reservada à Câmara dos Deputados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A expressão orgânica do equilíbrio de poder federativo é a representação bicameral, onde os estados-membros se representam em condições de igualdade no Senado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Brasil, a compatibilização entre as instâncias legislativas federal, estadual e municipal é expressa no princípio da supremacia jurídica federal sobre as demais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Brasil, a legislação municipal tem supremacia sobre as demais instâncias, pois é a instância mais próxima do cidadão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os limites de compatibilização entre as três instâncias legislativas no Brasil estão expressos no princípio da supremacia jurídica federal sobre as demais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O parlamentarismo é um sistema de governo que busca o equilíbrio através da fusão de órgãos no Parlamento, onde os membros do governo são, ao mesmo tempo, membros da assembleia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O parlamentarismo é baseado na separação estrita entre Executivo e Legislativo, sendo o Executivo totalmente independente da assembleia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, o equilíbrio se obtém através da fusão dos dois órgãos no Parlamento, pois os membros do governo são membros da assembleia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, o Parlamento pode aplicar o voto de censura à política do governo, e o Executivo pode dissolver a assembleia e convocar novas eleições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, apenas o Parlamento possui o poder de demitir o governo, e o Executivo não tem competência para dissolver o Parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O controle recíproco é mantido pela dissolução da assembleia (Executivo) ou pelo voto de censura (Assembleia), garantindo que nenhum poder tenha mandato de prazo fixo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema de governo parlamentar é baseado num poder tripartite: eleitorado (legitimidade), Parlamento (representatividade) e Executivo (operacionalidade).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O parlamentarismo é baseado unicamente no Executivo e no Parlamento, sendo o eleitorado irrelevante após a votação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema parlamentar é baseado num poder tripartite que inclui o eleitorado (legitimidade), o Parlamento (representatividade) e o Executivo (operacionalidade).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, o chefe de governo (primeiro-ministro, chanceler) tem a seu encargo a direção política e administrativa, enquanto o chefe de Estado simboliza a unidade nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, o chefe de Estado (Rei ou Presidente) é o único que dirige a política e a administração, sendo o primeiro-ministro uma figura meramente simbólica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O chefe de governo dirige a política e a administração, e o chefe de Estado simboliza a unidade nacional e a continuidade do sistema político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chefia de Estado no parlamentarismo é concebida como apartidária, carente de *potestas* (poder efetivo) e com a função de integração política e moderação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chefia de Estado parlamentar é partidarista, possui *potestas* e seu principal poder é a direção política e administrativa do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chefia de Estado é carente de *potestas* (poder efetivo), apartidária, e tem a função de integração e moderação, simbolizando a unidade nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, busca-se menos legitimar politicamente o chefe de Estado pela vontade do povo e mais garantir o consenso e fomentar seu prestígio (*auctoritas*).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal objetivo da chefia de Estado parlamentar é legitimar politicamente o indivíduo a partir da vontade popular expressa em voto direto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O papel da chefia de Estado é garantir o consenso e fomentar seu prestígio (*auctoritas*), servindo como ponto de referência integrador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo (órgão colegiado) no parlamentarismo não pode existir nem subsistir sem a confiança do Parlamento, em virtude do princípio da responsabilidade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo, o governo é totalmente independente da confiança do Parlamento e não tem responsabilidade política perante ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo se legitima pelo apoio parlamentar, e sua subsistência depende da confiança do Parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 162-163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O voto de confiança é de iniciativa governamental para reafirmar sua legitimidade, e a moção de censura é de iniciativa do Parlamento (oposição) para forçar a demissão do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O voto de confiança é um instrumento da oposição parlamentar, e a moção de censura é de iniciativa governamental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O voto de confiança é iniciativa governamental; a moção de censura é instrumento do Parlamento, e a derrota do governo em qualquer dos casos implica demissão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema presidencialista é fruto de reflexão e tem origem racional, inspirado na teoria da separação de poderes de Montesquieu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema presidencialista surgiu de maneira empírica e consuetudinária, sendo uma evolução direta do parlamentarismo inglês.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema presidencialista tem origem racional, inspirado na teoria de Montesquieu, e não em precedentes consuetudinários ou democráticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidencialismo se baseia na separação estrita entre o Executivo e o Legislativo, com independência recíproca entre os órgãos institucionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidencialismo se baseia na fusão dos Poderes Executivo e Legislativo, onde o presidente e seus ministros fazem parte do Congresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidencialismo caracteriza-se pela separação estrita entre Executivo e Legislativo, com independência recíproca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidente no presidencialismo goza de independência de origem (eleito pelo povo) e de exercício (mandato fixo), não podendo ser interrompido por razões políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidente goza de independência de origem, mas seu mandato de prazo fixo pode ser interrompido a qualquer momento por razões políticas através de voto de censura do Congresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O presidente goza de independência de origem e de exercício (mandato não pode ser interrompido por razões políticas), embora possa ser interrompido por razões jurídico-criminais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A separação estrita de poderes no presidencialismo (independência recíproca) gera o risco de enfrentamento, podendo dificultar a unidade de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrita separação de poderes no presidencialismo garante automaticamente a unidade de decisão e elimina o risco de conflito entre os poderes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A separação estrita de poderes carrega o risco de enfrentamento, podendo impedir ou dificultar a unidade de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parlamentarismo do Império brasileiro, o Poder Moderador, exercido por D. Pedro II, era quem escolhia o presidente do Conselho, numa inversão do modelo inglês.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Império, o Poder Moderador estava nas mãos do Parlamento, que escolhia o presidente do Conselho e dissolvia o Executivo, seguindo a tradição inglesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo brasileiro conferia poder ao imperador através do Poder Moderador, que escolhia o Executivo, numa inversão do modelo inglês.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O parlamentarismo aprovado em 1961 (Emenda Constitucional nº 4) surgiu como uma medida para contornar uma crise política, diminuindo os poderes do Presidente da República (Jango).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema parlamentarista de 1961 surgiu de uma aspiração legítima da sociedade brasileira, com o intuito de fortalecer o presidente João Goulart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema parlamentarista de 1961 surgiu como medida para contornar uma crise política e diminuir os poderes do Presidente da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Aristóteles, a democracia é uma forma impura de governo, surgindo quando a maioria do povo governa unicamente em benefício dos mais necessitados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles considerava a democracia como a forma pura ideal de governo, pois atendia ao bem-estar geral, sendo a tirania a forma impura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Aristóteles, quando a maioria governa em benefício próprio (dos mais necessitados), surge a democracia como forma impura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo monárquico, para Montesquieu, é aquele em que um só governa, mas de acordo com leis fixas e estabelecidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Montesquieu, o governo monárquico, assim como o despótico, realiza tudo por sua vontade e capricho, sem obedecer a leis ou regras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monarquia governa de acordo com leis fixas e estabelecidas, enquanto o governo despótico não obedece a leis e regras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autocracia designa um sistema de governo autoritário no qual a vontade de uma única pessoa é a lei suprema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autocracia se diferencia da oligarquia por ser o exercício do poder por um pequeno grupo de pessoas identificadas por uma ideologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autocracia designa o sistema no qual a vontade de uma única pessoa é a lei suprema, sendo o exercício do poder por poucos a oligarquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ditadura é uma forma de governo na qual o poder se concentra em torno de um único indivíduo ou grupo, que controla os três poderes do Estado, estabelecendo um governo de fato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ditadura se caracteriza por um governo de *jure*, onde há uma separação estrita dos três poderes, mantendo-se a vigência plena da Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ditadura é um governo de fato com poderes extraordinários e não constitucionais, que concentra o poder, controlando os três poderes do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia, em sentido estrito, é um sistema político que permite o funcionamento do Estado, no qual as decisões coletivas são adotadas pelo povo através de mecanismos de participação que conferem legitimidade ao representante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia, em sentido estrito, é uma forma de convivência social baseada no domínio da força e no controle total do processo de tomada de decisões por uma elite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia, em sentido estrito, é um sistema político onde as decisões coletivas são adotadas pelo povo através de mecanismos de participação que conferem legitimidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia direta é a forma na qual os cidadãos podem participar diretamente do processo de tomada de decisões, sem a intermediação de um representante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia direta é a forma mais comum nos grandes Estados modernos, e só é possível através da intermediação de um representante eleito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia direta permite que os cidadãos participem diretamente, sem a intermediação de um representante, sendo que o Brasil contempla mecanismos como plebiscito e iniciativa popular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na monarquia absoluta, a fonte dos poderes Executivo e Legislativo é o mesmo soberano, e não existem mecanismos pelos quais o governo responde por seus atos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na monarquia absoluta, o poder do rei é estritamente limitado pelo Legislativo e o Judiciário, e o governo responde integralmente por todos os seus atos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na monarquia absoluta, não existe divisão de poderes, sendo o rei a fonte de todos eles, e não há mecanismos para que o governo responda por seus atos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monarquia parlamentar é a forma de governo na qual o rei exerce a função de chefe do Estado sob o controle do Legislativo e do Executivo (Governo), e seus poderes são limitados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na monarquia parlamentar, o monarca exerce a função de chefe de governo e possui poderes absolutos, não estando sob o controle do Legislativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na monarquia parlamentar, o rei exerce a função de chefe de Estado, e seus poderes estão bastante limitados e divididos, sob o controle do Legislativo e do Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teocracia é a forma de governo na qual os líderes governamentais são os mesmos líderes da religião dominante, e as políticas governamentais são muito influenciadas pelos princípios religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teocracia é sinônimo de Estado confessional, onde o governante não é o líder religioso, mas apenas um partidário da religião dominante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na teocracia, os líderes governamentais são os mesmos líderes da religião dominante, e as políticas são idênticas ou muito influenciadas pelos princípios religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 8 – Princípios do Estado Democrático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia não se resume apenas aos processos eleitorais e à plena liberdade política, mas inclui uma diversidade de elementos, sendo algo que deve ser construído diariamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A essência da democracia se limita unicamente à realização de eleições e à existência de plena liberdade política, sendo estes os únicos elementos de análise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia não se limita a processos eleitorais e liberdades, devendo ser construída diariamente e incluindo uma diversidade de elementos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia moderna é representativa, se expressa por voto secreto e valoriza o indivíduo, diferentemente da democracia antiga, que era direta e dava mais valor à coletividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia antiga, na Grécia, era representativa e considerava o indivíduo, incluindo mulheres e escravos na vida pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia antiga era direta e excluía mulheres e escravos, enquanto a moderna é representativa e valoriza o indivíduo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etimologicamente, democracia é composta por *demos* (povo) e *kratos* (poder ou autoridade), tendo sido citada por Heródoto em conexão com a noção de *isonomia* (igualdade diante da lei).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etimologicamente, democracia é composta por *polis* (cidade) e *kratos* (autoridade), referindo-se à autoridade exercida na esfera pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etimologicamente, democracia é composta de *demos* (povo) e *kratos* (poder, autoridade) e foi citada por Heródoto em conexão com a *isonomia*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles afirmava que a liberdade constitui o princípio fundamental da democracia, manifestada na alternância do governo, onde os cidadãos obedecem e mandam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles defendia que o princípio fundamental da democracia é a riqueza, e que a liberdade se manifesta na permanência dos mesmos cidadãos no governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Aristóteles, a liberdade é o princípio fundamental da democracia, caracterizada pela alternância (os cidadãos prestam obediência e mandam).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Aristóteles, na democracia, por serem todos os cidadãos iguais, os pobres têm mais poder que os ricos, pois são a maioria e seus decretos possuem força de lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Aristóteles, a igualdade na democracia garantia que os ricos, por serem minoria, tivessem mais poder devido ao seu nível educacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A igualdade na democracia, para Aristóteles, faz com que os pobres, por serem maioria, tenham mais poder que os ricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Aristóteles, os cargos que devem ser ocupados na democracia são exercidos somente uma única vez, durante períodos curtos de tempo, e o acesso a eles é feito através de sorteio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles defendia que o acesso aos cargos na democracia deveria ser feito através de eleições complexas, permitindo que os cidadãos exercessem o mesmo cargo por tempo indeterminado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os cargos são exercidos uma única vez, por períodos curtos, e o acesso a eles é feito através de sorteio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exercício da autoridade (soberania) no sistema democrático deve ocorrer de acordo com o direito, o que significa que, teoricamente, não há arbitrariedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia moderna se caracteriza pela arbitrariedade, onde o exercício da autoridade é irrestrito e não precisa estar prescrito pelas normas jurídicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exercício da autoridade deve ocorrer de acordo com o direito, o que implica que, teoricamente, não existe arbitrariedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É desejável que todos os membros do sistema democrático tenham voz e voto em condições idênticas, buscando-se ampliar o direito de voto, como para mulheres e adolescentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na democracia, a tendência deve ser manter grandes desigualdades entre os membros do sistema, restringindo-se o direito de voto aos mais abastados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É desejável a tendência a que todos os membros do sistema tenham voz e voto em condições idênticas, promovendo a ampliação do direito de voto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Dahl define a característica fundamental da democracia como a capacidade dos governos de satisfazer, de forma continuada, as preferências dos cidadãos, num cenário de igualdade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Dahl define a democracia pela capacidade de impor a vontade dos governantes, independentemente das preferências dos cidadãos ou da igualdade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahl define a democracia como a capacidade dos governos de satisfazer, de forma continuada, as preferências dos cidadãos, num cenário de igualdade política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre as garantias constitucionais listadas por Robert Dahl para um governo ser responsivo, incluem-se a liberdade de constituir organizações e o direito de competir pelo apoio e pelos votos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahl considerava que o direito de constituir organizações e a competição pelo apoio dos votos são obstáculos à capacidade de resposta do governo e devem ser limitados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahl lista oito garantias constitucionais, incluindo a liberdade de constituir organizações e o direito de competir pelo apoio e votos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Dahl, uma das condições para que um governo responda aos cidadãos é garantir que as preferências de todos “tenham o mesmo peso na conduta do governo”, evitando discriminações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahl sustenta que o peso das preferências na conduta do governo deve ser determinado pela origem social ou pelo conteúdo das propostas, permitindo a discriminação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É preciso providenciar para que as preferências dos cidadãos tenham o mesmo peso na conduta do governo, sem discriminações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Sartori identificou o fim de um ciclo com a vitória da democracia liberal, sendo o vencedor a única democracia “real que foi levada a cabo na Terra”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori considera que as democracias formal (capitalista) e real (comunista) coexistiam como alternativas legítimas até 1989.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori afirma que a democracia que venceu é a liberal-democracia, sendo a única democracia "real".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori marca o fim do Estado revolucionário com a queda do Muro de Berlim em 9 de novembro de 1989, após o ciclo iniciado pela Revolução Francesa de 1789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sartori considera que o ciclo revolucionário iniciado na França se encerrou simbolicamente com a queda da Bastilha, em 4 de julho de 1789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queda do Muro de Berlim (1989) é o símbolo do fim do Estado revolucionário, iniciado em 1789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau considerava a ideia de representação incompatível com a democracia, pois afirmava que a soberania é inalienável e não pode ser representada, consistindo na vontade geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau defendia que a soberania popular deve ser delegada e representada, pois o poder e a vontade podem ser transmitidos aos representantes eleitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau afirma que a soberania não pode ser representada porque não pode ser alienada, consistindo essencialmente na vontade geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Rousseau, os deputados do povo não são seus representantes, mas apenas comissários que nada podem concluir definitivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Rousseau, os deputados são representantes legítimos e suas decisões são definitivas, pois transmitem a vontade geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau afirmava que os deputados do povo não são representantes, mas comissários, e nada podem concluir definitivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a Idade Média, assembleias estamentais surgiram e introduziram o princípio representativo, adquirindo a capacidade de condicionar ou autorizar o recebimento de impostos pelo monarca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As assembleias estamentais medievais eram meramente consultivas e não possuíam qualquer poder para condicionar o recebimento de impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As assembleias medievais foram adquirindo a capacidade de condicionar ou autorizar o recebimento de impostos, o que foi um primeiro sinal da representação moderna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo atual de representação política, surgido com o advento do Estado liberal, se caracteriza por ser nacional, livre e parlamentar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo de representação política moderna se caracteriza por ser local, condicional (mandato imperativo) e estamental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo atual de representação política, surgido com o Estado liberal, é caracterizado por ser nacional, livre e parlamentar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção de representação livre (mandato representativo) implica a autonomia dos representantes, que não estão sujeitos a instruções ou limitações dos representados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A representação livre exige que o representante atue estritamente sob a limitação e instrução do mandato imperativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A representação livre implica a autonomia dos representantes, que não estão sujeitos a instruções ou limitações dos representados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Teoria da Soberania Popular, impulsionada por Rousseau, afirma que a vontade geral é essencialmente unitária e somente se encarna no povo soberano, entendido como a totalidade dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Teoria da Soberania Popular, de Rousseau, afirma que a vontade geral se encarna no Legislativo, sendo o povo soberano apenas no momento da eleição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau impulsionou a Teoria da Soberania Popular, onde a vontade geral se encarna no povo soberano, a totalidade dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia semidireta é um mecanismo de democracia participativa que complementa a representativa com o uso de instrumentos como o referendo, a iniciativa popular e o plebiscito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia semidireta é a forma na qual a assembleia de cidadãos assume diretamente o governo, sendo idêntica à democracia direta, e não utiliza plebiscitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia semidireta complementa a representativa com instrumentos de participação popular como o referendo e o plebiscito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As eleições são um procedimento reconhecido pelas normas de uma organização pelo qual membros escolhem um número menor de pessoas para representá-las em posições de autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A eleição é um procedimento de caráter informal, utilizado apenas para medir a opinião pública, mas não para a escolha de posições de autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A eleição é um procedimento reconhecido por normas pelo qual membros escolhem pessoas para representá-las em posições de autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designação e cooptação são conceitos que não devem ser confundidos com eleição; a designação pressupõe que o indicado seja fiel a uma autoridade superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designação e eleição são a mesma coisa, pois em ambos os casos a pessoa é escolhida por um processo de escrutínio secreto para ocupar a posição de autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designação ocorre por indicação de uma autoridade superior e pressupõe fidelidade, diferente do procedimento eleitoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As funções que as eleições desempenham são: produzir representação, produzir governo e produzir legitimidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As funções das eleições se limitam a produzir apenas representação, não tendo relação direta com a formação de governo ou a legitimação do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As funções das eleições são produzir representação, produzir governo e produzir legitimidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A governabilidade está associada à eficácia e à legitimidade, sendo que a legitimidade de um governo está diretamente ligada à sua eficácia no atendimento das demandas da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A governabilidade depende unicamente da legitimidade formal obtida nas urnas, sendo a eficácia no atendimento das demandas um fator irrelevante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A governabilidade está associada a eficácia e legitimidade, sendo que a legitimidade do governo está associada à sua eficácia no atendimento das demandas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos Estados democráticos, as eleições buscam cumprir a função de legitimação racional do poder político, revestindo o poder de autoridade através de um rito periódico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As eleições democráticas têm uma função meramente simbólica, sem a capacidade de conferir legitimação racional ao poder político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As eleições buscam cumprir a função de legitimação racional do poder político, revestindo o poder de autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio é o poder reconhecido a um corpo de cidadãos de participar, direta ou indiretamente, na soberania e na gestão da vida pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio é o direito exclusivo do governante de impor a sua vontade, e não um poder de participação dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio é o poder de participar direta ou indiretamente na soberania e na gestão da vida pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denomina-se votação quando o povo se serve do sufrágio para decidir sobre um assunto (democracia semidireta), e eleição quando se emprega o sufrágio para designar representantes (democracia indireta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os termos votação e eleição são sinônimos, referindo-se ambos ao ato de decidir sobre um assunto de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votação é usada quando o povo decide sobre um assunto; eleição, quando o povo designa representantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio universal determina que os cidadãos possuam o direito de voto e elegibilidade sem exclusões politicamente significativas motivadas por sexo, raça, riqueza, profissão ou religião.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio universal é limitado para excluir grandes grupos sociais com base na riqueza e no nível educacional, contanto que essa exclusão seja feita por lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio universal proíbe exclusões politicamente significativas motivadas por raça, sexo, religião, riqueza ou nível educacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio desigual ocorria na Inglaterra até 1948, quando se permitia que um indivíduo votasse em mais de um distrito eleitoral caso tivesse vínculos com todos eles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio desigual é baseado no princípio de "uma pessoa, um voto", não sendo permitido que um indivíduo vote em mais de um distrito eleitoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio desigual ocorria na Inglaterra até 1948, permitindo que um indivíduo votasse em mais de um distrito eleitoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As eleições indiretas são aquelas em que um colégio eleitoral restrito escolhe os titulares dos cargos, diminuindo a importância do eleitorado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As eleições indiretas aumentam a importância do eleitorado na escolha, pois este participa de todas as fases, do início ao fim do processo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas eleições indiretas, um colégio eleitoral restrito escolhe os titulares, diminuindo a importância do eleitorado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Brasil, o voto não era secreto até 1930, sendo conhecido como "voto de cabresto", pois o voto aberto permitia barganha eleitoral e intimidação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O voto de cabresto era o voto secreto introduzido em 1930, que eliminou a barganha eleitoral e a intimidação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Brasil, o voto era aberto (não secreto) até 1930, permitindo a intimidação e a barganha eleitoral ("voto de cabresto").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio censitário é aquele em que o direito de voto é outorgado somente àqueles que preenchem determinadas condições econômicas, como uma renda mínima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio censitário é aquele em que o direito de voto é outorgado a todos, independentemente de renda, raça ou nível educacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sufrágio censitário restringe o direito de voto a quem preenche determinadas condições econômicas, como uma determinada renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema eleitoral majoritário expressa a ideia de que quem ganha a maioria de votos ganha a eleição e tudo que está em jogo (o vencedor leva tudo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema eleitoral majoritário visa a distribuir a representação política de modo proporcional ao número de votos obtidos por cada candidatura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema de eleição majoritária expressa a ideia de que quem ganha a maioria dos votos ganha a eleição e tudo o que está em jogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema eleitoral proporcional valoriza o papel dos partidos políticos, buscando que a representação se distribua na proporção dos votos obtidos por cada formação política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema proporcional é aquele que minimiza a importância dos partidos, focando unicamente na eleição direta e majoritária dos candidatos individuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema proporcional sustenta-se na estrutura partidária de representação política e valoriza o papel dos partidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A implantação de um sistema eleitoral nunca é neutra, pois está sempre alinhada com interesses específicos que procuram minimizar as possibilidades de perda de poder real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A escolha de um sistema eleitoral (majoritário ou proporcional) é uma prática política neutra, desvinculada de qualquer interesse específico dos atores políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A implantação de um sistema eleitoral nunca é neutra, pois há sempre interesses específicos procurando estabelecê-lo de forma a minimizar a perda de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos sinais da crise da representação política é a diminuição do papel do Parlamento, que deixou de ser o principal centro de articulação de políticas do Estado, sendo substituído pelo Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Parlamento é o único centro de articulação de políticas no Estado Democrático Liberal, sendo o Poder Executivo totalmente subordinado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Parlamento deixou de ser o principal centro de articulação de políticas do Estado, sendo substituído pelo Poder Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os movimentos sociais surgiram nas últimas décadas do século XX como novos atores, apresentando maior credibilidade para encaminhar propostas do que os partidos políticos tradicionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os partidos políticos tradicionais mantiveram seu papel como instrumentos mais adequados para levar as demandas da sociedade ao Estado, sem o surgimento de novos atores críveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os movimentos sociais surgiram com maior credibilidade para encaminhar propostas do que os partidos, devido à crise de representação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um tipo de partido que surgiu no final do século XX é aquele formado unicamente para lançar determinados candidatos, utilizando métodos do âmbito empresarial, como o marketing político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os partidos políticos do final do século XX retornaram ao modelo tradicional de ideologia de classe, abandonando métodos empresariais como o marketing político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgiram partidos formados unicamente para lançar candidatos, utilizando métodos como marketing político e rede de agências de publicidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 10 – O Estado Constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito moderno de Constituição, como *Lex fundamentalis*, iniciou sua gestação na Idade Média, consolidando-se somente no século XVIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito moderno de Constituição consolidou-se na Grécia Antiga com a *politeia*, sendo a ideia de *Lex fundamentalis* irrelevante na Idade Média.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de *Lex fundamentalis* (lei fundamental) começou a se gestar na Idade Média, consolidando-se no século XVIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição é o instrumento fundamental para o controle do poder político e define a forma como este se distribui e é exercido na comunidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição é apenas um conjunto de normas jurídicas que define o âmbito de liberdade pessoal, sem qualquer função de controle sobre o exercício ou distribuição do poder político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição é o instrumento fundamental para o controle do poder político, além de definir sua distribuição e exercício.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os problemas constitucionais não são essencialmente problemas de direito, mas sim problemas de poder e de decisões políticas fundamentais que caracterizam sua essência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os problemas constitucionais são, em essência, problemas estritamente de direito, desvinculados de fatores reais de poder ou decisões políticas fundamentras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os problemas constitucionais são essencialmente problemas de poder, e não apenas de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em sentido material, a Constituição é o complexo de normas jurídicas fundamentais, escritas ou não, que constituem o referencial de um ordenamento jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em sentido material, a Constituição se limita ao conjunto de normas legislativas que ocupam uma posição suprema, sendo obrigatoriamente um texto escrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em sentido material, a Constituição é o complexo de normas fundamentais, escritas ou não, que servem de referencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição goza de supremacia, ou seja, de nível superior às demais normas do ordenamento jurídico, que não podem contradizê-la.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição possui o mesmo nível hierárquico das leis ordinárias, podendo ser contradita por qualquer outra norma do ordenamento jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição é a norma suprema e de nível superior às demais normas do ordenamento jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A supremacia e rigidez constitucionais são garantidas pelo controle jurídico da constitucionalidade das leis, que verifica a adequação do direito positivo à Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rigidez constitucional é garantida unicamente pela intervenção do Poder Executivo, sendo o controle jurídico da constitucionalidade irrelevante para essa finalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A supremacia e rigidez são garantidas pelo controle jurídico da constitucionalidade das leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para um Estado ser considerado constitucional não é necessário que possua uma Constituição formal e escrita, mas sim a existência de instituições que distribuam e controlem o poder político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para um Estado ser considerado constitucional, é indispensável que possua uma Constituição formal e escrita, sendo a Inglaterra um exemplo de Estado não constitucional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Estado pode ser constitucional mesmo sem Constituição formal (ex: Inglaterra), desde que possua instituições que distribuam e controlem o poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo primário de uma Constituição é a criação de instituições para limitar e controlar o poder político e garantir a participação legítima dos destinatários do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo primário de uma Constituição é centralizar o poder para acelerar a tomada de decisões, liberando os detentores do poder de qualquer controle social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição visa criar instituições para limitar e controlar o poder político e garantir a participação legítima dos destinatários do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "Estado constitucional" também pode designar uma etapa evolutiva, na qual o poder do monarca se contrapõe à soberania popular (assembleias), culminando no "Estado democrático".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "Estado constitucional" representa o estágio final e definitivo da evolução política, sendo o "Estado democrático" um conceito totalmente distinto e não relacionado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado constitucional é uma etapa evolutiva em que o poder do monarca se contrapõe à soberania popular, culminando no Estado democrático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Declaração dos Direitos do Homem e do Cidadão (1789) universalizou os direitos, tornando-se referência e marco do constitucionalismo moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Declaração Francesa de 1789 não universalizou os direitos, pois estes se limitavam aos cidadãos de Paris, sem servir de referência para outros Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Declaração Francesa de 1789 universalizou os direitos e se tornou o marco do constitucionalismo moderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Artigo 16 da Declaração Francesa de 1789, uma sociedade que não assegure a garantia dos direitos e a separação dos poderes não tem Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 16 da Declaração Francesa afirma que a separação dos poderes não é uma condição essencial, desde que os direitos sejam garantidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 16 da Declaração Francesa exige a garantia dos direitos e a separação dos poderes como condição para ter Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Loewenstein afirma que o reconhecimento e a proteção dos direitos e liberdades fundamentais são o núcleo essencial do sistema político da democracia constitucional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loewenstein considerava que a essência da democracia constitucional reside no poder do Executivo, sendo os direitos e liberdades fundamentais periféricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O reconhecimento e a proteção dos direitos e liberdades fundamentais são o núcleo essencial da democracia constitucional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* inglês de 1689 foi um autêntico contrato entre o Parlamento (intérprete da nação) e o Rei, limitando a prerrogativa real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* de 1689 foi uma declaração unilateral do Rei, que se ofereceu para limitar seu próprio poder sem a necessidade de um contrato com o Parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* foi um verdadeiro contrato entre o Parlamento e o Rei, limitando a prerrogativa real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* inglês se referia a direitos do cidadão inglês consagrados pela história multissecular, tratando-se de uma definição, não de novos direitos abstratos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* inglês, seguindo o modelo francês, estabeleceu novos direitos de caráter racionalista e abstrato, desvinculados da história multissecular inglesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O *Bill of Rights* tratou de uma definição dos direitos do cidadão inglês consagrados pela história multissecular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção americana de liberdade é empírica, focada no homem como indivíduo, buscando organizar o Estado de modo que não o impeça de ser dono de seu destino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção americana de liberdade é racionalista e abstrata, buscando encontrar a figura ideal do cidadão, semelhante ao modelo francês.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção americana é empírica, baseada no valor do homem livre como indivíduo, enquanto a francesa é racionalista e abstrata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção francesa de liberdade é racionalista e busca encontrar a figura ideal do cidadão, limitando juridicamente o poder em sua defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção francesa é empírica e não se interessa pela figura abstrata do cidadão, focando apenas na liberdade individual de não ser impedido pelo Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concepção francesa é racionalista, buscando a figura ideal do cidadão e a limitação jurídica do poder em sua defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As duas principais fontes filosóficas das Declarações de Direitos foram a doutrina dos direitos naturais (jusnaturalismo) e a filosofia da ilustração francesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As principais fontes filosóficas foram a filosofia platônica e o pensamento escolástico medieval, rejeitando o direito natural e a ilustração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As duas fontes principais são a doutrina dos direitos naturais e a filosofia da ilustração francesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes defendia que o homem renuncia à totalidade de suas liberdades em favor do soberano ao fazer o pacto social, devido à sua concepção negativa do estado de natureza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes defendia, assim como Locke e Rousseau, que o homem conserva um conjunto de liberdades inalienáveis, mesmo após o pacto social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes entendia que o homem renuncia à totalidade de suas liberdades ao realizar o pacto social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke e Rousseau defendiam que o homem conserva um conjunto de liberdades (direitos naturais) que não podem ser absorvidas pelo poder estabelecido através do pacto social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke e Rousseau defendiam a total renúncia das liberdades individuais em favor do soberano, pois consideravam o estado de natureza como anarquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke e Rousseau sustentam que o homem conserva, através do pacto social, um conjunto de liberdades que são anteriores ao Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu, em *O espírito das leis*, foi profundamente influenciado pelo constitucionalismo inglês, especialmente no que se refere à tripartição dos poderes (L, E, J).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu rejeitou o modelo inglês, baseando sua teoria da tripartição de poderes unicamente na experiência da República Romana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu foi influenciado pelo constitucionalismo inglês, dedicando um capítulo de sua obra à "Constituição da Inglaterra".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fisiocratas, escola econômica do século XVIII, defendiam o *laissez faire* e a não intervenção do Estado, pois acreditavam em leis naturais que regem a sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fisiocratas defendiam a intervenção máxima do Estado na economia para proteger o comércio mercantilista e impedir a liberdade econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fisiocratas acreditavam na ordem natural e defendiam a liberdade econômica (*laissez faire*), sendo contra a intervenção estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do homem, nas declarações revolucionárias, são os direitos naturais derivados da própria natureza humana (liberdade, propriedade, segurança).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do homem, nas declarações revolucionárias, são os direitos que derivam da criação da comunidade política e da liberdade política (*liberdade-participação*).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do homem são os direitos naturais, como a liberdade, a propriedade e a segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do cidadão derivam da criação da comunidade política através do pacto social e constituem liberdades de participação (liberdade política).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do cidadão são anteriores ao Estado e existem independentemente do respeito aos direitos do homem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos do cidadão derivam do pacto social e constituem liberdades de participação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da legalidade pressupõe que a lei (expressão da vontade geral) é o único instrumento válido para estabelecer limites à liberdade individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da legalidade permite que os limites à liberdade sejam estabelecidos por regulamentos do Executivo ou por costumes sociais, independentemente da lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da legalidade supõe que a lei (vontade geral) é o único instrumento válido para limitar a liberdade, sendo esta limitada ao estritamente necessário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da igualdade, nas declarações revolucionárias do século XVIII, tinha um significado claramente político, não se estendendo ao campo econômico ou social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da igualdade nas declarações revolucionárias visava prioritariamente a eliminação das desigualdades econômicas e sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da igualdade nas declarações revolucionárias tinha um significado político e não se estendia ao campo econômico ou social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crítica marxista levou à adjetivação do Estado de Direito, passando das versões liberal/burguesa (direitos de 1ª geração) para a versão social (direitos de 2ª geração).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crítica marxista levou à eliminação total do conceito de Estado de Direito, que foi substituído pelo conceito de Ditadura do Proletariado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adjetivação do Estado de Direito (liberal, social, democrático) é fruto da crítica marxista e da incorporação de direitos de 2ª geração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na versão inglesa do Estado de Direito, os governantes unicamente podem realizar atos para os quais foram habilitados, submetendo o exercício do poder à lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na versão inglesa, o Estado de Direito significa que os governantes podem realizar qualquer ato que considerem oportuno, desde que não seja expressamente proibido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Estado de Direito, os governantes só podem realizar atos para os quais foram habilitados, submetendo o poder à lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade que corresponde ao Estado liberal de direito é a que Max Weber denominou legitimidade de caráter racional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber denominou a legitimidade do Estado liberal de direito como de caráter tradicional, baseada nos costumes e na hereditariedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade do Estado liberal de direito é de caráter racional, segundo a classificação de Max Weber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado liberal tem como seus principais fundamentos de existência a Declaração dos Direitos, a separação dos poderes e o Estado de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado liberal baseou-se unicamente na Declaração dos Direitos, rejeitando a separação dos poderes e o Estado de direito como princípios autoritários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os principais fundamentos do Estado liberal são a Declaração dos Direitos, a separação dos poderes e o Estado de direito, que atuam como mecanismos de controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ideia-força básica do liberalismo é a **liberdade**, enquanto a ideia que movimenta a democracia é a **igualdade** (direito de participação política).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ideia-força básica do liberalismo é a igualdade política, enquanto a ideia que movimenta a democracia é a liberdade econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ideia básica do liberalismo é a liberdade, e a da democracia é a igualdade (de participação política).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vontade da maioria, para John Locke, está limitada pelo respeito aos direitos individuais, pois a sociedade política foi constituída para garanti-los.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Locke, a vontade da maioria se converte em vontade geral, que não pode ser limitada pelos direitos individuais, semelhante à visão de Rousseau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Locke, a vontade da maioria se encontra limitada pelo respeito aos direitos individuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado liberal se democratizou pela paulatina implantação do sufrágio universal, permitindo a convivência dos princípios de liberdade e igualdade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado liberal nunca se democratizou, pois a implantação do sufrágio universal resultou no fim do liberalismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado liberal foi se democratizando pela implantação gradual do sufrágio universal, permitindo a convivência entre liberdade e igualdade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desdobramento do Estado liberal-democrático, com a incorporação de demandas sociais, conduziu ao Estado do bem-estar social (*welfare State*).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do bem-estar social (*welfare State*) surgiu como uma regressão ao absolutismo, rejeitando totalmente os princípios liberais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A incorporação de novas demandas sociais e a democratização do Estado liberal conduziram ao *welfare State*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do bem-estar social intervém na economia para manter renda e emprego e presta serviços públicos universais (saúde, educação, previdência), vistos como direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do bem-estar social se abstém de intervir na economia, limitando-se a prestar serviços de caridade para uma minoria pobre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do bem-estar social intervém na economia e presta serviços universais, vistos como um direito, não caridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social foi uma resposta do capitalismo ao avanço do comunismo e uma tentativa de adaptação do Estado liberal às novas condições sociais da expansão industrial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social surgiu como um modelo puramente socialista, sem relação com as crises capitalistas ou com a necessidade de frear o comunismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social foi uma resposta do capitalismo ao comunismo e uma adaptação do Estado liberal às novas condições sociais da industrialização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A denominação Estado do bem-estar social refere-se, basicamente, a uma dimensão da política estatal (finalidade de bem-estar social), mensurável por índices e orçamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A denominação Estado do bem-estar social se refere à totalidade da configuração estatal, incluindo problemas gerais do sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do bem-estar social se refere à dimensão da política estatal que tem por finalidade o bem-estar social e é mensurável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adoção da política econômica keynesiana após a Segunda Guerra Mundial visava superar a crise através de métodos democráticos, aumentando a capacidade aquisitiva das massas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política keynesiana, adotada após a Segunda Guerra, visava à eliminação dos métodos democráticos e à estatização total dos meios de produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solução keynesiana visava superar a crise através de métodos democráticos, aumentando a capacidade aquisitiva das massas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social assume que a sociedade não consegue autorregular-se, e somente a ação estatal pode neutralizar os efeitos negativos do desenvolvimento econômico descontrolado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social se caracteriza pela máxima separação entre Estado e sociedade, incentivando a total autorregulação social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado social diminui a separação entre Estado e sociedade e assume que somente a ação estatal pode neutralizar os efeitos negativos da ausência de controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal instrumento jurídico do Estado social é o sistema tributário, que permite a distribuição de rendas para atender às crescentes necessidades de serviços sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal instrumento jurídico do Estado social é o voto de censura parlamentar, que garante a distribuição de rendas e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O instrumento jurídico fundamental do Estado social é o sistema tributário, utilizado para a distribuição de rendas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição brasileira de 1988 define o Estado como democrático de direito e pode ser identificada como um Estado social pelo conteúdo de seus Direitos Sociais (Capítulo II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição de 1988 não pode ser identificada como um Estado social, pois se restringe aos princípios do Estado liberal, sem garantias sociais explícitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição brasileira de 1988, ao consagrar os Direitos Sociais (Art. 6º a 11), pode ser identificada como um Estado social.</t>
   </si>
 </sst>
 </file>
@@ -7169,7 +10235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7199,12 +10265,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7280,7 +10340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7434,8 +10494,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E748" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E765" activeCellId="0" sqref="E765"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1018" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1037" activeCellId="0" sqref="A1037:F1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23696,6 +26756,6066 @@
       </c>
       <c r="F773" s="3" t="s">
         <v>2372</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B774" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C774" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D774" s="0" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E774" s="0" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F774" s="0" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B775" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C775" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D775" s="0" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E775" s="0" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F775" s="0" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B776" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C776" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D776" s="0" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E776" s="0" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F776" s="0" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B777" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C777" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D777" s="0" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E777" s="0" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F777" s="0" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B778" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C778" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D778" s="0" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E778" s="0" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F778" s="0" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B779" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C779" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D779" s="0" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E779" s="0" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F779" s="0" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B780" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C780" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D780" s="0" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E780" s="0" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F780" s="0" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B781" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C781" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D781" s="0" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E781" s="0" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F781" s="0" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B782" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C782" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D782" s="0" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E782" s="0" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F782" s="0" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B783" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C783" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D783" s="0" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F783" s="0" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B784" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C784" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D784" s="0" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E784" s="0" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F784" s="0" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B785" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C785" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D785" s="0" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E785" s="0" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F785" s="0" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B786" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C786" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D786" s="0" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E786" s="0" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F786" s="0" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B787" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C787" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D787" s="0" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E787" s="0" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F787" s="0" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B788" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C788" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D788" s="0" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E788" s="0" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F788" s="0" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B789" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C789" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D789" s="0" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F789" s="0" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B790" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D790" s="0" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F790" s="0" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B791" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C791" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D791" s="0" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F791" s="0" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B792" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C792" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D792" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F792" s="0" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C793" s="0" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D793" s="0" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F793" s="0" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B794" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C794" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D794" s="0" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E794" s="0" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F794" s="0" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B795" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C795" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D795" s="0" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F795" s="0" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B796" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C796" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D796" s="0" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E796" s="0" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F796" s="0" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B797" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C797" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D797" s="0" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F797" s="0" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B798" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C798" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D798" s="0" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E798" s="0" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F798" s="0" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B799" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D799" s="0" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F799" s="0" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B800" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C800" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D800" s="0" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F800" s="0" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B801" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C801" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D801" s="0" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>2458</v>
+      </c>
+      <c r="F801" s="0" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B802" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D802" s="0" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F802" s="0" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B803" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C803" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D803" s="0" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E803" s="0" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F803" s="0" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B804" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C804" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D804" s="0" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E804" s="0" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F804" s="0" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B805" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C805" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D805" s="0" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E805" s="0" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F805" s="0" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B806" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C806" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D806" s="0" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E806" s="0" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F806" s="0" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B807" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C807" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D807" s="0" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F807" s="0" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F808" s="0" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B809" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D809" s="0" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>2482</v>
+      </c>
+      <c r="F809" s="0" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B810" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C810" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D810" s="0" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F810" s="0" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B811" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C811" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D811" s="0" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E811" s="0" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F811" s="0" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B812" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D812" s="0" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F812" s="0" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B813" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D813" s="0" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E813" s="0" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F813" s="0" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B814" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C814" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D814" s="0" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E814" s="0" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F814" s="0" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B815" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C815" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D815" s="0" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E815" s="0" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F815" s="0" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B816" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C816" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D816" s="0" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E816" s="0" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F816" s="0" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B817" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C817" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D817" s="0" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E817" s="0" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F817" s="0" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B818" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C818" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D818" s="0" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E818" s="0" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F818" s="0" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B819" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C819" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D819" s="0" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E819" s="0" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F819" s="0" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B820" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C820" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D820" s="0" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E820" s="0" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F820" s="0" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B821" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C821" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D821" s="0" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E821" s="0" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F821" s="0" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B822" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C822" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D822" s="0" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E822" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F822" s="0" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B823" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C823" s="0" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D823" s="0" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E823" s="0" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F823" s="0" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B824" s="0" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D824" s="0" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E824" s="0" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F824" s="0" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B825" s="0" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C825" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D825" s="0" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E825" s="0" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F825" s="0" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B826" s="0" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C826" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D826" s="0" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E826" s="0" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F826" s="0" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B827" s="0" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C827" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D827" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F827" s="0" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B828" s="0" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C828" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D828" s="0" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E828" s="0" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F828" s="0" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B829" s="0" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C829" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D829" s="0" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E829" s="0" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F829" s="0" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B830" s="0" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C830" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D830" s="0" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F830" s="0" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B831" s="0" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C831" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D831" s="0" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E831" s="0" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F831" s="0" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B832" s="0" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C832" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D832" s="0" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E832" s="0" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F832" s="0" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B833" s="0" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C833" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D833" s="0" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E833" s="0" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F833" s="0" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B834" s="0" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C834" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D834" s="0" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E834" s="0" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F834" s="0" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B835" s="0" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C835" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D835" s="0" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E835" s="0" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F835" s="0" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B836" s="0" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C836" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D836" s="0" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E836" s="0" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F836" s="0" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B837" s="0" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C837" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D837" s="0" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E837" s="0" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F837" s="0" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B838" s="0" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C838" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D838" s="0" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E838" s="0" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F838" s="0" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B839" s="0" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C839" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D839" s="0" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E839" s="0" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F839" s="0" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B840" s="0" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C840" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D840" s="0" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E840" s="0" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F840" s="0" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B841" s="0" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C841" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D841" s="0" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E841" s="0" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F841" s="0" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B842" s="0" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C842" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D842" s="0" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E842" s="0" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F842" s="0" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B843" s="0" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C843" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D843" s="0" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E843" s="0" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F843" s="0" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B844" s="0" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C844" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D844" s="0" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E844" s="0" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F844" s="0" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B845" s="0" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C845" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D845" s="0" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E845" s="0" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F845" s="0" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B846" s="0" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C846" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D846" s="0" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E846" s="0" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F846" s="0" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B847" s="0" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C847" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D847" s="0" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E847" s="0" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F847" s="0" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B848" s="0" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C848" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D848" s="0" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E848" s="0" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F848" s="0" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B849" s="0" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C849" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D849" s="0" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E849" s="0" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F849" s="0" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B850" s="0" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C850" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D850" s="0" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E850" s="0" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F850" s="0" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B851" s="0" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C851" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D851" s="0" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E851" s="0" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F851" s="0" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B852" s="0" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C852" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D852" s="0" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E852" s="0" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F852" s="0" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B853" s="0" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C853" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D853" s="0" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E853" s="0" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F853" s="0" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B854" s="0" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C854" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D854" s="0" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E854" s="0" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F854" s="0" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B855" s="0" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C855" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D855" s="0" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E855" s="0" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F855" s="0" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B856" s="0" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C856" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D856" s="0" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E856" s="0" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F856" s="0" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B857" s="0" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C857" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D857" s="0" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E857" s="0" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F857" s="0" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B858" s="0" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C858" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D858" s="0" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E858" s="0" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F858" s="0" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B859" s="0" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C859" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D859" s="0" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E859" s="0" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F859" s="0" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B860" s="0" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C860" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D860" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E860" s="0" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F860" s="0" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B861" s="0" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C861" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D861" s="0" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E861" s="0" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F861" s="0" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B862" s="0" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C862" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D862" s="0" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E862" s="0" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F862" s="0" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B863" s="0" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C863" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D863" s="0" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E863" s="0" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F863" s="0" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B864" s="0" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C864" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D864" s="0" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E864" s="0" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F864" s="0" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B865" s="0" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C865" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D865" s="0" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E865" s="0" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F865" s="0" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B866" s="0" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C866" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D866" s="0" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E866" s="0" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F866" s="0" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B867" s="0" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C867" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D867" s="0" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E867" s="0" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F867" s="0" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B868" s="0" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C868" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D868" s="0" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E868" s="0" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F868" s="0" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B869" s="0" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C869" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D869" s="0" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E869" s="0" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F869" s="0" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B870" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C870" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D870" s="0" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E870" s="0" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F870" s="0" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C871" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D871" s="0" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E871" s="0" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F871" s="0" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B872" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C872" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D872" s="0" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E872" s="0" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F872" s="0" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B873" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C873" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D873" s="0" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E873" s="0" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F873" s="0" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B874" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C874" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D874" s="0" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E874" s="0" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F874" s="0" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B875" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C875" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D875" s="0" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E875" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F875" s="0" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C876" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D876" s="0" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E876" s="0" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F876" s="0" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C877" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D877" s="0" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E877" s="0" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F877" s="0" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C878" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D878" s="0" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E878" s="0" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F878" s="0" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C879" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D879" s="0" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E879" s="0" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F879" s="0" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C880" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D880" s="0" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E880" s="0" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F880" s="0" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B881" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D881" s="0" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E881" s="0" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F881" s="0" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B882" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C882" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D882" s="0" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E882" s="0" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F882" s="0" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C883" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D883" s="0" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E883" s="0" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F883" s="0" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C884" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D884" s="0" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E884" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F884" s="0" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C885" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D885" s="0" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E885" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F885" s="0" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C886" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D886" s="0" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E886" s="0" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F886" s="0" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C887" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D887" s="0" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E887" s="0" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F887" s="0" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C888" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D888" s="0" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E888" s="0" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F888" s="0" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C889" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D889" s="0" t="s">
+        <v>2761</v>
+      </c>
+      <c r="E889" s="0" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F889" s="0" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C890" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D890" s="0" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E890" s="0" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F890" s="0" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C891" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D891" s="0" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E891" s="0" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F891" s="0" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C892" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D892" s="0" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E892" s="0" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F892" s="0" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C893" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D893" s="0" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E893" s="0" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F893" s="0" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C894" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D894" s="0" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E894" s="0" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F894" s="0" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C895" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D895" s="0" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E895" s="0" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F895" s="0" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C896" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D896" s="0" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E896" s="0" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F896" s="0" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C897" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D897" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E897" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F897" s="0" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C898" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D898" s="0" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E898" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F898" s="0" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C899" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D899" s="0" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E899" s="0" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F899" s="0" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C900" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D900" s="0" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E900" s="0" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F900" s="0" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C901" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D901" s="0" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E901" s="0" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F901" s="0" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C902" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D902" s="0" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E902" s="0" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F902" s="0" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C903" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D903" s="0" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E903" s="0" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F903" s="0" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C904" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D904" s="0" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E904" s="0" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F904" s="0" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C905" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D905" s="0" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E905" s="0" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F905" s="0" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C906" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D906" s="0" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E906" s="0" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F906" s="0" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C907" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D907" s="0" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E907" s="0" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F907" s="0" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C908" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D908" s="0" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E908" s="0" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F908" s="0" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C909" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D909" s="0" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E909" s="0" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F909" s="0" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C910" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D910" s="0" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E910" s="0" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F910" s="0" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C911" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D911" s="0" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E911" s="0" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F911" s="0" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C912" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D912" s="0" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E912" s="0" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F912" s="0" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C913" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D913" s="0" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E913" s="0" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F913" s="0" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C914" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D914" s="0" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E914" s="0" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F914" s="0" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C915" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D915" s="0" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E915" s="0" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F915" s="0" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C916" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D916" s="0" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E916" s="0" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F916" s="0" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C917" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D917" s="0" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E917" s="0" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F917" s="0" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C918" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D918" s="0" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E918" s="0" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F918" s="0" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C919" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D919" s="0" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E919" s="0" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F919" s="0" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C920" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D920" s="0" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E920" s="0" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F920" s="0" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C921" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D921" s="0" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E921" s="0" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F921" s="0" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C922" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D922" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E922" s="0" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F922" s="0" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C923" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D923" s="0" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E923" s="0" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F923" s="0" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C924" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D924" s="0" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E924" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F924" s="0" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C925" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D925" s="0" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E925" s="0" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F925" s="0" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C926" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D926" s="0" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E926" s="0" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F926" s="0" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C927" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D927" s="0" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F927" s="0" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C928" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D928" s="0" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E928" s="0" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F928" s="0" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C929" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D929" s="0" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F929" s="0" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F930" s="0" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C931" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D931" s="0" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F931" s="0" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C932" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D932" s="0" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E932" s="0" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F932" s="0" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C933" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D933" s="0" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E933" s="0" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F933" s="0" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C934" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D934" s="0" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E934" s="0" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F934" s="0" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C935" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D935" s="0" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E935" s="0" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F935" s="0" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C936" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D936" s="0" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E936" s="0" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F936" s="0" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D937" s="0" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E937" s="0" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F937" s="0" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C938" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D938" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E938" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F938" s="0" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C939" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D939" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E939" s="0" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F939" s="0" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C940" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D940" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E940" s="0" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F940" s="0" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C941" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D941" s="0" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E941" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F941" s="0" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C942" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D942" s="0" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E942" s="0" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F942" s="0" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C943" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D943" s="0" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E943" s="0" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F943" s="0" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C944" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D944" s="0" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E944" s="0" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F944" s="0" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C945" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D945" s="0" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E945" s="0" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F945" s="0" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C946" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D946" s="0" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E946" s="0" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F946" s="0" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C947" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D947" s="0" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E947" s="0" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F947" s="0" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C948" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D948" s="0" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E948" s="0" t="s">
+        <v>2964</v>
+      </c>
+      <c r="F948" s="0" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C949" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D949" s="0" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E949" s="0" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F949" s="0" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C950" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D950" s="0" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E950" s="0" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F950" s="0" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C951" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D951" s="0" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E951" s="0" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F951" s="0" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C952" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D952" s="0" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E952" s="0" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F952" s="0" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C953" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D953" s="0" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E953" s="0" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F953" s="0" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C954" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D954" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E954" s="0" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F954" s="0" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C955" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D955" s="0" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E955" s="0" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F955" s="0" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B956" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C956" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D956" s="0" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E956" s="0" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F956" s="0" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C957" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D957" s="0" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E957" s="0" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F957" s="0" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C958" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D958" s="0" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E958" s="0" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F958" s="0" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C959" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D959" s="0" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E959" s="0" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F959" s="0" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C960" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D960" s="0" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E960" s="0" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F960" s="0" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C961" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D961" s="0" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E961" s="0" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F961" s="0" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C962" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D962" s="0" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E962" s="0" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F962" s="0" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C963" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D963" s="0" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E963" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F963" s="0" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C964" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D964" s="0" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E964" s="0" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F964" s="0" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C965" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D965" s="0" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E965" s="0" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F965" s="0" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C966" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D966" s="0" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E966" s="0" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F966" s="0" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C967" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D967" s="0" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E967" s="0" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F967" s="0" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C968" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D968" s="0" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E968" s="0" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F968" s="0" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C969" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D969" s="0" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E969" s="0" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F969" s="0" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C970" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D970" s="0" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E970" s="0" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F970" s="0" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C971" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D971" s="0" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E971" s="0" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F971" s="0" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C972" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D972" s="0" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E972" s="0" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F972" s="0" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C973" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D973" s="0" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E973" s="0" t="s">
+        <v>3048</v>
+      </c>
+      <c r="F973" s="0" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C974" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D974" s="0" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E974" s="0" t="s">
+        <v>3051</v>
+      </c>
+      <c r="F974" s="0" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C975" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D975" s="0" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E975" s="0" t="s">
+        <v>3054</v>
+      </c>
+      <c r="F975" s="0" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C976" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D976" s="0" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E976" s="0" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F976" s="0" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C977" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D977" s="0" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E977" s="0" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F977" s="0" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C978" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D978" s="0" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E978" s="0" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F978" s="0" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C979" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D979" s="0" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E979" s="0" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F979" s="0" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B980" s="0" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C980" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D980" s="0" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E980" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F980" s="0" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B981" s="0" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C981" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D981" s="0" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E981" s="0" t="s">
+        <v>3074</v>
+      </c>
+      <c r="F981" s="0" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B982" s="0" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C982" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D982" s="0" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E982" s="0" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F982" s="0" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B983" s="0" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C983" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D983" s="0" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E983" s="0" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F983" s="0" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B984" s="0" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C984" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D984" s="0" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E984" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F984" s="0" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B985" s="0" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C985" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D985" s="0" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E985" s="0" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F985" s="0" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B986" s="0" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C986" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D986" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E986" s="0" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F986" s="0" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B987" s="0" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C987" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D987" s="0" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E987" s="0" t="s">
+        <v>3095</v>
+      </c>
+      <c r="F987" s="0" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C988" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D988" s="0" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E988" s="0" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F988" s="0" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B989" s="0" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C989" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D989" s="0" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E989" s="0" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F989" s="0" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C990" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D990" s="0" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E990" s="0" t="s">
+        <v>3107</v>
+      </c>
+      <c r="F990" s="0" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C991" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D991" s="0" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E991" s="0" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F991" s="0" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B992" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C992" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D992" s="0" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E992" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F992" s="0" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B993" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C993" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D993" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E993" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F993" s="0" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C994" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D994" s="0" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E994" s="0" t="s">
+        <v>3120</v>
+      </c>
+      <c r="F994" s="0" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C995" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D995" s="0" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E995" s="0" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F995" s="0" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B996" s="0" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C996" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D996" s="0" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E996" s="0" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F996" s="0" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C997" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D997" s="0" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E997" s="0" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F997" s="0" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B998" s="0" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C998" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D998" s="0" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E998" s="0" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F998" s="0" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C999" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D999" s="0" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E999" s="0" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F999" s="0" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1000" s="0" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1000" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1000" s="0" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E1000" s="0" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F1000" s="0" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1001" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1001" s="0" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E1001" s="0" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F1001" s="0" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1002" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1002" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1002" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E1002" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F1002" s="0" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1003" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1003" s="0" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E1003" s="0" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F1003" s="0" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1004" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1004" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1004" s="0" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E1004" s="0" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F1004" s="0" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1005" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1005" s="0" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E1005" s="0" t="s">
+        <v>3159</v>
+      </c>
+      <c r="F1005" s="0" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1006" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1006" s="0" t="s">
+        <v>3161</v>
+      </c>
+      <c r="E1006" s="0" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F1006" s="0" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1007" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1007" s="0" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E1007" s="0" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F1007" s="0" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1008" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1008" s="0" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E1008" s="0" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F1008" s="0" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1009" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1009" s="0" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1009" s="0" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F1009" s="0" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1010" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1010" s="0" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E1010" s="0" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F1010" s="0" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1011" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1011" s="0" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E1011" s="0" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F1011" s="0" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1012" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1012" s="0" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E1012" s="0" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F1012" s="0" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1013" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1013" s="0" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E1013" s="0" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F1013" s="0" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1014" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1014" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1014" s="0" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E1014" s="0" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F1014" s="0" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1015" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1015" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1015" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E1015" s="0" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F1015" s="0" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1016" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1016" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1016" s="0" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E1016" s="0" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F1016" s="0" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1017" s="0" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1017" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1017" s="0" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E1017" s="0" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F1017" s="0" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1018" s="0" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E1018" s="0" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F1018" s="0" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1019" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1019" s="0" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1019" s="0" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F1019" s="0" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C1020" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1020" s="0" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E1020" s="0" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F1020" s="0" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C1021" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1021" s="0" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E1021" s="0" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F1021" s="0" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1022" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1022" s="0" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1022" s="0" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F1022" s="0" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1023" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1023" s="0" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E1023" s="0" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F1023" s="0" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1024" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E1024" s="0" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F1024" s="0" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1025" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1025" s="0" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E1025" s="0" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F1025" s="0" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1026" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1026" s="0" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E1026" s="0" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F1026" s="0" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1027" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1027" s="0" t="s">
+        <v>3232</v>
+      </c>
+      <c r="E1027" s="0" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F1027" s="0" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1028" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1028" s="0" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E1028" s="0" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F1028" s="0" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1029" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1029" s="0" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E1029" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F1029" s="0" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1030" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1030" s="0" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E1030" s="0" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F1030" s="0" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1031" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1031" s="0" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E1031" s="0" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F1031" s="0" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1032" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1032" s="0" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E1032" s="0" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F1032" s="0" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1033" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1033" s="0" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E1033" s="0" t="s">
+        <v>3252</v>
+      </c>
+      <c r="F1033" s="0" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1034" s="0" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1034" s="0" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F1034" s="0" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1035" s="0" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E1035" s="0" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F1035" s="0" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E1036" s="0" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1037" s="0" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E1037" s="0" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F1037" s="0" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1038" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1038" s="0" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E1038" s="0" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F1038" s="0" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1039" s="0" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E1039" s="0" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F1039" s="0" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1040" s="0" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E1040" s="0" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F1040" s="0" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E1041" s="0" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F1041" s="0" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1042" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1042" s="0" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E1042" s="0" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F1042" s="0" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1043" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1043" s="0" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1043" s="0" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F1043" s="0" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1044" s="0" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E1045" s="0" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E1046" s="0" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F1046" s="0" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1047" s="0" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E1047" s="0" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F1047" s="0" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1048" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1048" s="0" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E1048" s="0" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F1048" s="0" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1049" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1049" s="0" t="s">
+        <v>3307</v>
+      </c>
+      <c r="E1049" s="0" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F1049" s="0" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1050" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1050" s="0" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E1050" s="0" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F1050" s="0" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1051" s="0" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E1051" s="0" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F1051" s="0" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1052" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1052" s="0" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E1052" s="0" t="s">
+        <v>3317</v>
+      </c>
+      <c r="F1052" s="0" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1053" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1053" s="0" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E1053" s="0" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F1053" s="0" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1054" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1054" s="0" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E1054" s="0" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F1054" s="0" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1055" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1055" s="0" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E1055" s="0" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F1055" s="0" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1056" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1056" s="0" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E1056" s="0" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F1056" s="0" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1057" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1057" s="0" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E1057" s="0" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F1057" s="0" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1058" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1058" s="0" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E1058" s="0" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F1058" s="0" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1059" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1059" s="0" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E1059" s="0" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F1059" s="0" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1060" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1060" s="0" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E1060" s="0" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F1060" s="0" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1061" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1061" s="0" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E1061" s="0" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1061" s="0" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1062" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1062" s="0" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E1062" s="0" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F1062" s="0" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1063" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1063" s="0" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E1063" s="0" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F1063" s="0" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1064" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1064" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1064" s="0" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E1064" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F1064" s="0" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1065" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1065" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1065" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E1065" s="0" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F1065" s="0" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1066" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1066" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1066" s="0" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E1066" s="0" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F1066" s="0" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1067" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1067" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1067" s="0" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E1067" s="0" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F1067" s="0" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1068" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1068" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1068" s="0" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1068" s="0" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F1068" s="0" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1069" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1069" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1069" s="0" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E1069" s="0" t="s">
+        <v>3375</v>
+      </c>
+      <c r="F1069" s="0" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1070" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1070" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1070" s="0" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E1070" s="0" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F1070" s="0" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1071" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1071" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1071" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E1071" s="0" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F1071" s="0" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1072" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1072" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1072" s="0" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E1072" s="0" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F1072" s="0" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1073" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1073" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1073" s="0" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E1073" s="0" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F1073" s="0" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1074" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1074" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1074" s="0" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E1074" s="0" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F1074" s="0" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1075" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1075" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1075" s="0" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E1075" s="0" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F1075" s="0" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1076" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1076" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1076" s="0" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E1076" s="0" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F1076" s="0" t="s">
+        <v>3400</v>
       </c>
     </row>
     <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -10494,8 +10494,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1018" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1037" activeCellId="0" sqref="A1037:F1076"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A805" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1037" activeCellId="0" sqref="A1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26759,6062 +26759,6062 @@
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="0" t="s">
+      <c r="A774" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B774" s="0" t="s">
+      <c r="B774" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C774" s="0" t="s">
+      <c r="C774" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D774" s="0" t="s">
+      <c r="D774" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="E774" s="0" t="s">
+      <c r="E774" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="F774" s="0" t="s">
+      <c r="F774" s="3" t="s">
         <v>2377</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="0" t="s">
+      <c r="A775" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B775" s="0" t="s">
+      <c r="B775" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C775" s="0" t="s">
+      <c r="C775" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D775" s="0" t="s">
+      <c r="D775" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="E775" s="0" t="s">
+      <c r="E775" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="F775" s="0" t="s">
+      <c r="F775" s="3" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="0" t="s">
+      <c r="A776" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B776" s="0" t="s">
+      <c r="B776" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C776" s="0" t="s">
+      <c r="C776" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D776" s="0" t="s">
+      <c r="D776" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="E776" s="0" t="s">
+      <c r="E776" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="F776" s="0" t="s">
+      <c r="F776" s="3" t="s">
         <v>2383</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="0" t="s">
+      <c r="A777" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B777" s="0" t="s">
+      <c r="B777" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C777" s="0" t="s">
+      <c r="C777" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D777" s="0" t="s">
+      <c r="D777" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="E777" s="0" t="s">
+      <c r="E777" s="3" t="s">
         <v>2385</v>
       </c>
-      <c r="F777" s="0" t="s">
+      <c r="F777" s="3" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="0" t="s">
+      <c r="A778" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B778" s="0" t="s">
+      <c r="B778" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C778" s="0" t="s">
+      <c r="C778" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D778" s="0" t="s">
+      <c r="D778" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="E778" s="0" t="s">
+      <c r="E778" s="3" t="s">
         <v>2388</v>
       </c>
-      <c r="F778" s="0" t="s">
+      <c r="F778" s="3" t="s">
         <v>2389</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="0" t="s">
+      <c r="A779" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B779" s="0" t="s">
+      <c r="B779" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C779" s="0" t="s">
+      <c r="C779" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D779" s="0" t="s">
+      <c r="D779" s="3" t="s">
         <v>2390</v>
       </c>
-      <c r="E779" s="0" t="s">
+      <c r="E779" s="3" t="s">
         <v>2391</v>
       </c>
-      <c r="F779" s="0" t="s">
+      <c r="F779" s="3" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="0" t="s">
+      <c r="A780" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B780" s="0" t="s">
+      <c r="B780" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C780" s="0" t="s">
+      <c r="C780" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D780" s="0" t="s">
+      <c r="D780" s="3" t="s">
         <v>2393</v>
       </c>
-      <c r="E780" s="0" t="s">
+      <c r="E780" s="3" t="s">
         <v>2394</v>
       </c>
-      <c r="F780" s="0" t="s">
+      <c r="F780" s="3" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="0" t="s">
+      <c r="A781" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B781" s="0" t="s">
+      <c r="B781" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C781" s="0" t="s">
+      <c r="C781" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D781" s="0" t="s">
+      <c r="D781" s="3" t="s">
         <v>2396</v>
       </c>
-      <c r="E781" s="0" t="s">
+      <c r="E781" s="3" t="s">
         <v>2397</v>
       </c>
-      <c r="F781" s="0" t="s">
+      <c r="F781" s="3" t="s">
         <v>2398</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="0" t="s">
+      <c r="A782" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B782" s="0" t="s">
+      <c r="B782" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C782" s="0" t="s">
+      <c r="C782" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D782" s="0" t="s">
+      <c r="D782" s="3" t="s">
         <v>2399</v>
       </c>
-      <c r="E782" s="0" t="s">
+      <c r="E782" s="3" t="s">
         <v>2400</v>
       </c>
-      <c r="F782" s="0" t="s">
+      <c r="F782" s="3" t="s">
         <v>2401</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="0" t="s">
+      <c r="A783" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B783" s="0" t="s">
+      <c r="B783" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C783" s="0" t="s">
+      <c r="C783" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D783" s="0" t="s">
+      <c r="D783" s="3" t="s">
         <v>2402</v>
       </c>
-      <c r="E783" s="0" t="s">
+      <c r="E783" s="3" t="s">
         <v>2403</v>
       </c>
-      <c r="F783" s="0" t="s">
+      <c r="F783" s="3" t="s">
         <v>2404</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="0" t="s">
+      <c r="A784" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B784" s="0" t="s">
+      <c r="B784" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C784" s="0" t="s">
+      <c r="C784" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D784" s="0" t="s">
+      <c r="D784" s="3" t="s">
         <v>2405</v>
       </c>
-      <c r="E784" s="0" t="s">
+      <c r="E784" s="3" t="s">
         <v>2406</v>
       </c>
-      <c r="F784" s="0" t="s">
+      <c r="F784" s="3" t="s">
         <v>2407</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="0" t="s">
+      <c r="A785" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B785" s="0" t="s">
+      <c r="B785" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C785" s="0" t="s">
+      <c r="C785" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D785" s="0" t="s">
+      <c r="D785" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="E785" s="0" t="s">
+      <c r="E785" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="F785" s="0" t="s">
+      <c r="F785" s="3" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="0" t="s">
+      <c r="A786" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B786" s="0" t="s">
+      <c r="B786" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C786" s="0" t="s">
+      <c r="C786" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D786" s="0" t="s">
+      <c r="D786" s="3" t="s">
         <v>2411</v>
       </c>
-      <c r="E786" s="0" t="s">
+      <c r="E786" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="F786" s="0" t="s">
+      <c r="F786" s="3" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="0" t="s">
+      <c r="A787" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B787" s="0" t="s">
+      <c r="B787" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C787" s="0" t="s">
+      <c r="C787" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D787" s="0" t="s">
+      <c r="D787" s="3" t="s">
         <v>2414</v>
       </c>
-      <c r="E787" s="0" t="s">
+      <c r="E787" s="3" t="s">
         <v>2415</v>
       </c>
-      <c r="F787" s="0" t="s">
+      <c r="F787" s="3" t="s">
         <v>2416</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="0" t="s">
+      <c r="A788" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B788" s="0" t="s">
+      <c r="B788" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C788" s="0" t="s">
+      <c r="C788" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D788" s="0" t="s">
+      <c r="D788" s="3" t="s">
         <v>2417</v>
       </c>
-      <c r="E788" s="0" t="s">
+      <c r="E788" s="3" t="s">
         <v>2418</v>
       </c>
-      <c r="F788" s="0" t="s">
+      <c r="F788" s="3" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="0" t="s">
+      <c r="A789" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B789" s="0" t="s">
+      <c r="B789" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C789" s="0" t="s">
+      <c r="C789" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D789" s="0" t="s">
+      <c r="D789" s="3" t="s">
         <v>2420</v>
       </c>
-      <c r="E789" s="0" t="s">
+      <c r="E789" s="3" t="s">
         <v>2421</v>
       </c>
-      <c r="F789" s="0" t="s">
+      <c r="F789" s="3" t="s">
         <v>2422</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="0" t="s">
+      <c r="A790" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B790" s="0" t="s">
+      <c r="B790" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C790" s="0" t="s">
+      <c r="C790" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D790" s="0" t="s">
+      <c r="D790" s="3" t="s">
         <v>2423</v>
       </c>
-      <c r="E790" s="0" t="s">
+      <c r="E790" s="3" t="s">
         <v>2424</v>
       </c>
-      <c r="F790" s="0" t="s">
+      <c r="F790" s="3" t="s">
         <v>2425</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="0" t="s">
+      <c r="A791" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B791" s="0" t="s">
+      <c r="B791" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C791" s="0" t="s">
+      <c r="C791" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D791" s="0" t="s">
+      <c r="D791" s="3" t="s">
         <v>2426</v>
       </c>
-      <c r="E791" s="0" t="s">
+      <c r="E791" s="3" t="s">
         <v>2427</v>
       </c>
-      <c r="F791" s="0" t="s">
+      <c r="F791" s="3" t="s">
         <v>2428</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="0" t="s">
+      <c r="A792" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B792" s="0" t="s">
+      <c r="B792" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C792" s="0" t="s">
+      <c r="C792" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D792" s="0" t="s">
+      <c r="D792" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="E792" s="0" t="s">
+      <c r="E792" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="F792" s="0" t="s">
+      <c r="F792" s="3" t="s">
         <v>2431</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="0" t="s">
+      <c r="A793" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B793" s="0" t="s">
+      <c r="B793" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="C793" s="0" t="s">
+      <c r="C793" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="D793" s="0" t="s">
+      <c r="D793" s="3" t="s">
         <v>2432</v>
       </c>
-      <c r="E793" s="0" t="s">
+      <c r="E793" s="3" t="s">
         <v>2433</v>
       </c>
-      <c r="F793" s="0" t="s">
+      <c r="F793" s="3" t="s">
         <v>2434</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="0" t="s">
+      <c r="A794" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B794" s="0" t="s">
+      <c r="B794" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C794" s="0" t="s">
+      <c r="C794" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D794" s="0" t="s">
+      <c r="D794" s="3" t="s">
         <v>2436</v>
       </c>
-      <c r="E794" s="0" t="s">
+      <c r="E794" s="3" t="s">
         <v>2437</v>
       </c>
-      <c r="F794" s="0" t="s">
+      <c r="F794" s="3" t="s">
         <v>2438</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="0" t="s">
+      <c r="A795" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B795" s="0" t="s">
+      <c r="B795" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C795" s="0" t="s">
+      <c r="C795" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D795" s="0" t="s">
+      <c r="D795" s="3" t="s">
         <v>2439</v>
       </c>
-      <c r="E795" s="0" t="s">
+      <c r="E795" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="F795" s="0" t="s">
+      <c r="F795" s="3" t="s">
         <v>2441</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="0" t="s">
+      <c r="A796" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B796" s="0" t="s">
+      <c r="B796" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C796" s="0" t="s">
+      <c r="C796" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D796" s="0" t="s">
+      <c r="D796" s="3" t="s">
         <v>2442</v>
       </c>
-      <c r="E796" s="0" t="s">
+      <c r="E796" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="F796" s="0" t="s">
+      <c r="F796" s="3" t="s">
         <v>2444</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="0" t="s">
+      <c r="A797" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B797" s="0" t="s">
+      <c r="B797" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C797" s="0" t="s">
+      <c r="C797" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D797" s="0" t="s">
+      <c r="D797" s="3" t="s">
         <v>2445</v>
       </c>
-      <c r="E797" s="0" t="s">
+      <c r="E797" s="3" t="s">
         <v>2446</v>
       </c>
-      <c r="F797" s="0" t="s">
+      <c r="F797" s="3" t="s">
         <v>2447</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="0" t="s">
+      <c r="A798" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B798" s="0" t="s">
+      <c r="B798" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C798" s="0" t="s">
+      <c r="C798" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D798" s="0" t="s">
+      <c r="D798" s="3" t="s">
         <v>2448</v>
       </c>
-      <c r="E798" s="0" t="s">
+      <c r="E798" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="F798" s="0" t="s">
+      <c r="F798" s="3" t="s">
         <v>2450</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="0" t="s">
+      <c r="A799" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B799" s="0" t="s">
+      <c r="B799" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C799" s="0" t="s">
+      <c r="C799" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D799" s="0" t="s">
+      <c r="D799" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="E799" s="0" t="s">
+      <c r="E799" s="3" t="s">
         <v>2452</v>
       </c>
-      <c r="F799" s="0" t="s">
+      <c r="F799" s="3" t="s">
         <v>2453</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="0" t="s">
+      <c r="A800" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B800" s="0" t="s">
+      <c r="B800" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C800" s="0" t="s">
+      <c r="C800" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D800" s="0" t="s">
+      <c r="D800" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="E800" s="0" t="s">
+      <c r="E800" s="3" t="s">
         <v>2455</v>
       </c>
-      <c r="F800" s="0" t="s">
+      <c r="F800" s="3" t="s">
         <v>2456</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="0" t="s">
+      <c r="A801" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B801" s="0" t="s">
+      <c r="B801" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C801" s="0" t="s">
+      <c r="C801" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D801" s="0" t="s">
+      <c r="D801" s="3" t="s">
         <v>2457</v>
       </c>
-      <c r="E801" s="0" t="s">
+      <c r="E801" s="3" t="s">
         <v>2458</v>
       </c>
-      <c r="F801" s="0" t="s">
+      <c r="F801" s="3" t="s">
         <v>2459</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="0" t="s">
+      <c r="A802" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B802" s="0" t="s">
+      <c r="B802" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C802" s="0" t="s">
+      <c r="C802" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D802" s="0" t="s">
+      <c r="D802" s="3" t="s">
         <v>2460</v>
       </c>
-      <c r="E802" s="0" t="s">
+      <c r="E802" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="F802" s="0" t="s">
+      <c r="F802" s="3" t="s">
         <v>2462</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="0" t="s">
+      <c r="A803" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B803" s="0" t="s">
+      <c r="B803" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C803" s="0" t="s">
+      <c r="C803" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D803" s="0" t="s">
+      <c r="D803" s="3" t="s">
         <v>2463</v>
       </c>
-      <c r="E803" s="0" t="s">
+      <c r="E803" s="3" t="s">
         <v>2464</v>
       </c>
-      <c r="F803" s="0" t="s">
+      <c r="F803" s="3" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="0" t="s">
+      <c r="A804" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B804" s="0" t="s">
+      <c r="B804" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C804" s="0" t="s">
+      <c r="C804" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D804" s="0" t="s">
+      <c r="D804" s="3" t="s">
         <v>2466</v>
       </c>
-      <c r="E804" s="0" t="s">
+      <c r="E804" s="3" t="s">
         <v>2467</v>
       </c>
-      <c r="F804" s="0" t="s">
+      <c r="F804" s="3" t="s">
         <v>2468</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="0" t="s">
+      <c r="A805" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B805" s="0" t="s">
+      <c r="B805" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C805" s="0" t="s">
+      <c r="C805" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D805" s="0" t="s">
+      <c r="D805" s="3" t="s">
         <v>2469</v>
       </c>
-      <c r="E805" s="0" t="s">
+      <c r="E805" s="3" t="s">
         <v>2470</v>
       </c>
-      <c r="F805" s="0" t="s">
+      <c r="F805" s="3" t="s">
         <v>2471</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="0" t="s">
+      <c r="A806" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B806" s="0" t="s">
+      <c r="B806" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C806" s="0" t="s">
+      <c r="C806" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D806" s="0" t="s">
+      <c r="D806" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="E806" s="0" t="s">
+      <c r="E806" s="3" t="s">
         <v>2473</v>
       </c>
-      <c r="F806" s="0" t="s">
+      <c r="F806" s="3" t="s">
         <v>2474</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="0" t="s">
+      <c r="A807" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B807" s="0" t="s">
+      <c r="B807" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C807" s="0" t="s">
+      <c r="C807" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D807" s="0" t="s">
+      <c r="D807" s="3" t="s">
         <v>2475</v>
       </c>
-      <c r="E807" s="0" t="s">
+      <c r="E807" s="3" t="s">
         <v>2476</v>
       </c>
-      <c r="F807" s="0" t="s">
+      <c r="F807" s="3" t="s">
         <v>2477</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="0" t="s">
+      <c r="A808" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B808" s="0" t="s">
+      <c r="B808" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C808" s="0" t="s">
+      <c r="C808" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D808" s="0" t="s">
+      <c r="D808" s="3" t="s">
         <v>2478</v>
       </c>
-      <c r="E808" s="0" t="s">
+      <c r="E808" s="3" t="s">
         <v>2479</v>
       </c>
-      <c r="F808" s="0" t="s">
+      <c r="F808" s="3" t="s">
         <v>2480</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="0" t="s">
+      <c r="A809" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B809" s="0" t="s">
+      <c r="B809" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C809" s="0" t="s">
+      <c r="C809" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D809" s="0" t="s">
+      <c r="D809" s="3" t="s">
         <v>2481</v>
       </c>
-      <c r="E809" s="0" t="s">
+      <c r="E809" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="F809" s="0" t="s">
+      <c r="F809" s="3" t="s">
         <v>2483</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="0" t="s">
+      <c r="A810" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B810" s="0" t="s">
+      <c r="B810" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C810" s="0" t="s">
+      <c r="C810" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D810" s="0" t="s">
+      <c r="D810" s="3" t="s">
         <v>2484</v>
       </c>
-      <c r="E810" s="0" t="s">
+      <c r="E810" s="3" t="s">
         <v>2485</v>
       </c>
-      <c r="F810" s="0" t="s">
+      <c r="F810" s="3" t="s">
         <v>2486</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="0" t="s">
+      <c r="A811" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B811" s="0" t="s">
+      <c r="B811" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C811" s="0" t="s">
+      <c r="C811" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D811" s="0" t="s">
+      <c r="D811" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="E811" s="0" t="s">
+      <c r="E811" s="3" t="s">
         <v>2488</v>
       </c>
-      <c r="F811" s="0" t="s">
+      <c r="F811" s="3" t="s">
         <v>2489</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="0" t="s">
+      <c r="A812" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B812" s="0" t="s">
+      <c r="B812" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C812" s="0" t="s">
+      <c r="C812" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D812" s="0" t="s">
+      <c r="D812" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="E812" s="0" t="s">
+      <c r="E812" s="3" t="s">
         <v>2491</v>
       </c>
-      <c r="F812" s="0" t="s">
+      <c r="F812" s="3" t="s">
         <v>2492</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="0" t="s">
+      <c r="A813" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B813" s="0" t="s">
+      <c r="B813" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C813" s="0" t="s">
+      <c r="C813" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D813" s="0" t="s">
+      <c r="D813" s="3" t="s">
         <v>2493</v>
       </c>
-      <c r="E813" s="0" t="s">
+      <c r="E813" s="3" t="s">
         <v>2494</v>
       </c>
-      <c r="F813" s="0" t="s">
+      <c r="F813" s="3" t="s">
         <v>2495</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="0" t="s">
+      <c r="A814" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B814" s="0" t="s">
+      <c r="B814" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C814" s="0" t="s">
+      <c r="C814" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D814" s="0" t="s">
+      <c r="D814" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="E814" s="0" t="s">
+      <c r="E814" s="3" t="s">
         <v>2497</v>
       </c>
-      <c r="F814" s="0" t="s">
+      <c r="F814" s="3" t="s">
         <v>2498</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="0" t="s">
+      <c r="A815" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B815" s="0" t="s">
+      <c r="B815" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C815" s="0" t="s">
+      <c r="C815" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D815" s="0" t="s">
+      <c r="D815" s="3" t="s">
         <v>2499</v>
       </c>
-      <c r="E815" s="0" t="s">
+      <c r="E815" s="3" t="s">
         <v>2500</v>
       </c>
-      <c r="F815" s="0" t="s">
+      <c r="F815" s="3" t="s">
         <v>2501</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="0" t="s">
+      <c r="A816" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B816" s="0" t="s">
+      <c r="B816" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C816" s="0" t="s">
+      <c r="C816" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D816" s="0" t="s">
+      <c r="D816" s="3" t="s">
         <v>2502</v>
       </c>
-      <c r="E816" s="0" t="s">
+      <c r="E816" s="3" t="s">
         <v>2503</v>
       </c>
-      <c r="F816" s="0" t="s">
+      <c r="F816" s="3" t="s">
         <v>2504</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="0" t="s">
+      <c r="A817" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B817" s="0" t="s">
+      <c r="B817" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C817" s="0" t="s">
+      <c r="C817" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D817" s="0" t="s">
+      <c r="D817" s="3" t="s">
         <v>2505</v>
       </c>
-      <c r="E817" s="0" t="s">
+      <c r="E817" s="3" t="s">
         <v>2506</v>
       </c>
-      <c r="F817" s="0" t="s">
+      <c r="F817" s="3" t="s">
         <v>2507</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="0" t="s">
+      <c r="A818" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B818" s="0" t="s">
+      <c r="B818" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C818" s="0" t="s">
+      <c r="C818" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D818" s="0" t="s">
+      <c r="D818" s="3" t="s">
         <v>2508</v>
       </c>
-      <c r="E818" s="0" t="s">
+      <c r="E818" s="3" t="s">
         <v>2509</v>
       </c>
-      <c r="F818" s="0" t="s">
+      <c r="F818" s="3" t="s">
         <v>2510</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="0" t="s">
+      <c r="A819" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B819" s="0" t="s">
+      <c r="B819" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C819" s="0" t="s">
+      <c r="C819" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D819" s="0" t="s">
+      <c r="D819" s="3" t="s">
         <v>2511</v>
       </c>
-      <c r="E819" s="0" t="s">
+      <c r="E819" s="3" t="s">
         <v>2512</v>
       </c>
-      <c r="F819" s="0" t="s">
+      <c r="F819" s="3" t="s">
         <v>2513</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="0" t="s">
+      <c r="A820" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B820" s="0" t="s">
+      <c r="B820" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C820" s="0" t="s">
+      <c r="C820" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D820" s="0" t="s">
+      <c r="D820" s="3" t="s">
         <v>2514</v>
       </c>
-      <c r="E820" s="0" t="s">
+      <c r="E820" s="3" t="s">
         <v>2515</v>
       </c>
-      <c r="F820" s="0" t="s">
+      <c r="F820" s="3" t="s">
         <v>2516</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="0" t="s">
+      <c r="A821" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B821" s="0" t="s">
+      <c r="B821" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C821" s="0" t="s">
+      <c r="C821" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D821" s="0" t="s">
+      <c r="D821" s="3" t="s">
         <v>2517</v>
       </c>
-      <c r="E821" s="0" t="s">
+      <c r="E821" s="3" t="s">
         <v>2518</v>
       </c>
-      <c r="F821" s="0" t="s">
+      <c r="F821" s="3" t="s">
         <v>2519</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="0" t="s">
+      <c r="A822" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B822" s="0" t="s">
+      <c r="B822" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C822" s="0" t="s">
+      <c r="C822" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D822" s="0" t="s">
+      <c r="D822" s="3" t="s">
         <v>2520</v>
       </c>
-      <c r="E822" s="0" t="s">
+      <c r="E822" s="3" t="s">
         <v>2521</v>
       </c>
-      <c r="F822" s="0" t="s">
+      <c r="F822" s="3" t="s">
         <v>2522</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="0" t="s">
+      <c r="A823" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B823" s="0" t="s">
+      <c r="B823" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="C823" s="0" t="s">
+      <c r="C823" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="D823" s="0" t="s">
+      <c r="D823" s="3" t="s">
         <v>2523</v>
       </c>
-      <c r="E823" s="0" t="s">
+      <c r="E823" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="F823" s="0" t="s">
+      <c r="F823" s="3" t="s">
         <v>2525</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="0" t="s">
+      <c r="A824" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B824" s="0" t="s">
+      <c r="B824" s="3" t="s">
         <v>2526</v>
       </c>
-      <c r="C824" s="0" t="s">
+      <c r="C824" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D824" s="0" t="s">
+      <c r="D824" s="3" t="s">
         <v>2528</v>
       </c>
-      <c r="E824" s="0" t="s">
+      <c r="E824" s="3" t="s">
         <v>2529</v>
       </c>
-      <c r="F824" s="0" t="s">
+      <c r="F824" s="3" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="0" t="s">
+      <c r="A825" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B825" s="0" t="s">
+      <c r="B825" s="3" t="s">
         <v>2526</v>
       </c>
-      <c r="C825" s="0" t="s">
+      <c r="C825" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D825" s="0" t="s">
+      <c r="D825" s="3" t="s">
         <v>2531</v>
       </c>
-      <c r="E825" s="0" t="s">
+      <c r="E825" s="3" t="s">
         <v>2532</v>
       </c>
-      <c r="F825" s="0" t="s">
+      <c r="F825" s="3" t="s">
         <v>2533</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="0" t="s">
+      <c r="A826" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B826" s="0" t="s">
+      <c r="B826" s="3" t="s">
         <v>2534</v>
       </c>
-      <c r="C826" s="0" t="s">
+      <c r="C826" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D826" s="0" t="s">
+      <c r="D826" s="3" t="s">
         <v>2535</v>
       </c>
-      <c r="E826" s="0" t="s">
+      <c r="E826" s="3" t="s">
         <v>2536</v>
       </c>
-      <c r="F826" s="0" t="s">
+      <c r="F826" s="3" t="s">
         <v>2537</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="0" t="s">
+      <c r="A827" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B827" s="0" t="s">
+      <c r="B827" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="C827" s="0" t="s">
+      <c r="C827" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D827" s="0" t="s">
+      <c r="D827" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="E827" s="0" t="s">
+      <c r="E827" s="3" t="s">
         <v>2540</v>
       </c>
-      <c r="F827" s="0" t="s">
+      <c r="F827" s="3" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="0" t="s">
+      <c r="A828" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B828" s="0" t="s">
+      <c r="B828" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="C828" s="0" t="s">
+      <c r="C828" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D828" s="0" t="s">
+      <c r="D828" s="3" t="s">
         <v>2542</v>
       </c>
-      <c r="E828" s="0" t="s">
+      <c r="E828" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="F828" s="0" t="s">
+      <c r="F828" s="3" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="0" t="s">
+      <c r="A829" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B829" s="0" t="s">
+      <c r="B829" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="C829" s="0" t="s">
+      <c r="C829" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D829" s="0" t="s">
+      <c r="D829" s="3" t="s">
         <v>2545</v>
       </c>
-      <c r="E829" s="0" t="s">
+      <c r="E829" s="3" t="s">
         <v>2546</v>
       </c>
-      <c r="F829" s="0" t="s">
+      <c r="F829" s="3" t="s">
         <v>2547</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="0" t="s">
+      <c r="A830" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B830" s="0" t="s">
+      <c r="B830" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="C830" s="0" t="s">
+      <c r="C830" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D830" s="0" t="s">
+      <c r="D830" s="3" t="s">
         <v>2548</v>
       </c>
-      <c r="E830" s="0" t="s">
+      <c r="E830" s="3" t="s">
         <v>2549</v>
       </c>
-      <c r="F830" s="0" t="s">
+      <c r="F830" s="3" t="s">
         <v>2550</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="0" t="s">
+      <c r="A831" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B831" s="0" t="s">
+      <c r="B831" s="3" t="s">
         <v>2551</v>
       </c>
-      <c r="C831" s="0" t="s">
+      <c r="C831" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D831" s="0" t="s">
+      <c r="D831" s="3" t="s">
         <v>2552</v>
       </c>
-      <c r="E831" s="0" t="s">
+      <c r="E831" s="3" t="s">
         <v>2553</v>
       </c>
-      <c r="F831" s="0" t="s">
+      <c r="F831" s="3" t="s">
         <v>2554</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="0" t="s">
+      <c r="A832" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B832" s="0" t="s">
+      <c r="B832" s="3" t="s">
         <v>2551</v>
       </c>
-      <c r="C832" s="0" t="s">
+      <c r="C832" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D832" s="0" t="s">
+      <c r="D832" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="E832" s="0" t="s">
+      <c r="E832" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="F832" s="0" t="s">
+      <c r="F832" s="3" t="s">
         <v>2557</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="0" t="s">
+      <c r="A833" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B833" s="0" t="s">
+      <c r="B833" s="3" t="s">
         <v>2551</v>
       </c>
-      <c r="C833" s="0" t="s">
+      <c r="C833" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D833" s="0" t="s">
+      <c r="D833" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="E833" s="0" t="s">
+      <c r="E833" s="3" t="s">
         <v>2559</v>
       </c>
-      <c r="F833" s="0" t="s">
+      <c r="F833" s="3" t="s">
         <v>2560</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="0" t="s">
+      <c r="A834" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B834" s="0" t="s">
+      <c r="B834" s="3" t="s">
         <v>2561</v>
       </c>
-      <c r="C834" s="0" t="s">
+      <c r="C834" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D834" s="0" t="s">
+      <c r="D834" s="3" t="s">
         <v>2562</v>
       </c>
-      <c r="E834" s="0" t="s">
+      <c r="E834" s="3" t="s">
         <v>2563</v>
       </c>
-      <c r="F834" s="0" t="s">
+      <c r="F834" s="3" t="s">
         <v>2564</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="0" t="s">
+      <c r="A835" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B835" s="0" t="s">
+      <c r="B835" s="3" t="s">
         <v>2565</v>
       </c>
-      <c r="C835" s="0" t="s">
+      <c r="C835" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D835" s="0" t="s">
+      <c r="D835" s="3" t="s">
         <v>2566</v>
       </c>
-      <c r="E835" s="0" t="s">
+      <c r="E835" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="F835" s="0" t="s">
+      <c r="F835" s="3" t="s">
         <v>2568</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="0" t="s">
+      <c r="A836" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B836" s="0" t="s">
+      <c r="B836" s="3" t="s">
         <v>2569</v>
       </c>
-      <c r="C836" s="0" t="s">
+      <c r="C836" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D836" s="0" t="s">
+      <c r="D836" s="3" t="s">
         <v>2570</v>
       </c>
-      <c r="E836" s="0" t="s">
+      <c r="E836" s="3" t="s">
         <v>2571</v>
       </c>
-      <c r="F836" s="0" t="s">
+      <c r="F836" s="3" t="s">
         <v>2572</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="0" t="s">
+      <c r="A837" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B837" s="0" t="s">
+      <c r="B837" s="3" t="s">
         <v>2569</v>
       </c>
-      <c r="C837" s="0" t="s">
+      <c r="C837" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D837" s="0" t="s">
+      <c r="D837" s="3" t="s">
         <v>2573</v>
       </c>
-      <c r="E837" s="0" t="s">
+      <c r="E837" s="3" t="s">
         <v>2574</v>
       </c>
-      <c r="F837" s="0" t="s">
+      <c r="F837" s="3" t="s">
         <v>2575</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="0" t="s">
+      <c r="A838" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B838" s="0" t="s">
+      <c r="B838" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="C838" s="0" t="s">
+      <c r="C838" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D838" s="0" t="s">
+      <c r="D838" s="3" t="s">
         <v>2577</v>
       </c>
-      <c r="E838" s="0" t="s">
+      <c r="E838" s="3" t="s">
         <v>2578</v>
       </c>
-      <c r="F838" s="0" t="s">
+      <c r="F838" s="3" t="s">
         <v>2579</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="0" t="s">
+      <c r="A839" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B839" s="0" t="s">
+      <c r="B839" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="C839" s="0" t="s">
+      <c r="C839" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D839" s="0" t="s">
+      <c r="D839" s="3" t="s">
         <v>2580</v>
       </c>
-      <c r="E839" s="0" t="s">
+      <c r="E839" s="3" t="s">
         <v>2581</v>
       </c>
-      <c r="F839" s="0" t="s">
+      <c r="F839" s="3" t="s">
         <v>2582</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="0" t="s">
+      <c r="A840" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B840" s="0" t="s">
+      <c r="B840" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="C840" s="0" t="s">
+      <c r="C840" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D840" s="0" t="s">
+      <c r="D840" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="E840" s="0" t="s">
+      <c r="E840" s="3" t="s">
         <v>2585</v>
       </c>
-      <c r="F840" s="0" t="s">
+      <c r="F840" s="3" t="s">
         <v>2586</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="0" t="s">
+      <c r="A841" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B841" s="0" t="s">
+      <c r="B841" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="C841" s="0" t="s">
+      <c r="C841" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D841" s="0" t="s">
+      <c r="D841" s="3" t="s">
         <v>2587</v>
       </c>
-      <c r="E841" s="0" t="s">
+      <c r="E841" s="3" t="s">
         <v>2588</v>
       </c>
-      <c r="F841" s="0" t="s">
+      <c r="F841" s="3" t="s">
         <v>2589</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="0" t="s">
+      <c r="A842" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B842" s="0" t="s">
+      <c r="B842" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="C842" s="0" t="s">
+      <c r="C842" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D842" s="0" t="s">
+      <c r="D842" s="3" t="s">
         <v>2590</v>
       </c>
-      <c r="E842" s="0" t="s">
+      <c r="E842" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="F842" s="0" t="s">
+      <c r="F842" s="3" t="s">
         <v>2592</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="0" t="s">
+      <c r="A843" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B843" s="0" t="s">
+      <c r="B843" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="C843" s="0" t="s">
+      <c r="C843" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D843" s="0" t="s">
+      <c r="D843" s="3" t="s">
         <v>2594</v>
       </c>
-      <c r="E843" s="0" t="s">
+      <c r="E843" s="3" t="s">
         <v>2595</v>
       </c>
-      <c r="F843" s="0" t="s">
+      <c r="F843" s="3" t="s">
         <v>2596</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="0" t="s">
+      <c r="A844" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B844" s="0" t="s">
+      <c r="B844" s="3" t="s">
         <v>2597</v>
       </c>
-      <c r="C844" s="0" t="s">
+      <c r="C844" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D844" s="0" t="s">
+      <c r="D844" s="3" t="s">
         <v>2598</v>
       </c>
-      <c r="E844" s="0" t="s">
+      <c r="E844" s="3" t="s">
         <v>2599</v>
       </c>
-      <c r="F844" s="0" t="s">
+      <c r="F844" s="3" t="s">
         <v>2600</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="0" t="s">
+      <c r="A845" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B845" s="0" t="s">
+      <c r="B845" s="3" t="s">
         <v>2601</v>
       </c>
-      <c r="C845" s="0" t="s">
+      <c r="C845" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D845" s="0" t="s">
+      <c r="D845" s="3" t="s">
         <v>2602</v>
       </c>
-      <c r="E845" s="0" t="s">
+      <c r="E845" s="3" t="s">
         <v>2603</v>
       </c>
-      <c r="F845" s="0" t="s">
+      <c r="F845" s="3" t="s">
         <v>2604</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="0" t="s">
+      <c r="A846" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B846" s="0" t="s">
+      <c r="B846" s="3" t="s">
         <v>2605</v>
       </c>
-      <c r="C846" s="0" t="s">
+      <c r="C846" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D846" s="0" t="s">
+      <c r="D846" s="3" t="s">
         <v>2606</v>
       </c>
-      <c r="E846" s="0" t="s">
+      <c r="E846" s="3" t="s">
         <v>2607</v>
       </c>
-      <c r="F846" s="0" t="s">
+      <c r="F846" s="3" t="s">
         <v>2608</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="0" t="s">
+      <c r="A847" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B847" s="0" t="s">
+      <c r="B847" s="3" t="s">
         <v>2609</v>
       </c>
-      <c r="C847" s="0" t="s">
+      <c r="C847" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D847" s="0" t="s">
+      <c r="D847" s="3" t="s">
         <v>2610</v>
       </c>
-      <c r="E847" s="0" t="s">
+      <c r="E847" s="3" t="s">
         <v>2611</v>
       </c>
-      <c r="F847" s="0" t="s">
+      <c r="F847" s="3" t="s">
         <v>2612</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="0" t="s">
+      <c r="A848" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B848" s="0" t="s">
+      <c r="B848" s="3" t="s">
         <v>2613</v>
       </c>
-      <c r="C848" s="0" t="s">
+      <c r="C848" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D848" s="0" t="s">
+      <c r="D848" s="3" t="s">
         <v>2614</v>
       </c>
-      <c r="E848" s="0" t="s">
+      <c r="E848" s="3" t="s">
         <v>2615</v>
       </c>
-      <c r="F848" s="0" t="s">
+      <c r="F848" s="3" t="s">
         <v>2616</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="0" t="s">
+      <c r="A849" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B849" s="0" t="s">
+      <c r="B849" s="3" t="s">
         <v>2617</v>
       </c>
-      <c r="C849" s="0" t="s">
+      <c r="C849" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D849" s="0" t="s">
+      <c r="D849" s="3" t="s">
         <v>2618</v>
       </c>
-      <c r="E849" s="0" t="s">
+      <c r="E849" s="3" t="s">
         <v>2619</v>
       </c>
-      <c r="F849" s="0" t="s">
+      <c r="F849" s="3" t="s">
         <v>2620</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="0" t="s">
+      <c r="A850" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B850" s="0" t="s">
+      <c r="B850" s="3" t="s">
         <v>2621</v>
       </c>
-      <c r="C850" s="0" t="s">
+      <c r="C850" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D850" s="0" t="s">
+      <c r="D850" s="3" t="s">
         <v>2622</v>
       </c>
-      <c r="E850" s="0" t="s">
+      <c r="E850" s="3" t="s">
         <v>2623</v>
       </c>
-      <c r="F850" s="0" t="s">
+      <c r="F850" s="3" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="0" t="s">
+      <c r="A851" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B851" s="0" t="s">
+      <c r="B851" s="3" t="s">
         <v>2625</v>
       </c>
-      <c r="C851" s="0" t="s">
+      <c r="C851" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D851" s="0" t="s">
+      <c r="D851" s="3" t="s">
         <v>2626</v>
       </c>
-      <c r="E851" s="0" t="s">
+      <c r="E851" s="3" t="s">
         <v>2627</v>
       </c>
-      <c r="F851" s="0" t="s">
+      <c r="F851" s="3" t="s">
         <v>2628</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="0" t="s">
+      <c r="A852" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B852" s="0" t="s">
+      <c r="B852" s="3" t="s">
         <v>2629</v>
       </c>
-      <c r="C852" s="0" t="s">
+      <c r="C852" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D852" s="0" t="s">
+      <c r="D852" s="3" t="s">
         <v>2630</v>
       </c>
-      <c r="E852" s="0" t="s">
+      <c r="E852" s="3" t="s">
         <v>2631</v>
       </c>
-      <c r="F852" s="0" t="s">
+      <c r="F852" s="3" t="s">
         <v>2632</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="0" t="s">
+      <c r="A853" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B853" s="0" t="s">
+      <c r="B853" s="3" t="s">
         <v>2633</v>
       </c>
-      <c r="C853" s="0" t="s">
+      <c r="C853" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D853" s="0" t="s">
+      <c r="D853" s="3" t="s">
         <v>2634</v>
       </c>
-      <c r="E853" s="0" t="s">
+      <c r="E853" s="3" t="s">
         <v>2635</v>
       </c>
-      <c r="F853" s="0" t="s">
+      <c r="F853" s="3" t="s">
         <v>2636</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="0" t="s">
+      <c r="A854" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B854" s="0" t="s">
+      <c r="B854" s="3" t="s">
         <v>2617</v>
       </c>
-      <c r="C854" s="0" t="s">
+      <c r="C854" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D854" s="0" t="s">
+      <c r="D854" s="3" t="s">
         <v>2637</v>
       </c>
-      <c r="E854" s="0" t="s">
+      <c r="E854" s="3" t="s">
         <v>2638</v>
       </c>
-      <c r="F854" s="0" t="s">
+      <c r="F854" s="3" t="s">
         <v>2639</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="0" t="s">
+      <c r="A855" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B855" s="0" t="s">
+      <c r="B855" s="3" t="s">
         <v>2640</v>
       </c>
-      <c r="C855" s="0" t="s">
+      <c r="C855" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D855" s="0" t="s">
+      <c r="D855" s="3" t="s">
         <v>2641</v>
       </c>
-      <c r="E855" s="0" t="s">
+      <c r="E855" s="3" t="s">
         <v>2642</v>
       </c>
-      <c r="F855" s="0" t="s">
+      <c r="F855" s="3" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="0" t="s">
+      <c r="A856" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B856" s="0" t="s">
+      <c r="B856" s="3" t="s">
         <v>2644</v>
       </c>
-      <c r="C856" s="0" t="s">
+      <c r="C856" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D856" s="0" t="s">
+      <c r="D856" s="3" t="s">
         <v>2645</v>
       </c>
-      <c r="E856" s="0" t="s">
+      <c r="E856" s="3" t="s">
         <v>2646</v>
       </c>
-      <c r="F856" s="0" t="s">
+      <c r="F856" s="3" t="s">
         <v>2647</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="0" t="s">
+      <c r="A857" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B857" s="0" t="s">
+      <c r="B857" s="3" t="s">
         <v>2648</v>
       </c>
-      <c r="C857" s="0" t="s">
+      <c r="C857" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D857" s="0" t="s">
+      <c r="D857" s="3" t="s">
         <v>2649</v>
       </c>
-      <c r="E857" s="0" t="s">
+      <c r="E857" s="3" t="s">
         <v>2650</v>
       </c>
-      <c r="F857" s="0" t="s">
+      <c r="F857" s="3" t="s">
         <v>2651</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="0" t="s">
+      <c r="A858" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B858" s="0" t="s">
+      <c r="B858" s="3" t="s">
         <v>2652</v>
       </c>
-      <c r="C858" s="0" t="s">
+      <c r="C858" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D858" s="0" t="s">
+      <c r="D858" s="3" t="s">
         <v>2653</v>
       </c>
-      <c r="E858" s="0" t="s">
+      <c r="E858" s="3" t="s">
         <v>2654</v>
       </c>
-      <c r="F858" s="0" t="s">
+      <c r="F858" s="3" t="s">
         <v>2655</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="0" t="s">
+      <c r="A859" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B859" s="0" t="s">
+      <c r="B859" s="3" t="s">
         <v>2633</v>
       </c>
-      <c r="C859" s="0" t="s">
+      <c r="C859" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D859" s="0" t="s">
+      <c r="D859" s="3" t="s">
         <v>2656</v>
       </c>
-      <c r="E859" s="0" t="s">
+      <c r="E859" s="3" t="s">
         <v>2657</v>
       </c>
-      <c r="F859" s="0" t="s">
+      <c r="F859" s="3" t="s">
         <v>2658</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="0" t="s">
+      <c r="A860" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B860" s="0" t="s">
+      <c r="B860" s="3" t="s">
         <v>2640</v>
       </c>
-      <c r="C860" s="0" t="s">
+      <c r="C860" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D860" s="0" t="s">
+      <c r="D860" s="3" t="s">
         <v>2659</v>
       </c>
-      <c r="E860" s="0" t="s">
+      <c r="E860" s="3" t="s">
         <v>2660</v>
       </c>
-      <c r="F860" s="0" t="s">
+      <c r="F860" s="3" t="s">
         <v>2661</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="0" t="s">
+      <c r="A861" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B861" s="0" t="s">
+      <c r="B861" s="3" t="s">
         <v>2662</v>
       </c>
-      <c r="C861" s="0" t="s">
+      <c r="C861" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D861" s="0" t="s">
+      <c r="D861" s="3" t="s">
         <v>2663</v>
       </c>
-      <c r="E861" s="0" t="s">
+      <c r="E861" s="3" t="s">
         <v>2664</v>
       </c>
-      <c r="F861" s="0" t="s">
+      <c r="F861" s="3" t="s">
         <v>2665</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="0" t="s">
+      <c r="A862" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B862" s="0" t="s">
+      <c r="B862" s="3" t="s">
         <v>2648</v>
       </c>
-      <c r="C862" s="0" t="s">
+      <c r="C862" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D862" s="0" t="s">
+      <c r="D862" s="3" t="s">
         <v>2666</v>
       </c>
-      <c r="E862" s="0" t="s">
+      <c r="E862" s="3" t="s">
         <v>2667</v>
       </c>
-      <c r="F862" s="0" t="s">
+      <c r="F862" s="3" t="s">
         <v>2668</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="0" t="s">
+      <c r="A863" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B863" s="0" t="s">
+      <c r="B863" s="3" t="s">
         <v>2640</v>
       </c>
-      <c r="C863" s="0" t="s">
+      <c r="C863" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="D863" s="0" t="s">
+      <c r="D863" s="3" t="s">
         <v>2669</v>
       </c>
-      <c r="E863" s="0" t="s">
+      <c r="E863" s="3" t="s">
         <v>2670</v>
       </c>
-      <c r="F863" s="0" t="s">
+      <c r="F863" s="3" t="s">
         <v>2671</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="0" t="s">
+      <c r="A864" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B864" s="0" t="s">
+      <c r="B864" s="3" t="s">
         <v>2672</v>
       </c>
-      <c r="C864" s="0" t="s">
+      <c r="C864" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D864" s="0" t="s">
+      <c r="D864" s="3" t="s">
         <v>2674</v>
       </c>
-      <c r="E864" s="0" t="s">
+      <c r="E864" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="F864" s="0" t="s">
+      <c r="F864" s="3" t="s">
         <v>2676</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="0" t="s">
+      <c r="A865" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B865" s="0" t="s">
+      <c r="B865" s="3" t="s">
         <v>2672</v>
       </c>
-      <c r="C865" s="0" t="s">
+      <c r="C865" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D865" s="0" t="s">
+      <c r="D865" s="3" t="s">
         <v>2677</v>
       </c>
-      <c r="E865" s="0" t="s">
+      <c r="E865" s="3" t="s">
         <v>2678</v>
       </c>
-      <c r="F865" s="0" t="s">
+      <c r="F865" s="3" t="s">
         <v>2679</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="0" t="s">
+      <c r="A866" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B866" s="0" t="s">
+      <c r="B866" s="3" t="s">
         <v>2680</v>
       </c>
-      <c r="C866" s="0" t="s">
+      <c r="C866" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D866" s="0" t="s">
+      <c r="D866" s="3" t="s">
         <v>2681</v>
       </c>
-      <c r="E866" s="0" t="s">
+      <c r="E866" s="3" t="s">
         <v>2682</v>
       </c>
-      <c r="F866" s="0" t="s">
+      <c r="F866" s="3" t="s">
         <v>2683</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="0" t="s">
+      <c r="A867" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B867" s="0" t="s">
+      <c r="B867" s="3" t="s">
         <v>2680</v>
       </c>
-      <c r="C867" s="0" t="s">
+      <c r="C867" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D867" s="0" t="s">
+      <c r="D867" s="3" t="s">
         <v>2684</v>
       </c>
-      <c r="E867" s="0" t="s">
+      <c r="E867" s="3" t="s">
         <v>2685</v>
       </c>
-      <c r="F867" s="0" t="s">
+      <c r="F867" s="3" t="s">
         <v>2686</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="0" t="s">
+      <c r="A868" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B868" s="0" t="s">
+      <c r="B868" s="3" t="s">
         <v>2680</v>
       </c>
-      <c r="C868" s="0" t="s">
+      <c r="C868" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D868" s="0" t="s">
+      <c r="D868" s="3" t="s">
         <v>2687</v>
       </c>
-      <c r="E868" s="0" t="s">
+      <c r="E868" s="3" t="s">
         <v>2688</v>
       </c>
-      <c r="F868" s="0" t="s">
+      <c r="F868" s="3" t="s">
         <v>2689</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="0" t="s">
+      <c r="A869" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B869" s="0" t="s">
+      <c r="B869" s="3" t="s">
         <v>2690</v>
       </c>
-      <c r="C869" s="0" t="s">
+      <c r="C869" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D869" s="0" t="s">
+      <c r="D869" s="3" t="s">
         <v>2691</v>
       </c>
-      <c r="E869" s="0" t="s">
+      <c r="E869" s="3" t="s">
         <v>2692</v>
       </c>
-      <c r="F869" s="0" t="s">
+      <c r="F869" s="3" t="s">
         <v>2693</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="0" t="s">
+      <c r="A870" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B870" s="0" t="s">
+      <c r="B870" s="3" t="s">
         <v>2694</v>
       </c>
-      <c r="C870" s="0" t="s">
+      <c r="C870" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D870" s="0" t="s">
+      <c r="D870" s="3" t="s">
         <v>2695</v>
       </c>
-      <c r="E870" s="0" t="s">
+      <c r="E870" s="3" t="s">
         <v>2696</v>
       </c>
-      <c r="F870" s="0" t="s">
+      <c r="F870" s="3" t="s">
         <v>2697</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="0" t="s">
+      <c r="A871" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B871" s="0" t="s">
+      <c r="B871" s="3" t="s">
         <v>2694</v>
       </c>
-      <c r="C871" s="0" t="s">
+      <c r="C871" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D871" s="0" t="s">
+      <c r="D871" s="3" t="s">
         <v>2698</v>
       </c>
-      <c r="E871" s="0" t="s">
+      <c r="E871" s="3" t="s">
         <v>2699</v>
       </c>
-      <c r="F871" s="0" t="s">
+      <c r="F871" s="3" t="s">
         <v>2700</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="0" t="s">
+      <c r="A872" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B872" s="0" t="s">
+      <c r="B872" s="3" t="s">
         <v>2694</v>
       </c>
-      <c r="C872" s="0" t="s">
+      <c r="C872" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D872" s="0" t="s">
+      <c r="D872" s="3" t="s">
         <v>2701</v>
       </c>
-      <c r="E872" s="0" t="s">
+      <c r="E872" s="3" t="s">
         <v>2702</v>
       </c>
-      <c r="F872" s="0" t="s">
+      <c r="F872" s="3" t="s">
         <v>2703</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="0" t="s">
+      <c r="A873" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B873" s="0" t="s">
+      <c r="B873" s="3" t="s">
         <v>2704</v>
       </c>
-      <c r="C873" s="0" t="s">
+      <c r="C873" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D873" s="0" t="s">
+      <c r="D873" s="3" t="s">
         <v>2705</v>
       </c>
-      <c r="E873" s="0" t="s">
+      <c r="E873" s="3" t="s">
         <v>2706</v>
       </c>
-      <c r="F873" s="0" t="s">
+      <c r="F873" s="3" t="s">
         <v>2707</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="0" t="s">
+      <c r="A874" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B874" s="0" t="s">
+      <c r="B874" s="3" t="s">
         <v>2704</v>
       </c>
-      <c r="C874" s="0" t="s">
+      <c r="C874" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D874" s="0" t="s">
+      <c r="D874" s="3" t="s">
         <v>2708</v>
       </c>
-      <c r="E874" s="0" t="s">
+      <c r="E874" s="3" t="s">
         <v>2709</v>
       </c>
-      <c r="F874" s="0" t="s">
+      <c r="F874" s="3" t="s">
         <v>2710</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="0" t="s">
+      <c r="A875" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B875" s="0" t="s">
+      <c r="B875" s="3" t="s">
         <v>2704</v>
       </c>
-      <c r="C875" s="0" t="s">
+      <c r="C875" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D875" s="0" t="s">
+      <c r="D875" s="3" t="s">
         <v>2711</v>
       </c>
-      <c r="E875" s="0" t="s">
+      <c r="E875" s="3" t="s">
         <v>2712</v>
       </c>
-      <c r="F875" s="0" t="s">
+      <c r="F875" s="3" t="s">
         <v>2713</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="0" t="s">
+      <c r="A876" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B876" s="0" t="s">
+      <c r="B876" s="3" t="s">
         <v>2714</v>
       </c>
-      <c r="C876" s="0" t="s">
+      <c r="C876" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D876" s="0" t="s">
+      <c r="D876" s="3" t="s">
         <v>2715</v>
       </c>
-      <c r="E876" s="0" t="s">
+      <c r="E876" s="3" t="s">
         <v>2716</v>
       </c>
-      <c r="F876" s="0" t="s">
+      <c r="F876" s="3" t="s">
         <v>2717</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="0" t="s">
+      <c r="A877" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B877" s="0" t="s">
+      <c r="B877" s="3" t="s">
         <v>2714</v>
       </c>
-      <c r="C877" s="0" t="s">
+      <c r="C877" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D877" s="0" t="s">
+      <c r="D877" s="3" t="s">
         <v>2718</v>
       </c>
-      <c r="E877" s="0" t="s">
+      <c r="E877" s="3" t="s">
         <v>2719</v>
       </c>
-      <c r="F877" s="0" t="s">
+      <c r="F877" s="3" t="s">
         <v>2720</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="0" t="s">
+      <c r="A878" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B878" s="0" t="s">
+      <c r="B878" s="3" t="s">
         <v>2714</v>
       </c>
-      <c r="C878" s="0" t="s">
+      <c r="C878" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D878" s="0" t="s">
+      <c r="D878" s="3" t="s">
         <v>2721</v>
       </c>
-      <c r="E878" s="0" t="s">
+      <c r="E878" s="3" t="s">
         <v>2722</v>
       </c>
-      <c r="F878" s="0" t="s">
+      <c r="F878" s="3" t="s">
         <v>2723</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="0" t="s">
+      <c r="A879" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B879" s="0" t="s">
+      <c r="B879" s="3" t="s">
         <v>2724</v>
       </c>
-      <c r="C879" s="0" t="s">
+      <c r="C879" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D879" s="0" t="s">
+      <c r="D879" s="3" t="s">
         <v>2725</v>
       </c>
-      <c r="E879" s="0" t="s">
+      <c r="E879" s="3" t="s">
         <v>2726</v>
       </c>
-      <c r="F879" s="0" t="s">
+      <c r="F879" s="3" t="s">
         <v>2727</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="0" t="s">
+      <c r="A880" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B880" s="0" t="s">
+      <c r="B880" s="3" t="s">
         <v>2724</v>
       </c>
-      <c r="C880" s="0" t="s">
+      <c r="C880" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D880" s="0" t="s">
+      <c r="D880" s="3" t="s">
         <v>2728</v>
       </c>
-      <c r="E880" s="0" t="s">
+      <c r="E880" s="3" t="s">
         <v>2729</v>
       </c>
-      <c r="F880" s="0" t="s">
+      <c r="F880" s="3" t="s">
         <v>2730</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="0" t="s">
+      <c r="A881" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B881" s="0" t="s">
+      <c r="B881" s="3" t="s">
         <v>2731</v>
       </c>
-      <c r="C881" s="0" t="s">
+      <c r="C881" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D881" s="0" t="s">
+      <c r="D881" s="3" t="s">
         <v>2732</v>
       </c>
-      <c r="E881" s="0" t="s">
+      <c r="E881" s="3" t="s">
         <v>2733</v>
       </c>
-      <c r="F881" s="0" t="s">
+      <c r="F881" s="3" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="0" t="s">
+      <c r="A882" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B882" s="0" t="s">
+      <c r="B882" s="3" t="s">
         <v>2731</v>
       </c>
-      <c r="C882" s="0" t="s">
+      <c r="C882" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D882" s="0" t="s">
+      <c r="D882" s="3" t="s">
         <v>2735</v>
       </c>
-      <c r="E882" s="0" t="s">
+      <c r="E882" s="3" t="s">
         <v>2736</v>
       </c>
-      <c r="F882" s="0" t="s">
+      <c r="F882" s="3" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="0" t="s">
+      <c r="A883" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B883" s="0" t="s">
+      <c r="B883" s="3" t="s">
         <v>2731</v>
       </c>
-      <c r="C883" s="0" t="s">
+      <c r="C883" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D883" s="0" t="s">
+      <c r="D883" s="3" t="s">
         <v>2738</v>
       </c>
-      <c r="E883" s="0" t="s">
+      <c r="E883" s="3" t="s">
         <v>2739</v>
       </c>
-      <c r="F883" s="0" t="s">
+      <c r="F883" s="3" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="0" t="s">
+      <c r="A884" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B884" s="0" t="s">
+      <c r="B884" s="3" t="s">
         <v>2741</v>
       </c>
-      <c r="C884" s="0" t="s">
+      <c r="C884" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D884" s="0" t="s">
+      <c r="D884" s="3" t="s">
         <v>2742</v>
       </c>
-      <c r="E884" s="0" t="s">
+      <c r="E884" s="3" t="s">
         <v>2743</v>
       </c>
-      <c r="F884" s="0" t="s">
+      <c r="F884" s="3" t="s">
         <v>2744</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="0" t="s">
+      <c r="A885" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B885" s="0" t="s">
+      <c r="B885" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="C885" s="0" t="s">
+      <c r="C885" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D885" s="0" t="s">
+      <c r="D885" s="3" t="s">
         <v>2746</v>
       </c>
-      <c r="E885" s="0" t="s">
+      <c r="E885" s="3" t="s">
         <v>2747</v>
       </c>
-      <c r="F885" s="0" t="s">
+      <c r="F885" s="3" t="s">
         <v>2748</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="0" t="s">
+      <c r="A886" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B886" s="0" t="s">
+      <c r="B886" s="3" t="s">
         <v>2749</v>
       </c>
-      <c r="C886" s="0" t="s">
+      <c r="C886" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D886" s="0" t="s">
+      <c r="D886" s="3" t="s">
         <v>2750</v>
       </c>
-      <c r="E886" s="0" t="s">
+      <c r="E886" s="3" t="s">
         <v>2751</v>
       </c>
-      <c r="F886" s="0" t="s">
+      <c r="F886" s="3" t="s">
         <v>2752</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="0" t="s">
+      <c r="A887" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B887" s="0" t="s">
+      <c r="B887" s="3" t="s">
         <v>2753</v>
       </c>
-      <c r="C887" s="0" t="s">
+      <c r="C887" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D887" s="0" t="s">
+      <c r="D887" s="3" t="s">
         <v>2754</v>
       </c>
-      <c r="E887" s="0" t="s">
+      <c r="E887" s="3" t="s">
         <v>2755</v>
       </c>
-      <c r="F887" s="0" t="s">
+      <c r="F887" s="3" t="s">
         <v>2756</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="0" t="s">
+      <c r="A888" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B888" s="0" t="s">
+      <c r="B888" s="3" t="s">
         <v>2757</v>
       </c>
-      <c r="C888" s="0" t="s">
+      <c r="C888" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D888" s="0" t="s">
+      <c r="D888" s="3" t="s">
         <v>2758</v>
       </c>
-      <c r="E888" s="0" t="s">
+      <c r="E888" s="3" t="s">
         <v>2759</v>
       </c>
-      <c r="F888" s="0" t="s">
+      <c r="F888" s="3" t="s">
         <v>2760</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="0" t="s">
+      <c r="A889" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B889" s="0" t="s">
+      <c r="B889" s="3" t="s">
         <v>2757</v>
       </c>
-      <c r="C889" s="0" t="s">
+      <c r="C889" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D889" s="0" t="s">
+      <c r="D889" s="3" t="s">
         <v>2761</v>
       </c>
-      <c r="E889" s="0" t="s">
+      <c r="E889" s="3" t="s">
         <v>2762</v>
       </c>
-      <c r="F889" s="0" t="s">
+      <c r="F889" s="3" t="s">
         <v>2763</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="0" t="s">
+      <c r="A890" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B890" s="0" t="s">
+      <c r="B890" s="3" t="s">
         <v>2757</v>
       </c>
-      <c r="C890" s="0" t="s">
+      <c r="C890" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D890" s="0" t="s">
+      <c r="D890" s="3" t="s">
         <v>2764</v>
       </c>
-      <c r="E890" s="0" t="s">
+      <c r="E890" s="3" t="s">
         <v>2765</v>
       </c>
-      <c r="F890" s="0" t="s">
+      <c r="F890" s="3" t="s">
         <v>2766</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="0" t="s">
+      <c r="A891" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B891" s="0" t="s">
+      <c r="B891" s="3" t="s">
         <v>2767</v>
       </c>
-      <c r="C891" s="0" t="s">
+      <c r="C891" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D891" s="0" t="s">
+      <c r="D891" s="3" t="s">
         <v>2768</v>
       </c>
-      <c r="E891" s="0" t="s">
+      <c r="E891" s="3" t="s">
         <v>2769</v>
       </c>
-      <c r="F891" s="0" t="s">
+      <c r="F891" s="3" t="s">
         <v>2770</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="0" t="s">
+      <c r="A892" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B892" s="0" t="s">
+      <c r="B892" s="3" t="s">
         <v>2771</v>
       </c>
-      <c r="C892" s="0" t="s">
+      <c r="C892" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D892" s="0" t="s">
+      <c r="D892" s="3" t="s">
         <v>2772</v>
       </c>
-      <c r="E892" s="0" t="s">
+      <c r="E892" s="3" t="s">
         <v>2773</v>
       </c>
-      <c r="F892" s="0" t="s">
+      <c r="F892" s="3" t="s">
         <v>2774</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="0" t="s">
+      <c r="A893" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B893" s="0" t="s">
+      <c r="B893" s="3" t="s">
         <v>2775</v>
       </c>
-      <c r="C893" s="0" t="s">
+      <c r="C893" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="D893" s="0" t="s">
+      <c r="D893" s="3" t="s">
         <v>2776</v>
       </c>
-      <c r="E893" s="0" t="s">
+      <c r="E893" s="3" t="s">
         <v>2777</v>
       </c>
-      <c r="F893" s="0" t="s">
+      <c r="F893" s="3" t="s">
         <v>2778</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="0" t="s">
+      <c r="A894" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B894" s="0" t="s">
+      <c r="B894" s="3" t="s">
         <v>2779</v>
       </c>
-      <c r="C894" s="0" t="s">
+      <c r="C894" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D894" s="0" t="s">
+      <c r="D894" s="3" t="s">
         <v>2781</v>
       </c>
-      <c r="E894" s="0" t="s">
+      <c r="E894" s="3" t="s">
         <v>2782</v>
       </c>
-      <c r="F894" s="0" t="s">
+      <c r="F894" s="3" t="s">
         <v>2783</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="0" t="s">
+      <c r="A895" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B895" s="0" t="s">
+      <c r="B895" s="3" t="s">
         <v>2779</v>
       </c>
-      <c r="C895" s="0" t="s">
+      <c r="C895" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D895" s="0" t="s">
+      <c r="D895" s="3" t="s">
         <v>2784</v>
       </c>
-      <c r="E895" s="0" t="s">
+      <c r="E895" s="3" t="s">
         <v>2785</v>
       </c>
-      <c r="F895" s="0" t="s">
+      <c r="F895" s="3" t="s">
         <v>2786</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="0" t="s">
+      <c r="A896" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B896" s="0" t="s">
+      <c r="B896" s="3" t="s">
         <v>2779</v>
       </c>
-      <c r="C896" s="0" t="s">
+      <c r="C896" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D896" s="0" t="s">
+      <c r="D896" s="3" t="s">
         <v>2787</v>
       </c>
-      <c r="E896" s="0" t="s">
+      <c r="E896" s="3" t="s">
         <v>2788</v>
       </c>
-      <c r="F896" s="0" t="s">
+      <c r="F896" s="3" t="s">
         <v>2789</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="0" t="s">
+      <c r="A897" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B897" s="0" t="s">
+      <c r="B897" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="C897" s="0" t="s">
+      <c r="C897" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D897" s="0" t="s">
+      <c r="D897" s="3" t="s">
         <v>2791</v>
       </c>
-      <c r="E897" s="0" t="s">
+      <c r="E897" s="3" t="s">
         <v>2792</v>
       </c>
-      <c r="F897" s="0" t="s">
+      <c r="F897" s="3" t="s">
         <v>2793</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="0" t="s">
+      <c r="A898" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B898" s="0" t="s">
+      <c r="B898" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="C898" s="0" t="s">
+      <c r="C898" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D898" s="0" t="s">
+      <c r="D898" s="3" t="s">
         <v>2794</v>
       </c>
-      <c r="E898" s="0" t="s">
+      <c r="E898" s="3" t="s">
         <v>2795</v>
       </c>
-      <c r="F898" s="0" t="s">
+      <c r="F898" s="3" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="0" t="s">
+      <c r="A899" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B899" s="0" t="s">
+      <c r="B899" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="C899" s="0" t="s">
+      <c r="C899" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D899" s="0" t="s">
+      <c r="D899" s="3" t="s">
         <v>2797</v>
       </c>
-      <c r="E899" s="0" t="s">
+      <c r="E899" s="3" t="s">
         <v>2798</v>
       </c>
-      <c r="F899" s="0" t="s">
+      <c r="F899" s="3" t="s">
         <v>2799</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="0" t="s">
+      <c r="A900" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B900" s="0" t="s">
+      <c r="B900" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="C900" s="0" t="s">
+      <c r="C900" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D900" s="0" t="s">
+      <c r="D900" s="3" t="s">
         <v>2800</v>
       </c>
-      <c r="E900" s="0" t="s">
+      <c r="E900" s="3" t="s">
         <v>2801</v>
       </c>
-      <c r="F900" s="0" t="s">
+      <c r="F900" s="3" t="s">
         <v>2802</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="0" t="s">
+      <c r="A901" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B901" s="0" t="s">
+      <c r="B901" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C901" s="0" t="s">
+      <c r="C901" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D901" s="0" t="s">
+      <c r="D901" s="3" t="s">
         <v>2804</v>
       </c>
-      <c r="E901" s="0" t="s">
+      <c r="E901" s="3" t="s">
         <v>2805</v>
       </c>
-      <c r="F901" s="0" t="s">
+      <c r="F901" s="3" t="s">
         <v>2806</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="0" t="s">
+      <c r="A902" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B902" s="0" t="s">
+      <c r="B902" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C902" s="0" t="s">
+      <c r="C902" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D902" s="0" t="s">
+      <c r="D902" s="3" t="s">
         <v>2807</v>
       </c>
-      <c r="E902" s="0" t="s">
+      <c r="E902" s="3" t="s">
         <v>2808</v>
       </c>
-      <c r="F902" s="0" t="s">
+      <c r="F902" s="3" t="s">
         <v>2809</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="0" t="s">
+      <c r="A903" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B903" s="0" t="s">
+      <c r="B903" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C903" s="0" t="s">
+      <c r="C903" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D903" s="0" t="s">
+      <c r="D903" s="3" t="s">
         <v>2810</v>
       </c>
-      <c r="E903" s="0" t="s">
+      <c r="E903" s="3" t="s">
         <v>2811</v>
       </c>
-      <c r="F903" s="0" t="s">
+      <c r="F903" s="3" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="0" t="s">
+      <c r="A904" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B904" s="0" t="s">
+      <c r="B904" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C904" s="0" t="s">
+      <c r="C904" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D904" s="0" t="s">
+      <c r="D904" s="3" t="s">
         <v>2813</v>
       </c>
-      <c r="E904" s="0" t="s">
+      <c r="E904" s="3" t="s">
         <v>2814</v>
       </c>
-      <c r="F904" s="0" t="s">
+      <c r="F904" s="3" t="s">
         <v>2815</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="0" t="s">
+      <c r="A905" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B905" s="0" t="s">
+      <c r="B905" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C905" s="0" t="s">
+      <c r="C905" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D905" s="0" t="s">
+      <c r="D905" s="3" t="s">
         <v>2816</v>
       </c>
-      <c r="E905" s="0" t="s">
+      <c r="E905" s="3" t="s">
         <v>2817</v>
       </c>
-      <c r="F905" s="0" t="s">
+      <c r="F905" s="3" t="s">
         <v>2818</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="0" t="s">
+      <c r="A906" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B906" s="0" t="s">
+      <c r="B906" s="3" t="s">
         <v>2819</v>
       </c>
-      <c r="C906" s="0" t="s">
+      <c r="C906" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D906" s="0" t="s">
+      <c r="D906" s="3" t="s">
         <v>2820</v>
       </c>
-      <c r="E906" s="0" t="s">
+      <c r="E906" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="F906" s="0" t="s">
+      <c r="F906" s="3" t="s">
         <v>2822</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="0" t="s">
+      <c r="A907" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B907" s="0" t="s">
+      <c r="B907" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="C907" s="0" t="s">
+      <c r="C907" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D907" s="0" t="s">
+      <c r="D907" s="3" t="s">
         <v>2824</v>
       </c>
-      <c r="E907" s="0" t="s">
+      <c r="E907" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="F907" s="0" t="s">
+      <c r="F907" s="3" t="s">
         <v>2826</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="0" t="s">
+      <c r="A908" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B908" s="0" t="s">
+      <c r="B908" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="C908" s="0" t="s">
+      <c r="C908" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D908" s="0" t="s">
+      <c r="D908" s="3" t="s">
         <v>2827</v>
       </c>
-      <c r="E908" s="0" t="s">
+      <c r="E908" s="3" t="s">
         <v>2828</v>
       </c>
-      <c r="F908" s="0" t="s">
+      <c r="F908" s="3" t="s">
         <v>2829</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="0" t="s">
+      <c r="A909" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B909" s="0" t="s">
+      <c r="B909" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="C909" s="0" t="s">
+      <c r="C909" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D909" s="0" t="s">
+      <c r="D909" s="3" t="s">
         <v>2830</v>
       </c>
-      <c r="E909" s="0" t="s">
+      <c r="E909" s="3" t="s">
         <v>2831</v>
       </c>
-      <c r="F909" s="0" t="s">
+      <c r="F909" s="3" t="s">
         <v>2832</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="0" t="s">
+      <c r="A910" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B910" s="0" t="s">
+      <c r="B910" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="C910" s="0" t="s">
+      <c r="C910" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D910" s="0" t="s">
+      <c r="D910" s="3" t="s">
         <v>2834</v>
       </c>
-      <c r="E910" s="0" t="s">
+      <c r="E910" s="3" t="s">
         <v>2835</v>
       </c>
-      <c r="F910" s="0" t="s">
+      <c r="F910" s="3" t="s">
         <v>2836</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="0" t="s">
+      <c r="A911" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B911" s="0" t="s">
+      <c r="B911" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="C911" s="0" t="s">
+      <c r="C911" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D911" s="0" t="s">
+      <c r="D911" s="3" t="s">
         <v>2837</v>
       </c>
-      <c r="E911" s="0" t="s">
+      <c r="E911" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="F911" s="0" t="s">
+      <c r="F911" s="3" t="s">
         <v>2839</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="0" t="s">
+      <c r="A912" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B912" s="0" t="s">
+      <c r="B912" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="C912" s="0" t="s">
+      <c r="C912" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D912" s="0" t="s">
+      <c r="D912" s="3" t="s">
         <v>2841</v>
       </c>
-      <c r="E912" s="0" t="s">
+      <c r="E912" s="3" t="s">
         <v>2842</v>
       </c>
-      <c r="F912" s="0" t="s">
+      <c r="F912" s="3" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="0" t="s">
+      <c r="A913" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B913" s="0" t="s">
+      <c r="B913" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="C913" s="0" t="s">
+      <c r="C913" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D913" s="0" t="s">
+      <c r="D913" s="3" t="s">
         <v>2844</v>
       </c>
-      <c r="E913" s="0" t="s">
+      <c r="E913" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="F913" s="0" t="s">
+      <c r="F913" s="3" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="0" t="s">
+      <c r="A914" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B914" s="0" t="s">
+      <c r="B914" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="C914" s="0" t="s">
+      <c r="C914" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D914" s="0" t="s">
+      <c r="D914" s="3" t="s">
         <v>2848</v>
       </c>
-      <c r="E914" s="0" t="s">
+      <c r="E914" s="3" t="s">
         <v>2849</v>
       </c>
-      <c r="F914" s="0" t="s">
+      <c r="F914" s="3" t="s">
         <v>2850</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="0" t="s">
+      <c r="A915" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B915" s="0" t="s">
+      <c r="B915" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="C915" s="0" t="s">
+      <c r="C915" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D915" s="0" t="s">
+      <c r="D915" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="E915" s="0" t="s">
+      <c r="E915" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="F915" s="0" t="s">
+      <c r="F915" s="3" t="s">
         <v>2853</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="0" t="s">
+      <c r="A916" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B916" s="0" t="s">
+      <c r="B916" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="C916" s="0" t="s">
+      <c r="C916" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D916" s="0" t="s">
+      <c r="D916" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="E916" s="0" t="s">
+      <c r="E916" s="3" t="s">
         <v>2855</v>
       </c>
-      <c r="F916" s="0" t="s">
+      <c r="F916" s="3" t="s">
         <v>2856</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="0" t="s">
+      <c r="A917" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B917" s="0" t="s">
+      <c r="B917" s="3" t="s">
         <v>2857</v>
       </c>
-      <c r="C917" s="0" t="s">
+      <c r="C917" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D917" s="0" t="s">
+      <c r="D917" s="3" t="s">
         <v>2858</v>
       </c>
-      <c r="E917" s="0" t="s">
+      <c r="E917" s="3" t="s">
         <v>2859</v>
       </c>
-      <c r="F917" s="0" t="s">
+      <c r="F917" s="3" t="s">
         <v>2860</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="0" t="s">
+      <c r="A918" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B918" s="0" t="s">
+      <c r="B918" s="3" t="s">
         <v>2857</v>
       </c>
-      <c r="C918" s="0" t="s">
+      <c r="C918" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D918" s="0" t="s">
+      <c r="D918" s="3" t="s">
         <v>2861</v>
       </c>
-      <c r="E918" s="0" t="s">
+      <c r="E918" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="F918" s="0" t="s">
+      <c r="F918" s="3" t="s">
         <v>2863</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="0" t="s">
+      <c r="A919" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B919" s="0" t="s">
+      <c r="B919" s="3" t="s">
         <v>2857</v>
       </c>
-      <c r="C919" s="0" t="s">
+      <c r="C919" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D919" s="0" t="s">
+      <c r="D919" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="E919" s="0" t="s">
+      <c r="E919" s="3" t="s">
         <v>2865</v>
       </c>
-      <c r="F919" s="0" t="s">
+      <c r="F919" s="3" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="0" t="s">
+      <c r="A920" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B920" s="0" t="s">
+      <c r="B920" s="3" t="s">
         <v>2867</v>
       </c>
-      <c r="C920" s="0" t="s">
+      <c r="C920" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D920" s="0" t="s">
+      <c r="D920" s="3" t="s">
         <v>2868</v>
       </c>
-      <c r="E920" s="0" t="s">
+      <c r="E920" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="F920" s="0" t="s">
+      <c r="F920" s="3" t="s">
         <v>2870</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="0" t="s">
+      <c r="A921" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B921" s="0" t="s">
+      <c r="B921" s="3" t="s">
         <v>2867</v>
       </c>
-      <c r="C921" s="0" t="s">
+      <c r="C921" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D921" s="0" t="s">
+      <c r="D921" s="3" t="s">
         <v>2871</v>
       </c>
-      <c r="E921" s="0" t="s">
+      <c r="E921" s="3" t="s">
         <v>2872</v>
       </c>
-      <c r="F921" s="0" t="s">
+      <c r="F921" s="3" t="s">
         <v>2873</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="0" t="s">
+      <c r="A922" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B922" s="0" t="s">
+      <c r="B922" s="3" t="s">
         <v>2874</v>
       </c>
-      <c r="C922" s="0" t="s">
+      <c r="C922" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D922" s="0" t="s">
+      <c r="D922" s="3" t="s">
         <v>2875</v>
       </c>
-      <c r="E922" s="0" t="s">
+      <c r="E922" s="3" t="s">
         <v>2876</v>
       </c>
-      <c r="F922" s="0" t="s">
+      <c r="F922" s="3" t="s">
         <v>2877</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="0" t="s">
+      <c r="A923" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B923" s="0" t="s">
+      <c r="B923" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="C923" s="0" t="s">
+      <c r="C923" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D923" s="0" t="s">
+      <c r="D923" s="3" t="s">
         <v>2879</v>
       </c>
-      <c r="E923" s="0" t="s">
+      <c r="E923" s="3" t="s">
         <v>2880</v>
       </c>
-      <c r="F923" s="0" t="s">
+      <c r="F923" s="3" t="s">
         <v>2881</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="0" t="s">
+      <c r="A924" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B924" s="0" t="s">
+      <c r="B924" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="C924" s="0" t="s">
+      <c r="C924" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D924" s="0" t="s">
+      <c r="D924" s="3" t="s">
         <v>2882</v>
       </c>
-      <c r="E924" s="0" t="s">
+      <c r="E924" s="3" t="s">
         <v>2883</v>
       </c>
-      <c r="F924" s="0" t="s">
+      <c r="F924" s="3" t="s">
         <v>2884</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="0" t="s">
+      <c r="A925" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B925" s="0" t="s">
+      <c r="B925" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="C925" s="0" t="s">
+      <c r="C925" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D925" s="0" t="s">
+      <c r="D925" s="3" t="s">
         <v>2885</v>
       </c>
-      <c r="E925" s="0" t="s">
+      <c r="E925" s="3" t="s">
         <v>2886</v>
       </c>
-      <c r="F925" s="0" t="s">
+      <c r="F925" s="3" t="s">
         <v>2887</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="0" t="s">
+      <c r="A926" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B926" s="0" t="s">
+      <c r="B926" s="3" t="s">
         <v>2888</v>
       </c>
-      <c r="C926" s="0" t="s">
+      <c r="C926" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D926" s="0" t="s">
+      <c r="D926" s="3" t="s">
         <v>2889</v>
       </c>
-      <c r="E926" s="0" t="s">
+      <c r="E926" s="3" t="s">
         <v>2890</v>
       </c>
-      <c r="F926" s="0" t="s">
+      <c r="F926" s="3" t="s">
         <v>2891</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="0" t="s">
+      <c r="A927" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B927" s="0" t="s">
+      <c r="B927" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="C927" s="0" t="s">
+      <c r="C927" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D927" s="0" t="s">
+      <c r="D927" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="E927" s="0" t="s">
+      <c r="E927" s="3" t="s">
         <v>2893</v>
       </c>
-      <c r="F927" s="0" t="s">
+      <c r="F927" s="3" t="s">
         <v>2894</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="0" t="s">
+      <c r="A928" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B928" s="0" t="s">
+      <c r="B928" s="3" t="s">
         <v>2895</v>
       </c>
-      <c r="C928" s="0" t="s">
+      <c r="C928" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D928" s="0" t="s">
+      <c r="D928" s="3" t="s">
         <v>2896</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="E928" s="3" t="s">
         <v>2897</v>
       </c>
-      <c r="F928" s="0" t="s">
+      <c r="F928" s="3" t="s">
         <v>2898</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="0" t="s">
+      <c r="A929" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B929" s="0" t="s">
+      <c r="B929" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="C929" s="0" t="s">
+      <c r="C929" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="D929" s="0" t="s">
+      <c r="D929" s="3" t="s">
         <v>2899</v>
       </c>
-      <c r="E929" s="0" t="s">
+      <c r="E929" s="3" t="s">
         <v>2900</v>
       </c>
-      <c r="F929" s="0" t="s">
+      <c r="F929" s="3" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="0" t="s">
+      <c r="A930" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B930" s="0" t="s">
+      <c r="B930" s="3" t="s">
         <v>2902</v>
       </c>
-      <c r="C930" s="0" t="s">
+      <c r="C930" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D930" s="0" t="s">
+      <c r="D930" s="3" t="s">
         <v>2904</v>
       </c>
-      <c r="E930" s="0" t="s">
+      <c r="E930" s="3" t="s">
         <v>2905</v>
       </c>
-      <c r="F930" s="0" t="s">
+      <c r="F930" s="3" t="s">
         <v>2906</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="0" t="s">
+      <c r="A931" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B931" s="0" t="s">
+      <c r="B931" s="3" t="s">
         <v>2902</v>
       </c>
-      <c r="C931" s="0" t="s">
+      <c r="C931" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D931" s="0" t="s">
+      <c r="D931" s="3" t="s">
         <v>2907</v>
       </c>
-      <c r="E931" s="0" t="s">
+      <c r="E931" s="3" t="s">
         <v>2908</v>
       </c>
-      <c r="F931" s="0" t="s">
+      <c r="F931" s="3" t="s">
         <v>2909</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="0" t="s">
+      <c r="A932" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B932" s="0" t="s">
+      <c r="B932" s="3" t="s">
         <v>2902</v>
       </c>
-      <c r="C932" s="0" t="s">
+      <c r="C932" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D932" s="0" t="s">
+      <c r="D932" s="3" t="s">
         <v>2910</v>
       </c>
-      <c r="E932" s="0" t="s">
+      <c r="E932" s="3" t="s">
         <v>2911</v>
       </c>
-      <c r="F932" s="0" t="s">
+      <c r="F932" s="3" t="s">
         <v>2912</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="0" t="s">
+      <c r="A933" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B933" s="0" t="s">
+      <c r="B933" s="3" t="s">
         <v>2902</v>
       </c>
-      <c r="C933" s="0" t="s">
+      <c r="C933" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D933" s="0" t="s">
+      <c r="D933" s="3" t="s">
         <v>2913</v>
       </c>
-      <c r="E933" s="0" t="s">
+      <c r="E933" s="3" t="s">
         <v>2914</v>
       </c>
-      <c r="F933" s="0" t="s">
+      <c r="F933" s="3" t="s">
         <v>2915</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="0" t="s">
+      <c r="A934" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B934" s="0" t="s">
+      <c r="B934" s="3" t="s">
         <v>2916</v>
       </c>
-      <c r="C934" s="0" t="s">
+      <c r="C934" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D934" s="0" t="s">
+      <c r="D934" s="3" t="s">
         <v>2917</v>
       </c>
-      <c r="E934" s="0" t="s">
+      <c r="E934" s="3" t="s">
         <v>2918</v>
       </c>
-      <c r="F934" s="0" t="s">
+      <c r="F934" s="3" t="s">
         <v>2919</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="0" t="s">
+      <c r="A935" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B935" s="0" t="s">
+      <c r="B935" s="3" t="s">
         <v>2916</v>
       </c>
-      <c r="C935" s="0" t="s">
+      <c r="C935" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D935" s="0" t="s">
+      <c r="D935" s="3" t="s">
         <v>2920</v>
       </c>
-      <c r="E935" s="0" t="s">
+      <c r="E935" s="3" t="s">
         <v>2921</v>
       </c>
-      <c r="F935" s="0" t="s">
+      <c r="F935" s="3" t="s">
         <v>2922</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="0" t="s">
+      <c r="A936" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B936" s="0" t="s">
+      <c r="B936" s="3" t="s">
         <v>2923</v>
       </c>
-      <c r="C936" s="0" t="s">
+      <c r="C936" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D936" s="0" t="s">
+      <c r="D936" s="3" t="s">
         <v>2924</v>
       </c>
-      <c r="E936" s="0" t="s">
+      <c r="E936" s="3" t="s">
         <v>2925</v>
       </c>
-      <c r="F936" s="0" t="s">
+      <c r="F936" s="3" t="s">
         <v>2926</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="0" t="s">
+      <c r="A937" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B937" s="0" t="s">
+      <c r="B937" s="3" t="s">
         <v>2923</v>
       </c>
-      <c r="C937" s="0" t="s">
+      <c r="C937" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D937" s="0" t="s">
+      <c r="D937" s="3" t="s">
         <v>2927</v>
       </c>
-      <c r="E937" s="0" t="s">
+      <c r="E937" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="F937" s="0" t="s">
+      <c r="F937" s="3" t="s">
         <v>2929</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="0" t="s">
+      <c r="A938" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B938" s="0" t="s">
+      <c r="B938" s="3" t="s">
         <v>2923</v>
       </c>
-      <c r="C938" s="0" t="s">
+      <c r="C938" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D938" s="0" t="s">
+      <c r="D938" s="3" t="s">
         <v>2930</v>
       </c>
-      <c r="E938" s="0" t="s">
+      <c r="E938" s="3" t="s">
         <v>2931</v>
       </c>
-      <c r="F938" s="0" t="s">
+      <c r="F938" s="3" t="s">
         <v>2932</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="0" t="s">
+      <c r="A939" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B939" s="0" t="s">
+      <c r="B939" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="C939" s="0" t="s">
+      <c r="C939" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D939" s="0" t="s">
+      <c r="D939" s="3" t="s">
         <v>2934</v>
       </c>
-      <c r="E939" s="0" t="s">
+      <c r="E939" s="3" t="s">
         <v>2935</v>
       </c>
-      <c r="F939" s="0" t="s">
+      <c r="F939" s="3" t="s">
         <v>2934</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="0" t="s">
+      <c r="A940" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B940" s="0" t="s">
+      <c r="B940" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="C940" s="0" t="s">
+      <c r="C940" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D940" s="0" t="s">
+      <c r="D940" s="3" t="s">
         <v>2936</v>
       </c>
-      <c r="E940" s="0" t="s">
+      <c r="E940" s="3" t="s">
         <v>2937</v>
       </c>
-      <c r="F940" s="0" t="s">
+      <c r="F940" s="3" t="s">
         <v>2938</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="0" t="s">
+      <c r="A941" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B941" s="0" t="s">
+      <c r="B941" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="C941" s="0" t="s">
+      <c r="C941" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D941" s="0" t="s">
+      <c r="D941" s="3" t="s">
         <v>2939</v>
       </c>
-      <c r="E941" s="0" t="s">
+      <c r="E941" s="3" t="s">
         <v>2940</v>
       </c>
-      <c r="F941" s="0" t="s">
+      <c r="F941" s="3" t="s">
         <v>2941</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="0" t="s">
+      <c r="A942" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B942" s="0" t="s">
+      <c r="B942" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="C942" s="0" t="s">
+      <c r="C942" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D942" s="0" t="s">
+      <c r="D942" s="3" t="s">
         <v>2942</v>
       </c>
-      <c r="E942" s="0" t="s">
+      <c r="E942" s="3" t="s">
         <v>2943</v>
       </c>
-      <c r="F942" s="0" t="s">
+      <c r="F942" s="3" t="s">
         <v>2944</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="0" t="s">
+      <c r="A943" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B943" s="0" t="s">
+      <c r="B943" s="3" t="s">
         <v>2945</v>
       </c>
-      <c r="C943" s="0" t="s">
+      <c r="C943" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D943" s="0" t="s">
+      <c r="D943" s="3" t="s">
         <v>2946</v>
       </c>
-      <c r="E943" s="0" t="s">
+      <c r="E943" s="3" t="s">
         <v>2947</v>
       </c>
-      <c r="F943" s="0" t="s">
+      <c r="F943" s="3" t="s">
         <v>2948</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="0" t="s">
+      <c r="A944" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B944" s="0" t="s">
+      <c r="B944" s="3" t="s">
         <v>2945</v>
       </c>
-      <c r="C944" s="0" t="s">
+      <c r="C944" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D944" s="0" t="s">
+      <c r="D944" s="3" t="s">
         <v>2949</v>
       </c>
-      <c r="E944" s="0" t="s">
+      <c r="E944" s="3" t="s">
         <v>2950</v>
       </c>
-      <c r="F944" s="0" t="s">
+      <c r="F944" s="3" t="s">
         <v>2951</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="0" t="s">
+      <c r="A945" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B945" s="0" t="s">
+      <c r="B945" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="C945" s="0" t="s">
+      <c r="C945" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D945" s="0" t="s">
+      <c r="D945" s="3" t="s">
         <v>2953</v>
       </c>
-      <c r="E945" s="0" t="s">
+      <c r="E945" s="3" t="s">
         <v>2954</v>
       </c>
-      <c r="F945" s="0" t="s">
+      <c r="F945" s="3" t="s">
         <v>2955</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="0" t="s">
+      <c r="A946" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B946" s="0" t="s">
+      <c r="B946" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="C946" s="0" t="s">
+      <c r="C946" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D946" s="0" t="s">
+      <c r="D946" s="3" t="s">
         <v>2956</v>
       </c>
-      <c r="E946" s="0" t="s">
+      <c r="E946" s="3" t="s">
         <v>2957</v>
       </c>
-      <c r="F946" s="0" t="s">
+      <c r="F946" s="3" t="s">
         <v>2958</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="0" t="s">
+      <c r="A947" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B947" s="0" t="s">
+      <c r="B947" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="C947" s="0" t="s">
+      <c r="C947" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D947" s="0" t="s">
+      <c r="D947" s="3" t="s">
         <v>2959</v>
       </c>
-      <c r="E947" s="0" t="s">
+      <c r="E947" s="3" t="s">
         <v>2960</v>
       </c>
-      <c r="F947" s="0" t="s">
+      <c r="F947" s="3" t="s">
         <v>2961</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="0" t="s">
+      <c r="A948" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B948" s="0" t="s">
+      <c r="B948" s="3" t="s">
         <v>2962</v>
       </c>
-      <c r="C948" s="0" t="s">
+      <c r="C948" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D948" s="0" t="s">
+      <c r="D948" s="3" t="s">
         <v>2963</v>
       </c>
-      <c r="E948" s="0" t="s">
+      <c r="E948" s="3" t="s">
         <v>2964</v>
       </c>
-      <c r="F948" s="0" t="s">
+      <c r="F948" s="3" t="s">
         <v>2965</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="0" t="s">
+      <c r="A949" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B949" s="0" t="s">
+      <c r="B949" s="3" t="s">
         <v>2962</v>
       </c>
-      <c r="C949" s="0" t="s">
+      <c r="C949" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D949" s="0" t="s">
+      <c r="D949" s="3" t="s">
         <v>2966</v>
       </c>
-      <c r="E949" s="0" t="s">
+      <c r="E949" s="3" t="s">
         <v>2967</v>
       </c>
-      <c r="F949" s="0" t="s">
+      <c r="F949" s="3" t="s">
         <v>2968</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
+      <c r="A950" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B950" s="0" t="s">
+      <c r="B950" s="3" t="s">
         <v>2969</v>
       </c>
-      <c r="C950" s="0" t="s">
+      <c r="C950" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D950" s="0" t="s">
+      <c r="D950" s="3" t="s">
         <v>2970</v>
       </c>
-      <c r="E950" s="0" t="s">
+      <c r="E950" s="3" t="s">
         <v>2971</v>
       </c>
-      <c r="F950" s="0" t="s">
+      <c r="F950" s="3" t="s">
         <v>2972</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="0" t="s">
+      <c r="A951" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B951" s="0" t="s">
+      <c r="B951" s="3" t="s">
         <v>2969</v>
       </c>
-      <c r="C951" s="0" t="s">
+      <c r="C951" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D951" s="0" t="s">
+      <c r="D951" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="E951" s="0" t="s">
+      <c r="E951" s="3" t="s">
         <v>2974</v>
       </c>
-      <c r="F951" s="0" t="s">
+      <c r="F951" s="3" t="s">
         <v>2975</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="0" t="s">
+      <c r="A952" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B952" s="0" t="s">
+      <c r="B952" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="C952" s="0" t="s">
+      <c r="C952" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D952" s="0" t="s">
+      <c r="D952" s="3" t="s">
         <v>2977</v>
       </c>
-      <c r="E952" s="0" t="s">
+      <c r="E952" s="3" t="s">
         <v>2978</v>
       </c>
-      <c r="F952" s="0" t="s">
+      <c r="F952" s="3" t="s">
         <v>2979</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="0" t="s">
+      <c r="A953" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B953" s="0" t="s">
+      <c r="B953" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="C953" s="0" t="s">
+      <c r="C953" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D953" s="0" t="s">
+      <c r="D953" s="3" t="s">
         <v>2980</v>
       </c>
-      <c r="E953" s="0" t="s">
+      <c r="E953" s="3" t="s">
         <v>2981</v>
       </c>
-      <c r="F953" s="0" t="s">
+      <c r="F953" s="3" t="s">
         <v>2982</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="0" t="s">
+      <c r="A954" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B954" s="0" t="s">
+      <c r="B954" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="C954" s="0" t="s">
+      <c r="C954" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D954" s="0" t="s">
+      <c r="D954" s="3" t="s">
         <v>2983</v>
       </c>
-      <c r="E954" s="0" t="s">
+      <c r="E954" s="3" t="s">
         <v>2984</v>
       </c>
-      <c r="F954" s="0" t="s">
+      <c r="F954" s="3" t="s">
         <v>2985</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="0" t="s">
+      <c r="A955" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B955" s="0" t="s">
+      <c r="B955" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="C955" s="0" t="s">
+      <c r="C955" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D955" s="0" t="s">
+      <c r="D955" s="3" t="s">
         <v>2986</v>
       </c>
-      <c r="E955" s="0" t="s">
+      <c r="E955" s="3" t="s">
         <v>2987</v>
       </c>
-      <c r="F955" s="0" t="s">
+      <c r="F955" s="3" t="s">
         <v>2988</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="0" t="s">
+      <c r="A956" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B956" s="0" t="s">
+      <c r="B956" s="3" t="s">
         <v>2989</v>
       </c>
-      <c r="C956" s="0" t="s">
+      <c r="C956" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D956" s="0" t="s">
+      <c r="D956" s="3" t="s">
         <v>2990</v>
       </c>
-      <c r="E956" s="0" t="s">
+      <c r="E956" s="3" t="s">
         <v>2991</v>
       </c>
-      <c r="F956" s="0" t="s">
+      <c r="F956" s="3" t="s">
         <v>2992</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="0" t="s">
+      <c r="A957" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B957" s="0" t="s">
+      <c r="B957" s="3" t="s">
         <v>2989</v>
       </c>
-      <c r="C957" s="0" t="s">
+      <c r="C957" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D957" s="0" t="s">
+      <c r="D957" s="3" t="s">
         <v>2993</v>
       </c>
-      <c r="E957" s="0" t="s">
+      <c r="E957" s="3" t="s">
         <v>2994</v>
       </c>
-      <c r="F957" s="0" t="s">
+      <c r="F957" s="3" t="s">
         <v>2995</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="0" t="s">
+      <c r="A958" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B958" s="0" t="s">
+      <c r="B958" s="3" t="s">
         <v>2989</v>
       </c>
-      <c r="C958" s="0" t="s">
+      <c r="C958" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D958" s="0" t="s">
+      <c r="D958" s="3" t="s">
         <v>2996</v>
       </c>
-      <c r="E958" s="0" t="s">
+      <c r="E958" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="F958" s="0" t="s">
+      <c r="F958" s="3" t="s">
         <v>2998</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="0" t="s">
+      <c r="A959" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B959" s="0" t="s">
+      <c r="B959" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="C959" s="0" t="s">
+      <c r="C959" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D959" s="0" t="s">
+      <c r="D959" s="3" t="s">
         <v>3000</v>
       </c>
-      <c r="E959" s="0" t="s">
+      <c r="E959" s="3" t="s">
         <v>3001</v>
       </c>
-      <c r="F959" s="0" t="s">
+      <c r="F959" s="3" t="s">
         <v>3002</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="0" t="s">
+      <c r="A960" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B960" s="0" t="s">
+      <c r="B960" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="C960" s="0" t="s">
+      <c r="C960" s="3" t="s">
         <v>2903</v>
       </c>
-      <c r="D960" s="0" t="s">
+      <c r="D960" s="3" t="s">
         <v>3003</v>
       </c>
-      <c r="E960" s="0" t="s">
+      <c r="E960" s="3" t="s">
         <v>3004</v>
       </c>
-      <c r="F960" s="0" t="s">
+      <c r="F960" s="3" t="s">
         <v>3005</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="0" t="s">
+      <c r="A961" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B961" s="0" t="s">
+      <c r="B961" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="C961" s="0" t="s">
+      <c r="C961" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D961" s="0" t="s">
+      <c r="D961" s="3" t="s">
         <v>3008</v>
       </c>
-      <c r="E961" s="0" t="s">
+      <c r="E961" s="3" t="s">
         <v>3009</v>
       </c>
-      <c r="F961" s="0" t="s">
+      <c r="F961" s="3" t="s">
         <v>3010</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="0" t="s">
+      <c r="A962" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B962" s="0" t="s">
+      <c r="B962" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="C962" s="0" t="s">
+      <c r="C962" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D962" s="0" t="s">
+      <c r="D962" s="3" t="s">
         <v>3011</v>
       </c>
-      <c r="E962" s="0" t="s">
+      <c r="E962" s="3" t="s">
         <v>3012</v>
       </c>
-      <c r="F962" s="0" t="s">
+      <c r="F962" s="3" t="s">
         <v>3013</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="0" t="s">
+      <c r="A963" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B963" s="0" t="s">
+      <c r="B963" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C963" s="0" t="s">
+      <c r="C963" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D963" s="0" t="s">
+      <c r="D963" s="3" t="s">
         <v>3015</v>
       </c>
-      <c r="E963" s="0" t="s">
+      <c r="E963" s="3" t="s">
         <v>3016</v>
       </c>
-      <c r="F963" s="0" t="s">
+      <c r="F963" s="3" t="s">
         <v>3017</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="0" t="s">
+      <c r="A964" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B964" s="0" t="s">
+      <c r="B964" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C964" s="0" t="s">
+      <c r="C964" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D964" s="0" t="s">
+      <c r="D964" s="3" t="s">
         <v>3018</v>
       </c>
-      <c r="E964" s="0" t="s">
+      <c r="E964" s="3" t="s">
         <v>3019</v>
       </c>
-      <c r="F964" s="0" t="s">
+      <c r="F964" s="3" t="s">
         <v>3020</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="0" t="s">
+      <c r="A965" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B965" s="0" t="s">
+      <c r="B965" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C965" s="0" t="s">
+      <c r="C965" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D965" s="0" t="s">
+      <c r="D965" s="3" t="s">
         <v>3021</v>
       </c>
-      <c r="E965" s="0" t="s">
+      <c r="E965" s="3" t="s">
         <v>3022</v>
       </c>
-      <c r="F965" s="0" t="s">
+      <c r="F965" s="3" t="s">
         <v>3023</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="0" t="s">
+      <c r="A966" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B966" s="0" t="s">
+      <c r="B966" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C966" s="0" t="s">
+      <c r="C966" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D966" s="0" t="s">
+      <c r="D966" s="3" t="s">
         <v>3024</v>
       </c>
-      <c r="E966" s="0" t="s">
+      <c r="E966" s="3" t="s">
         <v>3025</v>
       </c>
-      <c r="F966" s="0" t="s">
+      <c r="F966" s="3" t="s">
         <v>3026</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="0" t="s">
+      <c r="A967" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B967" s="0" t="s">
+      <c r="B967" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C967" s="0" t="s">
+      <c r="C967" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D967" s="0" t="s">
+      <c r="D967" s="3" t="s">
         <v>3027</v>
       </c>
-      <c r="E967" s="0" t="s">
+      <c r="E967" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="F967" s="0" t="s">
+      <c r="F967" s="3" t="s">
         <v>3029</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="0" t="s">
+      <c r="A968" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B968" s="0" t="s">
+      <c r="B968" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="C968" s="0" t="s">
+      <c r="C968" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D968" s="0" t="s">
+      <c r="D968" s="3" t="s">
         <v>3030</v>
       </c>
-      <c r="E968" s="0" t="s">
+      <c r="E968" s="3" t="s">
         <v>3031</v>
       </c>
-      <c r="F968" s="0" t="s">
+      <c r="F968" s="3" t="s">
         <v>3032</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="0" t="s">
+      <c r="A969" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B969" s="0" t="s">
+      <c r="B969" s="3" t="s">
         <v>3033</v>
       </c>
-      <c r="C969" s="0" t="s">
+      <c r="C969" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D969" s="0" t="s">
+      <c r="D969" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="E969" s="0" t="s">
+      <c r="E969" s="3" t="s">
         <v>3035</v>
       </c>
-      <c r="F969" s="0" t="s">
+      <c r="F969" s="3" t="s">
         <v>3036</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="0" t="s">
+      <c r="A970" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B970" s="0" t="s">
+      <c r="B970" s="3" t="s">
         <v>3033</v>
       </c>
-      <c r="C970" s="0" t="s">
+      <c r="C970" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D970" s="0" t="s">
+      <c r="D970" s="3" t="s">
         <v>3037</v>
       </c>
-      <c r="E970" s="0" t="s">
+      <c r="E970" s="3" t="s">
         <v>3038</v>
       </c>
-      <c r="F970" s="0" t="s">
+      <c r="F970" s="3" t="s">
         <v>3039</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="0" t="s">
+      <c r="A971" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B971" s="0" t="s">
+      <c r="B971" s="3" t="s">
         <v>3033</v>
       </c>
-      <c r="C971" s="0" t="s">
+      <c r="C971" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D971" s="0" t="s">
+      <c r="D971" s="3" t="s">
         <v>3040</v>
       </c>
-      <c r="E971" s="0" t="s">
+      <c r="E971" s="3" t="s">
         <v>3041</v>
       </c>
-      <c r="F971" s="0" t="s">
+      <c r="F971" s="3" t="s">
         <v>3042</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="0" t="s">
+      <c r="A972" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B972" s="0" t="s">
+      <c r="B972" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="C972" s="0" t="s">
+      <c r="C972" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D972" s="0" t="s">
+      <c r="D972" s="3" t="s">
         <v>3044</v>
       </c>
-      <c r="E972" s="0" t="s">
+      <c r="E972" s="3" t="s">
         <v>3045</v>
       </c>
-      <c r="F972" s="0" t="s">
+      <c r="F972" s="3" t="s">
         <v>3046</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="0" t="s">
+      <c r="A973" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B973" s="0" t="s">
+      <c r="B973" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="C973" s="0" t="s">
+      <c r="C973" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D973" s="0" t="s">
+      <c r="D973" s="3" t="s">
         <v>3047</v>
       </c>
-      <c r="E973" s="0" t="s">
+      <c r="E973" s="3" t="s">
         <v>3048</v>
       </c>
-      <c r="F973" s="0" t="s">
+      <c r="F973" s="3" t="s">
         <v>3049</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="0" t="s">
+      <c r="A974" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B974" s="0" t="s">
+      <c r="B974" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="C974" s="0" t="s">
+      <c r="C974" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D974" s="0" t="s">
+      <c r="D974" s="3" t="s">
         <v>3050</v>
       </c>
-      <c r="E974" s="0" t="s">
+      <c r="E974" s="3" t="s">
         <v>3051</v>
       </c>
-      <c r="F974" s="0" t="s">
+      <c r="F974" s="3" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="0" t="s">
+      <c r="A975" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B975" s="0" t="s">
+      <c r="B975" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="C975" s="0" t="s">
+      <c r="C975" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D975" s="0" t="s">
+      <c r="D975" s="3" t="s">
         <v>3053</v>
       </c>
-      <c r="E975" s="0" t="s">
+      <c r="E975" s="3" t="s">
         <v>3054</v>
       </c>
-      <c r="F975" s="0" t="s">
+      <c r="F975" s="3" t="s">
         <v>3055</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="0" t="s">
+      <c r="A976" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B976" s="0" t="s">
+      <c r="B976" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="C976" s="0" t="s">
+      <c r="C976" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D976" s="0" t="s">
+      <c r="D976" s="3" t="s">
         <v>3057</v>
       </c>
-      <c r="E976" s="0" t="s">
+      <c r="E976" s="3" t="s">
         <v>3058</v>
       </c>
-      <c r="F976" s="0" t="s">
+      <c r="F976" s="3" t="s">
         <v>3059</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="0" t="s">
+      <c r="A977" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B977" s="0" t="s">
+      <c r="B977" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="C977" s="0" t="s">
+      <c r="C977" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D977" s="0" t="s">
+      <c r="D977" s="3" t="s">
         <v>3060</v>
       </c>
-      <c r="E977" s="0" t="s">
+      <c r="E977" s="3" t="s">
         <v>3061</v>
       </c>
-      <c r="F977" s="0" t="s">
+      <c r="F977" s="3" t="s">
         <v>3062</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="0" t="s">
+      <c r="A978" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B978" s="0" t="s">
+      <c r="B978" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="C978" s="0" t="s">
+      <c r="C978" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D978" s="0" t="s">
+      <c r="D978" s="3" t="s">
         <v>3063</v>
       </c>
-      <c r="E978" s="0" t="s">
+      <c r="E978" s="3" t="s">
         <v>3064</v>
       </c>
-      <c r="F978" s="0" t="s">
+      <c r="F978" s="3" t="s">
         <v>3065</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="0" t="s">
+      <c r="A979" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B979" s="0" t="s">
+      <c r="B979" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="C979" s="0" t="s">
+      <c r="C979" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D979" s="0" t="s">
+      <c r="D979" s="3" t="s">
         <v>3066</v>
       </c>
-      <c r="E979" s="0" t="s">
+      <c r="E979" s="3" t="s">
         <v>3067</v>
       </c>
-      <c r="F979" s="0" t="s">
+      <c r="F979" s="3" t="s">
         <v>3068</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="0" t="s">
+      <c r="A980" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B980" s="0" t="s">
+      <c r="B980" s="3" t="s">
         <v>3069</v>
       </c>
-      <c r="C980" s="0" t="s">
+      <c r="C980" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D980" s="0" t="s">
+      <c r="D980" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="E980" s="0" t="s">
+      <c r="E980" s="3" t="s">
         <v>3071</v>
       </c>
-      <c r="F980" s="0" t="s">
+      <c r="F980" s="3" t="s">
         <v>3072</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="0" t="s">
+      <c r="A981" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B981" s="0" t="s">
+      <c r="B981" s="3" t="s">
         <v>3069</v>
       </c>
-      <c r="C981" s="0" t="s">
+      <c r="C981" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D981" s="0" t="s">
+      <c r="D981" s="3" t="s">
         <v>3073</v>
       </c>
-      <c r="E981" s="0" t="s">
+      <c r="E981" s="3" t="s">
         <v>3074</v>
       </c>
-      <c r="F981" s="0" t="s">
+      <c r="F981" s="3" t="s">
         <v>3075</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="0" t="s">
+      <c r="A982" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B982" s="0" t="s">
+      <c r="B982" s="3" t="s">
         <v>3069</v>
       </c>
-      <c r="C982" s="0" t="s">
+      <c r="C982" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D982" s="0" t="s">
+      <c r="D982" s="3" t="s">
         <v>3076</v>
       </c>
-      <c r="E982" s="0" t="s">
+      <c r="E982" s="3" t="s">
         <v>3077</v>
       </c>
-      <c r="F982" s="0" t="s">
+      <c r="F982" s="3" t="s">
         <v>3078</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="0" t="s">
+      <c r="A983" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B983" s="0" t="s">
+      <c r="B983" s="3" t="s">
         <v>3079</v>
       </c>
-      <c r="C983" s="0" t="s">
+      <c r="C983" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D983" s="0" t="s">
+      <c r="D983" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="E983" s="0" t="s">
+      <c r="E983" s="3" t="s">
         <v>3081</v>
       </c>
-      <c r="F983" s="0" t="s">
+      <c r="F983" s="3" t="s">
         <v>3082</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="0" t="s">
+      <c r="A984" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B984" s="0" t="s">
+      <c r="B984" s="3" t="s">
         <v>3083</v>
       </c>
-      <c r="C984" s="0" t="s">
+      <c r="C984" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D984" s="0" t="s">
+      <c r="D984" s="3" t="s">
         <v>3084</v>
       </c>
-      <c r="E984" s="0" t="s">
+      <c r="E984" s="3" t="s">
         <v>3085</v>
       </c>
-      <c r="F984" s="0" t="s">
+      <c r="F984" s="3" t="s">
         <v>3086</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="0" t="s">
+      <c r="A985" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B985" s="0" t="s">
+      <c r="B985" s="3" t="s">
         <v>3083</v>
       </c>
-      <c r="C985" s="0" t="s">
+      <c r="C985" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D985" s="0" t="s">
+      <c r="D985" s="3" t="s">
         <v>3087</v>
       </c>
-      <c r="E985" s="0" t="s">
+      <c r="E985" s="3" t="s">
         <v>3088</v>
       </c>
-      <c r="F985" s="0" t="s">
+      <c r="F985" s="3" t="s">
         <v>3089</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="0" t="s">
+      <c r="A986" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B986" s="0" t="s">
+      <c r="B986" s="3" t="s">
         <v>3090</v>
       </c>
-      <c r="C986" s="0" t="s">
+      <c r="C986" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D986" s="0" t="s">
+      <c r="D986" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="E986" s="0" t="s">
+      <c r="E986" s="3" t="s">
         <v>3092</v>
       </c>
-      <c r="F986" s="0" t="s">
+      <c r="F986" s="3" t="s">
         <v>3093</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="0" t="s">
+      <c r="A987" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B987" s="0" t="s">
+      <c r="B987" s="3" t="s">
         <v>3090</v>
       </c>
-      <c r="C987" s="0" t="s">
+      <c r="C987" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D987" s="0" t="s">
+      <c r="D987" s="3" t="s">
         <v>3094</v>
       </c>
-      <c r="E987" s="0" t="s">
+      <c r="E987" s="3" t="s">
         <v>3095</v>
       </c>
-      <c r="F987" s="0" t="s">
+      <c r="F987" s="3" t="s">
         <v>3096</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="0" t="s">
+      <c r="A988" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B988" s="0" t="s">
+      <c r="B988" s="3" t="s">
         <v>3097</v>
       </c>
-      <c r="C988" s="0" t="s">
+      <c r="C988" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D988" s="0" t="s">
+      <c r="D988" s="3" t="s">
         <v>3098</v>
       </c>
-      <c r="E988" s="0" t="s">
+      <c r="E988" s="3" t="s">
         <v>3099</v>
       </c>
-      <c r="F988" s="0" t="s">
+      <c r="F988" s="3" t="s">
         <v>3100</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="0" t="s">
+      <c r="A989" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B989" s="0" t="s">
+      <c r="B989" s="3" t="s">
         <v>3101</v>
       </c>
-      <c r="C989" s="0" t="s">
+      <c r="C989" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D989" s="0" t="s">
+      <c r="D989" s="3" t="s">
         <v>3102</v>
       </c>
-      <c r="E989" s="0" t="s">
+      <c r="E989" s="3" t="s">
         <v>3103</v>
       </c>
-      <c r="F989" s="0" t="s">
+      <c r="F989" s="3" t="s">
         <v>3104</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="0" t="s">
+      <c r="A990" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B990" s="0" t="s">
+      <c r="B990" s="3" t="s">
         <v>3105</v>
       </c>
-      <c r="C990" s="0" t="s">
+      <c r="C990" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D990" s="0" t="s">
+      <c r="D990" s="3" t="s">
         <v>3106</v>
       </c>
-      <c r="E990" s="0" t="s">
+      <c r="E990" s="3" t="s">
         <v>3107</v>
       </c>
-      <c r="F990" s="0" t="s">
+      <c r="F990" s="3" t="s">
         <v>3108</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="0" t="s">
+      <c r="A991" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B991" s="0" t="s">
+      <c r="B991" s="3" t="s">
         <v>3105</v>
       </c>
-      <c r="C991" s="0" t="s">
+      <c r="C991" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D991" s="0" t="s">
+      <c r="D991" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="E991" s="0" t="s">
+      <c r="E991" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="F991" s="0" t="s">
+      <c r="F991" s="3" t="s">
         <v>3111</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="0" t="s">
+      <c r="A992" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B992" s="0" t="s">
+      <c r="B992" s="3" t="s">
         <v>3105</v>
       </c>
-      <c r="C992" s="0" t="s">
+      <c r="C992" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D992" s="0" t="s">
+      <c r="D992" s="3" t="s">
         <v>3112</v>
       </c>
-      <c r="E992" s="0" t="s">
+      <c r="E992" s="3" t="s">
         <v>3113</v>
       </c>
-      <c r="F992" s="0" t="s">
+      <c r="F992" s="3" t="s">
         <v>3114</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="0" t="s">
+      <c r="A993" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B993" s="0" t="s">
+      <c r="B993" s="3" t="s">
         <v>3115</v>
       </c>
-      <c r="C993" s="0" t="s">
+      <c r="C993" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D993" s="0" t="s">
+      <c r="D993" s="3" t="s">
         <v>3116</v>
       </c>
-      <c r="E993" s="0" t="s">
+      <c r="E993" s="3" t="s">
         <v>3117</v>
       </c>
-      <c r="F993" s="0" t="s">
+      <c r="F993" s="3" t="s">
         <v>3118</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="0" t="s">
+      <c r="A994" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B994" s="0" t="s">
+      <c r="B994" s="3" t="s">
         <v>3115</v>
       </c>
-      <c r="C994" s="0" t="s">
+      <c r="C994" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D994" s="0" t="s">
+      <c r="D994" s="3" t="s">
         <v>3119</v>
       </c>
-      <c r="E994" s="0" t="s">
+      <c r="E994" s="3" t="s">
         <v>3120</v>
       </c>
-      <c r="F994" s="0" t="s">
+      <c r="F994" s="3" t="s">
         <v>3121</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="0" t="s">
+      <c r="A995" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B995" s="0" t="s">
+      <c r="B995" s="3" t="s">
         <v>3115</v>
       </c>
-      <c r="C995" s="0" t="s">
+      <c r="C995" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D995" s="0" t="s">
+      <c r="D995" s="3" t="s">
         <v>3122</v>
       </c>
-      <c r="E995" s="0" t="s">
+      <c r="E995" s="3" t="s">
         <v>3123</v>
       </c>
-      <c r="F995" s="0" t="s">
+      <c r="F995" s="3" t="s">
         <v>3124</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="0" t="s">
+      <c r="A996" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B996" s="0" t="s">
+      <c r="B996" s="3" t="s">
         <v>3125</v>
       </c>
-      <c r="C996" s="0" t="s">
+      <c r="C996" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D996" s="0" t="s">
+      <c r="D996" s="3" t="s">
         <v>3126</v>
       </c>
-      <c r="E996" s="0" t="s">
+      <c r="E996" s="3" t="s">
         <v>3127</v>
       </c>
-      <c r="F996" s="0" t="s">
+      <c r="F996" s="3" t="s">
         <v>3128</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="0" t="s">
+      <c r="A997" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B997" s="0" t="s">
+      <c r="B997" s="3" t="s">
         <v>3125</v>
       </c>
-      <c r="C997" s="0" t="s">
+      <c r="C997" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D997" s="0" t="s">
+      <c r="D997" s="3" t="s">
         <v>3129</v>
       </c>
-      <c r="E997" s="0" t="s">
+      <c r="E997" s="3" t="s">
         <v>3130</v>
       </c>
-      <c r="F997" s="0" t="s">
+      <c r="F997" s="3" t="s">
         <v>3131</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="0" t="s">
+      <c r="A998" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B998" s="0" t="s">
+      <c r="B998" s="3" t="s">
         <v>3132</v>
       </c>
-      <c r="C998" s="0" t="s">
+      <c r="C998" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D998" s="0" t="s">
+      <c r="D998" s="3" t="s">
         <v>3133</v>
       </c>
-      <c r="E998" s="0" t="s">
+      <c r="E998" s="3" t="s">
         <v>3134</v>
       </c>
-      <c r="F998" s="0" t="s">
+      <c r="F998" s="3" t="s">
         <v>3135</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="0" t="s">
+      <c r="A999" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B999" s="0" t="s">
+      <c r="B999" s="3" t="s">
         <v>3136</v>
       </c>
-      <c r="C999" s="0" t="s">
+      <c r="C999" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D999" s="0" t="s">
+      <c r="D999" s="3" t="s">
         <v>3138</v>
       </c>
-      <c r="E999" s="0" t="s">
+      <c r="E999" s="3" t="s">
         <v>3139</v>
       </c>
-      <c r="F999" s="0" t="s">
+      <c r="F999" s="3" t="s">
         <v>3140</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="0" t="s">
+      <c r="A1000" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1000" s="0" t="s">
+      <c r="B1000" s="3" t="s">
         <v>3136</v>
       </c>
-      <c r="C1000" s="0" t="s">
+      <c r="C1000" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1000" s="0" t="s">
+      <c r="D1000" s="3" t="s">
         <v>3141</v>
       </c>
-      <c r="E1000" s="0" t="s">
+      <c r="E1000" s="3" t="s">
         <v>3142</v>
       </c>
-      <c r="F1000" s="0" t="s">
+      <c r="F1000" s="3" t="s">
         <v>3143</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="0" t="s">
+      <c r="A1001" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1001" s="0" t="s">
+      <c r="B1001" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="C1001" s="0" t="s">
+      <c r="C1001" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1001" s="0" t="s">
+      <c r="D1001" s="3" t="s">
         <v>3145</v>
       </c>
-      <c r="E1001" s="0" t="s">
+      <c r="E1001" s="3" t="s">
         <v>3146</v>
       </c>
-      <c r="F1001" s="0" t="s">
+      <c r="F1001" s="3" t="s">
         <v>3147</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="0" t="s">
+      <c r="A1002" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1002" s="0" t="s">
+      <c r="B1002" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="C1002" s="0" t="s">
+      <c r="C1002" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1002" s="0" t="s">
+      <c r="D1002" s="3" t="s">
         <v>3148</v>
       </c>
-      <c r="E1002" s="0" t="s">
+      <c r="E1002" s="3" t="s">
         <v>3149</v>
       </c>
-      <c r="F1002" s="0" t="s">
+      <c r="F1002" s="3" t="s">
         <v>3150</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="0" t="s">
+      <c r="A1003" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1003" s="0" t="s">
+      <c r="B1003" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="C1003" s="0" t="s">
+      <c r="C1003" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1003" s="0" t="s">
+      <c r="D1003" s="3" t="s">
         <v>3151</v>
       </c>
-      <c r="E1003" s="0" t="s">
+      <c r="E1003" s="3" t="s">
         <v>3152</v>
       </c>
-      <c r="F1003" s="0" t="s">
+      <c r="F1003" s="3" t="s">
         <v>3153</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="0" t="s">
+      <c r="A1004" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1004" s="0" t="s">
+      <c r="B1004" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="C1004" s="0" t="s">
+      <c r="C1004" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1004" s="0" t="s">
+      <c r="D1004" s="3" t="s">
         <v>3154</v>
       </c>
-      <c r="E1004" s="0" t="s">
+      <c r="E1004" s="3" t="s">
         <v>3155</v>
       </c>
-      <c r="F1004" s="0" t="s">
+      <c r="F1004" s="3" t="s">
         <v>3156</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="0" t="s">
+      <c r="A1005" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1005" s="0" t="s">
+      <c r="B1005" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="C1005" s="0" t="s">
+      <c r="C1005" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1005" s="0" t="s">
+      <c r="D1005" s="3" t="s">
         <v>3158</v>
       </c>
-      <c r="E1005" s="0" t="s">
+      <c r="E1005" s="3" t="s">
         <v>3159</v>
       </c>
-      <c r="F1005" s="0" t="s">
+      <c r="F1005" s="3" t="s">
         <v>3160</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="0" t="s">
+      <c r="A1006" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1006" s="0" t="s">
+      <c r="B1006" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="C1006" s="0" t="s">
+      <c r="C1006" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1006" s="0" t="s">
+      <c r="D1006" s="3" t="s">
         <v>3161</v>
       </c>
-      <c r="E1006" s="0" t="s">
+      <c r="E1006" s="3" t="s">
         <v>3162</v>
       </c>
-      <c r="F1006" s="0" t="s">
+      <c r="F1006" s="3" t="s">
         <v>3163</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="0" t="s">
+      <c r="A1007" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1007" s="0" t="s">
+      <c r="B1007" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="C1007" s="0" t="s">
+      <c r="C1007" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1007" s="0" t="s">
+      <c r="D1007" s="3" t="s">
         <v>3164</v>
       </c>
-      <c r="E1007" s="0" t="s">
+      <c r="E1007" s="3" t="s">
         <v>3165</v>
       </c>
-      <c r="F1007" s="0" t="s">
+      <c r="F1007" s="3" t="s">
         <v>3166</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="0" t="s">
+      <c r="A1008" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1008" s="0" t="s">
+      <c r="B1008" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="C1008" s="0" t="s">
+      <c r="C1008" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1008" s="0" t="s">
+      <c r="D1008" s="3" t="s">
         <v>3167</v>
       </c>
-      <c r="E1008" s="0" t="s">
+      <c r="E1008" s="3" t="s">
         <v>3168</v>
       </c>
-      <c r="F1008" s="0" t="s">
+      <c r="F1008" s="3" t="s">
         <v>3169</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="0" t="s">
+      <c r="A1009" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1009" s="0" t="s">
+      <c r="B1009" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="C1009" s="0" t="s">
+      <c r="C1009" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1009" s="0" t="s">
+      <c r="D1009" s="3" t="s">
         <v>3170</v>
       </c>
-      <c r="E1009" s="0" t="s">
+      <c r="E1009" s="3" t="s">
         <v>3171</v>
       </c>
-      <c r="F1009" s="0" t="s">
+      <c r="F1009" s="3" t="s">
         <v>3172</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="0" t="s">
+      <c r="A1010" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1010" s="0" t="s">
+      <c r="B1010" s="3" t="s">
         <v>3173</v>
       </c>
-      <c r="C1010" s="0" t="s">
+      <c r="C1010" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1010" s="0" t="s">
+      <c r="D1010" s="3" t="s">
         <v>3174</v>
       </c>
-      <c r="E1010" s="0" t="s">
+      <c r="E1010" s="3" t="s">
         <v>3175</v>
       </c>
-      <c r="F1010" s="0" t="s">
+      <c r="F1010" s="3" t="s">
         <v>3176</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="0" t="s">
+      <c r="A1011" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1011" s="0" t="s">
+      <c r="B1011" s="3" t="s">
         <v>3173</v>
       </c>
-      <c r="C1011" s="0" t="s">
+      <c r="C1011" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1011" s="0" t="s">
+      <c r="D1011" s="3" t="s">
         <v>3177</v>
       </c>
-      <c r="E1011" s="0" t="s">
+      <c r="E1011" s="3" t="s">
         <v>3178</v>
       </c>
-      <c r="F1011" s="0" t="s">
+      <c r="F1011" s="3" t="s">
         <v>3179</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="0" t="s">
+      <c r="A1012" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1012" s="0" t="s">
+      <c r="B1012" s="3" t="s">
         <v>3180</v>
       </c>
-      <c r="C1012" s="0" t="s">
+      <c r="C1012" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1012" s="0" t="s">
+      <c r="D1012" s="3" t="s">
         <v>3181</v>
       </c>
-      <c r="E1012" s="0" t="s">
+      <c r="E1012" s="3" t="s">
         <v>3182</v>
       </c>
-      <c r="F1012" s="0" t="s">
+      <c r="F1012" s="3" t="s">
         <v>3183</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="0" t="s">
+      <c r="A1013" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1013" s="0" t="s">
+      <c r="B1013" s="3" t="s">
         <v>3180</v>
       </c>
-      <c r="C1013" s="0" t="s">
+      <c r="C1013" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1013" s="0" t="s">
+      <c r="D1013" s="3" t="s">
         <v>3184</v>
       </c>
-      <c r="E1013" s="0" t="s">
+      <c r="E1013" s="3" t="s">
         <v>3185</v>
       </c>
-      <c r="F1013" s="0" t="s">
+      <c r="F1013" s="3" t="s">
         <v>3186</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="0" t="s">
+      <c r="A1014" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1014" s="0" t="s">
+      <c r="B1014" s="3" t="s">
         <v>3180</v>
       </c>
-      <c r="C1014" s="0" t="s">
+      <c r="C1014" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1014" s="0" t="s">
+      <c r="D1014" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="E1014" s="0" t="s">
+      <c r="E1014" s="3" t="s">
         <v>3188</v>
       </c>
-      <c r="F1014" s="0" t="s">
+      <c r="F1014" s="3" t="s">
         <v>3189</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="0" t="s">
+      <c r="A1015" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1015" s="0" t="s">
+      <c r="B1015" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="C1015" s="0" t="s">
+      <c r="C1015" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1015" s="0" t="s">
+      <c r="D1015" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="E1015" s="0" t="s">
+      <c r="E1015" s="3" t="s">
         <v>3192</v>
       </c>
-      <c r="F1015" s="0" t="s">
+      <c r="F1015" s="3" t="s">
         <v>3193</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="0" t="s">
+      <c r="A1016" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1016" s="0" t="s">
+      <c r="B1016" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="C1016" s="0" t="s">
+      <c r="C1016" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1016" s="0" t="s">
+      <c r="D1016" s="3" t="s">
         <v>3194</v>
       </c>
-      <c r="E1016" s="0" t="s">
+      <c r="E1016" s="3" t="s">
         <v>3195</v>
       </c>
-      <c r="F1016" s="0" t="s">
+      <c r="F1016" s="3" t="s">
         <v>3196</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="0" t="s">
+      <c r="A1017" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1017" s="0" t="s">
+      <c r="B1017" s="3" t="s">
         <v>3197</v>
       </c>
-      <c r="C1017" s="0" t="s">
+      <c r="C1017" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1017" s="0" t="s">
+      <c r="D1017" s="3" t="s">
         <v>3198</v>
       </c>
-      <c r="E1017" s="0" t="s">
+      <c r="E1017" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="F1017" s="0" t="s">
+      <c r="F1017" s="3" t="s">
         <v>3200</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="0" t="s">
+      <c r="A1018" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1018" s="0" t="s">
+      <c r="B1018" s="3" t="s">
         <v>3197</v>
       </c>
-      <c r="C1018" s="0" t="s">
+      <c r="C1018" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1018" s="0" t="s">
+      <c r="D1018" s="3" t="s">
         <v>3201</v>
       </c>
-      <c r="E1018" s="0" t="s">
+      <c r="E1018" s="3" t="s">
         <v>3202</v>
       </c>
-      <c r="F1018" s="0" t="s">
+      <c r="F1018" s="3" t="s">
         <v>3203</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="0" t="s">
+      <c r="A1019" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1019" s="0" t="s">
+      <c r="B1019" s="3" t="s">
         <v>3197</v>
       </c>
-      <c r="C1019" s="0" t="s">
+      <c r="C1019" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1019" s="0" t="s">
+      <c r="D1019" s="3" t="s">
         <v>3204</v>
       </c>
-      <c r="E1019" s="0" t="s">
+      <c r="E1019" s="3" t="s">
         <v>3205</v>
       </c>
-      <c r="F1019" s="0" t="s">
+      <c r="F1019" s="3" t="s">
         <v>3206</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="0" t="s">
+      <c r="A1020" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1020" s="0" t="s">
+      <c r="B1020" s="3" t="s">
         <v>3207</v>
       </c>
-      <c r="C1020" s="0" t="s">
+      <c r="C1020" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1020" s="0" t="s">
+      <c r="D1020" s="3" t="s">
         <v>3208</v>
       </c>
-      <c r="E1020" s="0" t="s">
+      <c r="E1020" s="3" t="s">
         <v>3209</v>
       </c>
-      <c r="F1020" s="0" t="s">
+      <c r="F1020" s="3" t="s">
         <v>3210</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="0" t="s">
+      <c r="A1021" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1021" s="0" t="s">
+      <c r="B1021" s="3" t="s">
         <v>3207</v>
       </c>
-      <c r="C1021" s="0" t="s">
+      <c r="C1021" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1021" s="0" t="s">
+      <c r="D1021" s="3" t="s">
         <v>3211</v>
       </c>
-      <c r="E1021" s="0" t="s">
+      <c r="E1021" s="3" t="s">
         <v>3212</v>
       </c>
-      <c r="F1021" s="0" t="s">
+      <c r="F1021" s="3" t="s">
         <v>3213</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="0" t="s">
+      <c r="A1022" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1022" s="0" t="s">
+      <c r="B1022" s="3" t="s">
         <v>3214</v>
       </c>
-      <c r="C1022" s="0" t="s">
+      <c r="C1022" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1022" s="0" t="s">
+      <c r="D1022" s="3" t="s">
         <v>3215</v>
       </c>
-      <c r="E1022" s="0" t="s">
+      <c r="E1022" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="F1022" s="0" t="s">
+      <c r="F1022" s="3" t="s">
         <v>3217</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="0" t="s">
+      <c r="A1023" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1023" s="0" t="s">
+      <c r="B1023" s="3" t="s">
         <v>3214</v>
       </c>
-      <c r="C1023" s="0" t="s">
+      <c r="C1023" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1023" s="0" t="s">
+      <c r="D1023" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="E1023" s="0" t="s">
+      <c r="E1023" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="F1023" s="0" t="s">
+      <c r="F1023" s="3" t="s">
         <v>3220</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="0" t="s">
+      <c r="A1024" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1024" s="0" t="s">
+      <c r="B1024" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="C1024" s="0" t="s">
+      <c r="C1024" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1024" s="0" t="s">
+      <c r="D1024" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="E1024" s="0" t="s">
+      <c r="E1024" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="F1024" s="0" t="s">
+      <c r="F1024" s="3" t="s">
         <v>3224</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="0" t="s">
+      <c r="A1025" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1025" s="0" t="s">
+      <c r="B1025" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="C1025" s="0" t="s">
+      <c r="C1025" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1025" s="0" t="s">
+      <c r="D1025" s="3" t="s">
         <v>3225</v>
       </c>
-      <c r="E1025" s="0" t="s">
+      <c r="E1025" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="F1025" s="0" t="s">
+      <c r="F1025" s="3" t="s">
         <v>3227</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="0" t="s">
+      <c r="A1026" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1026" s="0" t="s">
+      <c r="B1026" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="C1026" s="0" t="s">
+      <c r="C1026" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1026" s="0" t="s">
+      <c r="D1026" s="3" t="s">
         <v>3228</v>
       </c>
-      <c r="E1026" s="0" t="s">
+      <c r="E1026" s="3" t="s">
         <v>3229</v>
       </c>
-      <c r="F1026" s="0" t="s">
+      <c r="F1026" s="3" t="s">
         <v>3230</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="0" t="s">
+      <c r="A1027" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1027" s="0" t="s">
+      <c r="B1027" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="C1027" s="0" t="s">
+      <c r="C1027" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1027" s="0" t="s">
+      <c r="D1027" s="3" t="s">
         <v>3232</v>
       </c>
-      <c r="E1027" s="0" t="s">
+      <c r="E1027" s="3" t="s">
         <v>3233</v>
       </c>
-      <c r="F1027" s="0" t="s">
+      <c r="F1027" s="3" t="s">
         <v>3234</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="0" t="s">
+      <c r="A1028" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1028" s="0" t="s">
+      <c r="B1028" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="C1028" s="0" t="s">
+      <c r="C1028" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1028" s="0" t="s">
+      <c r="D1028" s="3" t="s">
         <v>3235</v>
       </c>
-      <c r="E1028" s="0" t="s">
+      <c r="E1028" s="3" t="s">
         <v>3236</v>
       </c>
-      <c r="F1028" s="0" t="s">
+      <c r="F1028" s="3" t="s">
         <v>3237</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="0" t="s">
+      <c r="A1029" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1029" s="0" t="s">
+      <c r="B1029" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="C1029" s="0" t="s">
+      <c r="C1029" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1029" s="0" t="s">
+      <c r="D1029" s="3" t="s">
         <v>3238</v>
       </c>
-      <c r="E1029" s="0" t="s">
+      <c r="E1029" s="3" t="s">
         <v>3239</v>
       </c>
-      <c r="F1029" s="0" t="s">
+      <c r="F1029" s="3" t="s">
         <v>3240</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="0" t="s">
+      <c r="A1030" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1030" s="0" t="s">
+      <c r="B1030" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="C1030" s="0" t="s">
+      <c r="C1030" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1030" s="0" t="s">
+      <c r="D1030" s="3" t="s">
         <v>3241</v>
       </c>
-      <c r="E1030" s="0" t="s">
+      <c r="E1030" s="3" t="s">
         <v>3242</v>
       </c>
-      <c r="F1030" s="0" t="s">
+      <c r="F1030" s="3" t="s">
         <v>3243</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="0" t="s">
+      <c r="A1031" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1031" s="0" t="s">
+      <c r="B1031" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="C1031" s="0" t="s">
+      <c r="C1031" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1031" s="0" t="s">
+      <c r="D1031" s="3" t="s">
         <v>3245</v>
       </c>
-      <c r="E1031" s="0" t="s">
+      <c r="E1031" s="3" t="s">
         <v>3246</v>
       </c>
-      <c r="F1031" s="0" t="s">
+      <c r="F1031" s="3" t="s">
         <v>3247</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="0" t="s">
+      <c r="A1032" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1032" s="0" t="s">
+      <c r="B1032" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="C1032" s="0" t="s">
+      <c r="C1032" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1032" s="0" t="s">
+      <c r="D1032" s="3" t="s">
         <v>3248</v>
       </c>
-      <c r="E1032" s="0" t="s">
+      <c r="E1032" s="3" t="s">
         <v>3249</v>
       </c>
-      <c r="F1032" s="0" t="s">
+      <c r="F1032" s="3" t="s">
         <v>3250</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="0" t="s">
+      <c r="A1033" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1033" s="0" t="s">
+      <c r="B1033" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="C1033" s="0" t="s">
+      <c r="C1033" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1033" s="0" t="s">
+      <c r="D1033" s="3" t="s">
         <v>3251</v>
       </c>
-      <c r="E1033" s="0" t="s">
+      <c r="E1033" s="3" t="s">
         <v>3252</v>
       </c>
-      <c r="F1033" s="0" t="s">
+      <c r="F1033" s="3" t="s">
         <v>3253</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="0" t="s">
+      <c r="A1034" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1034" s="0" t="s">
+      <c r="B1034" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="C1034" s="0" t="s">
+      <c r="C1034" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1034" s="0" t="s">
+      <c r="D1034" s="3" t="s">
         <v>3255</v>
       </c>
-      <c r="E1034" s="0" t="s">
+      <c r="E1034" s="3" t="s">
         <v>3256</v>
       </c>
-      <c r="F1034" s="0" t="s">
+      <c r="F1034" s="3" t="s">
         <v>3257</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="0" t="s">
+      <c r="A1035" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1035" s="0" t="s">
+      <c r="B1035" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="C1035" s="0" t="s">
+      <c r="C1035" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1035" s="0" t="s">
+      <c r="D1035" s="3" t="s">
         <v>3258</v>
       </c>
-      <c r="E1035" s="0" t="s">
+      <c r="E1035" s="3" t="s">
         <v>3259</v>
       </c>
-      <c r="F1035" s="0" t="s">
+      <c r="F1035" s="3" t="s">
         <v>3260</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="0" t="s">
+      <c r="A1036" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1036" s="0" t="s">
+      <c r="B1036" s="3" t="s">
         <v>3261</v>
       </c>
-      <c r="C1036" s="0" t="s">
+      <c r="C1036" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="D1036" s="0" t="s">
+      <c r="D1036" s="3" t="s">
         <v>3262</v>
       </c>
-      <c r="E1036" s="0" t="s">
+      <c r="E1036" s="3" t="s">
         <v>3263</v>
       </c>
-      <c r="F1036" s="0" t="s">
+      <c r="F1036" s="3" t="s">
         <v>3264</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="0" t="s">
+      <c r="A1037" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1037" s="0" t="s">
+      <c r="B1037" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="C1037" s="0" t="s">
+      <c r="C1037" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1037" s="0" t="s">
+      <c r="D1037" s="3" t="s">
         <v>3267</v>
       </c>
-      <c r="E1037" s="0" t="s">
+      <c r="E1037" s="3" t="s">
         <v>3268</v>
       </c>
-      <c r="F1037" s="0" t="s">
+      <c r="F1037" s="3" t="s">
         <v>3269</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="0" t="s">
+      <c r="A1038" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1038" s="0" t="s">
+      <c r="B1038" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="C1038" s="0" t="s">
+      <c r="C1038" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1038" s="0" t="s">
+      <c r="D1038" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="E1038" s="0" t="s">
+      <c r="E1038" s="3" t="s">
         <v>3271</v>
       </c>
-      <c r="F1038" s="0" t="s">
+      <c r="F1038" s="3" t="s">
         <v>3272</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="0" t="s">
+      <c r="A1039" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1039" s="0" t="s">
+      <c r="B1039" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="C1039" s="0" t="s">
+      <c r="C1039" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1039" s="0" t="s">
+      <c r="D1039" s="3" t="s">
         <v>3273</v>
       </c>
-      <c r="E1039" s="0" t="s">
+      <c r="E1039" s="3" t="s">
         <v>3274</v>
       </c>
-      <c r="F1039" s="0" t="s">
+      <c r="F1039" s="3" t="s">
         <v>3275</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="0" t="s">
+      <c r="A1040" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1040" s="0" t="s">
+      <c r="B1040" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="C1040" s="0" t="s">
+      <c r="C1040" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1040" s="0" t="s">
+      <c r="D1040" s="3" t="s">
         <v>3277</v>
       </c>
-      <c r="E1040" s="0" t="s">
+      <c r="E1040" s="3" t="s">
         <v>3278</v>
       </c>
-      <c r="F1040" s="0" t="s">
+      <c r="F1040" s="3" t="s">
         <v>3279</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="0" t="s">
+      <c r="A1041" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1041" s="0" t="s">
+      <c r="B1041" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="C1041" s="0" t="s">
+      <c r="C1041" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1041" s="0" t="s">
+      <c r="D1041" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="E1041" s="0" t="s">
+      <c r="E1041" s="3" t="s">
         <v>3281</v>
       </c>
-      <c r="F1041" s="0" t="s">
+      <c r="F1041" s="3" t="s">
         <v>3282</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="0" t="s">
+      <c r="A1042" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1042" s="0" t="s">
+      <c r="B1042" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="C1042" s="0" t="s">
+      <c r="C1042" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1042" s="0" t="s">
+      <c r="D1042" s="3" t="s">
         <v>3283</v>
       </c>
-      <c r="E1042" s="0" t="s">
+      <c r="E1042" s="3" t="s">
         <v>3284</v>
       </c>
-      <c r="F1042" s="0" t="s">
+      <c r="F1042" s="3" t="s">
         <v>3285</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="0" t="s">
+      <c r="A1043" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1043" s="0" t="s">
+      <c r="B1043" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="C1043" s="0" t="s">
+      <c r="C1043" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1043" s="0" t="s">
+      <c r="D1043" s="3" t="s">
         <v>3287</v>
       </c>
-      <c r="E1043" s="0" t="s">
+      <c r="E1043" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="F1043" s="0" t="s">
+      <c r="F1043" s="3" t="s">
         <v>3289</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="0" t="s">
+      <c r="A1044" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1044" s="0" t="s">
+      <c r="B1044" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="C1044" s="0" t="s">
+      <c r="C1044" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1044" s="0" t="s">
+      <c r="D1044" s="3" t="s">
         <v>3290</v>
       </c>
-      <c r="E1044" s="0" t="s">
+      <c r="E1044" s="3" t="s">
         <v>3291</v>
       </c>
-      <c r="F1044" s="0" t="s">
+      <c r="F1044" s="3" t="s">
         <v>3292</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="0" t="s">
+      <c r="A1045" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1045" s="0" t="s">
+      <c r="B1045" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="C1045" s="0" t="s">
+      <c r="C1045" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1045" s="0" t="s">
+      <c r="D1045" s="3" t="s">
         <v>3293</v>
       </c>
-      <c r="E1045" s="0" t="s">
+      <c r="E1045" s="3" t="s">
         <v>3294</v>
       </c>
-      <c r="F1045" s="0" t="s">
+      <c r="F1045" s="3" t="s">
         <v>3295</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="0" t="s">
+      <c r="A1046" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1046" s="0" t="s">
+      <c r="B1046" s="3" t="s">
         <v>3296</v>
       </c>
-      <c r="C1046" s="0" t="s">
+      <c r="C1046" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1046" s="0" t="s">
+      <c r="D1046" s="3" t="s">
         <v>3297</v>
       </c>
-      <c r="E1046" s="0" t="s">
+      <c r="E1046" s="3" t="s">
         <v>3298</v>
       </c>
-      <c r="F1046" s="0" t="s">
+      <c r="F1046" s="3" t="s">
         <v>3299</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="0" t="s">
+      <c r="A1047" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1047" s="0" t="s">
+      <c r="B1047" s="3" t="s">
         <v>3296</v>
       </c>
-      <c r="C1047" s="0" t="s">
+      <c r="C1047" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1047" s="0" t="s">
+      <c r="D1047" s="3" t="s">
         <v>3300</v>
       </c>
-      <c r="E1047" s="0" t="s">
+      <c r="E1047" s="3" t="s">
         <v>3301</v>
       </c>
-      <c r="F1047" s="0" t="s">
+      <c r="F1047" s="3" t="s">
         <v>3302</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="0" t="s">
+      <c r="A1048" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1048" s="0" t="s">
+      <c r="B1048" s="3" t="s">
         <v>3296</v>
       </c>
-      <c r="C1048" s="0" t="s">
+      <c r="C1048" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1048" s="0" t="s">
+      <c r="D1048" s="3" t="s">
         <v>3303</v>
       </c>
-      <c r="E1048" s="0" t="s">
+      <c r="E1048" s="3" t="s">
         <v>3304</v>
       </c>
-      <c r="F1048" s="0" t="s">
+      <c r="F1048" s="3" t="s">
         <v>3305</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="0" t="s">
+      <c r="A1049" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1049" s="0" t="s">
+      <c r="B1049" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="C1049" s="0" t="s">
+      <c r="C1049" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1049" s="0" t="s">
+      <c r="D1049" s="3" t="s">
         <v>3307</v>
       </c>
-      <c r="E1049" s="0" t="s">
+      <c r="E1049" s="3" t="s">
         <v>3308</v>
       </c>
-      <c r="F1049" s="0" t="s">
+      <c r="F1049" s="3" t="s">
         <v>3309</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="0" t="s">
+      <c r="A1050" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1050" s="0" t="s">
+      <c r="B1050" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="C1050" s="0" t="s">
+      <c r="C1050" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1050" s="0" t="s">
+      <c r="D1050" s="3" t="s">
         <v>3310</v>
       </c>
-      <c r="E1050" s="0" t="s">
+      <c r="E1050" s="3" t="s">
         <v>3311</v>
       </c>
-      <c r="F1050" s="0" t="s">
+      <c r="F1050" s="3" t="s">
         <v>3312</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="0" t="s">
+      <c r="A1051" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1051" s="0" t="s">
+      <c r="B1051" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="C1051" s="0" t="s">
+      <c r="C1051" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1051" s="0" t="s">
+      <c r="D1051" s="3" t="s">
         <v>3313</v>
       </c>
-      <c r="E1051" s="0" t="s">
+      <c r="E1051" s="3" t="s">
         <v>3314</v>
       </c>
-      <c r="F1051" s="0" t="s">
+      <c r="F1051" s="3" t="s">
         <v>3315</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="0" t="s">
+      <c r="A1052" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1052" s="0" t="s">
+      <c r="B1052" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="C1052" s="0" t="s">
+      <c r="C1052" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1052" s="0" t="s">
+      <c r="D1052" s="3" t="s">
         <v>3316</v>
       </c>
-      <c r="E1052" s="0" t="s">
+      <c r="E1052" s="3" t="s">
         <v>3317</v>
       </c>
-      <c r="F1052" s="0" t="s">
+      <c r="F1052" s="3" t="s">
         <v>3318</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="0" t="s">
+      <c r="A1053" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1053" s="0" t="s">
+      <c r="B1053" s="3" t="s">
         <v>3319</v>
       </c>
-      <c r="C1053" s="0" t="s">
+      <c r="C1053" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1053" s="0" t="s">
+      <c r="D1053" s="3" t="s">
         <v>3320</v>
       </c>
-      <c r="E1053" s="0" t="s">
+      <c r="E1053" s="3" t="s">
         <v>3321</v>
       </c>
-      <c r="F1053" s="0" t="s">
+      <c r="F1053" s="3" t="s">
         <v>3322</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="0" t="s">
+      <c r="A1054" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1054" s="0" t="s">
+      <c r="B1054" s="3" t="s">
         <v>3319</v>
       </c>
-      <c r="C1054" s="0" t="s">
+      <c r="C1054" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1054" s="0" t="s">
+      <c r="D1054" s="3" t="s">
         <v>3323</v>
       </c>
-      <c r="E1054" s="0" t="s">
+      <c r="E1054" s="3" t="s">
         <v>3324</v>
       </c>
-      <c r="F1054" s="0" t="s">
+      <c r="F1054" s="3" t="s">
         <v>3325</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="0" t="s">
+      <c r="A1055" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1055" s="0" t="s">
+      <c r="B1055" s="3" t="s">
         <v>3319</v>
       </c>
-      <c r="C1055" s="0" t="s">
+      <c r="C1055" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1055" s="0" t="s">
+      <c r="D1055" s="3" t="s">
         <v>3326</v>
       </c>
-      <c r="E1055" s="0" t="s">
+      <c r="E1055" s="3" t="s">
         <v>3327</v>
       </c>
-      <c r="F1055" s="0" t="s">
+      <c r="F1055" s="3" t="s">
         <v>3328</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="0" t="s">
+      <c r="A1056" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1056" s="0" t="s">
+      <c r="B1056" s="3" t="s">
         <v>3329</v>
       </c>
-      <c r="C1056" s="0" t="s">
+      <c r="C1056" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1056" s="0" t="s">
+      <c r="D1056" s="3" t="s">
         <v>3330</v>
       </c>
-      <c r="E1056" s="0" t="s">
+      <c r="E1056" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="F1056" s="0" t="s">
+      <c r="F1056" s="3" t="s">
         <v>3332</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="0" t="s">
+      <c r="A1057" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1057" s="0" t="s">
+      <c r="B1057" s="3" t="s">
         <v>3329</v>
       </c>
-      <c r="C1057" s="0" t="s">
+      <c r="C1057" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1057" s="0" t="s">
+      <c r="D1057" s="3" t="s">
         <v>3333</v>
       </c>
-      <c r="E1057" s="0" t="s">
+      <c r="E1057" s="3" t="s">
         <v>3334</v>
       </c>
-      <c r="F1057" s="0" t="s">
+      <c r="F1057" s="3" t="s">
         <v>3335</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="0" t="s">
+      <c r="A1058" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1058" s="0" t="s">
+      <c r="B1058" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="C1058" s="0" t="s">
+      <c r="C1058" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1058" s="0" t="s">
+      <c r="D1058" s="3" t="s">
         <v>3337</v>
       </c>
-      <c r="E1058" s="0" t="s">
+      <c r="E1058" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="F1058" s="0" t="s">
+      <c r="F1058" s="3" t="s">
         <v>3339</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="0" t="s">
+      <c r="A1059" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1059" s="0" t="s">
+      <c r="B1059" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="C1059" s="0" t="s">
+      <c r="C1059" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1059" s="0" t="s">
+      <c r="D1059" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="E1059" s="0" t="s">
+      <c r="E1059" s="3" t="s">
         <v>3341</v>
       </c>
-      <c r="F1059" s="0" t="s">
+      <c r="F1059" s="3" t="s">
         <v>3342</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="0" t="s">
+      <c r="A1060" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1060" s="0" t="s">
+      <c r="B1060" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="C1060" s="0" t="s">
+      <c r="C1060" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1060" s="0" t="s">
+      <c r="D1060" s="3" t="s">
         <v>3343</v>
       </c>
-      <c r="E1060" s="0" t="s">
+      <c r="E1060" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="F1060" s="0" t="s">
+      <c r="F1060" s="3" t="s">
         <v>3345</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="0" t="s">
+      <c r="A1061" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1061" s="0" t="s">
+      <c r="B1061" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="C1061" s="0" t="s">
+      <c r="C1061" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1061" s="0" t="s">
+      <c r="D1061" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="E1061" s="0" t="s">
+      <c r="E1061" s="3" t="s">
         <v>3348</v>
       </c>
-      <c r="F1061" s="0" t="s">
+      <c r="F1061" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="0" t="s">
+      <c r="A1062" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1062" s="0" t="s">
+      <c r="B1062" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="C1062" s="0" t="s">
+      <c r="C1062" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1062" s="0" t="s">
+      <c r="D1062" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="E1062" s="0" t="s">
+      <c r="E1062" s="3" t="s">
         <v>3351</v>
       </c>
-      <c r="F1062" s="0" t="s">
+      <c r="F1062" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="0" t="s">
+      <c r="A1063" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1063" s="0" t="s">
+      <c r="B1063" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="C1063" s="0" t="s">
+      <c r="C1063" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1063" s="0" t="s">
+      <c r="D1063" s="3" t="s">
         <v>3353</v>
       </c>
-      <c r="E1063" s="0" t="s">
+      <c r="E1063" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="F1063" s="0" t="s">
+      <c r="F1063" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="0" t="s">
+      <c r="A1064" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1064" s="0" t="s">
+      <c r="B1064" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="C1064" s="0" t="s">
+      <c r="C1064" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1064" s="0" t="s">
+      <c r="D1064" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="E1064" s="0" t="s">
+      <c r="E1064" s="3" t="s">
         <v>3358</v>
       </c>
-      <c r="F1064" s="0" t="s">
+      <c r="F1064" s="3" t="s">
         <v>3359</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="0" t="s">
+      <c r="A1065" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1065" s="0" t="s">
+      <c r="B1065" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="C1065" s="0" t="s">
+      <c r="C1065" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1065" s="0" t="s">
+      <c r="D1065" s="3" t="s">
         <v>3360</v>
       </c>
-      <c r="E1065" s="0" t="s">
+      <c r="E1065" s="3" t="s">
         <v>3361</v>
       </c>
-      <c r="F1065" s="0" t="s">
+      <c r="F1065" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="0" t="s">
+      <c r="A1066" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1066" s="0" t="s">
+      <c r="B1066" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="C1066" s="0" t="s">
+      <c r="C1066" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1066" s="0" t="s">
+      <c r="D1066" s="3" t="s">
         <v>3364</v>
       </c>
-      <c r="E1066" s="0" t="s">
+      <c r="E1066" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="F1066" s="0" t="s">
+      <c r="F1066" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="0" t="s">
+      <c r="A1067" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1067" s="0" t="s">
+      <c r="B1067" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C1067" s="0" t="s">
+      <c r="C1067" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1067" s="0" t="s">
+      <c r="D1067" s="3" t="s">
         <v>3368</v>
       </c>
-      <c r="E1067" s="0" t="s">
+      <c r="E1067" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="F1067" s="0" t="s">
+      <c r="F1067" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="0" t="s">
+      <c r="A1068" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1068" s="0" t="s">
+      <c r="B1068" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C1068" s="0" t="s">
+      <c r="C1068" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1068" s="0" t="s">
+      <c r="D1068" s="3" t="s">
         <v>3371</v>
       </c>
-      <c r="E1068" s="0" t="s">
+      <c r="E1068" s="3" t="s">
         <v>3372</v>
       </c>
-      <c r="F1068" s="0" t="s">
+      <c r="F1068" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="0" t="s">
+      <c r="A1069" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1069" s="0" t="s">
+      <c r="B1069" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C1069" s="0" t="s">
+      <c r="C1069" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1069" s="0" t="s">
+      <c r="D1069" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="E1069" s="0" t="s">
+      <c r="E1069" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="F1069" s="0" t="s">
+      <c r="F1069" s="3" t="s">
         <v>3376</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="0" t="s">
+      <c r="A1070" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1070" s="0" t="s">
+      <c r="B1070" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="C1070" s="0" t="s">
+      <c r="C1070" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1070" s="0" t="s">
+      <c r="D1070" s="3" t="s">
         <v>3378</v>
       </c>
-      <c r="E1070" s="0" t="s">
+      <c r="E1070" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="F1070" s="0" t="s">
+      <c r="F1070" s="3" t="s">
         <v>3380</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="0" t="s">
+      <c r="A1071" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1071" s="0" t="s">
+      <c r="B1071" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="C1071" s="0" t="s">
+      <c r="C1071" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1071" s="0" t="s">
+      <c r="D1071" s="3" t="s">
         <v>3381</v>
       </c>
-      <c r="E1071" s="0" t="s">
+      <c r="E1071" s="3" t="s">
         <v>3382</v>
       </c>
-      <c r="F1071" s="0" t="s">
+      <c r="F1071" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="0" t="s">
+      <c r="A1072" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1072" s="0" t="s">
+      <c r="B1072" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="C1072" s="0" t="s">
+      <c r="C1072" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1072" s="0" t="s">
+      <c r="D1072" s="3" t="s">
         <v>3384</v>
       </c>
-      <c r="E1072" s="0" t="s">
+      <c r="E1072" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="F1072" s="0" t="s">
+      <c r="F1072" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="0" t="s">
+      <c r="A1073" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1073" s="0" t="s">
+      <c r="B1073" s="3" t="s">
         <v>3387</v>
       </c>
-      <c r="C1073" s="0" t="s">
+      <c r="C1073" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1073" s="0" t="s">
+      <c r="D1073" s="3" t="s">
         <v>3388</v>
       </c>
-      <c r="E1073" s="0" t="s">
+      <c r="E1073" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="F1073" s="0" t="s">
+      <c r="F1073" s="3" t="s">
         <v>3390</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="0" t="s">
+      <c r="A1074" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1074" s="0" t="s">
+      <c r="B1074" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="C1074" s="0" t="s">
+      <c r="C1074" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1074" s="0" t="s">
+      <c r="D1074" s="3" t="s">
         <v>3392</v>
       </c>
-      <c r="E1074" s="0" t="s">
+      <c r="E1074" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="F1074" s="0" t="s">
+      <c r="F1074" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="0" t="s">
+      <c r="A1075" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1075" s="0" t="s">
+      <c r="B1075" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="C1075" s="0" t="s">
+      <c r="C1075" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1075" s="0" t="s">
+      <c r="D1075" s="3" t="s">
         <v>3395</v>
       </c>
-      <c r="E1075" s="0" t="s">
+      <c r="E1075" s="3" t="s">
         <v>3396</v>
       </c>
-      <c r="F1075" s="0" t="s">
+      <c r="F1075" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="0" t="s">
+      <c r="A1076" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="B1076" s="0" t="s">
+      <c r="B1076" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="C1076" s="0" t="s">
+      <c r="C1076" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="D1076" s="0" t="s">
+      <c r="D1076" s="3" t="s">
         <v>3398</v>
       </c>
-      <c r="E1076" s="0" t="s">
+      <c r="E1076" s="3" t="s">
         <v>3399</v>
       </c>
-      <c r="F1076" s="0" t="s">
+      <c r="F1076" s="3" t="s">
         <v>3400</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_vf.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6500" uniqueCount="3401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7220" uniqueCount="3761">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -10226,6 +10226,1086 @@
   </si>
   <si>
     <t xml:space="preserve">A Constituição brasileira de 1988, ao consagrar os Direitos Sociais (Art. 6º a 11), pode ser identificada como um Estado social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevância do PEM para a Economia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Huxley, em 1883, expressou a convicção de que as riquezas do mar eram inesgotáveis, um equívoco que permaneceu presente por várias décadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Huxley, em 1883, foi um dos primeiros a alertar sobre o rápido esgotamento dos recursos marinhos devido à tecnologia pesqueira avançada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huxley, em 1883, estava convencido de que não havia preocupação com a sustentabilidade da exploração marinha, pois suas riquezas seriam inesgotáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Mahan, para o desenvolvimento de potências marítimas, os governos devem canalizar seus esforços, em tempos de paz, para o desenvolvimento econômico e a construção de uma marinha capaz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan defendia que, em tempos de paz, o foco do governo deveria ser exclusivamente na aquisição de portos seguros e na expansão territorial, despriorizando o desenvolvimento econômico naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan afirmava que os governos deveriam canalizar seus esforços em tempos de paz para o desenvolvimento econômico, aquisição de "portos seguros" e a construção de uma marinha forte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter do governo e o caráter da população são elementos fundamentais da oceanopolítica de Mahan que permanecem atuais para o fomento do mar como fonte de desenvolvimento e poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter do governo e da população não são mais considerados elementos relevantes para a implementação de políticas públicas ligadas ao desenvolvimento marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dois mais importantes elementos da oceanopolítica de Mahan — o caráter do governo e o caráter da população — permanecem atuais para fomentar o mar como fonte de riqueza e poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os oceanos, que cobrem cerca de 71% da superfície da Terra, oferecem alternativas para grandes desafios globais, como a erradicação da fome e a diversificação das matrizes energéticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os oceanos ocupam menos de 50% da superfície da Terra e suas aplicações inovadoras se restringem apenas ao desenvolvimento de fármacos e à bioprospecção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os oceanos ocupam aproximadamente 71% da superfície da Terra e estão ligados à sustentabilidade da vida, oferecendo alternativas para desafios globais como a erradicação da fome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerca de 80% da população brasileira e 93% da produção industrial se localizam a até 200 km do litoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maioria da população brasileira e sua produção industrial estão concentradas em regiões centrais do país, distantes do litoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil possui mais de sete mil quilômetros de costa, e cerca de 80% da população e 93% da produção industrial se localizam até 200 km dessa faixa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil detém 5,7 milhões de km² de jurisdição marítima, chamadas de Águas Jurisdicionais Brasileiras (AJB), cujo uso otimizado é importante, visto que os recursos não são inesgotáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As águas jurisdicionais brasileiras (AJB) cobrem uma área inferior a 2 milhões de km² e a exploração de seus recursos não necessita de otimização, pois são considerados inesgotáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil possui 5,7 milhões de km² de AJB, que, se bem utilizadas, podem otimizar o uso da Economia Azul, já que os recursos vivos e não vivos não são inesgotáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A elaboração e implementação do Planejamento Espacial Marinho (PEM) no Brasil é uma ferramenta essencial para o fomento da Economia Azul e o desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho (PEM) é apenas um instrumento metodológico sem impacto direto no desenvolvimento sustentável ou no fomento da Economia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A elaboração e implementação do PEM poderá contribuir para o desenvolvimento sustentável e racional, sendo o PEM uma ferramenta política e metodológica essencial para o fomento da Economia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil pode atuar como líder político e econômico no Atlântico Sul, estabelecendo um modelo cooperativo de ações com países fronteiriços como Uruguai e França, dada a dimensão transfronteiriça do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dimensão transfronteiriça do PEM restringe a capacidade do Brasil de estabelecer modelos cooperativos com países vizinhos, como Paraguai e Argentina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil pode ser um líder político e econômico aos países lindeiros do Atlântico Sul nesse processo, estabelecendo um modelo cooperativo e integrativo de ações com países fronteiriços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é definido pela COI-UNESCO como um processo público de análise e alocação da distribuição espacial e temporal de atividades humanas em áreas marinhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é um processo privado de gestão, focado na distribuição de ecossistemas marinhos, e é estabelecido pela Organização Marítima Internacional (OMI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A COI, estabelecida no âmbito da UNESCO, define o PEM como um processo público de análise e alocação da distribuição espacial e temporal de atividades humanas em áreas marinhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A premissa do PEM é que apenas as atividades humanas em áreas marinhas podem ser planejadas e gerenciadas, e não os ecossistemas marinhos ou seus componentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal foco do PEM é o planejamento e o gerenciamento dos ecossistemas marinhos, enquanto as atividades humanas são secundárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente atividades humanas em áreas marinhas podem ser planejadas e gerenciadas, não ecossistemas marinhos ou componentes de ecossistemas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um PEM considerado eficaz deve ser integrado entre setores e agências, além de ser baseado em ecossistemas e estrategicamente antecipatório.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um PEM eficaz é caracterizado por ser isolado entre setores e reativo, focando no curto prazo e na maximização do lucro econômico imediato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um PEM eficaz deve ser integrado, baseado em ecossistemas, estratégico e antecipatório, focando no desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O manual da UNESCO sistematiza o processo do PEM em 10 passos, que constituem um processo dinâmico com ciclos de retroalimentação, e não um processo estritamente linear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os 10 passos para a condução do PEM estabelecidos pela UNESCO devem ser seguidos de maneira linear e sequencial, sem possibilidade de modificações ou feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os 10 passos do PEM não são um processo linear, e muitos ciclos de retroalimentação devem ser integrados ao processo, tornando-o dinâmico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pré-planejamento é o terceiro passo do processo de PEM da UNESCO, que antecede a participação das partes interessadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pré-planejamento é o último passo do processo do PEM, após o monitoramento e a avaliação de desempenho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O terceiro passo do processo do PEM é organizar o processo por meio do pré-planejamento, sendo que o passo 4 é proporcionar a participação das partes interessadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de desenvolvimento das dimensões do mar (superfície, submersa e aérea) é impulsionada pela tecnologia, sendo que a ciência, tecnologia e informação assumem papel fundamental no mundo contemporâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tecnologia é um fator secundário no desenvolvimento das dimensões do mar, sendo que o conhecimento empírico tradicional é o motor principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de desenvolvimento das três dimensões do mar é movida pela tecnologia, e a ciência, tecnologia e informação assumem papel fundamental no mundo contemporâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há uma migração intensa de atividades econômicas desenvolvidas em terra para as três dimensões do mar, como a exploração *offshore* de petróleo e gás e a geração de energias renováveis *offshore*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A migração de atividades econômicas para o mar tem diminuído, pois os custos de exploração *offshore* se tornaram proibitivos em comparação com as atividades terrestres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem-se observado uma migração cada vez mais intensa de atividades econômicas, como a exploração *offshore* de petróleo e gás e a geração de energias renováveis, para o mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O avanço da aquicultura inclui a substituição de cultivos *onshore* para *offshore* e o rápido desenvolvimento da algacultura, com o cultivo de algas marinhas de alto valor econômico e nutricional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aquicultura *offshore* está em declínio, sendo a algacultura uma atividade de baixo valor que não tem contribuído significativamente para o desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aquicultura tem migrado para cultivos *offshore*, com rápido avanço do cultivo de algas marinhas (algacultura) de alto valor econômico e nutricional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na maioria dos países, o zoneamento dos espaços marinhos foi realizado de forma isolada, setor por setor, sem considerar os impactos para outras atividades humanas ou para o meio ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maioria dos países realizou o zoneamento dos espaços marinhos de forma integrada e cooperativa, mitigando os impactos setoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na maior parte dos casos, o zoneamento dos espaços marinhos foi feito de forma isolada, de setor por setor, sem a devida consideração dos seus impactos para as demais atividades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação de zoneamento isolado leva a dois tipos principais de conflitos: conflitos entre usos humanos (usuário-usuário) e conflitos entre usos humanos e o meio ambiente marinho (usuário-ambiente).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O zoneamento isolado resulta apenas em conflitos entre diferentes setores econômicos, não tendo impacto significativo nos serviços ecossistêmicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação de zoneamento isolado tem levado a dois tipos principais de conflitos: usuário-usuário e usuário-ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho (PEM) surge como um processo proativo de gestão, orientado para o futuro, que permite mitigar os conflitos entre usos humanos e o meio ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é uma ferramenta essencialmente reativa, focada na resolução de crises ambientais e sociais, e não na mitigação proativa de conflitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM surge como um processo público de gestão orientado para o futuro e proativo, que permite mitigar os conflitos entre usos humanos e o meio ambiente marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é internacionalmente considerado o grande “motor propulsor” da Economia Azul de um país, pois provê a redução de incertezas jurídicas indispensáveis aos investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM aumenta as incertezas jurídicas e onera os investidores, sendo considerado um obstáculo ao desenvolvimento da Economia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é considerado o “motor propulsor” da Economia Azul, pois provê a redução de incertezas jurídicas, indispensável aos investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM teve sua origem há mais de 40 anos como uma abordagem de gestão para a conservação da natureza no Parque Marinho da Grande Barreira de Corais, na Austrália.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM foi criado no início da década de 2020 pela União Europeia como parte de um esforço regional para a harmonização da gestão costeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM começou como uma abordagem de gestão para a conservação da natureza no Parque Marinho da Grande Barreira de Corais, Austrália, há mais de 40 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início da década de 2020, 20 países tinham seus Planos de Gestão Espacial Marinho aprovados e implementados, cobrindo 22% das ZEE mundiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na década de 2020, mais de 50% das Zonas Econômicas Exclusivas (ZEE) mundiais já estavam cobertas por Planos de Gestão Espacial Marinho aprovados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início da década de 2020, 20 países tinham planos aprovados, cobrindo 22% das ZEE mundiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil dividiu a Amazônia Azul em quatro áreas geográficas (Norte, Nordeste, Sudeste e Sul) para discretizar o valor de implantação do PEM e facilitar a captação de recursos de financiamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão da Amazônia Azul em quatro áreas foi necessária devido à exigência de fóruns internacionais de que o Brasil implantasse um projeto único e simultâneo em toda a costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Amazônia Azul foi dividida em quatro áreas geográficas para discretizar o valor de implantação do PEM localmente e aumentar as chances de captação de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho (PEM) é uma das 11 Ações do X Plano Setorial para os Recursos do Mar (X PSRM), aprovado pelo Decreto nº 10.544, de 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM foi excluído do X Plano Setorial para os Recursos do Mar (X PSRM) devido aos altos custos estimados para sua implantação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM constitui uma das 11 Ações do X Plano Setorial para os Recursos do Mar (X PSRM), aprovado pelo Decreto nº 10.544 de 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Projeto Piloto do PEM no Brasil deverá iniciar na região marinha do Sul, devido a fatores como sua representatividade e a fronteira marítima com o Uruguai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A escolha do Projeto Piloto recaiu sobre a Região Nordeste, pois concentra a maior parte da produção industrial e menor número de instituições de pesquisa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comitê Executivo PEM estabeleceu que a implantação no País deverá iniciar com um Projeto Piloto na região marinha do Sul do Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A experiência adquirida com a implantação do PEM na fronteira com o Uruguai será relevante para as futuras tratativas necessárias na região Norte, devido à fronteira com a Guiana Francesa (França).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fronteira marítima com o Uruguai é irrelevante para o PEM, pois a Região Norte exige tratativas específicas apenas com a Colômbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A experiência a ser adquirida com a implantação do PEM na região fronteiriça com o Uruguai será relevante, posteriormente, para a região Norte do Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 do Projeto Piloto na Região Sul terá 12 meses de duração e será dedicada ao Mapeamento de Usos e Atividades Humanas, com a publicação de 10 Cadernos Setoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 do Projeto Piloto tem como foco exclusivo o desenvolvimento de um Geoportal de Apoio à Decisão e a elaboração de matrizes de conflitos e sinergias de usos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1, com 12 meses de duração, será dedicada ao “Mapeamento de Usos e Atividades Humanas” e à publicação de 10 Cadernos Setoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 do Projeto Piloto do PEM consiste na elaboração do Plano de Gestão Espacial Marinho e mapas de cenários futuros, a partir de oficinas de negociação intersetoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 se concentra apenas no Mapeamento de usos atuais e potenciais, sendo a Fase 1 responsável pela elaboração do Plano de Gestão Espacial Marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 é onde será elaborado o Plano de Gestão Espacial Marinho e mapas de cenários futuros, a partir de *workshops* de negociação intersetorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil assumiu um compromisso voluntário na Conferência dos Oceanos da ONU em 2017 de implantar o PEM no País até o ano de 2030.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O prazo assumido pelo Brasil na ONU para a implantação do PEM em suas águas jurisdicionais é 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil assumiu o compromisso voluntário na ONU de implantar o PEM no País até 2030.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A segurança jurídica, alcançável por meio do PEM, é fundamental para atividades econômicas de médio/longo prazo no mar, que frequentemente são amortizadas em 20 a 30 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maioria dos empreendimentos marinhos tem um curto período de amortização, de 5 a 10 anos, reduzindo a necessidade de segurança jurídica de longo prazo provida pelo PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os grandes empreendimentos marinhos são de médio/longo prazo, frequentemente amortizados em 20 a 30 anos, necessitando de segurança jurídica afiançada pelo PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% das exportações brasileiras são transportadas pelo modal marítimo, destacando a relevância da gestão do espaço marinho para a economia nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maior parte do comércio exterior brasileiro é escoada por via aérea ou terrestre, sendo o modal marítimo minoritário nas exportações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% das exportações são transportadas pelo modal marítimo, sublinhando a importância econômica do mar para o país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mar pode trazer enormes oportunidades de desenvolvimento político, econômico e social, sendo crucial que o governo não as negligencie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As oportunidades oferecidas pelo mar restringem-se majoritariamente ao desenvolvimento de fármacos e não justificam grandes investimentos políticos ou sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mar oferece enormes oportunidades de desenvolvimento político, econômico e social que devem ser aproveitadas pelos decisores políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além de ser integrado e baseado em ecossistemas, um PEM eficaz deve ser adaptativo e participativo, permitindo aprender com a experiência e envolver ativamente as partes interessadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um PEM eficaz foca primariamente em ser espacialmente explícito, sendo as características de adaptabilidade e participação consideradas secundárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre as características de um PEM eficaz, estão ser adaptativo (capaz de aprender com a experiência) e participativo (com partes interessadas ativamente envolvidas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O primeiro passo para a condução do PEM, segundo o manual da UNESCO, é identificar os fins e estabelecer as autoridades responsáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O primeiro passo do PEM é a obtenção de suporte financeiro, pois sem ele não é possível iniciar o processo de planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 1 do PEM da UNESCO é identificar os fins e estabelecer as autoridades responsáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 2 do processo de PEM da UNESCO é obter suporte financeiro para o projeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 2 do processo de PEM da UNESCO é definir e analisar as condições existentes do espaço marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O segundo passo do processo de PEM da UNESCO é obter suporte financeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho (PEM) é considerado, simultaneamente, um processo político, uma ferramenta e uma metodologia, dependendo da sua utilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é estritamente uma ferramenta metodológica de gestão espacial, não devendo ser considerado um processo político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM vai além, sendo um processo político, uma ferramenta e uma metodologia, dependendo do seu emprego e motivação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento de técnicas sensíveis para o aproveitamento dos espaços marinhos é, atualmente, restrito a potências centrais e empresas transnacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil e outros países periféricos dominam as técnicas sensíveis para exploração marinha, o que garante seu desenvolvimento sustentável autônomo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo do mar esbarra no uso de técnicas sensíveis e disponíveis às potências centrais e empresas transnacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consequência direta dos conflitos gerados pelo zoneamento isolado é o enfraquecimento da capacidade dos oceanos de fornecer serviços ecossistêmicos essenciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal impacto dos conflitos entre usos humanos no mar é o aumento do custo operacional para os setores econômicos, sem afetar significativamente os serviços ecossistêmicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os conflitos enfraquecem a capacidade dos oceanos de fornecer serviços ecossistêmicos necessários aos seres humanos e demais seres vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além da redução de incertezas jurídicas, o PEM é considerado um motor propulsor da Economia Azul por contribuir para o alcance do ODS 14 da Agenda 2030 da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM tem foco estritamente econômico e não está diretamente ligado aos Objetivos de Desenvolvimento Sustentável (ODS) da Agenda 2030 da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM contribui para o alcance dos ODS 14 (Vida marinha) da Agenda 2030 da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início da década de 2020, 26 países estavam em processo de aprovação de seus Planos de Gestão Espacial Marinho, cobrindo 25% das ZEE mundiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas um pequeno número de nações, cerca de 5 países, estava em processo de aprovação de seus PEMs no início da década de 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início da década de 2020, 26 países estavam em processo de aprovação de seus Planos, cobrindo 25% das ZEE mundiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O alerta de VIVERO (2021) indica que o PEM pode estar servindo como instrumento de reafirmação do papel do Estado no controle do espaço marinho, mas de forma fragmentada e com declínio da cooperação supranacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) afirma que o PEM tem sido a principal ferramenta para garantir a integração e cooperação supranacional na gestão dos espaços marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) alerta sobre uma percepção desviada, onde os PEMs servem para reafirmação do papel do estado de forma individualizada em setores, fragmentando ações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado para a implantação do PEM em toda a Amazônia Azul, segundo valores de 2021, é de 30 milhões de Reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo total de implantação do PEM para toda a Amazônia Azul é estimado em 50 milhões de Reais, o que exige um projeto único e simultâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado para a implantação do PEM em toda a Amazônia Azul é de 30 milhões de Reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ação PEM no Brasil é conduzida por um Comitê Executivo sob coordenação da Marinha do Brasil, no âmbito da Comissão Interministerial para os Recursos do Mar (CIRM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério do Meio Ambiente (MMA) é o único órgão responsável pela coordenação e execução da Ação PEM no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ação PEM é conduzida por um Comitê Executivo sob coordenação da Marinha do Brasil, no âmbito da CIRM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos fatores para a escolha da região Sul como Projeto Piloto do PEM foi a concentração de diversas instituições de pesquisa com tradição em estudos costeiros e marinhos, como a FURG e a UFSC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Região Sul foi escolhida por ter menos instituições de pesquisa ligadas ao mar, facilitando o início do projeto sem a interferência de múltiplos atores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concentração de diversas instituições de pesquisa com tradição em estudos costeiros e marinhos (PR, SC, RS) foi um dos fatores para a escolha da Região Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A região marinha do Sul, escolhida para o Projeto Piloto do PEM, corresponde a 13% de toda a área da Amazônia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A região marinha do Sul corresponde a mais de 30% da área total da Amazônia Azul, sendo uma área de elevada representatividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A área marinha correspondente à Região Sul representa 13% de toda a área da Amazônia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 do Projeto Piloto do PEM na Região Sul resultará na publicação de 10 Cadernos Setoriais, abrangendo temas como Aquicultura, Defesa e Turismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 foca apenas na Navegação e em Portos e não prevê a publicação de Cadernos Setoriais sobre Aquicultura ou Turismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 prevê a publicação de 10 Cadernos Setoriais, incluindo Pesca Artesanal, Aquicultura, Defesa, Turismo, Petróleo e Gás Natural, entre outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As atividades da Fase 2 do Projeto Piloto do PEM incluem a elaboração de mapas de pressões (densidade de usos) e a criação de um Geoportal de Apoio à Decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 2 tem como foco exclusivo a negociação intersetorial para elaboração do Plano de Gestão, sendo o Geoportal desenvolvido na Fase 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 2 inclui o desenvolvimento do Geoportal de Apoio à Decisão, a elaboração de mapas de pressões e serviços ecossistêmicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A replicação do modelo adotado no Projeto Piloto Sul será realizada para as demais regiões marinhas (Norte, Nordeste e Sudeste), considerando as peculiaridades de cada uma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo desenvolvido na Região Sul será aplicado de forma homogênea e padronizada nas demais regiões, sem necessidade de adaptação às peculiaridades regionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia do Comitê Executivo PEM é replicar o modelo para as demais regiões, mas considerando as peculiaridades de cada uma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos benefícios ecológicos do PEM é o subsídio para o planejamento de áreas marinhas protegidas e a identificação de áreas biológicas e ecológicas importantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios ecológicos do PEM se limitam à identificação de conflitos, sem oferecer subsídios concretos para o planejamento de áreas protegidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM oferece subsídios para o planejamento de áreas marinhas protegidas e a identificação de áreas biológicas e ecológicas importantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício econômico do PEM é a racionalização e transparência nos procedimentos de permissão e licenciamento para atividades econômicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM não interfere nos processos de licenciamento, que permanecem sendo atribuições isoladas dos órgãos ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM promove a racionalização e transparência nos procedimentos de permissão e de licenciamento das áreas para atividades econômicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício social do PEM é a identificação dos impactos das decisões sobre a alocação do espaço oceânico (como fechamento de áreas) para comunidades e economias em terra (como emprego e distribuição de renda).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios sociais do PEM são restritos à melhoria do lazer e do turismo náutico para a população costeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM permite a identificação dos impactos das decisões sobre a alocação do espaço oceânico para comunidades e economias em terra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que atividades econômicas de médio/longo prazo no mar sejam estimuladas, o Estado costeiro precisa afiançar segurança jurídica aos investidores por meio do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A segurança jurídica não é um fator relevante para o desenvolvimento de atividades econômicas no mar, dada a natureza de curto prazo desses empreendimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro precisa afiançar certa segurança jurídica aos investidores, o que pode ser alcançado por meio do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "jogo" democrático de negociação intersetorial do PEM pode resultar na criação de *hot spots* de conservação e na priorização de certos setores em situações de impasse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM exige que todos os setores tenham o mesmo tratamento e prioridade, proibindo a criação de *hot spots* ou a priorização setorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As negociações intersetoriais do PEM podem originar a necessidade da criação de *hot spots* e permitir a priorização de setores em impasses específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma das principais dificuldades na elaboração do PEM no Brasil é a falta de mentalidade marítima na sociedade brasileira e a ausência de um projeto estratégico marítimo mais forte dos governos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maior dificuldade para o PEM no Brasil reside na falta de recursos financeiros para contratar empresas estrangeiras especializadas em gestão marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de mentalidade marítima na sociedade brasileira e a falta de um projeto estratégico marítimo mais forte dos governos são deficiências destacadas para o PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Instituto Brasileiro de Geografia e Estatística (IBGE) tem um papel fundamental ao disponibilizar a Infraestrutura Nacional de Dados Espaciais (INDE) para subsidiar o PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Infraestrutura Nacional de Dados Espaciais (INDE) é gerida exclusivamente pela Marinha do Brasil e não possui participação do IBGE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A contribuição do IBGE tem sido fundamental ao disponibilizar a Infraestrutura Nacional de Dados Espaciais (INDE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE foi instituída por meio do Decreto nº 6.666 de 2008 e tem como propósito catalogar, integrar e harmonizar dados geoespaciais produzidos por instituições governamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE é um sistema recente, criado em 2020, focado apenas em dados de batimetria e geologia para exploração de petróleo e gás.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE foi instituída pelo Decreto nº 6.666 de 2008, com o propósito de catalogar, integrar e harmonizar dados geoespaciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O acesso aos valiosos dados marinhos na INDE, como batimetria e geologia, é capaz de revelar áreas de elevado potencial de exploração, até então desconhecidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Geoportal da INDE não oferece dados de alto custo, como batimetria e geologia, devido à necessidade de sigilo industrial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disponibilização de dados marinhos de alto custo na INDE, como batimetria e geologia, pode revelar áreas de elevado potencial de exploração/explotação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em fevereiro de 2021, os campos marítimos foram responsáveis por 96,7% do petróleo e 83,4% do gás natural produzidos no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A produção de petróleo e gás no Brasil é majoritariamente terrestre, com os campos *offshore* respondendo por menos de 50% da produção em 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os campos marítimos, em fevereiro de 2021, foram responsáveis por 96,7% do petróleo e 83,4% do gás natural produzidos no País.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Defesa Nacional, caracterizada como defesa militar-naval no PEM, é uma área negligenciada por pesquisadores, mas crucial para securitizar áreas de interesse e proteger contra novas ameaças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Defesa militar-naval não tem relação direta com o PEM, que se concentra em aspectos ambientais e econômicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Defesa Nacional é crucial, e investimentos em programas como SisGAAz e PROSUB podem garantir os objetivos políticos e econômicos no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A celebração do Acordo de Cooperação entre BNDES e CIRM/SECIRM, em março de 2022, foi um passo importante para viabilizar e apoiar o Projeto Piloto do PEM no Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cooperação entre o BNDES e a CIRM/SECIRM não foi concretizada, sendo o Projeto Piloto financiado integralmente por recursos privados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Acordo de Cooperação entre o BNDES e a CIRM/SECIRM, publicado em 10 de março de 2022, é um passo importante para o início do PEM brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan destacava que uma população ligada ao comércio no mar era fundamental para impulsionar o poder marítimo e naval de um país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan defendia que uma população focada apenas na agricultura era essencial, pois o comércio marítimo era uma atividade de alto risco que enfraquecia o poder nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan citava a importância de possuir uma população ligada ao comércio no mar para impulsionar o poder marítimo e naval de seu país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 5 da condução do PEM pela UNESCO é definir e analisar as condições existentes, cujo resultado é o *Plano de Situação*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 5 da condução do PEM é a implementação e o cumprimento do Plano de Gestão Espacial Marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 5 da UNESCO é definir e analisar as condições existentes, o Plano de Situação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho deve ser "Espacialmente explícito", o que significa que as localizações de usos e atividades devem ser detalhadas nos mapas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A característica de ser "Espacialmente explícito" no PEM é secundária, pois a alocação de atividades é feita apenas em termos temporais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma das características de um PEM eficaz é ser espacialmente explícito, detalhando a localização das atividades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é considerado um processo dinâmico porque os 10 passos da UNESCO preveem ciclos de retroalimentação, como a modificação de metas e objetivos iniciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é estritamente um processo linear, e as metas e objetivos iniciais não devem ser modificados após o pré-planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os 10 passos do PEM não são lineares, e ciclos de retroalimentação devem ser integrados, acomodando mudanças e tornando-o dinâmico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) argumenta que o PEM pode ser compreendido simultaneamente como um processo político, uma ferramenta e uma metodologia, dependendo de sua motivação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM deve ser interpretado estritamente como uma metodologia de alocação espacial, sem motivações político-estratégicas ou econômicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é um processo político, uma ferramenta e uma metodologia, dependendo de sua utilização, emprego e motivação (político-estratégica, econômica, social e ambiental).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Planejamento Espacial Marinho (PEM) é considerado "proativo" por permitir a seleção prévia de estratégias de gestão, evitando que tomadores de decisão apenas reajam a eventos quando é tarde demais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM é essencialmente reativo, focando em resolver conflitos de uso após sua manifestação no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM surge como um processo público de gestão orientado para o futuro, proativo, que permite mitigar conflitos e selecionar estratégias de gestão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além de reduzir incertezas jurídicas, o PEM estimula atividades sustentáveis no mar, contribuindo para a geração de empregos e divisas para o Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O foco do PEM é exclusivamente ambiental, não devendo ser usado para estimular atividades econômicas ou gerar divisas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM provê a redução de incertezas jurídicas, a geração de empregos e de divisas para o Estado costeiro, mediante o estímulo de atividades sustentáveis no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A União Europeia se comprometeu a elaborar seus Planos de Gestão Espacial Marinho até 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O prazo para a União Europeia elaborar seus Planos de Gestão Espacial Marinho é 2030, em linha com o compromisso brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Países da União Europeia se comprometeram a elaborar seus Planos de Gestão Espacial Marinho até 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) alerta que o PEM está servindo como instrumento de reafirmação do papel do Estado, mas de forma fragmentada e com declínio da cooperação supranacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) conclui que o PEM tem sido eficaz em garantir a integração e a cooperação supranacional na gestão marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVERO (2021) alerta que os planejamentos ligados ao mar estão servindo para reafirmação do papel do estado de forma individualizada, fragmentando ações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão da Amazônia Azul em quatro áreas (Norte, Nordeste, Sudeste e Sul) visa discretizar o valor de implantação, aumentando as chances de captação de recursos de menor vulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão em quatro áreas foi feita para permitir a implantação única e simultânea do PEM em toda a costa, dada a elevada necessidade de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O intuito da divisão foi discretizar o valor de implantação do PEM localmente, aumentando as chances de captação de recursos de financiamento de menor vulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado de implantação do PEM na Região Nordeste, segundo valores de 2021, é de 10 milhões de Reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo de implantação do PEM na Região Sudeste é o mais alto, atingindo 10 milhões de Reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado para a Região Nordeste é de 10 milhões de Reais, sendo o maior entre as quatro áreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A escolha da Região Sul como Projeto Piloto não foi motivada pela disponibilidade de metadados marinhos mínimos, apenas pela relevância econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos fatores para a escolha da Região Sul foi a disponibilidade de dados e de metadados marinhos mínimos para implantação do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos fatores de escolha da Região Sul foi a disponibilidade de dados e metadados marinhos mínimos para a implantação do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 do Projeto Piloto da Região Sul inclui a publicação de 10 Cadernos Setoriais sobre temas como Defesa e Meio Ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 foca apenas em atividades de alto potencial econômico, como Petróleo e Gás, e não inclui Defesa ou Meio Ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 inclui a publicação de 10 Cadernos Setoriais, abrangendo Pesca, Aquicultura, Petróleo e Gás Natural, Defesa, Turismo e Meio Ambiente, entre outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 2 do Projeto Piloto prevê a elaboração de matrizes de conflitos e sinergias de usos, bem como mapas de pressões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A elaboração da matriz de conflitos e sinergias de usos é realizada na Fase 3, durante os workshops de negociação intersetoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 2 prevê a elaboração de matrizes de conflitos e de sinergias de usos e mapas de pressões (densidade de usos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 do Projeto Piloto consiste na elaboração do Plano de Gestão Espacial Marinho e mapas de cenários futuros, a partir de oficinas de negociação intersetoriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 se concentra unicamente na validação do mapa de habitats, sendo a Fase 1 responsável pela elaboração do Plano de Gestão Marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 3 é onde será elaborado o Plano de Gestão Espacial Marinho e mapas de cenários futuros, a partir de workshops de negociação intersetorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício ecológico do PEM é a identificação e redução dos efeitos cumulativos das atividades humanas nos ecossistemas marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios ecológicos do PEM se limitam à alocação de espaço para a biodiversidade, sem abordar os efeitos cumulativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM permite a identificação e redução dos efeitos cumulativos das atividades humanas nos ecossistemas marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício econômico do PEM é a identificação de usos compatíveis dentro da mesma área de desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM foca apenas em reduzir conflitos entre usos incompatíveis, não se preocupando com a identificação de usos compatíveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício social do PEM é a identificação e melhor proteção do patrimônio cultural marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios sociais do PEM são estritamente ligados à geração de empregos e distribuição de renda, não incluindo a proteção do patrimônio cultural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício social do PEM é a identificação e melhor proteção do patrimônio cultural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O “jogo” democrático de negociação intersetorial do PEM permite que alguns setores sejam privilegiados em relação a outros em situações muito específicas de impasses econômicos e ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM, como processo democrático, exige que todos os setores tenham o mesmo peso e que a priorização de um setor em relação a outro seja proibida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há setores que podem e devem ser privilegiados em relação a outros, em situações muito específicas, em caso de impasses econômicos e ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma dificuldade na elaboração do PEM é que alguns instrumentos de governança marinha estão desatualizados ou ultrapassados, sendo inadequados diante dos desafios atuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dificuldade na elaboração do PEM reside unicamente no excesso de instrumentos de governança marinha, todos eles atualizados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convergência para o PEM deve-se ao fato de que alguns instrumentos de governança marinha estão desatualizados ou ultrapassados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Infraestrutura Nacional de Dados Espaciais (INDE) foi instituída pelo Decreto nº 6.666 de 2008.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE é um sistema recente, instituído em 2020, como parte do X Plano Setorial para os Recursos do Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE foi instituída pelo Decreto Nº 6.666 de 27 de novembro de 2008.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O propósito da INDE é catalogar, integrar e harmonizar dados geoespaciais produzidos ou mantidos por instituições governamentais brasileiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE tem como único propósito disponibilizar dados marinhos sigilosos de alto custo para a iniciativa privada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O propósito da INDE é catalogar, integrar e harmonizar dados geoespaciais produzidos ou mantidos e geridos nas instituições de governo brasileiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 2021, a produção de gás natural no Brasil era majoritariamente terrestre, enquanto a produção de petróleo vinha do mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Defesa Nacional (defesa militar-naval) é uma área crucial que, por meio de programas como o SisGAAz e PROSUB, pode garantir os objetivos políticos e econômicos no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Defesa Nacional é periférica ao PEM, que se concentra em temas de biotecnologia e turismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimentos em defesa militar-naval, em programas como SisGAAz e PROSUB, podem garantir os objetivos políticos, econômicos, sociais e ambientais no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a regulamentação do PEM no Brasil, planeja-se a publicação de uma Lei ou Decreto-lei que estabeleça as “Bases da Política de Planejamento Espacial Marinho Nacional”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regulamentação do PEM será feita exclusivamente por meio de resoluções internas da CIRM, sem necessidade de legislação federal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planeja-se a publicação de uma Lei ou Decreto-lei que estabeleça as “Bases da Política de Planejamento Espacial Marinho Nacional”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Acordo de Cooperação entre o BNDES e a CIRM/SECIRM foi celebrado em março de 2022 para apoiar estudos técnicos para a implantação do Projeto Piloto no Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Acordo de Cooperação entre BNDES e CIRM/SECIRM falhou, sendo o Projeto Piloto financiado por um órgão internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A celebração do Acordo de Cooperação entre o BNDES e a CIRM/SECIRM foi publicada em 10 de março de 2022, sendo um passo importante para o PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Naval é mais restrito e se manifesta como poder especificamente militar, enquanto o Poder Marítimo é mais abrangente, concretizado nas capacidades política, econômica e militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Marítimo e o Poder Naval são conceitos sinônimos e intercambiáveis, ambos focados na capacidade militar de uma nação usar o mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Naval é mais restrito (militar), e o Poder Marítimo é mais abrangente (capacidade política, econômica e militar de usar o mar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de "aprovisionamento" incluem a alimentação, água doce e recursos genéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de "aprovisionamento" se referem apenas à regulação do clima e purificação da água.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de “aprovisionamento” incluem alimentação, água doce, fibra, produtos bioquímicos e recursos genéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mentalidade marítima consiste no grau de conscientização da sociedade e dos decisores governamentais sobre a importância do Poder Marítimo e seus elementos constituintes para a Nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mentalidade marítima é um conceito que se aplica exclusivamente à conscientização dos membros das Forças Armadas sobre a importância do Poder Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mentalidade marítima consiste no grau de conscientização da sociedade e dos decisores governamentais sobre a importância do Poder Marítimo para a vida da Nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência oceânica inclui diversas disciplinas, abrangendo as ciências físicas, biológicas, químicas, geológicas e também as humanidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência oceânica é restrita às ciências naturais e biológicas, excluindo áreas como engenharia e humanidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência oceânica inclui todas as disciplinas relacionadas ao estudo do oceano, incluindo as ciências físicas, biológicas, geológicas, bem como a engenharia e as humanidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 237, 238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão da Amazônia Azul em quatro áreas foi uma estratégia para discretizar o custo total de **30 milhões de Reais** e aumentar as chances de captação de recursos de menor vulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Projeto de implantação do PEM na Amazônia Azul exigiria um custo único e simultâneo de **7 milhões de Reais**, o que viabilizaria um projeto sem divisão regional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado para a Amazônia Azul é de 30 milhões de Reais, o que levou à divisão regional para discretizar o valor e aumentar a chance de captação de recursos de menor vulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sexto passo do processo de PEM sistematizado pela UNESCO é a **Definição e análise das condições futuras** do espaço marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sexto passo do PEM da UNESCO é a obtenção de suporte financeiro para o projeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 6 da UNESCO é Definir e analisar as condições futuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Plano de Gestão Espacial Marinho** é preparado e aprovado no **sétimo passo** do processo sistematizado pela UNESCO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Plano de Gestão Espacial Marinho** é elaborado e aprovado no passo 5, que foca no **Plano de Situação**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 7 é Preparar e aprovar o Plano de Gestão Espacial Marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Implementação e o cumprimento** do Plano de Gestão Espacial Marinho constituem o **oitavo passo** do processo sistematizado pela UNESCO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O oitavo passo do PEM concentra-se no **Monitoramento e avaliação** de desempenho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 8 da UNESCO é Implementar e fazer cumprir o Plano de Gestão Espacial Marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Monitoramento e a avaliação de desempenho** do Plano de Gestão Espacial Marinho são realizados no **nono passo** do processo da UNESCO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nono passo do PEM é a **Adaptação do processo** de gestão espacial marinho, encerrando o ciclo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O passo 9 da UNESCO é Monitorar e avaliar o desempenho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **décimo passo** do processo de PEM da UNESCO é **Adaptar o processo** de gestão espacial marinho, reconhecendo seu caráter dinâmico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O décimo passo do PEM é a **Elaboração de mapas de cenários futuros**, que é uma atividade da Fase 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O décimo passo do PEM da UNESCO é Adaptar o processo de gestão espacial marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício econômico do PEM é o **aprimoramento da capacidade para planejar atividades humanas novas e mutáveis**, incluindo tecnologias emergentes e seus efeitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM deve focar apenas em atividades tradicionais já consolidadas, como pesca e navegação, não sendo adequado para planejar tecnologias emergentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM aprimora a capacidade para planejar atividades humanas novas e mutáveis, incluindo tecnologias emergentes e seus efeitos associados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Poder Marítimo** é mais abrangente, concretizando-se na capacidade política, econômica e militar de uma potência em usar o mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Poder Marítimo** é sinônimo de **Poder Naval**, ambos se referindo à capacidade militar-naval da Nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Marítimo é mais abrangente, envolvendo as capacidades política, econômica e militar, enquanto o Poder Naval é mais restrito (militar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de **regulação** incluem a **regulação do clima**, regulação de doenças e purificação da água.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de **regulação** são restritos à provisão de alimentos e recursos genéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de regulação incluem regulação do clima, regulação de doenças, regulação da água, purificação da água e polinização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de **apoio** incluem a **formação do solo**, ciclagem de nutrientes e produção primária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos de **apoio** são compostos por recreação, turismo e benefícios espirituais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de apoio incluem formação do solo, ciclagem de nutrientes e produção primária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos **culturais** incluem recreação, turismo e benefícios espirituais, religiosos e educacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os serviços ecossistêmicos **culturais** referem-se estritamente à produção de água doce e recursos genéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços culturais incluem recreação e turismo, bem como espiritual, religioso e benefícios educacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Ciência Oceânica** abrange as ciências físicas, biológicas, geológicas, além da **engenharia** e das **humanidades**, buscando entender os sistemas sociais e ecológicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Ciência Oceânica** exclui disciplinas como as humanidades e as ciências sociais, focando apenas em aspectos naturais e técnicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência oceânica inclui todas as disciplinas relacionadas ao estudo do oceano, incluindo a engenharia, as humanidades e as pesquisas multidisciplinares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **PROSUB** (Programa de Desenvolvimento de Submarinos) é um projeto estratégico ligado ao mar que contribui para os objetivos de defesa e securitização da Amazônia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **PROSUB** não possui relação com o PEM, pois é um programa de Defesa estritamente militar, focado na área terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As chamadas **“novas ameaças”** no Atlântico Sul, relevantes para a Defesa Nacional, incluem pirataria, pesca ilegal, tráfico de drogas e terrorismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As **“novas ameaças”** são restritas às ameaças oriundas de outros Estados (ameaças tradicionais).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As “novas ameaças” incluem pirataria, pesca ilegal, tráfico de drogas, de armas e humano, contrabando, descaminho, terrorismo e outros ilícitos transnacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Infraestrutura Nacional de Dados Espaciais (INDE)**, instituída em 2008, tem o propósito de **catalogar, integrar e harmonizar dados** geoespaciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **INDE** tem como único propósito a produção de novos dados geológicos de alto custo para exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE foi instituída em 2008 com o propósito de catalogar, integrar e harmonizar dados geoespaciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O compartilhamento e disseminação de dados geoespaciais na **INDE** é **obrigatório** para todos os órgãos e entidades do **Poder Executivo federal**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O compartilhamento de dados na INDE é **voluntário** para todos os órgãos do Poder Executivo, independentemente do nível de governo (federal, estadual, municipal).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O compartilhamento é obrigatório para todos os órgãos do Poder Executivo federal e voluntário para os demais níveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os conflitos gerados pelo zoneamento isolado enfraquecem a capacidade dos oceanos de fornecer **serviços ecossistêmicos** essenciais à vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O enfraquecimento dos serviços ecossistêmicos não é uma consequência dos conflitos entre usos humanos, mas sim da poluição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **convergência de instrumentos de governança** marinha para o PEM é desejada porque muitos desses instrumentos estão **desatualizados ou ultrapassados**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convergência para o PEM ocorre para unificar instrumentos de governança que são extremamente modernos e eficientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Fase 1** do Projeto Piloto no Sul inclui a elaboração do **Mapa de restrições legais** e a **Disponibilização de camadas na INDE**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As atividades de disponibilização de camadas na INDE são reservadas exclusivamente para a Fase 3 do projeto, após a aprovação do Plano de Gestão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 1 inclui o Mapa de restrições legais e a Disponibilização de camadas na INDE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Mapa de habitats pelágicos e bentônicos** é elaborado como um *draft* (rascunho) na Fase 1 e validado em um *workshop* de pesquisadores na Fase 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A validação do mapa de habitats é realizada na Fase 3, junto com os *workshops* de negociação intersetorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Mapa de habitats pelágicos e bentônicos (draft) é da Fase 1, e a Validação do mapa de habitats (Workshop pesquisadores) é da Fase 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **Fase 2** do Projeto Piloto contempla a **elaboração de Matrizes de conflitos e sinergias de usos** e **Mapas de pressões (densidade de usos)**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Matrizes de conflitos e sinergias de usos são elaboradas apenas na Fase 3, durante as oficinas de negociação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase 2 inclui a Matriz de conflitos e sinergias de usos e o Mapa de pressões (densidade de usos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de desenvolvimento das três dimensões do mar (superfície, submersa e aérea) é **movida pela tecnologia**, que assume papel fundamental no mundo contemporâneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento das dimensões do mar é impulsionado principalmente pela exploração empírica e pela legislação, e não pela tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de desenvolvimento das três dimensões do mar é movida pela tecnologia, sendo que ciência, tecnologia e informação assumem papel fundamental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício econômico do PEM é a **promoção do uso eficiente dos recursos e do espaço marinho**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM foca na conservação e não tem impacto direto na promoção do uso eficiente dos recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um benefício econômico do PEM é a promoção do uso eficiente dos recursos e do espaço marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **INDE** tem o compromisso de **salvaguardar os dados sigilosos** das instituições, bem como os de relevância para a Segurança Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A natureza pública da INDE impede que ela armazene dados sigilosos, que devem ser mantidos apenas pelas Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A INDE se compromete a salvaguardar os dados sigilosos das instituições, bem como os de relevância para a Segurança Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A implementação do PEM contribui para o alcance dos **ODS 14 (Vida marinha)** da Agenda 2030 da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PEM não possui ligação direta com a Agenda 2030, pois seu foco é estritamente na regulação econômica e jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O “jogo” democrático de negociação intersetorial do PEM deve ser buscado para **converter conflitos em oportunidades**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O principal objetivo da negociação intersetorial é garantir que todos os setores sejam tratados de forma idêntica, independentemente dos impasses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O “jogo” democrático deve ser buscado para que se convertam conflitos em oportunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Acordo de Cooperação entre o BNDES e a CIRM/SECIRM** em 2022 visa apoiar e acompanhar **estudos técnicos** para a implantação do Projeto Piloto no Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Acordo de Cooperação entre BNDES e CIRM/SECIRM foi estabelecido para fornecer recursos exclusivamente para a **compra de equipamentos** de monitoramento oceânico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Acordo de Cooperação foi para viabilizar, apoiar e acompanhar estudos técnicos para a implantação do Projeto Piloto do PEM na Região Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de uma maior **interação entre os setores** ligados ao mar é uma dificuldade na elaboração do PEM, que precisa ser resolvida para mitigar controvérsias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de interação entre setores é irrelevante, pois o PEM é conduzido por um Comitê Executivo centralizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de uma maior interação entre os setores ligados ao mar é lamentada como dificuldade, pois impede a resolução de controvérsias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A região marinha do **Nordeste** possui o **maior custo estimado de implantação** do PEM entre as quatro áreas, totalizando 10 milhões de Reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A região marinha do **Sul** é a que tem o maior custo estimado de implantação, devido à complexidade da fronteira com o Uruguai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os atores **transnacionais** possuem grande interesse em recursos de países periféricos, e investimentos unicamente privados podem gerar **priorizações não racionais** no ecossistema marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O interesse de atores transnacionais é sempre benéfico, pois garante que a exploração dos recursos marinhos seja feita de forma racional e sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atores transnacionais possuem grande interesse em recursos dos países periféricos, e investimentos unicamente privados podem ocasionar em priorizações não tão racionais.</t>
   </si>
 </sst>
 </file>
@@ -10494,8 +11574,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A805" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1037" activeCellId="0" sqref="A1037"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1177" activeCellId="0" sqref="A1177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32817,6 +33897,2646 @@
       <c r="F1076" s="3" t="s">
         <v>3400</v>
       </c>
+    </row>
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1077" s="0" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C1077" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1077" s="0" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E1077" s="0" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F1077" s="0" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G1077" s="0"/>
+      <c r="H1077" s="0"/>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1078" s="0" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C1078" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1078" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E1078" s="0" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F1078" s="0" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G1078" s="0"/>
+      <c r="H1078" s="0"/>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1079" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1079" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1079" s="0" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E1079" s="0" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F1079" s="0" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G1079" s="0"/>
+      <c r="H1079" s="0"/>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1080" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1080" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1080" s="0" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E1080" s="0" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F1080" s="0" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G1080" s="0"/>
+      <c r="H1080" s="0"/>
+    </row>
+    <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1081" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1081" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1081" s="0" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E1081" s="0" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F1081" s="0" t="s">
+        <v>3418</v>
+      </c>
+      <c r="G1081" s="0"/>
+      <c r="H1081" s="0"/>
+    </row>
+    <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1082" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1082" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1082" s="0" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E1082" s="0" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F1082" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="G1082" s="0"/>
+      <c r="H1082" s="0"/>
+    </row>
+    <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1083" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1083" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1083" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E1083" s="0" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F1083" s="0" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G1083" s="0"/>
+      <c r="H1083" s="0"/>
+    </row>
+    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1084" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1084" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1084" s="0" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E1084" s="0" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F1084" s="0" t="s">
+        <v>3427</v>
+      </c>
+      <c r="G1084" s="0"/>
+      <c r="H1084" s="0"/>
+    </row>
+    <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1085" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1085" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1085" s="0" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E1085" s="0" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F1085" s="0" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G1085" s="0"/>
+      <c r="H1085" s="0"/>
+    </row>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1086" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1086" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1086" s="0" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E1086" s="0" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F1086" s="0" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G1086" s="0"/>
+      <c r="H1086" s="0"/>
+    </row>
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1087" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1087" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1087" s="0" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E1087" s="0" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F1087" s="0" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G1087" s="0"/>
+      <c r="H1087" s="0"/>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1088" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1088" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1088" s="0" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E1088" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F1088" s="0" t="s">
+        <v>3439</v>
+      </c>
+      <c r="G1088" s="0"/>
+      <c r="H1088" s="0"/>
+    </row>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1089" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1089" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1089" s="0" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E1089" s="0" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F1089" s="0" t="s">
+        <v>3442</v>
+      </c>
+      <c r="G1089" s="0"/>
+      <c r="H1089" s="0"/>
+    </row>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1090" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1090" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1090" s="0" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E1090" s="0" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F1090" s="0" t="s">
+        <v>3445</v>
+      </c>
+      <c r="G1090" s="0"/>
+      <c r="H1090" s="0"/>
+    </row>
+    <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1091" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1091" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1091" s="0" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E1091" s="0" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1091" s="0" t="s">
+        <v>3448</v>
+      </c>
+      <c r="G1091" s="0"/>
+      <c r="H1091" s="0"/>
+    </row>
+    <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1092" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1092" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1092" s="0" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E1092" s="0" t="s">
+        <v>3450</v>
+      </c>
+      <c r="F1092" s="0" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G1092" s="0"/>
+      <c r="H1092" s="0"/>
+    </row>
+    <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1093" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1093" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1093" s="0" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E1093" s="0" t="s">
+        <v>3453</v>
+      </c>
+      <c r="F1093" s="0" t="s">
+        <v>3454</v>
+      </c>
+      <c r="G1093" s="0"/>
+      <c r="H1093" s="0"/>
+    </row>
+    <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1094" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1094" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1094" s="0" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E1094" s="0" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F1094" s="0" t="s">
+        <v>3457</v>
+      </c>
+      <c r="G1094" s="0"/>
+      <c r="H1094" s="0"/>
+    </row>
+    <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1095" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1095" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1095" s="0" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E1095" s="0" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F1095" s="0" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G1095" s="0"/>
+      <c r="H1095" s="0"/>
+    </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1096" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1096" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1096" s="0" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E1096" s="0" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F1096" s="0" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G1096" s="0"/>
+      <c r="H1096" s="0"/>
+    </row>
+    <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1097" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1097" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1097" s="0" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E1097" s="0" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F1097" s="0" t="s">
+        <v>3466</v>
+      </c>
+      <c r="G1097" s="0"/>
+      <c r="H1097" s="0"/>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1098" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1098" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1098" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E1098" s="0" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F1098" s="0" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G1098" s="0"/>
+      <c r="H1098" s="0"/>
+    </row>
+    <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1099" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1099" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1099" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E1099" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1099" s="0" t="s">
+        <v>3472</v>
+      </c>
+      <c r="G1099" s="0"/>
+      <c r="H1099" s="0"/>
+    </row>
+    <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1100" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1100" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1100" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E1100" s="0" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F1100" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G1100" s="0"/>
+      <c r="H1100" s="0"/>
+    </row>
+    <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1101" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1101" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1101" s="0" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E1101" s="0" t="s">
+        <v>3477</v>
+      </c>
+      <c r="F1101" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="G1101" s="0"/>
+      <c r="H1101" s="0"/>
+    </row>
+    <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1102" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1102" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1102" s="0" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E1102" s="0" t="s">
+        <v>3480</v>
+      </c>
+      <c r="F1102" s="0" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1102" s="0"/>
+      <c r="H1102" s="0"/>
+    </row>
+    <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1103" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1103" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1103" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1103" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="F1103" s="0" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G1103" s="0"/>
+      <c r="H1103" s="0"/>
+    </row>
+    <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1104" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1104" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1104" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E1104" s="0" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F1104" s="0" t="s">
+        <v>3487</v>
+      </c>
+      <c r="G1104" s="0"/>
+      <c r="H1104" s="0"/>
+    </row>
+    <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1105" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1105" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1105" s="0" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E1105" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F1105" s="0" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1105" s="0"/>
+      <c r="H1105" s="0"/>
+    </row>
+    <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1106" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1106" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1106" s="0" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E1106" s="0" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F1106" s="0" t="s">
+        <v>3493</v>
+      </c>
+      <c r="G1106" s="0"/>
+      <c r="H1106" s="0"/>
+    </row>
+    <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1107" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1107" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1107" s="0" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E1107" s="0" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F1107" s="0" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G1107" s="0"/>
+      <c r="H1107" s="0"/>
+    </row>
+    <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1108" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1108" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1108" s="0" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E1108" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F1108" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G1108" s="0"/>
+      <c r="H1108" s="0"/>
+    </row>
+    <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1109" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1109" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1109" s="0" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E1109" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1109" s="0" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G1109" s="0"/>
+      <c r="H1109" s="0"/>
+    </row>
+    <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1110" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1110" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1110" s="0" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E1110" s="0" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F1110" s="0" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G1110" s="0"/>
+      <c r="H1110" s="0"/>
+    </row>
+    <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1111" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1111" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1111" s="0" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E1111" s="0" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F1111" s="0" t="s">
+        <v>3508</v>
+      </c>
+      <c r="G1111" s="0"/>
+      <c r="H1111" s="0"/>
+    </row>
+    <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1112" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1112" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1112" s="0" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E1112" s="0" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F1112" s="0" t="s">
+        <v>3511</v>
+      </c>
+      <c r="G1112" s="0"/>
+      <c r="H1112" s="0"/>
+    </row>
+    <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1113" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1113" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1113" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E1113" s="0" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F1113" s="0" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G1113" s="0"/>
+      <c r="H1113" s="0"/>
+    </row>
+    <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1114" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1114" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1114" s="0" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E1114" s="0" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1114" s="0" t="s">
+        <v>3517</v>
+      </c>
+      <c r="G1114" s="0"/>
+      <c r="H1114" s="0"/>
+    </row>
+    <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1115" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1115" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1115" s="0" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E1115" s="0" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F1115" s="0" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G1115" s="0"/>
+      <c r="H1115" s="0"/>
+    </row>
+    <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1116" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1116" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1116" s="0" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1116" s="0" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F1116" s="0" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G1116" s="0"/>
+      <c r="H1116" s="0"/>
+    </row>
+    <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1117" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1117" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1117" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E1117" s="0" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F1117" s="0" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G1117" s="0"/>
+      <c r="H1117" s="0"/>
+    </row>
+    <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1118" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1118" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1118" s="0" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1118" s="0" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F1118" s="0" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G1118" s="0"/>
+      <c r="H1118" s="0"/>
+    </row>
+    <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1119" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1119" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1119" s="0" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E1119" s="0" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F1119" s="0" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G1119" s="0"/>
+      <c r="H1119" s="0"/>
+    </row>
+    <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1120" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1120" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1120" s="0" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E1120" s="0" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1120" s="0" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G1120" s="0"/>
+      <c r="H1120" s="0"/>
+    </row>
+    <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1121" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1121" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1121" s="0" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E1121" s="0" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F1121" s="0" t="s">
+        <v>3538</v>
+      </c>
+      <c r="G1121" s="0"/>
+      <c r="H1121" s="0"/>
+    </row>
+    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1122" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1122" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1122" s="0" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E1122" s="0" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1122" s="0" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G1122" s="0"/>
+      <c r="H1122" s="0"/>
+    </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1123" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1123" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1123" s="0" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E1123" s="0" t="s">
+        <v>3543</v>
+      </c>
+      <c r="F1123" s="0" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G1123" s="0"/>
+      <c r="H1123" s="0"/>
+    </row>
+    <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1124" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1124" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1124" s="0" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E1124" s="0" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F1124" s="0" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G1124" s="0"/>
+      <c r="H1124" s="0"/>
+    </row>
+    <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1125" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1125" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1125" s="0" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E1125" s="0" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F1125" s="0" t="s">
+        <v>3550</v>
+      </c>
+      <c r="G1125" s="0"/>
+      <c r="H1125" s="0"/>
+    </row>
+    <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1126" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1126" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1126" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E1126" s="0" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F1126" s="0" t="s">
+        <v>3553</v>
+      </c>
+      <c r="G1126" s="0"/>
+      <c r="H1126" s="0"/>
+    </row>
+    <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1127" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1127" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1127" s="0" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E1127" s="0" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F1127" s="0" t="s">
+        <v>3556</v>
+      </c>
+      <c r="G1127" s="0"/>
+      <c r="H1127" s="0"/>
+    </row>
+    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1128" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1128" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1128" s="0" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E1128" s="0" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F1128" s="0" t="s">
+        <v>3559</v>
+      </c>
+      <c r="G1128" s="0"/>
+      <c r="H1128" s="0"/>
+    </row>
+    <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1129" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1129" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1129" s="0" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E1129" s="0" t="s">
+        <v>3561</v>
+      </c>
+      <c r="F1129" s="0" t="s">
+        <v>3562</v>
+      </c>
+      <c r="G1129" s="0"/>
+      <c r="H1129" s="0"/>
+    </row>
+    <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1130" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1130" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1130" s="0" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E1130" s="0" t="s">
+        <v>3564</v>
+      </c>
+      <c r="F1130" s="0" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G1130" s="0"/>
+      <c r="H1130" s="0"/>
+    </row>
+    <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1131" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1131" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1131" s="0" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E1131" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F1131" s="0" t="s">
+        <v>3568</v>
+      </c>
+      <c r="G1131" s="0"/>
+      <c r="H1131" s="0"/>
+    </row>
+    <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1132" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1132" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1132" s="0" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1132" s="0" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F1132" s="0" t="s">
+        <v>3571</v>
+      </c>
+      <c r="G1132" s="0"/>
+      <c r="H1132" s="0"/>
+    </row>
+    <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1133" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1133" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1133" s="0" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E1133" s="0" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F1133" s="0" t="s">
+        <v>3574</v>
+      </c>
+      <c r="G1133" s="0"/>
+      <c r="H1133" s="0"/>
+    </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1134" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1134" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1134" s="0" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E1134" s="0" t="s">
+        <v>3576</v>
+      </c>
+      <c r="F1134" s="0" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G1134" s="0"/>
+      <c r="H1134" s="0"/>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1135" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1135" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1135" s="0" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E1135" s="0" t="s">
+        <v>3580</v>
+      </c>
+      <c r="F1135" s="0" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G1135" s="0"/>
+      <c r="H1135" s="0"/>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1136" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1136" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1136" s="0" t="s">
+        <v>3582</v>
+      </c>
+      <c r="E1136" s="0" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F1136" s="0" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G1136" s="0"/>
+      <c r="H1136" s="0"/>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1137" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1137" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1137" s="0" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E1137" s="0" t="s">
+        <v>3586</v>
+      </c>
+      <c r="F1137" s="0" t="s">
+        <v>3587</v>
+      </c>
+      <c r="G1137" s="0"/>
+      <c r="H1137" s="0"/>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1138" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1138" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1138" s="0" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E1138" s="0" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F1138" s="0" t="s">
+        <v>3590</v>
+      </c>
+      <c r="G1138" s="0"/>
+      <c r="H1138" s="0"/>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1139" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1139" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1139" s="0" t="s">
+        <v>3591</v>
+      </c>
+      <c r="E1139" s="0" t="s">
+        <v>3592</v>
+      </c>
+      <c r="F1139" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="G1139" s="0"/>
+      <c r="H1139" s="0"/>
+    </row>
+    <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1140" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1140" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1140" s="0" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E1140" s="0" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F1140" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="G1140" s="0"/>
+      <c r="H1140" s="0"/>
+    </row>
+    <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1141" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1141" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1141" s="0" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E1141" s="0" t="s">
+        <v>3598</v>
+      </c>
+      <c r="F1141" s="0" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G1141" s="0"/>
+      <c r="H1141" s="0"/>
+    </row>
+    <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1142" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1142" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1142" s="0" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E1142" s="0" t="s">
+        <v>3601</v>
+      </c>
+      <c r="F1142" s="0" t="s">
+        <v>3602</v>
+      </c>
+      <c r="G1142" s="0"/>
+      <c r="H1142" s="0"/>
+    </row>
+    <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1143" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1143" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1143" s="0" t="s">
+        <v>3603</v>
+      </c>
+      <c r="E1143" s="0" t="s">
+        <v>3604</v>
+      </c>
+      <c r="F1143" s="0" t="s">
+        <v>3605</v>
+      </c>
+      <c r="G1143" s="0"/>
+      <c r="H1143" s="0"/>
+    </row>
+    <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1144" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1144" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1144" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E1144" s="0" t="s">
+        <v>3607</v>
+      </c>
+      <c r="F1144" s="0" t="s">
+        <v>3608</v>
+      </c>
+      <c r="G1144" s="0"/>
+      <c r="H1144" s="0"/>
+    </row>
+    <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1145" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1145" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1145" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E1145" s="0" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F1145" s="0" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G1145" s="0"/>
+      <c r="H1145" s="0"/>
+    </row>
+    <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1146" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1146" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1146" s="0" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1146" s="0" t="s">
+        <v>3613</v>
+      </c>
+      <c r="F1146" s="0" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G1146" s="0"/>
+      <c r="H1146" s="0"/>
+    </row>
+    <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1147" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1147" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1147" s="0" t="s">
+        <v>3615</v>
+      </c>
+      <c r="E1147" s="0" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F1147" s="0" t="s">
+        <v>3617</v>
+      </c>
+      <c r="G1147" s="0"/>
+      <c r="H1147" s="0"/>
+    </row>
+    <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1148" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1148" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1148" s="0" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E1148" s="0" t="s">
+        <v>3619</v>
+      </c>
+      <c r="F1148" s="0" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G1148" s="0"/>
+      <c r="H1148" s="0"/>
+    </row>
+    <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1149" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1149" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1149" s="0" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E1149" s="0" t="s">
+        <v>3622</v>
+      </c>
+      <c r="F1149" s="0" t="s">
+        <v>3623</v>
+      </c>
+      <c r="G1149" s="0"/>
+      <c r="H1149" s="0"/>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1150" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1150" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1150" s="0" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E1150" s="0" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F1150" s="0" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G1150" s="0"/>
+      <c r="H1150" s="0"/>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1151" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1151" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1151" s="0" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E1151" s="0" t="s">
+        <v>3628</v>
+      </c>
+      <c r="F1151" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="G1151" s="0"/>
+      <c r="H1151" s="0"/>
+    </row>
+    <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1152" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1152" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1152" s="0" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E1152" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="F1152" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="G1152" s="0"/>
+      <c r="H1152" s="0"/>
+    </row>
+    <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1153" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1153" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1153" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E1153" s="0" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1153" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="G1153" s="0"/>
+      <c r="H1153" s="0"/>
+    </row>
+    <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1154" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1154" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1154" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E1154" s="0" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F1154" s="0" t="s">
+        <v>3637</v>
+      </c>
+      <c r="G1154" s="0"/>
+      <c r="H1154" s="0"/>
+    </row>
+    <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1155" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1155" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1155" s="0" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E1155" s="0" t="s">
+        <v>3639</v>
+      </c>
+      <c r="F1155" s="0" t="s">
+        <v>3640</v>
+      </c>
+      <c r="G1155" s="0"/>
+      <c r="H1155" s="0"/>
+    </row>
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1156" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1156" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1156" s="0" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E1156" s="0" t="s">
+        <v>3642</v>
+      </c>
+      <c r="F1156" s="0" t="s">
+        <v>3643</v>
+      </c>
+      <c r="G1156" s="0"/>
+      <c r="H1156" s="0"/>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1157" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1157" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1157" s="0" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E1157" s="0" t="s">
+        <v>3645</v>
+      </c>
+      <c r="F1157" s="0" t="s">
+        <v>3646</v>
+      </c>
+      <c r="G1157" s="0"/>
+      <c r="H1157" s="0"/>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1158" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1158" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1158" s="0" t="s">
+        <v>3647</v>
+      </c>
+      <c r="E1158" s="0" t="s">
+        <v>3648</v>
+      </c>
+      <c r="F1158" s="0" t="s">
+        <v>3649</v>
+      </c>
+      <c r="G1158" s="0"/>
+      <c r="H1158" s="0"/>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1159" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1159" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1159" s="0" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E1159" s="0" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F1159" s="0" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G1159" s="0"/>
+      <c r="H1159" s="0"/>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1160" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1160" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1160" s="0" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E1160" s="0" t="s">
+        <v>3652</v>
+      </c>
+      <c r="F1160" s="0" t="s">
+        <v>3653</v>
+      </c>
+      <c r="G1160" s="0"/>
+      <c r="H1160" s="0"/>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1161" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1161" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1161" s="0" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E1161" s="0" t="s">
+        <v>3655</v>
+      </c>
+      <c r="F1161" s="0" t="s">
+        <v>3656</v>
+      </c>
+      <c r="G1161" s="0"/>
+      <c r="H1161" s="0"/>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1162" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1162" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1162" s="0" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E1162" s="0" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F1162" s="0" t="s">
+        <v>3659</v>
+      </c>
+      <c r="G1162" s="0"/>
+      <c r="H1162" s="0"/>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1163" s="0" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1163" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1163" s="0" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E1163" s="0" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F1163" s="0" t="s">
+        <v>3663</v>
+      </c>
+      <c r="G1163" s="0"/>
+      <c r="H1163" s="0"/>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1164" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1164" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1164" s="0" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E1164" s="0" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F1164" s="0" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1164" s="0"/>
+      <c r="H1164" s="0"/>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1165" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1165" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1165" s="0" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E1165" s="0" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F1165" s="0" t="s">
+        <v>3670</v>
+      </c>
+      <c r="G1165" s="0"/>
+      <c r="H1165" s="0"/>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1166" s="0" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1166" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1166" s="0" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E1166" s="0" t="s">
+        <v>3673</v>
+      </c>
+      <c r="F1166" s="0" t="s">
+        <v>3674</v>
+      </c>
+      <c r="G1166" s="0"/>
+      <c r="H1166" s="0"/>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1167" s="0" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1167" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1167" s="0" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1167" s="0" t="s">
+        <v>3677</v>
+      </c>
+      <c r="F1167" s="0" t="s">
+        <v>3678</v>
+      </c>
+      <c r="G1167" s="0"/>
+      <c r="H1167" s="0"/>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1168" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1168" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1168" s="0" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E1168" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F1168" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="G1168" s="0"/>
+      <c r="H1168" s="0"/>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1169" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1169" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1169" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E1169" s="0" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F1169" s="0" t="s">
+        <v>3684</v>
+      </c>
+      <c r="G1169" s="0"/>
+      <c r="H1169" s="0"/>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1170" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1170" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1170" s="0" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E1170" s="0" t="s">
+        <v>3686</v>
+      </c>
+      <c r="F1170" s="0" t="s">
+        <v>3687</v>
+      </c>
+      <c r="G1170" s="0"/>
+      <c r="H1170" s="0"/>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1171" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1171" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1171" s="0" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1171" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="F1171" s="0" t="s">
+        <v>3690</v>
+      </c>
+      <c r="G1171" s="0"/>
+      <c r="H1171" s="0"/>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1172" s="0" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1172" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1172" s="0" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E1172" s="0" t="s">
+        <v>3692</v>
+      </c>
+      <c r="F1172" s="0" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G1172" s="0"/>
+      <c r="H1172" s="0"/>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1173" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1173" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1173" s="0" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1173" s="0" t="s">
+        <v>3695</v>
+      </c>
+      <c r="F1173" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="G1173" s="0"/>
+      <c r="H1173" s="0"/>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1174" s="0" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1174" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1174" s="0" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E1174" s="0" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1174" s="0" t="s">
+        <v>3699</v>
+      </c>
+      <c r="G1174" s="0"/>
+      <c r="H1174" s="0"/>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1175" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1175" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1175" s="0" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E1175" s="0" t="s">
+        <v>3701</v>
+      </c>
+      <c r="F1175" s="0" t="s">
+        <v>3702</v>
+      </c>
+      <c r="G1175" s="0"/>
+      <c r="H1175" s="0"/>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1176" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1176" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1176" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E1176" s="0" t="s">
+        <v>3704</v>
+      </c>
+      <c r="F1176" s="0" t="s">
+        <v>3705</v>
+      </c>
+      <c r="G1176" s="0"/>
+      <c r="H1176" s="0"/>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1177" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1177" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1177" s="0" t="s">
+        <v>3706</v>
+      </c>
+      <c r="E1177" s="0" t="s">
+        <v>3707</v>
+      </c>
+      <c r="F1177" s="0" t="s">
+        <v>3708</v>
+      </c>
+      <c r="G1177" s="0"/>
+      <c r="H1177" s="0"/>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1178" s="0" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1178" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1178" s="0" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E1178" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="F1178" s="0" t="s">
+        <v>3711</v>
+      </c>
+      <c r="G1178" s="0"/>
+      <c r="H1178" s="0"/>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1179" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1179" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1179" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E1179" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F1179" s="0" t="s">
+        <v>3653</v>
+      </c>
+      <c r="G1179" s="0"/>
+      <c r="H1179" s="0"/>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1180" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1180" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1180" s="0" t="s">
+        <v>3714</v>
+      </c>
+      <c r="E1180" s="0" t="s">
+        <v>3715</v>
+      </c>
+      <c r="F1180" s="0" t="s">
+        <v>3716</v>
+      </c>
+      <c r="G1180" s="0"/>
+      <c r="H1180" s="0"/>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1181" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1181" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1181" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="E1181" s="0" t="s">
+        <v>3718</v>
+      </c>
+      <c r="F1181" s="0" t="s">
+        <v>3719</v>
+      </c>
+      <c r="G1181" s="0"/>
+      <c r="H1181" s="0"/>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1182" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1182" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1182" s="0" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E1182" s="0" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F1182" s="0" t="s">
+        <v>3722</v>
+      </c>
+      <c r="G1182" s="0"/>
+      <c r="H1182" s="0"/>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1183" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1183" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1183" s="0" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E1183" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="F1183" s="0" t="s">
+        <v>3517</v>
+      </c>
+      <c r="G1183" s="0"/>
+      <c r="H1183" s="0"/>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1184" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1184" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1184" s="0" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E1184" s="0" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F1184" s="0" t="s">
+        <v>3643</v>
+      </c>
+      <c r="G1184" s="0"/>
+      <c r="H1184" s="0"/>
+    </row>
+    <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1185" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1185" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1185" s="0" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E1185" s="0" t="s">
+        <v>3728</v>
+      </c>
+      <c r="F1185" s="0" t="s">
+        <v>3729</v>
+      </c>
+      <c r="G1185" s="0"/>
+      <c r="H1185" s="0"/>
+    </row>
+    <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1186" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1186" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1186" s="0" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E1186" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F1186" s="0" t="s">
+        <v>3732</v>
+      </c>
+      <c r="G1186" s="0"/>
+      <c r="H1186" s="0"/>
+    </row>
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1187" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C1187" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1187" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E1187" s="0" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F1187" s="0" t="s">
+        <v>3735</v>
+      </c>
+      <c r="G1187" s="0"/>
+      <c r="H1187" s="0"/>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1188" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1188" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1188" s="0" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E1188" s="0" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F1188" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="G1188" s="0"/>
+      <c r="H1188" s="0"/>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1189" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C1189" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1189" s="0" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E1189" s="0" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F1189" s="0" t="s">
+        <v>3741</v>
+      </c>
+      <c r="G1189" s="0"/>
+      <c r="H1189" s="0"/>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1190" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1190" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1190" s="0" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E1190" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="F1190" s="0" t="s">
+        <v>3744</v>
+      </c>
+      <c r="G1190" s="0"/>
+      <c r="H1190" s="0"/>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1191" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1191" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1191" s="0" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E1191" s="0" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F1191" s="0" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G1191" s="0"/>
+      <c r="H1191" s="0"/>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1192" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1192" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1192" s="0" t="s">
+        <v>3747</v>
+      </c>
+      <c r="E1192" s="0" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F1192" s="0" t="s">
+        <v>3749</v>
+      </c>
+      <c r="G1192" s="0"/>
+      <c r="H1192" s="0"/>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1193" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1193" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1193" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E1193" s="0" t="s">
+        <v>3751</v>
+      </c>
+      <c r="F1193" s="0" t="s">
+        <v>3752</v>
+      </c>
+      <c r="G1193" s="0"/>
+      <c r="H1193" s="0"/>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1194" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1194" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1194" s="0" t="s">
+        <v>3753</v>
+      </c>
+      <c r="E1194" s="0" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F1194" s="0" t="s">
+        <v>3755</v>
+      </c>
+      <c r="G1194" s="0"/>
+      <c r="H1194" s="0"/>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1195" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1195" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1195" s="0" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E1195" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F1195" s="0" t="s">
+        <v>3617</v>
+      </c>
+      <c r="G1195" s="0"/>
+      <c r="H1195" s="0"/>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1196" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1196" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1196" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E1196" s="0" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F1196" s="0" t="s">
+        <v>3760</v>
+      </c>
+      <c r="G1196" s="0"/>
+      <c r="H1196" s="0"/>
     </row>
     <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
